--- a/STR.xlsx
+++ b/STR.xlsx
@@ -20,7 +20,20 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B67">
+    <comment authorId="0" ref="C17">
+      <text>
+        <t xml:space="preserve">translate
+	-Ali Mughrabi</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C16">
+      <text>
+        <t xml:space="preserve">translate this @mj.app.apple@gmail.com
+_Assigned to MohammadHassan Jamali (MJ)_
+	-Ali Mughrabi</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B69">
       <text>
         <t xml:space="preserve">if someone click delete after the pending ad already posted/declined
 	-Ali Mughrabi</t>
@@ -47,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="242">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -160,7 +173,7 @@
     <t>Choose one of the following cities:</t>
   </si>
   <si>
-    <t>📍 از بین شهرهای زیر یکی رو انتخاب کنید :</t>
+    <t>📍 از بین شهرهای زیر یکی رو انتخاب کنید یا نام آن را وارد نمایید:</t>
   </si>
   <si>
     <t>city_1</t>
@@ -175,46 +188,58 @@
     <t>city_2</t>
   </si>
   <si>
+    <t>Linz</t>
+  </si>
+  <si>
+    <t>لینتس</t>
+  </si>
+  <si>
+    <t>city_3</t>
+  </si>
+  <si>
     <t>Gratz</t>
   </si>
   <si>
     <t>گراتس</t>
   </si>
   <si>
-    <t>city_3</t>
-  </si>
-  <si>
-    <t>Linz</t>
-  </si>
-  <si>
-    <t>لینتس</t>
-  </si>
-  <si>
     <t>city_4</t>
   </si>
   <si>
+    <t>Klagen Fort</t>
+  </si>
+  <si>
+    <t>کلاگن فورت</t>
+  </si>
+  <si>
+    <t>city_5</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>اینسبروک</t>
+  </si>
+  <si>
+    <t>city_6</t>
+  </si>
+  <si>
     <t>Salzburg</t>
   </si>
   <si>
     <t>زالتسبورگ</t>
   </si>
   <si>
-    <t>city_5</t>
-  </si>
-  <si>
-    <t>Innsbruck</t>
-  </si>
-  <si>
-    <t>اینسبروک</t>
-  </si>
-  <si>
-    <t>city_6</t>
-  </si>
-  <si>
-    <t>Klagen Fort</t>
-  </si>
-  <si>
-    <t>کلاگن فورت</t>
+    <t>city_other</t>
+  </si>
+  <si>
+    <t>Other City</t>
+  </si>
+  <si>
+    <t>rent_other_city</t>
+  </si>
+  <si>
+    <t>Write your City:</t>
   </si>
   <si>
     <t>rent_sub_city</t>
@@ -476,30 +501,45 @@
     <t>End Date:</t>
   </si>
   <si>
+    <t>تاریخ پایان:</t>
+  </si>
+  <si>
     <t>city_label</t>
   </si>
   <si>
     <t xml:space="preserve">City: </t>
   </si>
   <si>
+    <t>📍شهر:</t>
+  </si>
+  <si>
     <t>contract_state_label</t>
   </si>
   <si>
     <t xml:space="preserve">Contract: </t>
   </si>
   <si>
+    <t>قرارداد:</t>
+  </si>
+  <si>
     <t>pricing_type_label</t>
   </si>
   <si>
     <t xml:space="preserve">Pricing Type: </t>
   </si>
   <si>
+    <t>اعلام قیمت:</t>
+  </si>
+  <si>
     <t>price_label</t>
   </si>
   <si>
     <t xml:space="preserve">Price: </t>
   </si>
   <si>
+    <t>قیمت:</t>
+  </si>
+  <si>
     <t>description_label</t>
   </si>
   <si>
@@ -513,6 +553,9 @@
   </si>
   <si>
     <t>Rent Order Canceled!</t>
+  </si>
+  <si>
+    <t>آگهی در حال ساخت شما حذف شد✅</t>
   </si>
   <si>
     <t>home_btn</t>
@@ -777,7 +820,7 @@
     <t>CONFIRM</t>
   </si>
   <si>
-    <t>ارسال آگهی ✅</t>
+    <t>تایید ✅</t>
   </si>
   <si>
     <t>confirmed_t</t>
@@ -786,7 +829,7 @@
     <t>CONFIRMED</t>
   </si>
   <si>
-    <t>آگهی ارسال شد 📥</t>
+    <t xml:space="preserve">انجام شد </t>
   </si>
   <si>
     <t>error_t</t>
@@ -799,6 +842,9 @@
   </si>
   <si>
     <t>SKIP</t>
+  </si>
+  <si>
+    <t>بدون توضیحات</t>
   </si>
   <si>
     <t>subscribe_first_m</t>
@@ -925,12 +971,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -941,13 +981,25 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -956,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -984,7 +1036,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -993,7 +1048,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6467,7 +6522,7 @@
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6511,293 +6566,293 @@
       <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>58</v>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>61</v>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6808,5187 +6863,5209 @@
       <c r="B43" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>136</v>
+      <c r="C43" s="8" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="8"/>
+      <c r="A48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>151</v>
-      </c>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="8"/>
     </row>
     <row r="51" ht="21.0" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
+      <c r="A51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="52" ht="21.0" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="8"/>
+      <c r="A52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="53" ht="21.0" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>154</v>
-      </c>
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="8"/>
     </row>
     <row r="54" ht="21.0" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>157</v>
-      </c>
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="8"/>
     </row>
     <row r="55" ht="21.0" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" ht="21.0" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="8"/>
     </row>
     <row r="58" ht="21.0" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="8"/>
+      <c r="A58" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" ht="21.0" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>166</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="8"/>
     </row>
     <row r="61" ht="21.0" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="8"/>
+      <c r="A61" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="63" ht="21.0" customHeight="1">
-      <c r="A63" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>171</v>
-      </c>
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="8"/>
     </row>
     <row r="64" ht="21.0" customHeight="1">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>179</v>
-      </c>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="12"/>
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" ht="21.0" customHeight="1">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
+      <c r="A70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="71" ht="21.0" customHeight="1">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
+      <c r="A71" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="72" ht="21.0" customHeight="1">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="12"/>
     </row>
     <row r="73" ht="21.0" customHeight="1">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11"/>
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" ht="21.0" customHeight="1">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12"/>
     </row>
     <row r="75" ht="21.0" customHeight="1">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" ht="21.0" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" ht="21.0" customHeight="1">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="12"/>
     </row>
     <row r="78" ht="21.0" customHeight="1">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" ht="21.0" customHeight="1">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
     </row>
     <row r="80" ht="21.0" customHeight="1">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" ht="21.0" customHeight="1">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" ht="21.0" customHeight="1">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" ht="21.0" customHeight="1">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" ht="21.0" customHeight="1">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" ht="21.0" customHeight="1">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" ht="21.0" customHeight="1">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" ht="21.0" customHeight="1">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" ht="21.0" customHeight="1">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" ht="21.0" customHeight="1">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" ht="21.0" customHeight="1">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" ht="21.0" customHeight="1">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" ht="21.0" customHeight="1">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" ht="21.0" customHeight="1">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" ht="21.0" customHeight="1">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" ht="21.0" customHeight="1">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" ht="21.0" customHeight="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" ht="21.0" customHeight="1">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" ht="21.0" customHeight="1">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99" ht="21.0" customHeight="1">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" ht="21.0" customHeight="1">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" ht="21.0" customHeight="1">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="102" ht="21.0" customHeight="1">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" ht="21.0" customHeight="1">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" ht="21.0" customHeight="1">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" ht="21.0" customHeight="1">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
     </row>
     <row r="106" ht="21.0" customHeight="1">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" ht="21.0" customHeight="1">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" ht="21.0" customHeight="1">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" ht="21.0" customHeight="1">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110" ht="21.0" customHeight="1">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
     </row>
     <row r="111" ht="21.0" customHeight="1">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112" ht="21.0" customHeight="1">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" ht="21.0" customHeight="1">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
     </row>
     <row r="114" ht="21.0" customHeight="1">
-      <c r="A114" s="10"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" ht="21.0" customHeight="1">
-      <c r="A115" s="10"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116" ht="21.0" customHeight="1">
-      <c r="A116" s="10"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" ht="21.0" customHeight="1">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" ht="21.0" customHeight="1">
-      <c r="A118" s="10"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" ht="21.0" customHeight="1">
-      <c r="A119" s="10"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
     </row>
     <row r="120" ht="21.0" customHeight="1">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" ht="21.0" customHeight="1">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122" ht="21.0" customHeight="1">
-      <c r="A122" s="10"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
     </row>
     <row r="123" ht="21.0" customHeight="1">
-      <c r="A123" s="10"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
     </row>
     <row r="124" ht="21.0" customHeight="1">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" ht="21.0" customHeight="1">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
     </row>
     <row r="126" ht="21.0" customHeight="1">
-      <c r="A126" s="10"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
     </row>
     <row r="127" ht="21.0" customHeight="1">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
     </row>
     <row r="128" ht="21.0" customHeight="1">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
     </row>
     <row r="129" ht="21.0" customHeight="1">
-      <c r="A129" s="10"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130" ht="21.0" customHeight="1">
-      <c r="A130" s="10"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
     </row>
     <row r="131" ht="21.0" customHeight="1">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
     </row>
     <row r="132" ht="21.0" customHeight="1">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
     </row>
     <row r="133" ht="21.0" customHeight="1">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" ht="21.0" customHeight="1">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
     </row>
     <row r="135" ht="21.0" customHeight="1">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="10"/>
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
     </row>
     <row r="136" ht="21.0" customHeight="1">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="10"/>
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
     </row>
     <row r="137" ht="21.0" customHeight="1">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="10"/>
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" ht="21.0" customHeight="1">
-      <c r="A138" s="10"/>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" ht="21.0" customHeight="1">
-      <c r="A139" s="10"/>
-      <c r="B139" s="10"/>
-      <c r="C139" s="10"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="140" ht="21.0" customHeight="1">
-      <c r="A140" s="10"/>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="141" ht="21.0" customHeight="1">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="142" ht="21.0" customHeight="1">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" ht="21.0" customHeight="1">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
     </row>
     <row r="144" ht="21.0" customHeight="1">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="13"/>
     </row>
     <row r="145" ht="21.0" customHeight="1">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
     </row>
     <row r="146" ht="21.0" customHeight="1">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
     </row>
     <row r="147" ht="21.0" customHeight="1">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
     </row>
     <row r="148" ht="21.0" customHeight="1">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
     </row>
     <row r="149" ht="21.0" customHeight="1">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
     </row>
     <row r="150" ht="21.0" customHeight="1">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
     </row>
     <row r="151" ht="21.0" customHeight="1">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" ht="21.0" customHeight="1">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
     </row>
     <row r="153" ht="21.0" customHeight="1">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
     </row>
     <row r="154" ht="21.0" customHeight="1">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" ht="21.0" customHeight="1">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="13"/>
     </row>
     <row r="156" ht="21.0" customHeight="1">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
     </row>
     <row r="157" ht="21.0" customHeight="1">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
+      <c r="A157" s="13"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
     </row>
     <row r="158" ht="21.0" customHeight="1">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
     </row>
     <row r="159" ht="21.0" customHeight="1">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
     </row>
     <row r="160" ht="21.0" customHeight="1">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
     </row>
     <row r="161" ht="21.0" customHeight="1">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
     </row>
     <row r="162" ht="21.0" customHeight="1">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="13"/>
     </row>
     <row r="163" ht="21.0" customHeight="1">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="13"/>
     </row>
     <row r="164" ht="21.0" customHeight="1">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="13"/>
     </row>
     <row r="165" ht="21.0" customHeight="1">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
     </row>
     <row r="166" ht="21.0" customHeight="1">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="13"/>
     </row>
     <row r="167" ht="21.0" customHeight="1">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="13"/>
     </row>
     <row r="168" ht="21.0" customHeight="1">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
     </row>
     <row r="169" ht="21.0" customHeight="1">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="13"/>
     </row>
     <row r="170" ht="21.0" customHeight="1">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="13"/>
     </row>
     <row r="171" ht="21.0" customHeight="1">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="13"/>
     </row>
     <row r="172" ht="21.0" customHeight="1">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="13"/>
     </row>
     <row r="173" ht="21.0" customHeight="1">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="13"/>
     </row>
     <row r="174" ht="21.0" customHeight="1">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="12"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="13"/>
     </row>
     <row r="175" ht="21.0" customHeight="1">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="13"/>
     </row>
     <row r="176" ht="21.0" customHeight="1">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="13"/>
     </row>
     <row r="177" ht="21.0" customHeight="1">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="13"/>
     </row>
     <row r="178" ht="21.0" customHeight="1">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
     </row>
     <row r="179" ht="21.0" customHeight="1">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
     </row>
     <row r="180" ht="21.0" customHeight="1">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
     </row>
     <row r="181" ht="21.0" customHeight="1">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
+      <c r="A181" s="13"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="13"/>
     </row>
     <row r="182" ht="21.0" customHeight="1">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="12"/>
+      <c r="A182" s="13"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="13"/>
     </row>
     <row r="183" ht="21.0" customHeight="1">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="12"/>
+      <c r="A183" s="13"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="13"/>
     </row>
     <row r="184" ht="21.0" customHeight="1">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="12"/>
+      <c r="A184" s="13"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="13"/>
     </row>
     <row r="185" ht="21.0" customHeight="1">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="12"/>
+      <c r="A185" s="13"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="13"/>
     </row>
     <row r="186" ht="21.0" customHeight="1">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="12"/>
+      <c r="A186" s="13"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="13"/>
     </row>
     <row r="187" ht="21.0" customHeight="1">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
+      <c r="A187" s="13"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="13"/>
     </row>
     <row r="188" ht="21.0" customHeight="1">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
+      <c r="A188" s="13"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="13"/>
     </row>
     <row r="189" ht="21.0" customHeight="1">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
+      <c r="A189" s="13"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="13"/>
     </row>
     <row r="190" ht="21.0" customHeight="1">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
+      <c r="A190" s="13"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13"/>
     </row>
     <row r="191" ht="21.0" customHeight="1">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
+      <c r="A191" s="13"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="13"/>
     </row>
     <row r="192" ht="21.0" customHeight="1">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="12"/>
+      <c r="A192" s="13"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="13"/>
     </row>
     <row r="193" ht="21.0" customHeight="1">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
+      <c r="A193" s="13"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="13"/>
     </row>
     <row r="194" ht="21.0" customHeight="1">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="12"/>
+      <c r="A194" s="13"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="13"/>
     </row>
     <row r="195" ht="21.0" customHeight="1">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
+      <c r="A195" s="13"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
     </row>
     <row r="196" ht="21.0" customHeight="1">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
+      <c r="A196" s="13"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="13"/>
     </row>
     <row r="197" ht="21.0" customHeight="1">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
+      <c r="A197" s="13"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13"/>
     </row>
     <row r="198" ht="21.0" customHeight="1">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
+      <c r="A198" s="13"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
     </row>
     <row r="199" ht="21.0" customHeight="1">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
+      <c r="A199" s="13"/>
+      <c r="B199" s="13"/>
+      <c r="C199" s="13"/>
     </row>
     <row r="200" ht="21.0" customHeight="1">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="13"/>
     </row>
     <row r="201" ht="21.0" customHeight="1">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
+      <c r="A201" s="13"/>
+      <c r="B201" s="13"/>
+      <c r="C201" s="13"/>
     </row>
     <row r="202" ht="21.0" customHeight="1">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="12"/>
+      <c r="A202" s="13"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="13"/>
     </row>
     <row r="203" ht="21.0" customHeight="1">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
+      <c r="A203" s="13"/>
+      <c r="B203" s="13"/>
+      <c r="C203" s="13"/>
     </row>
     <row r="204" ht="21.0" customHeight="1">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
+      <c r="A204" s="13"/>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13"/>
     </row>
     <row r="205" ht="21.0" customHeight="1">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="12"/>
+      <c r="A205" s="13"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13"/>
     </row>
     <row r="206" ht="21.0" customHeight="1">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="12"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="13"/>
     </row>
     <row r="207" ht="21.0" customHeight="1">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="12"/>
+      <c r="A207" s="13"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
     </row>
     <row r="208" ht="21.0" customHeight="1">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="12"/>
+      <c r="A208" s="13"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
     </row>
     <row r="209" ht="21.0" customHeight="1">
-      <c r="A209" s="12"/>
-      <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
+      <c r="A209" s="13"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="13"/>
     </row>
     <row r="210" ht="21.0" customHeight="1">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="12"/>
+      <c r="A210" s="13"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
     </row>
     <row r="211" ht="21.0" customHeight="1">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="12"/>
+      <c r="A211" s="13"/>
+      <c r="B211" s="13"/>
+      <c r="C211" s="13"/>
     </row>
     <row r="212" ht="21.0" customHeight="1">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="12"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
     </row>
     <row r="213" ht="21.0" customHeight="1">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="12"/>
+      <c r="A213" s="13"/>
+      <c r="B213" s="13"/>
+      <c r="C213" s="13"/>
     </row>
     <row r="214" ht="21.0" customHeight="1">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="12"/>
+      <c r="A214" s="13"/>
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
     </row>
     <row r="215" ht="21.0" customHeight="1">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="12"/>
+      <c r="A215" s="13"/>
+      <c r="B215" s="13"/>
+      <c r="C215" s="13"/>
     </row>
     <row r="216" ht="21.0" customHeight="1">
-      <c r="A216" s="12"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="12"/>
+      <c r="A216" s="13"/>
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
     </row>
     <row r="217" ht="21.0" customHeight="1">
-      <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="12"/>
+      <c r="A217" s="13"/>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
     </row>
     <row r="218" ht="21.0" customHeight="1">
-      <c r="A218" s="12"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="12"/>
+      <c r="A218" s="13"/>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
     </row>
     <row r="219" ht="21.0" customHeight="1">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
+      <c r="A219" s="13"/>
+      <c r="B219" s="13"/>
+      <c r="C219" s="13"/>
     </row>
     <row r="220" ht="21.0" customHeight="1">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="12"/>
+      <c r="A220" s="13"/>
+      <c r="B220" s="13"/>
+      <c r="C220" s="13"/>
     </row>
     <row r="221" ht="21.0" customHeight="1">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="12"/>
+      <c r="A221" s="13"/>
+      <c r="B221" s="13"/>
+      <c r="C221" s="13"/>
     </row>
     <row r="222" ht="21.0" customHeight="1">
-      <c r="A222" s="12"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="12"/>
+      <c r="A222" s="13"/>
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
     </row>
     <row r="223" ht="21.0" customHeight="1">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
+      <c r="A223" s="13"/>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
     </row>
     <row r="224" ht="21.0" customHeight="1">
-      <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
+      <c r="A224" s="13"/>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
     </row>
     <row r="225" ht="21.0" customHeight="1">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="12"/>
+      <c r="A225" s="13"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
     </row>
     <row r="226" ht="21.0" customHeight="1">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="12"/>
+      <c r="A226" s="13"/>
+      <c r="B226" s="13"/>
+      <c r="C226" s="13"/>
     </row>
     <row r="227" ht="21.0" customHeight="1">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
+      <c r="A227" s="13"/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
     </row>
     <row r="228" ht="21.0" customHeight="1">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
+      <c r="A228" s="13"/>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
     </row>
     <row r="229" ht="21.0" customHeight="1">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
+      <c r="A229" s="13"/>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
     </row>
     <row r="230" ht="21.0" customHeight="1">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
+      <c r="A230" s="13"/>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
     </row>
     <row r="231" ht="21.0" customHeight="1">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
+      <c r="A231" s="13"/>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
     </row>
     <row r="232" ht="21.0" customHeight="1">
-      <c r="A232" s="12"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
+      <c r="A232" s="13"/>
+      <c r="B232" s="13"/>
+      <c r="C232" s="13"/>
     </row>
     <row r="233" ht="21.0" customHeight="1">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
+      <c r="A233" s="13"/>
+      <c r="B233" s="13"/>
+      <c r="C233" s="13"/>
     </row>
     <row r="234" ht="21.0" customHeight="1">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
+      <c r="A234" s="13"/>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
     </row>
     <row r="235" ht="21.0" customHeight="1">
-      <c r="A235" s="12"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="12"/>
+      <c r="A235" s="13"/>
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
     </row>
     <row r="236" ht="21.0" customHeight="1">
-      <c r="A236" s="12"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="12"/>
+      <c r="A236" s="13"/>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
     </row>
     <row r="237" ht="21.0" customHeight="1">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
-      <c r="C237" s="12"/>
+      <c r="A237" s="13"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
     </row>
     <row r="238" ht="21.0" customHeight="1">
-      <c r="A238" s="12"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="12"/>
+      <c r="A238" s="13"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
     </row>
     <row r="239" ht="21.0" customHeight="1">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
+      <c r="A239" s="13"/>
+      <c r="B239" s="13"/>
+      <c r="C239" s="13"/>
     </row>
     <row r="240" ht="21.0" customHeight="1">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
+      <c r="A240" s="13"/>
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
     </row>
     <row r="241" ht="21.0" customHeight="1">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
+      <c r="A241" s="13"/>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
     </row>
     <row r="242" ht="21.0" customHeight="1">
-      <c r="A242" s="12"/>
-      <c r="B242" s="12"/>
-      <c r="C242" s="12"/>
+      <c r="A242" s="13"/>
+      <c r="B242" s="13"/>
+      <c r="C242" s="13"/>
     </row>
     <row r="243" ht="21.0" customHeight="1">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="12"/>
+      <c r="A243" s="13"/>
+      <c r="B243" s="13"/>
+      <c r="C243" s="13"/>
     </row>
     <row r="244" ht="21.0" customHeight="1">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="12"/>
+      <c r="A244" s="13"/>
+      <c r="B244" s="13"/>
+      <c r="C244" s="13"/>
     </row>
     <row r="245" ht="21.0" customHeight="1">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="12"/>
+      <c r="A245" s="13"/>
+      <c r="B245" s="13"/>
+      <c r="C245" s="13"/>
     </row>
     <row r="246" ht="21.0" customHeight="1">
-      <c r="A246" s="12"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="12"/>
+      <c r="A246" s="13"/>
+      <c r="B246" s="13"/>
+      <c r="C246" s="13"/>
     </row>
     <row r="247" ht="21.0" customHeight="1">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
-      <c r="C247" s="12"/>
+      <c r="A247" s="13"/>
+      <c r="B247" s="13"/>
+      <c r="C247" s="13"/>
     </row>
     <row r="248" ht="21.0" customHeight="1">
-      <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="12"/>
+      <c r="A248" s="13"/>
+      <c r="B248" s="13"/>
+      <c r="C248" s="13"/>
     </row>
     <row r="249" ht="21.0" customHeight="1">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
-      <c r="C249" s="12"/>
+      <c r="A249" s="13"/>
+      <c r="B249" s="13"/>
+      <c r="C249" s="13"/>
     </row>
     <row r="250" ht="21.0" customHeight="1">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="12"/>
+      <c r="A250" s="13"/>
+      <c r="B250" s="13"/>
+      <c r="C250" s="13"/>
     </row>
     <row r="251" ht="21.0" customHeight="1">
-      <c r="A251" s="12"/>
-      <c r="B251" s="12"/>
-      <c r="C251" s="12"/>
+      <c r="A251" s="13"/>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13"/>
     </row>
     <row r="252" ht="21.0" customHeight="1">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="12"/>
+      <c r="A252" s="13"/>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13"/>
     </row>
     <row r="253" ht="21.0" customHeight="1">
-      <c r="A253" s="12"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="12"/>
+      <c r="A253" s="13"/>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13"/>
     </row>
     <row r="254" ht="21.0" customHeight="1">
-      <c r="A254" s="12"/>
-      <c r="B254" s="12"/>
-      <c r="C254" s="12"/>
+      <c r="A254" s="13"/>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13"/>
     </row>
     <row r="255" ht="21.0" customHeight="1">
-      <c r="A255" s="12"/>
-      <c r="B255" s="12"/>
-      <c r="C255" s="12"/>
+      <c r="A255" s="13"/>
+      <c r="B255" s="13"/>
+      <c r="C255" s="13"/>
     </row>
     <row r="256" ht="21.0" customHeight="1">
-      <c r="A256" s="12"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="12"/>
+      <c r="A256" s="13"/>
+      <c r="B256" s="13"/>
+      <c r="C256" s="13"/>
     </row>
     <row r="257" ht="21.0" customHeight="1">
-      <c r="A257" s="12"/>
-      <c r="B257" s="12"/>
-      <c r="C257" s="12"/>
+      <c r="A257" s="13"/>
+      <c r="B257" s="13"/>
+      <c r="C257" s="13"/>
     </row>
     <row r="258" ht="21.0" customHeight="1">
-      <c r="A258" s="12"/>
-      <c r="B258" s="12"/>
-      <c r="C258" s="12"/>
+      <c r="A258" s="13"/>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13"/>
     </row>
     <row r="259" ht="21.0" customHeight="1">
-      <c r="A259" s="12"/>
-      <c r="B259" s="12"/>
-      <c r="C259" s="12"/>
+      <c r="A259" s="13"/>
+      <c r="B259" s="13"/>
+      <c r="C259" s="13"/>
     </row>
     <row r="260" ht="21.0" customHeight="1">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="12"/>
+      <c r="A260" s="13"/>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13"/>
     </row>
     <row r="261" ht="21.0" customHeight="1">
-      <c r="A261" s="12"/>
-      <c r="B261" s="12"/>
-      <c r="C261" s="12"/>
+      <c r="A261" s="13"/>
+      <c r="B261" s="13"/>
+      <c r="C261" s="13"/>
     </row>
     <row r="262" ht="21.0" customHeight="1">
-      <c r="A262" s="12"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="12"/>
+      <c r="A262" s="13"/>
+      <c r="B262" s="13"/>
+      <c r="C262" s="13"/>
     </row>
     <row r="263" ht="21.0" customHeight="1">
-      <c r="A263" s="12"/>
-      <c r="B263" s="12"/>
-      <c r="C263" s="12"/>
+      <c r="A263" s="13"/>
+      <c r="B263" s="13"/>
+      <c r="C263" s="13"/>
     </row>
     <row r="264" ht="21.0" customHeight="1">
-      <c r="A264" s="12"/>
-      <c r="B264" s="12"/>
-      <c r="C264" s="12"/>
+      <c r="A264" s="13"/>
+      <c r="B264" s="13"/>
+      <c r="C264" s="13"/>
     </row>
     <row r="265" ht="21.0" customHeight="1">
-      <c r="A265" s="12"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="12"/>
+      <c r="A265" s="13"/>
+      <c r="B265" s="13"/>
+      <c r="C265" s="13"/>
     </row>
     <row r="266" ht="21.0" customHeight="1">
-      <c r="A266" s="12"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="12"/>
+      <c r="A266" s="13"/>
+      <c r="B266" s="13"/>
+      <c r="C266" s="13"/>
     </row>
     <row r="267" ht="21.0" customHeight="1">
-      <c r="A267" s="12"/>
-      <c r="B267" s="12"/>
-      <c r="C267" s="12"/>
+      <c r="A267" s="13"/>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13"/>
     </row>
     <row r="268" ht="21.0" customHeight="1">
-      <c r="A268" s="12"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="12"/>
+      <c r="A268" s="13"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
     </row>
     <row r="269" ht="21.0" customHeight="1">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
+      <c r="A269" s="13"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
     </row>
     <row r="270" ht="21.0" customHeight="1">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="12"/>
+      <c r="A270" s="13"/>
+      <c r="B270" s="13"/>
+      <c r="C270" s="13"/>
     </row>
     <row r="271" ht="21.0" customHeight="1">
-      <c r="A271" s="12"/>
-      <c r="B271" s="12"/>
-      <c r="C271" s="12"/>
+      <c r="A271" s="13"/>
+      <c r="B271" s="13"/>
+      <c r="C271" s="13"/>
     </row>
     <row r="272" ht="21.0" customHeight="1">
-      <c r="A272" s="12"/>
-      <c r="B272" s="12"/>
-      <c r="C272" s="12"/>
+      <c r="A272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="13"/>
     </row>
     <row r="273" ht="21.0" customHeight="1">
-      <c r="A273" s="12"/>
-      <c r="B273" s="12"/>
-      <c r="C273" s="12"/>
+      <c r="A273" s="13"/>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13"/>
     </row>
     <row r="274" ht="21.0" customHeight="1">
-      <c r="A274" s="12"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="12"/>
+      <c r="A274" s="13"/>
+      <c r="B274" s="13"/>
+      <c r="C274" s="13"/>
     </row>
     <row r="275" ht="21.0" customHeight="1">
-      <c r="A275" s="12"/>
-      <c r="B275" s="12"/>
-      <c r="C275" s="12"/>
+      <c r="A275" s="13"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
     </row>
     <row r="276" ht="21.0" customHeight="1">
-      <c r="A276" s="12"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
+      <c r="A276" s="13"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13"/>
     </row>
     <row r="277" ht="21.0" customHeight="1">
-      <c r="A277" s="12"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="12"/>
+      <c r="A277" s="13"/>
+      <c r="B277" s="13"/>
+      <c r="C277" s="13"/>
     </row>
     <row r="278" ht="21.0" customHeight="1">
-      <c r="A278" s="12"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="12"/>
+      <c r="A278" s="13"/>
+      <c r="B278" s="13"/>
+      <c r="C278" s="13"/>
     </row>
     <row r="279" ht="21.0" customHeight="1">
-      <c r="A279" s="12"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="12"/>
+      <c r="A279" s="13"/>
+      <c r="B279" s="13"/>
+      <c r="C279" s="13"/>
     </row>
     <row r="280" ht="21.0" customHeight="1">
-      <c r="A280" s="12"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="12"/>
+      <c r="A280" s="13"/>
+      <c r="B280" s="13"/>
+      <c r="C280" s="13"/>
     </row>
     <row r="281" ht="21.0" customHeight="1">
-      <c r="A281" s="12"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
+      <c r="A281" s="13"/>
+      <c r="B281" s="13"/>
+      <c r="C281" s="13"/>
     </row>
     <row r="282" ht="21.0" customHeight="1">
-      <c r="A282" s="12"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="12"/>
+      <c r="A282" s="13"/>
+      <c r="B282" s="13"/>
+      <c r="C282" s="13"/>
     </row>
     <row r="283" ht="21.0" customHeight="1">
-      <c r="A283" s="12"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="12"/>
+      <c r="A283" s="13"/>
+      <c r="B283" s="13"/>
+      <c r="C283" s="13"/>
     </row>
     <row r="284" ht="21.0" customHeight="1">
-      <c r="A284" s="12"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="12"/>
+      <c r="A284" s="13"/>
+      <c r="B284" s="13"/>
+      <c r="C284" s="13"/>
     </row>
     <row r="285" ht="21.0" customHeight="1">
-      <c r="A285" s="12"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="12"/>
+      <c r="A285" s="13"/>
+      <c r="B285" s="13"/>
+      <c r="C285" s="13"/>
     </row>
     <row r="286" ht="21.0" customHeight="1">
-      <c r="A286" s="12"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="12"/>
+      <c r="A286" s="13"/>
+      <c r="B286" s="13"/>
+      <c r="C286" s="13"/>
     </row>
     <row r="287" ht="21.0" customHeight="1">
-      <c r="A287" s="12"/>
-      <c r="B287" s="12"/>
-      <c r="C287" s="12"/>
+      <c r="A287" s="13"/>
+      <c r="B287" s="13"/>
+      <c r="C287" s="13"/>
     </row>
     <row r="288" ht="21.0" customHeight="1">
-      <c r="A288" s="12"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="12"/>
+      <c r="A288" s="13"/>
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
     </row>
     <row r="289" ht="21.0" customHeight="1">
-      <c r="A289" s="12"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="12"/>
+      <c r="A289" s="13"/>
+      <c r="B289" s="13"/>
+      <c r="C289" s="13"/>
     </row>
     <row r="290" ht="21.0" customHeight="1">
-      <c r="A290" s="12"/>
-      <c r="B290" s="12"/>
-      <c r="C290" s="12"/>
+      <c r="A290" s="13"/>
+      <c r="B290" s="13"/>
+      <c r="C290" s="13"/>
     </row>
     <row r="291" ht="21.0" customHeight="1">
-      <c r="A291" s="12"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="12"/>
+      <c r="A291" s="13"/>
+      <c r="B291" s="13"/>
+      <c r="C291" s="13"/>
     </row>
     <row r="292" ht="21.0" customHeight="1">
-      <c r="A292" s="12"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="12"/>
+      <c r="A292" s="13"/>
+      <c r="B292" s="13"/>
+      <c r="C292" s="13"/>
     </row>
     <row r="293" ht="21.0" customHeight="1">
-      <c r="A293" s="12"/>
-      <c r="B293" s="12"/>
-      <c r="C293" s="12"/>
+      <c r="A293" s="13"/>
+      <c r="B293" s="13"/>
+      <c r="C293" s="13"/>
     </row>
     <row r="294" ht="21.0" customHeight="1">
-      <c r="A294" s="12"/>
-      <c r="B294" s="12"/>
-      <c r="C294" s="12"/>
+      <c r="A294" s="13"/>
+      <c r="B294" s="13"/>
+      <c r="C294" s="13"/>
     </row>
     <row r="295" ht="21.0" customHeight="1">
-      <c r="A295" s="12"/>
-      <c r="B295" s="12"/>
-      <c r="C295" s="12"/>
+      <c r="A295" s="13"/>
+      <c r="B295" s="13"/>
+      <c r="C295" s="13"/>
     </row>
     <row r="296" ht="21.0" customHeight="1">
-      <c r="A296" s="12"/>
-      <c r="B296" s="12"/>
-      <c r="C296" s="12"/>
+      <c r="A296" s="13"/>
+      <c r="B296" s="13"/>
+      <c r="C296" s="13"/>
     </row>
     <row r="297" ht="21.0" customHeight="1">
-      <c r="A297" s="12"/>
-      <c r="B297" s="12"/>
-      <c r="C297" s="12"/>
+      <c r="A297" s="13"/>
+      <c r="B297" s="13"/>
+      <c r="C297" s="13"/>
     </row>
     <row r="298" ht="21.0" customHeight="1">
-      <c r="A298" s="12"/>
-      <c r="B298" s="12"/>
-      <c r="C298" s="12"/>
+      <c r="A298" s="13"/>
+      <c r="B298" s="13"/>
+      <c r="C298" s="13"/>
     </row>
     <row r="299" ht="21.0" customHeight="1">
-      <c r="A299" s="12"/>
-      <c r="B299" s="12"/>
-      <c r="C299" s="12"/>
+      <c r="A299" s="13"/>
+      <c r="B299" s="13"/>
+      <c r="C299" s="13"/>
     </row>
     <row r="300" ht="21.0" customHeight="1">
-      <c r="A300" s="12"/>
-      <c r="B300" s="12"/>
-      <c r="C300" s="12"/>
+      <c r="A300" s="13"/>
+      <c r="B300" s="13"/>
+      <c r="C300" s="13"/>
     </row>
     <row r="301" ht="21.0" customHeight="1">
-      <c r="A301" s="12"/>
-      <c r="B301" s="12"/>
-      <c r="C301" s="12"/>
+      <c r="A301" s="13"/>
+      <c r="B301" s="13"/>
+      <c r="C301" s="13"/>
     </row>
     <row r="302" ht="21.0" customHeight="1">
-      <c r="A302" s="12"/>
-      <c r="B302" s="12"/>
-      <c r="C302" s="12"/>
+      <c r="A302" s="13"/>
+      <c r="B302" s="13"/>
+      <c r="C302" s="13"/>
     </row>
     <row r="303" ht="21.0" customHeight="1">
-      <c r="A303" s="12"/>
-      <c r="B303" s="12"/>
-      <c r="C303" s="12"/>
+      <c r="A303" s="13"/>
+      <c r="B303" s="13"/>
+      <c r="C303" s="13"/>
     </row>
     <row r="304" ht="21.0" customHeight="1">
-      <c r="A304" s="12"/>
-      <c r="B304" s="12"/>
-      <c r="C304" s="12"/>
+      <c r="A304" s="13"/>
+      <c r="B304" s="13"/>
+      <c r="C304" s="13"/>
     </row>
     <row r="305" ht="21.0" customHeight="1">
-      <c r="A305" s="12"/>
-      <c r="B305" s="12"/>
-      <c r="C305" s="12"/>
+      <c r="A305" s="13"/>
+      <c r="B305" s="13"/>
+      <c r="C305" s="13"/>
     </row>
     <row r="306" ht="21.0" customHeight="1">
-      <c r="A306" s="12"/>
-      <c r="B306" s="12"/>
-      <c r="C306" s="12"/>
+      <c r="A306" s="13"/>
+      <c r="B306" s="13"/>
+      <c r="C306" s="13"/>
     </row>
     <row r="307" ht="21.0" customHeight="1">
-      <c r="A307" s="12"/>
-      <c r="B307" s="12"/>
-      <c r="C307" s="12"/>
+      <c r="A307" s="13"/>
+      <c r="B307" s="13"/>
+      <c r="C307" s="13"/>
     </row>
     <row r="308" ht="21.0" customHeight="1">
-      <c r="A308" s="12"/>
-      <c r="B308" s="12"/>
-      <c r="C308" s="12"/>
+      <c r="A308" s="13"/>
+      <c r="B308" s="13"/>
+      <c r="C308" s="13"/>
     </row>
     <row r="309" ht="21.0" customHeight="1">
-      <c r="A309" s="12"/>
-      <c r="B309" s="12"/>
-      <c r="C309" s="12"/>
+      <c r="A309" s="13"/>
+      <c r="B309" s="13"/>
+      <c r="C309" s="13"/>
     </row>
     <row r="310" ht="21.0" customHeight="1">
-      <c r="A310" s="12"/>
-      <c r="B310" s="12"/>
-      <c r="C310" s="12"/>
+      <c r="A310" s="13"/>
+      <c r="B310" s="13"/>
+      <c r="C310" s="13"/>
     </row>
     <row r="311" ht="21.0" customHeight="1">
-      <c r="A311" s="12"/>
-      <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
+      <c r="A311" s="13"/>
+      <c r="B311" s="13"/>
+      <c r="C311" s="13"/>
     </row>
     <row r="312" ht="21.0" customHeight="1">
-      <c r="A312" s="12"/>
-      <c r="B312" s="12"/>
-      <c r="C312" s="12"/>
+      <c r="A312" s="13"/>
+      <c r="B312" s="13"/>
+      <c r="C312" s="13"/>
     </row>
     <row r="313" ht="21.0" customHeight="1">
-      <c r="A313" s="12"/>
-      <c r="B313" s="12"/>
-      <c r="C313" s="12"/>
+      <c r="A313" s="13"/>
+      <c r="B313" s="13"/>
+      <c r="C313" s="13"/>
     </row>
     <row r="314" ht="21.0" customHeight="1">
-      <c r="A314" s="12"/>
-      <c r="B314" s="12"/>
-      <c r="C314" s="12"/>
+      <c r="A314" s="13"/>
+      <c r="B314" s="13"/>
+      <c r="C314" s="13"/>
     </row>
     <row r="315" ht="21.0" customHeight="1">
-      <c r="A315" s="12"/>
-      <c r="B315" s="12"/>
-      <c r="C315" s="12"/>
+      <c r="A315" s="13"/>
+      <c r="B315" s="13"/>
+      <c r="C315" s="13"/>
     </row>
     <row r="316" ht="21.0" customHeight="1">
-      <c r="A316" s="12"/>
-      <c r="B316" s="12"/>
-      <c r="C316" s="12"/>
+      <c r="A316" s="13"/>
+      <c r="B316" s="13"/>
+      <c r="C316" s="13"/>
     </row>
     <row r="317" ht="21.0" customHeight="1">
-      <c r="A317" s="12"/>
-      <c r="B317" s="12"/>
-      <c r="C317" s="12"/>
+      <c r="A317" s="13"/>
+      <c r="B317" s="13"/>
+      <c r="C317" s="13"/>
     </row>
     <row r="318" ht="21.0" customHeight="1">
-      <c r="A318" s="12"/>
-      <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
+      <c r="A318" s="13"/>
+      <c r="B318" s="13"/>
+      <c r="C318" s="13"/>
     </row>
     <row r="319" ht="21.0" customHeight="1">
-      <c r="A319" s="12"/>
-      <c r="B319" s="12"/>
-      <c r="C319" s="12"/>
+      <c r="A319" s="13"/>
+      <c r="B319" s="13"/>
+      <c r="C319" s="13"/>
     </row>
     <row r="320" ht="21.0" customHeight="1">
-      <c r="A320" s="12"/>
-      <c r="B320" s="12"/>
-      <c r="C320" s="12"/>
+      <c r="A320" s="13"/>
+      <c r="B320" s="13"/>
+      <c r="C320" s="13"/>
     </row>
     <row r="321" ht="21.0" customHeight="1">
-      <c r="A321" s="12"/>
-      <c r="B321" s="12"/>
-      <c r="C321" s="12"/>
+      <c r="A321" s="13"/>
+      <c r="B321" s="13"/>
+      <c r="C321" s="13"/>
     </row>
     <row r="322" ht="21.0" customHeight="1">
-      <c r="A322" s="12"/>
-      <c r="B322" s="12"/>
-      <c r="C322" s="12"/>
+      <c r="A322" s="13"/>
+      <c r="B322" s="13"/>
+      <c r="C322" s="13"/>
     </row>
     <row r="323" ht="21.0" customHeight="1">
-      <c r="A323" s="12"/>
-      <c r="B323" s="12"/>
-      <c r="C323" s="12"/>
+      <c r="A323" s="13"/>
+      <c r="B323" s="13"/>
+      <c r="C323" s="13"/>
     </row>
     <row r="324" ht="21.0" customHeight="1">
-      <c r="A324" s="12"/>
-      <c r="B324" s="12"/>
-      <c r="C324" s="12"/>
+      <c r="A324" s="13"/>
+      <c r="B324" s="13"/>
+      <c r="C324" s="13"/>
     </row>
     <row r="325" ht="21.0" customHeight="1">
-      <c r="A325" s="12"/>
-      <c r="B325" s="12"/>
-      <c r="C325" s="12"/>
+      <c r="A325" s="13"/>
+      <c r="B325" s="13"/>
+      <c r="C325" s="13"/>
     </row>
     <row r="326" ht="21.0" customHeight="1">
-      <c r="A326" s="12"/>
-      <c r="B326" s="12"/>
-      <c r="C326" s="12"/>
+      <c r="A326" s="13"/>
+      <c r="B326" s="13"/>
+      <c r="C326" s="13"/>
     </row>
     <row r="327" ht="21.0" customHeight="1">
-      <c r="A327" s="12"/>
-      <c r="B327" s="12"/>
-      <c r="C327" s="12"/>
+      <c r="A327" s="13"/>
+      <c r="B327" s="13"/>
+      <c r="C327" s="13"/>
     </row>
     <row r="328" ht="21.0" customHeight="1">
-      <c r="A328" s="12"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="12"/>
+      <c r="A328" s="13"/>
+      <c r="B328" s="13"/>
+      <c r="C328" s="13"/>
     </row>
     <row r="329" ht="21.0" customHeight="1">
-      <c r="A329" s="12"/>
-      <c r="B329" s="12"/>
-      <c r="C329" s="12"/>
+      <c r="A329" s="13"/>
+      <c r="B329" s="13"/>
+      <c r="C329" s="13"/>
     </row>
     <row r="330" ht="21.0" customHeight="1">
-      <c r="A330" s="12"/>
-      <c r="B330" s="12"/>
-      <c r="C330" s="12"/>
+      <c r="A330" s="13"/>
+      <c r="B330" s="13"/>
+      <c r="C330" s="13"/>
     </row>
     <row r="331" ht="21.0" customHeight="1">
-      <c r="A331" s="12"/>
-      <c r="B331" s="12"/>
-      <c r="C331" s="12"/>
+      <c r="A331" s="13"/>
+      <c r="B331" s="13"/>
+      <c r="C331" s="13"/>
     </row>
     <row r="332" ht="21.0" customHeight="1">
-      <c r="A332" s="12"/>
-      <c r="B332" s="12"/>
-      <c r="C332" s="12"/>
+      <c r="A332" s="13"/>
+      <c r="B332" s="13"/>
+      <c r="C332" s="13"/>
     </row>
     <row r="333" ht="21.0" customHeight="1">
-      <c r="A333" s="12"/>
-      <c r="B333" s="12"/>
-      <c r="C333" s="12"/>
+      <c r="A333" s="13"/>
+      <c r="B333" s="13"/>
+      <c r="C333" s="13"/>
     </row>
     <row r="334" ht="21.0" customHeight="1">
-      <c r="A334" s="12"/>
-      <c r="B334" s="12"/>
-      <c r="C334" s="12"/>
+      <c r="A334" s="13"/>
+      <c r="B334" s="13"/>
+      <c r="C334" s="13"/>
     </row>
     <row r="335" ht="21.0" customHeight="1">
-      <c r="A335" s="12"/>
-      <c r="B335" s="12"/>
-      <c r="C335" s="12"/>
+      <c r="A335" s="13"/>
+      <c r="B335" s="13"/>
+      <c r="C335" s="13"/>
     </row>
     <row r="336" ht="21.0" customHeight="1">
-      <c r="A336" s="12"/>
-      <c r="B336" s="12"/>
-      <c r="C336" s="12"/>
+      <c r="A336" s="13"/>
+      <c r="B336" s="13"/>
+      <c r="C336" s="13"/>
     </row>
     <row r="337" ht="21.0" customHeight="1">
-      <c r="A337" s="12"/>
-      <c r="B337" s="12"/>
-      <c r="C337" s="12"/>
+      <c r="A337" s="13"/>
+      <c r="B337" s="13"/>
+      <c r="C337" s="13"/>
     </row>
     <row r="338" ht="21.0" customHeight="1">
-      <c r="A338" s="12"/>
-      <c r="B338" s="12"/>
-      <c r="C338" s="12"/>
+      <c r="A338" s="13"/>
+      <c r="B338" s="13"/>
+      <c r="C338" s="13"/>
     </row>
     <row r="339" ht="21.0" customHeight="1">
-      <c r="A339" s="12"/>
-      <c r="B339" s="12"/>
-      <c r="C339" s="12"/>
+      <c r="A339" s="13"/>
+      <c r="B339" s="13"/>
+      <c r="C339" s="13"/>
     </row>
     <row r="340" ht="21.0" customHeight="1">
-      <c r="A340" s="12"/>
-      <c r="B340" s="12"/>
-      <c r="C340" s="12"/>
+      <c r="A340" s="13"/>
+      <c r="B340" s="13"/>
+      <c r="C340" s="13"/>
     </row>
     <row r="341" ht="21.0" customHeight="1">
-      <c r="A341" s="12"/>
-      <c r="B341" s="12"/>
-      <c r="C341" s="12"/>
+      <c r="A341" s="13"/>
+      <c r="B341" s="13"/>
+      <c r="C341" s="13"/>
     </row>
     <row r="342" ht="21.0" customHeight="1">
-      <c r="A342" s="12"/>
-      <c r="B342" s="12"/>
-      <c r="C342" s="12"/>
+      <c r="A342" s="13"/>
+      <c r="B342" s="13"/>
+      <c r="C342" s="13"/>
     </row>
     <row r="343" ht="21.0" customHeight="1">
-      <c r="A343" s="12"/>
-      <c r="B343" s="12"/>
-      <c r="C343" s="12"/>
+      <c r="A343" s="13"/>
+      <c r="B343" s="13"/>
+      <c r="C343" s="13"/>
     </row>
     <row r="344" ht="21.0" customHeight="1">
-      <c r="A344" s="12"/>
-      <c r="B344" s="12"/>
-      <c r="C344" s="12"/>
+      <c r="A344" s="13"/>
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
     </row>
     <row r="345" ht="21.0" customHeight="1">
-      <c r="A345" s="12"/>
-      <c r="B345" s="12"/>
-      <c r="C345" s="12"/>
+      <c r="A345" s="13"/>
+      <c r="B345" s="13"/>
+      <c r="C345" s="13"/>
     </row>
     <row r="346" ht="21.0" customHeight="1">
-      <c r="A346" s="12"/>
-      <c r="B346" s="12"/>
-      <c r="C346" s="12"/>
+      <c r="A346" s="13"/>
+      <c r="B346" s="13"/>
+      <c r="C346" s="13"/>
     </row>
     <row r="347" ht="21.0" customHeight="1">
-      <c r="A347" s="12"/>
-      <c r="B347" s="12"/>
-      <c r="C347" s="12"/>
+      <c r="A347" s="13"/>
+      <c r="B347" s="13"/>
+      <c r="C347" s="13"/>
     </row>
     <row r="348" ht="21.0" customHeight="1">
-      <c r="A348" s="12"/>
-      <c r="B348" s="12"/>
-      <c r="C348" s="12"/>
+      <c r="A348" s="13"/>
+      <c r="B348" s="13"/>
+      <c r="C348" s="13"/>
     </row>
     <row r="349" ht="21.0" customHeight="1">
-      <c r="A349" s="12"/>
-      <c r="B349" s="12"/>
-      <c r="C349" s="12"/>
+      <c r="A349" s="13"/>
+      <c r="B349" s="13"/>
+      <c r="C349" s="13"/>
     </row>
     <row r="350" ht="21.0" customHeight="1">
-      <c r="A350" s="12"/>
-      <c r="B350" s="12"/>
-      <c r="C350" s="12"/>
+      <c r="A350" s="13"/>
+      <c r="B350" s="13"/>
+      <c r="C350" s="13"/>
     </row>
     <row r="351" ht="21.0" customHeight="1">
-      <c r="A351" s="12"/>
-      <c r="B351" s="12"/>
-      <c r="C351" s="12"/>
+      <c r="A351" s="13"/>
+      <c r="B351" s="13"/>
+      <c r="C351" s="13"/>
     </row>
     <row r="352" ht="21.0" customHeight="1">
-      <c r="A352" s="12"/>
-      <c r="B352" s="12"/>
-      <c r="C352" s="12"/>
+      <c r="A352" s="13"/>
+      <c r="B352" s="13"/>
+      <c r="C352" s="13"/>
     </row>
     <row r="353" ht="21.0" customHeight="1">
-      <c r="A353" s="12"/>
-      <c r="B353" s="12"/>
-      <c r="C353" s="12"/>
+      <c r="A353" s="13"/>
+      <c r="B353" s="13"/>
+      <c r="C353" s="13"/>
     </row>
     <row r="354" ht="21.0" customHeight="1">
-      <c r="A354" s="12"/>
-      <c r="B354" s="12"/>
-      <c r="C354" s="12"/>
+      <c r="A354" s="13"/>
+      <c r="B354" s="13"/>
+      <c r="C354" s="13"/>
     </row>
     <row r="355" ht="21.0" customHeight="1">
-      <c r="A355" s="12"/>
-      <c r="B355" s="12"/>
-      <c r="C355" s="12"/>
+      <c r="A355" s="13"/>
+      <c r="B355" s="13"/>
+      <c r="C355" s="13"/>
     </row>
     <row r="356" ht="21.0" customHeight="1">
-      <c r="A356" s="12"/>
-      <c r="B356" s="12"/>
-      <c r="C356" s="12"/>
+      <c r="A356" s="13"/>
+      <c r="B356" s="13"/>
+      <c r="C356" s="13"/>
     </row>
     <row r="357" ht="21.0" customHeight="1">
-      <c r="A357" s="12"/>
-      <c r="B357" s="12"/>
-      <c r="C357" s="12"/>
+      <c r="A357" s="13"/>
+      <c r="B357" s="13"/>
+      <c r="C357" s="13"/>
     </row>
     <row r="358" ht="21.0" customHeight="1">
-      <c r="A358" s="12"/>
-      <c r="B358" s="12"/>
-      <c r="C358" s="12"/>
+      <c r="A358" s="13"/>
+      <c r="B358" s="13"/>
+      <c r="C358" s="13"/>
     </row>
     <row r="359" ht="21.0" customHeight="1">
-      <c r="A359" s="12"/>
-      <c r="B359" s="12"/>
-      <c r="C359" s="12"/>
+      <c r="A359" s="13"/>
+      <c r="B359" s="13"/>
+      <c r="C359" s="13"/>
     </row>
     <row r="360" ht="21.0" customHeight="1">
-      <c r="A360" s="12"/>
-      <c r="B360" s="12"/>
-      <c r="C360" s="12"/>
+      <c r="A360" s="13"/>
+      <c r="B360" s="13"/>
+      <c r="C360" s="13"/>
     </row>
     <row r="361" ht="21.0" customHeight="1">
-      <c r="A361" s="12"/>
-      <c r="B361" s="12"/>
-      <c r="C361" s="12"/>
+      <c r="A361" s="13"/>
+      <c r="B361" s="13"/>
+      <c r="C361" s="13"/>
     </row>
     <row r="362" ht="21.0" customHeight="1">
-      <c r="A362" s="12"/>
-      <c r="B362" s="12"/>
-      <c r="C362" s="12"/>
+      <c r="A362" s="13"/>
+      <c r="B362" s="13"/>
+      <c r="C362" s="13"/>
     </row>
     <row r="363" ht="21.0" customHeight="1">
-      <c r="A363" s="12"/>
-      <c r="B363" s="12"/>
-      <c r="C363" s="12"/>
+      <c r="A363" s="13"/>
+      <c r="B363" s="13"/>
+      <c r="C363" s="13"/>
     </row>
     <row r="364" ht="21.0" customHeight="1">
-      <c r="A364" s="12"/>
-      <c r="B364" s="12"/>
-      <c r="C364" s="12"/>
+      <c r="A364" s="13"/>
+      <c r="B364" s="13"/>
+      <c r="C364" s="13"/>
     </row>
     <row r="365" ht="21.0" customHeight="1">
-      <c r="A365" s="12"/>
-      <c r="B365" s="12"/>
-      <c r="C365" s="12"/>
+      <c r="A365" s="13"/>
+      <c r="B365" s="13"/>
+      <c r="C365" s="13"/>
     </row>
     <row r="366" ht="21.0" customHeight="1">
-      <c r="A366" s="12"/>
-      <c r="B366" s="12"/>
-      <c r="C366" s="12"/>
+      <c r="A366" s="13"/>
+      <c r="B366" s="13"/>
+      <c r="C366" s="13"/>
     </row>
     <row r="367" ht="21.0" customHeight="1">
-      <c r="A367" s="12"/>
-      <c r="B367" s="12"/>
-      <c r="C367" s="12"/>
+      <c r="A367" s="13"/>
+      <c r="B367" s="13"/>
+      <c r="C367" s="13"/>
     </row>
     <row r="368" ht="21.0" customHeight="1">
-      <c r="A368" s="12"/>
-      <c r="B368" s="12"/>
-      <c r="C368" s="12"/>
+      <c r="A368" s="13"/>
+      <c r="B368" s="13"/>
+      <c r="C368" s="13"/>
     </row>
     <row r="369" ht="21.0" customHeight="1">
-      <c r="A369" s="12"/>
-      <c r="B369" s="12"/>
-      <c r="C369" s="12"/>
+      <c r="A369" s="13"/>
+      <c r="B369" s="13"/>
+      <c r="C369" s="13"/>
     </row>
     <row r="370" ht="21.0" customHeight="1">
-      <c r="A370" s="12"/>
-      <c r="B370" s="12"/>
-      <c r="C370" s="12"/>
+      <c r="A370" s="13"/>
+      <c r="B370" s="13"/>
+      <c r="C370" s="13"/>
     </row>
     <row r="371" ht="21.0" customHeight="1">
-      <c r="A371" s="12"/>
-      <c r="B371" s="12"/>
-      <c r="C371" s="12"/>
+      <c r="A371" s="13"/>
+      <c r="B371" s="13"/>
+      <c r="C371" s="13"/>
     </row>
     <row r="372" ht="21.0" customHeight="1">
-      <c r="A372" s="12"/>
-      <c r="B372" s="12"/>
-      <c r="C372" s="12"/>
+      <c r="A372" s="13"/>
+      <c r="B372" s="13"/>
+      <c r="C372" s="13"/>
     </row>
     <row r="373" ht="21.0" customHeight="1">
-      <c r="A373" s="12"/>
-      <c r="B373" s="12"/>
-      <c r="C373" s="12"/>
+      <c r="A373" s="13"/>
+      <c r="B373" s="13"/>
+      <c r="C373" s="13"/>
     </row>
     <row r="374" ht="21.0" customHeight="1">
-      <c r="A374" s="12"/>
-      <c r="B374" s="12"/>
-      <c r="C374" s="12"/>
+      <c r="A374" s="13"/>
+      <c r="B374" s="13"/>
+      <c r="C374" s="13"/>
     </row>
     <row r="375" ht="21.0" customHeight="1">
-      <c r="A375" s="12"/>
-      <c r="B375" s="12"/>
-      <c r="C375" s="12"/>
+      <c r="A375" s="13"/>
+      <c r="B375" s="13"/>
+      <c r="C375" s="13"/>
     </row>
     <row r="376" ht="21.0" customHeight="1">
-      <c r="A376" s="12"/>
-      <c r="B376" s="12"/>
-      <c r="C376" s="12"/>
+      <c r="A376" s="13"/>
+      <c r="B376" s="13"/>
+      <c r="C376" s="13"/>
     </row>
     <row r="377" ht="21.0" customHeight="1">
-      <c r="A377" s="12"/>
-      <c r="B377" s="12"/>
-      <c r="C377" s="12"/>
+      <c r="A377" s="13"/>
+      <c r="B377" s="13"/>
+      <c r="C377" s="13"/>
     </row>
     <row r="378" ht="21.0" customHeight="1">
-      <c r="A378" s="12"/>
-      <c r="B378" s="12"/>
-      <c r="C378" s="12"/>
+      <c r="A378" s="13"/>
+      <c r="B378" s="13"/>
+      <c r="C378" s="13"/>
     </row>
     <row r="379" ht="21.0" customHeight="1">
-      <c r="A379" s="12"/>
-      <c r="B379" s="12"/>
-      <c r="C379" s="12"/>
+      <c r="A379" s="13"/>
+      <c r="B379" s="13"/>
+      <c r="C379" s="13"/>
     </row>
     <row r="380" ht="21.0" customHeight="1">
-      <c r="A380" s="12"/>
-      <c r="B380" s="12"/>
-      <c r="C380" s="12"/>
+      <c r="A380" s="13"/>
+      <c r="B380" s="13"/>
+      <c r="C380" s="13"/>
     </row>
     <row r="381" ht="21.0" customHeight="1">
-      <c r="A381" s="12"/>
-      <c r="B381" s="12"/>
-      <c r="C381" s="12"/>
+      <c r="A381" s="13"/>
+      <c r="B381" s="13"/>
+      <c r="C381" s="13"/>
     </row>
     <row r="382" ht="21.0" customHeight="1">
-      <c r="A382" s="12"/>
-      <c r="B382" s="12"/>
-      <c r="C382" s="12"/>
+      <c r="A382" s="13"/>
+      <c r="B382" s="13"/>
+      <c r="C382" s="13"/>
     </row>
     <row r="383" ht="21.0" customHeight="1">
-      <c r="A383" s="12"/>
-      <c r="B383" s="12"/>
-      <c r="C383" s="12"/>
+      <c r="A383" s="13"/>
+      <c r="B383" s="13"/>
+      <c r="C383" s="13"/>
     </row>
     <row r="384" ht="21.0" customHeight="1">
-      <c r="A384" s="12"/>
-      <c r="B384" s="12"/>
-      <c r="C384" s="12"/>
+      <c r="A384" s="13"/>
+      <c r="B384" s="13"/>
+      <c r="C384" s="13"/>
     </row>
     <row r="385" ht="21.0" customHeight="1">
-      <c r="A385" s="12"/>
-      <c r="B385" s="12"/>
-      <c r="C385" s="12"/>
+      <c r="A385" s="13"/>
+      <c r="B385" s="13"/>
+      <c r="C385" s="13"/>
     </row>
     <row r="386" ht="21.0" customHeight="1">
-      <c r="A386" s="12"/>
-      <c r="B386" s="12"/>
-      <c r="C386" s="12"/>
+      <c r="A386" s="13"/>
+      <c r="B386" s="13"/>
+      <c r="C386" s="13"/>
     </row>
     <row r="387" ht="21.0" customHeight="1">
-      <c r="A387" s="12"/>
-      <c r="B387" s="12"/>
-      <c r="C387" s="12"/>
+      <c r="A387" s="13"/>
+      <c r="B387" s="13"/>
+      <c r="C387" s="13"/>
     </row>
     <row r="388" ht="21.0" customHeight="1">
-      <c r="A388" s="12"/>
-      <c r="B388" s="12"/>
-      <c r="C388" s="12"/>
+      <c r="A388" s="13"/>
+      <c r="B388" s="13"/>
+      <c r="C388" s="13"/>
     </row>
     <row r="389" ht="21.0" customHeight="1">
-      <c r="A389" s="12"/>
-      <c r="B389" s="12"/>
-      <c r="C389" s="12"/>
+      <c r="A389" s="13"/>
+      <c r="B389" s="13"/>
+      <c r="C389" s="13"/>
     </row>
     <row r="390" ht="21.0" customHeight="1">
-      <c r="A390" s="12"/>
-      <c r="B390" s="12"/>
-      <c r="C390" s="12"/>
+      <c r="A390" s="13"/>
+      <c r="B390" s="13"/>
+      <c r="C390" s="13"/>
     </row>
     <row r="391" ht="21.0" customHeight="1">
-      <c r="A391" s="12"/>
-      <c r="B391" s="12"/>
-      <c r="C391" s="12"/>
+      <c r="A391" s="13"/>
+      <c r="B391" s="13"/>
+      <c r="C391" s="13"/>
     </row>
     <row r="392" ht="21.0" customHeight="1">
-      <c r="A392" s="12"/>
-      <c r="B392" s="12"/>
-      <c r="C392" s="12"/>
+      <c r="A392" s="13"/>
+      <c r="B392" s="13"/>
+      <c r="C392" s="13"/>
     </row>
     <row r="393" ht="21.0" customHeight="1">
-      <c r="A393" s="12"/>
-      <c r="B393" s="12"/>
-      <c r="C393" s="12"/>
+      <c r="A393" s="13"/>
+      <c r="B393" s="13"/>
+      <c r="C393" s="13"/>
     </row>
     <row r="394" ht="21.0" customHeight="1">
-      <c r="A394" s="12"/>
-      <c r="B394" s="12"/>
-      <c r="C394" s="12"/>
+      <c r="A394" s="13"/>
+      <c r="B394" s="13"/>
+      <c r="C394" s="13"/>
     </row>
     <row r="395" ht="21.0" customHeight="1">
-      <c r="A395" s="12"/>
-      <c r="B395" s="12"/>
-      <c r="C395" s="12"/>
+      <c r="A395" s="13"/>
+      <c r="B395" s="13"/>
+      <c r="C395" s="13"/>
     </row>
     <row r="396" ht="21.0" customHeight="1">
-      <c r="A396" s="12"/>
-      <c r="B396" s="12"/>
-      <c r="C396" s="12"/>
+      <c r="A396" s="13"/>
+      <c r="B396" s="13"/>
+      <c r="C396" s="13"/>
     </row>
     <row r="397" ht="21.0" customHeight="1">
-      <c r="A397" s="12"/>
-      <c r="B397" s="12"/>
-      <c r="C397" s="12"/>
+      <c r="A397" s="13"/>
+      <c r="B397" s="13"/>
+      <c r="C397" s="13"/>
     </row>
     <row r="398" ht="21.0" customHeight="1">
-      <c r="A398" s="12"/>
-      <c r="B398" s="12"/>
-      <c r="C398" s="12"/>
+      <c r="A398" s="13"/>
+      <c r="B398" s="13"/>
+      <c r="C398" s="13"/>
     </row>
     <row r="399" ht="21.0" customHeight="1">
-      <c r="A399" s="12"/>
-      <c r="B399" s="12"/>
-      <c r="C399" s="12"/>
+      <c r="A399" s="13"/>
+      <c r="B399" s="13"/>
+      <c r="C399" s="13"/>
     </row>
     <row r="400" ht="21.0" customHeight="1">
-      <c r="A400" s="12"/>
-      <c r="B400" s="12"/>
-      <c r="C400" s="12"/>
+      <c r="A400" s="13"/>
+      <c r="B400" s="13"/>
+      <c r="C400" s="13"/>
     </row>
     <row r="401" ht="21.0" customHeight="1">
-      <c r="A401" s="12"/>
-      <c r="B401" s="12"/>
-      <c r="C401" s="12"/>
+      <c r="A401" s="13"/>
+      <c r="B401" s="13"/>
+      <c r="C401" s="13"/>
     </row>
     <row r="402" ht="21.0" customHeight="1">
-      <c r="A402" s="12"/>
-      <c r="B402" s="12"/>
-      <c r="C402" s="12"/>
+      <c r="A402" s="13"/>
+      <c r="B402" s="13"/>
+      <c r="C402" s="13"/>
     </row>
     <row r="403" ht="21.0" customHeight="1">
-      <c r="A403" s="12"/>
-      <c r="B403" s="12"/>
-      <c r="C403" s="12"/>
+      <c r="A403" s="13"/>
+      <c r="B403" s="13"/>
+      <c r="C403" s="13"/>
     </row>
     <row r="404" ht="21.0" customHeight="1">
-      <c r="A404" s="12"/>
-      <c r="B404" s="12"/>
-      <c r="C404" s="12"/>
+      <c r="A404" s="13"/>
+      <c r="B404" s="13"/>
+      <c r="C404" s="13"/>
     </row>
     <row r="405" ht="21.0" customHeight="1">
-      <c r="A405" s="12"/>
-      <c r="B405" s="12"/>
-      <c r="C405" s="12"/>
+      <c r="A405" s="13"/>
+      <c r="B405" s="13"/>
+      <c r="C405" s="13"/>
     </row>
     <row r="406" ht="21.0" customHeight="1">
-      <c r="A406" s="12"/>
-      <c r="B406" s="12"/>
-      <c r="C406" s="12"/>
+      <c r="A406" s="13"/>
+      <c r="B406" s="13"/>
+      <c r="C406" s="13"/>
     </row>
     <row r="407" ht="21.0" customHeight="1">
-      <c r="A407" s="12"/>
-      <c r="B407" s="12"/>
-      <c r="C407" s="12"/>
+      <c r="A407" s="13"/>
+      <c r="B407" s="13"/>
+      <c r="C407" s="13"/>
     </row>
     <row r="408" ht="21.0" customHeight="1">
-      <c r="A408" s="12"/>
-      <c r="B408" s="12"/>
-      <c r="C408" s="12"/>
+      <c r="A408" s="13"/>
+      <c r="B408" s="13"/>
+      <c r="C408" s="13"/>
     </row>
     <row r="409" ht="21.0" customHeight="1">
-      <c r="A409" s="12"/>
-      <c r="B409" s="12"/>
-      <c r="C409" s="12"/>
+      <c r="A409" s="13"/>
+      <c r="B409" s="13"/>
+      <c r="C409" s="13"/>
     </row>
     <row r="410" ht="21.0" customHeight="1">
-      <c r="A410" s="12"/>
-      <c r="B410" s="12"/>
-      <c r="C410" s="12"/>
+      <c r="A410" s="13"/>
+      <c r="B410" s="13"/>
+      <c r="C410" s="13"/>
     </row>
     <row r="411" ht="21.0" customHeight="1">
-      <c r="A411" s="12"/>
-      <c r="B411" s="12"/>
-      <c r="C411" s="12"/>
+      <c r="A411" s="13"/>
+      <c r="B411" s="13"/>
+      <c r="C411" s="13"/>
     </row>
     <row r="412" ht="21.0" customHeight="1">
-      <c r="A412" s="12"/>
-      <c r="B412" s="12"/>
-      <c r="C412" s="12"/>
+      <c r="A412" s="13"/>
+      <c r="B412" s="13"/>
+      <c r="C412" s="13"/>
     </row>
     <row r="413" ht="21.0" customHeight="1">
-      <c r="A413" s="12"/>
-      <c r="B413" s="12"/>
-      <c r="C413" s="12"/>
+      <c r="A413" s="13"/>
+      <c r="B413" s="13"/>
+      <c r="C413" s="13"/>
     </row>
     <row r="414" ht="21.0" customHeight="1">
-      <c r="A414" s="12"/>
-      <c r="B414" s="12"/>
-      <c r="C414" s="12"/>
+      <c r="A414" s="13"/>
+      <c r="B414" s="13"/>
+      <c r="C414" s="13"/>
     </row>
     <row r="415" ht="21.0" customHeight="1">
-      <c r="A415" s="12"/>
-      <c r="B415" s="12"/>
-      <c r="C415" s="12"/>
+      <c r="A415" s="13"/>
+      <c r="B415" s="13"/>
+      <c r="C415" s="13"/>
     </row>
     <row r="416" ht="21.0" customHeight="1">
-      <c r="A416" s="12"/>
-      <c r="B416" s="12"/>
-      <c r="C416" s="12"/>
+      <c r="A416" s="13"/>
+      <c r="B416" s="13"/>
+      <c r="C416" s="13"/>
     </row>
     <row r="417" ht="21.0" customHeight="1">
-      <c r="A417" s="12"/>
-      <c r="B417" s="12"/>
-      <c r="C417" s="12"/>
+      <c r="A417" s="13"/>
+      <c r="B417" s="13"/>
+      <c r="C417" s="13"/>
     </row>
     <row r="418" ht="21.0" customHeight="1">
-      <c r="A418" s="12"/>
-      <c r="B418" s="12"/>
-      <c r="C418" s="12"/>
+      <c r="A418" s="13"/>
+      <c r="B418" s="13"/>
+      <c r="C418" s="13"/>
     </row>
     <row r="419" ht="21.0" customHeight="1">
-      <c r="A419" s="12"/>
-      <c r="B419" s="12"/>
-      <c r="C419" s="12"/>
+      <c r="A419" s="13"/>
+      <c r="B419" s="13"/>
+      <c r="C419" s="13"/>
     </row>
     <row r="420" ht="21.0" customHeight="1">
-      <c r="A420" s="12"/>
-      <c r="B420" s="12"/>
-      <c r="C420" s="12"/>
+      <c r="A420" s="13"/>
+      <c r="B420" s="13"/>
+      <c r="C420" s="13"/>
     </row>
     <row r="421" ht="21.0" customHeight="1">
-      <c r="A421" s="12"/>
-      <c r="B421" s="12"/>
-      <c r="C421" s="12"/>
+      <c r="A421" s="13"/>
+      <c r="B421" s="13"/>
+      <c r="C421" s="13"/>
     </row>
     <row r="422" ht="21.0" customHeight="1">
-      <c r="A422" s="12"/>
-      <c r="B422" s="12"/>
-      <c r="C422" s="12"/>
+      <c r="A422" s="13"/>
+      <c r="B422" s="13"/>
+      <c r="C422" s="13"/>
     </row>
     <row r="423" ht="21.0" customHeight="1">
-      <c r="A423" s="12"/>
-      <c r="B423" s="12"/>
-      <c r="C423" s="12"/>
+      <c r="A423" s="13"/>
+      <c r="B423" s="13"/>
+      <c r="C423" s="13"/>
     </row>
     <row r="424" ht="21.0" customHeight="1">
-      <c r="A424" s="12"/>
-      <c r="B424" s="12"/>
-      <c r="C424" s="12"/>
+      <c r="A424" s="13"/>
+      <c r="B424" s="13"/>
+      <c r="C424" s="13"/>
     </row>
     <row r="425" ht="21.0" customHeight="1">
-      <c r="A425" s="12"/>
-      <c r="B425" s="12"/>
-      <c r="C425" s="12"/>
+      <c r="A425" s="13"/>
+      <c r="B425" s="13"/>
+      <c r="C425" s="13"/>
     </row>
     <row r="426" ht="21.0" customHeight="1">
-      <c r="A426" s="12"/>
-      <c r="B426" s="12"/>
-      <c r="C426" s="12"/>
+      <c r="A426" s="13"/>
+      <c r="B426" s="13"/>
+      <c r="C426" s="13"/>
     </row>
     <row r="427" ht="21.0" customHeight="1">
-      <c r="A427" s="12"/>
-      <c r="B427" s="12"/>
-      <c r="C427" s="12"/>
+      <c r="A427" s="13"/>
+      <c r="B427" s="13"/>
+      <c r="C427" s="13"/>
     </row>
     <row r="428" ht="21.0" customHeight="1">
-      <c r="A428" s="12"/>
-      <c r="B428" s="12"/>
-      <c r="C428" s="12"/>
+      <c r="A428" s="13"/>
+      <c r="B428" s="13"/>
+      <c r="C428" s="13"/>
     </row>
     <row r="429" ht="21.0" customHeight="1">
-      <c r="A429" s="12"/>
-      <c r="B429" s="12"/>
-      <c r="C429" s="12"/>
+      <c r="A429" s="13"/>
+      <c r="B429" s="13"/>
+      <c r="C429" s="13"/>
     </row>
     <row r="430" ht="21.0" customHeight="1">
-      <c r="A430" s="12"/>
-      <c r="B430" s="12"/>
-      <c r="C430" s="12"/>
+      <c r="A430" s="13"/>
+      <c r="B430" s="13"/>
+      <c r="C430" s="13"/>
     </row>
     <row r="431" ht="21.0" customHeight="1">
-      <c r="A431" s="12"/>
-      <c r="B431" s="12"/>
-      <c r="C431" s="12"/>
+      <c r="A431" s="13"/>
+      <c r="B431" s="13"/>
+      <c r="C431" s="13"/>
     </row>
     <row r="432" ht="21.0" customHeight="1">
-      <c r="A432" s="12"/>
-      <c r="B432" s="12"/>
-      <c r="C432" s="12"/>
+      <c r="A432" s="13"/>
+      <c r="B432" s="13"/>
+      <c r="C432" s="13"/>
     </row>
     <row r="433" ht="21.0" customHeight="1">
-      <c r="A433" s="12"/>
-      <c r="B433" s="12"/>
-      <c r="C433" s="12"/>
+      <c r="A433" s="13"/>
+      <c r="B433" s="13"/>
+      <c r="C433" s="13"/>
     </row>
     <row r="434" ht="21.0" customHeight="1">
-      <c r="A434" s="12"/>
-      <c r="B434" s="12"/>
-      <c r="C434" s="12"/>
+      <c r="A434" s="13"/>
+      <c r="B434" s="13"/>
+      <c r="C434" s="13"/>
     </row>
     <row r="435" ht="21.0" customHeight="1">
-      <c r="A435" s="12"/>
-      <c r="B435" s="12"/>
-      <c r="C435" s="12"/>
+      <c r="A435" s="13"/>
+      <c r="B435" s="13"/>
+      <c r="C435" s="13"/>
     </row>
     <row r="436" ht="21.0" customHeight="1">
-      <c r="A436" s="12"/>
-      <c r="B436" s="12"/>
-      <c r="C436" s="12"/>
+      <c r="A436" s="13"/>
+      <c r="B436" s="13"/>
+      <c r="C436" s="13"/>
     </row>
     <row r="437" ht="21.0" customHeight="1">
-      <c r="A437" s="12"/>
-      <c r="B437" s="12"/>
-      <c r="C437" s="12"/>
+      <c r="A437" s="13"/>
+      <c r="B437" s="13"/>
+      <c r="C437" s="13"/>
     </row>
     <row r="438" ht="21.0" customHeight="1">
-      <c r="A438" s="12"/>
-      <c r="B438" s="12"/>
-      <c r="C438" s="12"/>
+      <c r="A438" s="13"/>
+      <c r="B438" s="13"/>
+      <c r="C438" s="13"/>
     </row>
     <row r="439" ht="21.0" customHeight="1">
-      <c r="A439" s="12"/>
-      <c r="B439" s="12"/>
-      <c r="C439" s="12"/>
+      <c r="A439" s="13"/>
+      <c r="B439" s="13"/>
+      <c r="C439" s="13"/>
     </row>
     <row r="440" ht="21.0" customHeight="1">
-      <c r="A440" s="12"/>
-      <c r="B440" s="12"/>
-      <c r="C440" s="12"/>
+      <c r="A440" s="13"/>
+      <c r="B440" s="13"/>
+      <c r="C440" s="13"/>
     </row>
     <row r="441" ht="21.0" customHeight="1">
-      <c r="A441" s="12"/>
-      <c r="B441" s="12"/>
-      <c r="C441" s="12"/>
+      <c r="A441" s="13"/>
+      <c r="B441" s="13"/>
+      <c r="C441" s="13"/>
     </row>
     <row r="442" ht="21.0" customHeight="1">
-      <c r="A442" s="12"/>
-      <c r="B442" s="12"/>
-      <c r="C442" s="12"/>
+      <c r="A442" s="13"/>
+      <c r="B442" s="13"/>
+      <c r="C442" s="13"/>
     </row>
     <row r="443" ht="21.0" customHeight="1">
-      <c r="A443" s="12"/>
-      <c r="B443" s="12"/>
-      <c r="C443" s="12"/>
+      <c r="A443" s="13"/>
+      <c r="B443" s="13"/>
+      <c r="C443" s="13"/>
     </row>
     <row r="444" ht="21.0" customHeight="1">
-      <c r="A444" s="12"/>
-      <c r="B444" s="12"/>
-      <c r="C444" s="12"/>
+      <c r="A444" s="13"/>
+      <c r="B444" s="13"/>
+      <c r="C444" s="13"/>
     </row>
     <row r="445" ht="21.0" customHeight="1">
-      <c r="A445" s="12"/>
-      <c r="B445" s="12"/>
-      <c r="C445" s="12"/>
+      <c r="A445" s="13"/>
+      <c r="B445" s="13"/>
+      <c r="C445" s="13"/>
     </row>
     <row r="446" ht="21.0" customHeight="1">
-      <c r="A446" s="12"/>
-      <c r="B446" s="12"/>
-      <c r="C446" s="12"/>
+      <c r="A446" s="13"/>
+      <c r="B446" s="13"/>
+      <c r="C446" s="13"/>
     </row>
     <row r="447" ht="21.0" customHeight="1">
-      <c r="A447" s="12"/>
-      <c r="B447" s="12"/>
-      <c r="C447" s="12"/>
+      <c r="A447" s="13"/>
+      <c r="B447" s="13"/>
+      <c r="C447" s="13"/>
     </row>
     <row r="448" ht="21.0" customHeight="1">
-      <c r="A448" s="12"/>
-      <c r="B448" s="12"/>
-      <c r="C448" s="12"/>
+      <c r="A448" s="13"/>
+      <c r="B448" s="13"/>
+      <c r="C448" s="13"/>
     </row>
     <row r="449" ht="21.0" customHeight="1">
-      <c r="A449" s="12"/>
-      <c r="B449" s="12"/>
-      <c r="C449" s="12"/>
+      <c r="A449" s="13"/>
+      <c r="B449" s="13"/>
+      <c r="C449" s="13"/>
     </row>
     <row r="450" ht="21.0" customHeight="1">
-      <c r="A450" s="12"/>
-      <c r="B450" s="12"/>
-      <c r="C450" s="12"/>
+      <c r="A450" s="13"/>
+      <c r="B450" s="13"/>
+      <c r="C450" s="13"/>
     </row>
     <row r="451" ht="21.0" customHeight="1">
-      <c r="A451" s="12"/>
-      <c r="B451" s="12"/>
-      <c r="C451" s="12"/>
+      <c r="A451" s="13"/>
+      <c r="B451" s="13"/>
+      <c r="C451" s="13"/>
     </row>
     <row r="452" ht="21.0" customHeight="1">
-      <c r="A452" s="12"/>
-      <c r="B452" s="12"/>
-      <c r="C452" s="12"/>
+      <c r="A452" s="13"/>
+      <c r="B452" s="13"/>
+      <c r="C452" s="13"/>
     </row>
     <row r="453" ht="21.0" customHeight="1">
-      <c r="A453" s="12"/>
-      <c r="B453" s="12"/>
-      <c r="C453" s="12"/>
+      <c r="A453" s="13"/>
+      <c r="B453" s="13"/>
+      <c r="C453" s="13"/>
     </row>
     <row r="454" ht="21.0" customHeight="1">
-      <c r="A454" s="12"/>
-      <c r="B454" s="12"/>
-      <c r="C454" s="12"/>
+      <c r="A454" s="13"/>
+      <c r="B454" s="13"/>
+      <c r="C454" s="13"/>
     </row>
     <row r="455" ht="21.0" customHeight="1">
-      <c r="A455" s="12"/>
-      <c r="B455" s="12"/>
-      <c r="C455" s="12"/>
+      <c r="A455" s="13"/>
+      <c r="B455" s="13"/>
+      <c r="C455" s="13"/>
     </row>
     <row r="456" ht="21.0" customHeight="1">
-      <c r="A456" s="12"/>
-      <c r="B456" s="12"/>
-      <c r="C456" s="12"/>
+      <c r="A456" s="13"/>
+      <c r="B456" s="13"/>
+      <c r="C456" s="13"/>
     </row>
     <row r="457" ht="21.0" customHeight="1">
-      <c r="A457" s="12"/>
-      <c r="B457" s="12"/>
-      <c r="C457" s="12"/>
+      <c r="A457" s="13"/>
+      <c r="B457" s="13"/>
+      <c r="C457" s="13"/>
     </row>
     <row r="458" ht="21.0" customHeight="1">
-      <c r="A458" s="12"/>
-      <c r="B458" s="12"/>
-      <c r="C458" s="12"/>
+      <c r="A458" s="13"/>
+      <c r="B458" s="13"/>
+      <c r="C458" s="13"/>
     </row>
     <row r="459" ht="21.0" customHeight="1">
-      <c r="A459" s="12"/>
-      <c r="B459" s="12"/>
-      <c r="C459" s="12"/>
+      <c r="A459" s="13"/>
+      <c r="B459" s="13"/>
+      <c r="C459" s="13"/>
     </row>
     <row r="460" ht="21.0" customHeight="1">
-      <c r="A460" s="12"/>
-      <c r="B460" s="12"/>
-      <c r="C460" s="12"/>
+      <c r="A460" s="13"/>
+      <c r="B460" s="13"/>
+      <c r="C460" s="13"/>
     </row>
     <row r="461" ht="21.0" customHeight="1">
-      <c r="A461" s="12"/>
-      <c r="B461" s="12"/>
-      <c r="C461" s="12"/>
+      <c r="A461" s="13"/>
+      <c r="B461" s="13"/>
+      <c r="C461" s="13"/>
     </row>
     <row r="462" ht="21.0" customHeight="1">
-      <c r="A462" s="12"/>
-      <c r="B462" s="12"/>
-      <c r="C462" s="12"/>
+      <c r="A462" s="13"/>
+      <c r="B462" s="13"/>
+      <c r="C462" s="13"/>
     </row>
     <row r="463" ht="21.0" customHeight="1">
-      <c r="A463" s="12"/>
-      <c r="B463" s="12"/>
-      <c r="C463" s="12"/>
+      <c r="A463" s="13"/>
+      <c r="B463" s="13"/>
+      <c r="C463" s="13"/>
     </row>
     <row r="464" ht="21.0" customHeight="1">
-      <c r="A464" s="12"/>
-      <c r="B464" s="12"/>
-      <c r="C464" s="12"/>
+      <c r="A464" s="13"/>
+      <c r="B464" s="13"/>
+      <c r="C464" s="13"/>
     </row>
     <row r="465" ht="21.0" customHeight="1">
-      <c r="A465" s="12"/>
-      <c r="B465" s="12"/>
-      <c r="C465" s="12"/>
+      <c r="A465" s="13"/>
+      <c r="B465" s="13"/>
+      <c r="C465" s="13"/>
     </row>
     <row r="466" ht="21.0" customHeight="1">
-      <c r="A466" s="12"/>
-      <c r="B466" s="12"/>
-      <c r="C466" s="12"/>
+      <c r="A466" s="13"/>
+      <c r="B466" s="13"/>
+      <c r="C466" s="13"/>
     </row>
     <row r="467" ht="21.0" customHeight="1">
-      <c r="A467" s="12"/>
-      <c r="B467" s="12"/>
-      <c r="C467" s="12"/>
+      <c r="A467" s="13"/>
+      <c r="B467" s="13"/>
+      <c r="C467" s="13"/>
     </row>
     <row r="468" ht="21.0" customHeight="1">
-      <c r="A468" s="12"/>
-      <c r="B468" s="12"/>
-      <c r="C468" s="12"/>
+      <c r="A468" s="13"/>
+      <c r="B468" s="13"/>
+      <c r="C468" s="13"/>
     </row>
     <row r="469" ht="21.0" customHeight="1">
-      <c r="A469" s="12"/>
-      <c r="B469" s="12"/>
-      <c r="C469" s="12"/>
+      <c r="A469" s="13"/>
+      <c r="B469" s="13"/>
+      <c r="C469" s="13"/>
     </row>
     <row r="470" ht="21.0" customHeight="1">
-      <c r="A470" s="12"/>
-      <c r="B470" s="12"/>
-      <c r="C470" s="12"/>
+      <c r="A470" s="13"/>
+      <c r="B470" s="13"/>
+      <c r="C470" s="13"/>
     </row>
     <row r="471" ht="21.0" customHeight="1">
-      <c r="A471" s="12"/>
-      <c r="B471" s="12"/>
-      <c r="C471" s="12"/>
+      <c r="A471" s="13"/>
+      <c r="B471" s="13"/>
+      <c r="C471" s="13"/>
     </row>
     <row r="472" ht="21.0" customHeight="1">
-      <c r="A472" s="12"/>
-      <c r="B472" s="12"/>
-      <c r="C472" s="12"/>
+      <c r="A472" s="13"/>
+      <c r="B472" s="13"/>
+      <c r="C472" s="13"/>
     </row>
     <row r="473" ht="21.0" customHeight="1">
-      <c r="A473" s="12"/>
-      <c r="B473" s="12"/>
-      <c r="C473" s="12"/>
+      <c r="A473" s="13"/>
+      <c r="B473" s="13"/>
+      <c r="C473" s="13"/>
     </row>
     <row r="474" ht="21.0" customHeight="1">
-      <c r="A474" s="12"/>
-      <c r="B474" s="12"/>
-      <c r="C474" s="12"/>
+      <c r="A474" s="13"/>
+      <c r="B474" s="13"/>
+      <c r="C474" s="13"/>
     </row>
     <row r="475" ht="21.0" customHeight="1">
-      <c r="A475" s="12"/>
-      <c r="B475" s="12"/>
-      <c r="C475" s="12"/>
+      <c r="A475" s="13"/>
+      <c r="B475" s="13"/>
+      <c r="C475" s="13"/>
     </row>
     <row r="476" ht="21.0" customHeight="1">
-      <c r="A476" s="12"/>
-      <c r="B476" s="12"/>
-      <c r="C476" s="12"/>
+      <c r="A476" s="13"/>
+      <c r="B476" s="13"/>
+      <c r="C476" s="13"/>
     </row>
     <row r="477" ht="21.0" customHeight="1">
-      <c r="A477" s="12"/>
-      <c r="B477" s="12"/>
-      <c r="C477" s="12"/>
+      <c r="A477" s="13"/>
+      <c r="B477" s="13"/>
+      <c r="C477" s="13"/>
     </row>
     <row r="478" ht="21.0" customHeight="1">
-      <c r="A478" s="12"/>
-      <c r="B478" s="12"/>
-      <c r="C478" s="12"/>
+      <c r="A478" s="13"/>
+      <c r="B478" s="13"/>
+      <c r="C478" s="13"/>
     </row>
     <row r="479" ht="21.0" customHeight="1">
-      <c r="A479" s="12"/>
-      <c r="B479" s="12"/>
-      <c r="C479" s="12"/>
+      <c r="A479" s="13"/>
+      <c r="B479" s="13"/>
+      <c r="C479" s="13"/>
     </row>
     <row r="480" ht="21.0" customHeight="1">
-      <c r="A480" s="12"/>
-      <c r="B480" s="12"/>
-      <c r="C480" s="12"/>
+      <c r="A480" s="13"/>
+      <c r="B480" s="13"/>
+      <c r="C480" s="13"/>
     </row>
     <row r="481" ht="21.0" customHeight="1">
-      <c r="A481" s="12"/>
-      <c r="B481" s="12"/>
-      <c r="C481" s="12"/>
+      <c r="A481" s="13"/>
+      <c r="B481" s="13"/>
+      <c r="C481" s="13"/>
     </row>
     <row r="482" ht="21.0" customHeight="1">
-      <c r="A482" s="12"/>
-      <c r="B482" s="12"/>
-      <c r="C482" s="12"/>
+      <c r="A482" s="13"/>
+      <c r="B482" s="13"/>
+      <c r="C482" s="13"/>
     </row>
     <row r="483" ht="21.0" customHeight="1">
-      <c r="A483" s="12"/>
-      <c r="B483" s="12"/>
-      <c r="C483" s="12"/>
+      <c r="A483" s="13"/>
+      <c r="B483" s="13"/>
+      <c r="C483" s="13"/>
     </row>
     <row r="484" ht="21.0" customHeight="1">
-      <c r="A484" s="12"/>
-      <c r="B484" s="12"/>
-      <c r="C484" s="12"/>
+      <c r="A484" s="13"/>
+      <c r="B484" s="13"/>
+      <c r="C484" s="13"/>
     </row>
     <row r="485" ht="21.0" customHeight="1">
-      <c r="A485" s="12"/>
-      <c r="B485" s="12"/>
-      <c r="C485" s="12"/>
+      <c r="A485" s="13"/>
+      <c r="B485" s="13"/>
+      <c r="C485" s="13"/>
     </row>
     <row r="486" ht="21.0" customHeight="1">
-      <c r="A486" s="12"/>
-      <c r="B486" s="12"/>
-      <c r="C486" s="12"/>
+      <c r="A486" s="13"/>
+      <c r="B486" s="13"/>
+      <c r="C486" s="13"/>
     </row>
     <row r="487" ht="21.0" customHeight="1">
-      <c r="A487" s="12"/>
-      <c r="B487" s="12"/>
-      <c r="C487" s="12"/>
+      <c r="A487" s="13"/>
+      <c r="B487" s="13"/>
+      <c r="C487" s="13"/>
     </row>
     <row r="488" ht="21.0" customHeight="1">
-      <c r="A488" s="12"/>
-      <c r="B488" s="12"/>
-      <c r="C488" s="12"/>
+      <c r="A488" s="13"/>
+      <c r="B488" s="13"/>
+      <c r="C488" s="13"/>
     </row>
     <row r="489" ht="21.0" customHeight="1">
-      <c r="A489" s="12"/>
-      <c r="B489" s="12"/>
-      <c r="C489" s="12"/>
+      <c r="A489" s="13"/>
+      <c r="B489" s="13"/>
+      <c r="C489" s="13"/>
     </row>
     <row r="490" ht="21.0" customHeight="1">
-      <c r="A490" s="12"/>
-      <c r="B490" s="12"/>
-      <c r="C490" s="12"/>
+      <c r="A490" s="13"/>
+      <c r="B490" s="13"/>
+      <c r="C490" s="13"/>
     </row>
     <row r="491" ht="21.0" customHeight="1">
-      <c r="A491" s="12"/>
-      <c r="B491" s="12"/>
-      <c r="C491" s="12"/>
+      <c r="A491" s="13"/>
+      <c r="B491" s="13"/>
+      <c r="C491" s="13"/>
     </row>
     <row r="492" ht="21.0" customHeight="1">
-      <c r="A492" s="12"/>
-      <c r="B492" s="12"/>
-      <c r="C492" s="12"/>
+      <c r="A492" s="13"/>
+      <c r="B492" s="13"/>
+      <c r="C492" s="13"/>
     </row>
     <row r="493" ht="21.0" customHeight="1">
-      <c r="A493" s="12"/>
-      <c r="B493" s="12"/>
-      <c r="C493" s="12"/>
+      <c r="A493" s="13"/>
+      <c r="B493" s="13"/>
+      <c r="C493" s="13"/>
     </row>
     <row r="494" ht="21.0" customHeight="1">
-      <c r="A494" s="12"/>
-      <c r="B494" s="12"/>
-      <c r="C494" s="12"/>
+      <c r="A494" s="13"/>
+      <c r="B494" s="13"/>
+      <c r="C494" s="13"/>
     </row>
     <row r="495" ht="21.0" customHeight="1">
-      <c r="A495" s="12"/>
-      <c r="B495" s="12"/>
-      <c r="C495" s="12"/>
+      <c r="A495" s="13"/>
+      <c r="B495" s="13"/>
+      <c r="C495" s="13"/>
     </row>
     <row r="496" ht="21.0" customHeight="1">
-      <c r="A496" s="12"/>
-      <c r="B496" s="12"/>
-      <c r="C496" s="12"/>
+      <c r="A496" s="13"/>
+      <c r="B496" s="13"/>
+      <c r="C496" s="13"/>
     </row>
     <row r="497" ht="21.0" customHeight="1">
-      <c r="A497" s="12"/>
-      <c r="B497" s="12"/>
-      <c r="C497" s="12"/>
+      <c r="A497" s="13"/>
+      <c r="B497" s="13"/>
+      <c r="C497" s="13"/>
     </row>
     <row r="498" ht="21.0" customHeight="1">
-      <c r="A498" s="12"/>
-      <c r="B498" s="12"/>
-      <c r="C498" s="12"/>
+      <c r="A498" s="13"/>
+      <c r="B498" s="13"/>
+      <c r="C498" s="13"/>
     </row>
     <row r="499" ht="21.0" customHeight="1">
-      <c r="A499" s="12"/>
-      <c r="B499" s="12"/>
-      <c r="C499" s="12"/>
+      <c r="A499" s="13"/>
+      <c r="B499" s="13"/>
+      <c r="C499" s="13"/>
     </row>
     <row r="500" ht="21.0" customHeight="1">
-      <c r="A500" s="12"/>
-      <c r="B500" s="12"/>
-      <c r="C500" s="12"/>
+      <c r="A500" s="13"/>
+      <c r="B500" s="13"/>
+      <c r="C500" s="13"/>
     </row>
     <row r="501" ht="21.0" customHeight="1">
-      <c r="A501" s="12"/>
-      <c r="B501" s="12"/>
-      <c r="C501" s="12"/>
+      <c r="A501" s="13"/>
+      <c r="B501" s="13"/>
+      <c r="C501" s="13"/>
     </row>
     <row r="502" ht="21.0" customHeight="1">
-      <c r="A502" s="12"/>
-      <c r="B502" s="12"/>
-      <c r="C502" s="12"/>
+      <c r="A502" s="13"/>
+      <c r="B502" s="13"/>
+      <c r="C502" s="13"/>
     </row>
     <row r="503" ht="21.0" customHeight="1">
-      <c r="A503" s="12"/>
-      <c r="B503" s="12"/>
-      <c r="C503" s="12"/>
+      <c r="A503" s="13"/>
+      <c r="B503" s="13"/>
+      <c r="C503" s="13"/>
     </row>
     <row r="504" ht="21.0" customHeight="1">
-      <c r="A504" s="12"/>
-      <c r="B504" s="12"/>
-      <c r="C504" s="12"/>
+      <c r="A504" s="13"/>
+      <c r="B504" s="13"/>
+      <c r="C504" s="13"/>
     </row>
     <row r="505" ht="21.0" customHeight="1">
-      <c r="A505" s="12"/>
-      <c r="B505" s="12"/>
-      <c r="C505" s="12"/>
+      <c r="A505" s="13"/>
+      <c r="B505" s="13"/>
+      <c r="C505" s="13"/>
     </row>
     <row r="506" ht="21.0" customHeight="1">
-      <c r="A506" s="12"/>
-      <c r="B506" s="12"/>
-      <c r="C506" s="12"/>
+      <c r="A506" s="13"/>
+      <c r="B506" s="13"/>
+      <c r="C506" s="13"/>
     </row>
     <row r="507" ht="21.0" customHeight="1">
-      <c r="A507" s="12"/>
-      <c r="B507" s="12"/>
-      <c r="C507" s="12"/>
+      <c r="A507" s="13"/>
+      <c r="B507" s="13"/>
+      <c r="C507" s="13"/>
     </row>
     <row r="508" ht="21.0" customHeight="1">
-      <c r="A508" s="12"/>
-      <c r="B508" s="12"/>
-      <c r="C508" s="12"/>
+      <c r="A508" s="13"/>
+      <c r="B508" s="13"/>
+      <c r="C508" s="13"/>
     </row>
     <row r="509" ht="21.0" customHeight="1">
-      <c r="A509" s="12"/>
-      <c r="B509" s="12"/>
-      <c r="C509" s="12"/>
+      <c r="A509" s="13"/>
+      <c r="B509" s="13"/>
+      <c r="C509" s="13"/>
     </row>
     <row r="510" ht="21.0" customHeight="1">
-      <c r="A510" s="12"/>
-      <c r="B510" s="12"/>
-      <c r="C510" s="12"/>
+      <c r="A510" s="13"/>
+      <c r="B510" s="13"/>
+      <c r="C510" s="13"/>
     </row>
     <row r="511" ht="21.0" customHeight="1">
-      <c r="A511" s="12"/>
-      <c r="B511" s="12"/>
-      <c r="C511" s="12"/>
+      <c r="A511" s="13"/>
+      <c r="B511" s="13"/>
+      <c r="C511" s="13"/>
     </row>
     <row r="512" ht="21.0" customHeight="1">
-      <c r="A512" s="12"/>
-      <c r="B512" s="12"/>
-      <c r="C512" s="12"/>
+      <c r="A512" s="13"/>
+      <c r="B512" s="13"/>
+      <c r="C512" s="13"/>
     </row>
     <row r="513" ht="21.0" customHeight="1">
-      <c r="A513" s="12"/>
-      <c r="B513" s="12"/>
-      <c r="C513" s="12"/>
+      <c r="A513" s="13"/>
+      <c r="B513" s="13"/>
+      <c r="C513" s="13"/>
     </row>
     <row r="514" ht="21.0" customHeight="1">
-      <c r="A514" s="12"/>
-      <c r="B514" s="12"/>
-      <c r="C514" s="12"/>
+      <c r="A514" s="13"/>
+      <c r="B514" s="13"/>
+      <c r="C514" s="13"/>
     </row>
     <row r="515" ht="21.0" customHeight="1">
-      <c r="A515" s="12"/>
-      <c r="B515" s="12"/>
-      <c r="C515" s="12"/>
+      <c r="A515" s="13"/>
+      <c r="B515" s="13"/>
+      <c r="C515" s="13"/>
     </row>
     <row r="516" ht="21.0" customHeight="1">
-      <c r="A516" s="12"/>
-      <c r="B516" s="12"/>
-      <c r="C516" s="12"/>
+      <c r="A516" s="13"/>
+      <c r="B516" s="13"/>
+      <c r="C516" s="13"/>
     </row>
     <row r="517" ht="21.0" customHeight="1">
-      <c r="A517" s="12"/>
-      <c r="B517" s="12"/>
-      <c r="C517" s="12"/>
+      <c r="A517" s="13"/>
+      <c r="B517" s="13"/>
+      <c r="C517" s="13"/>
     </row>
     <row r="518" ht="21.0" customHeight="1">
-      <c r="A518" s="12"/>
-      <c r="B518" s="12"/>
-      <c r="C518" s="12"/>
+      <c r="A518" s="13"/>
+      <c r="B518" s="13"/>
+      <c r="C518" s="13"/>
     </row>
     <row r="519" ht="21.0" customHeight="1">
-      <c r="A519" s="12"/>
-      <c r="B519" s="12"/>
-      <c r="C519" s="12"/>
+      <c r="A519" s="13"/>
+      <c r="B519" s="13"/>
+      <c r="C519" s="13"/>
     </row>
     <row r="520" ht="21.0" customHeight="1">
-      <c r="A520" s="12"/>
-      <c r="B520" s="12"/>
-      <c r="C520" s="12"/>
+      <c r="A520" s="13"/>
+      <c r="B520" s="13"/>
+      <c r="C520" s="13"/>
     </row>
     <row r="521" ht="21.0" customHeight="1">
-      <c r="A521" s="12"/>
-      <c r="B521" s="12"/>
-      <c r="C521" s="12"/>
+      <c r="A521" s="13"/>
+      <c r="B521" s="13"/>
+      <c r="C521" s="13"/>
     </row>
     <row r="522" ht="21.0" customHeight="1">
-      <c r="A522" s="12"/>
-      <c r="B522" s="12"/>
-      <c r="C522" s="12"/>
+      <c r="A522" s="13"/>
+      <c r="B522" s="13"/>
+      <c r="C522" s="13"/>
     </row>
     <row r="523" ht="21.0" customHeight="1">
-      <c r="A523" s="12"/>
-      <c r="B523" s="12"/>
-      <c r="C523" s="12"/>
+      <c r="A523" s="13"/>
+      <c r="B523" s="13"/>
+      <c r="C523" s="13"/>
     </row>
     <row r="524" ht="21.0" customHeight="1">
-      <c r="A524" s="12"/>
-      <c r="B524" s="12"/>
-      <c r="C524" s="12"/>
+      <c r="A524" s="13"/>
+      <c r="B524" s="13"/>
+      <c r="C524" s="13"/>
     </row>
     <row r="525" ht="21.0" customHeight="1">
-      <c r="A525" s="12"/>
-      <c r="B525" s="12"/>
-      <c r="C525" s="12"/>
+      <c r="A525" s="13"/>
+      <c r="B525" s="13"/>
+      <c r="C525" s="13"/>
     </row>
     <row r="526" ht="21.0" customHeight="1">
-      <c r="A526" s="12"/>
-      <c r="B526" s="12"/>
-      <c r="C526" s="12"/>
+      <c r="A526" s="13"/>
+      <c r="B526" s="13"/>
+      <c r="C526" s="13"/>
     </row>
     <row r="527" ht="21.0" customHeight="1">
-      <c r="A527" s="12"/>
-      <c r="B527" s="12"/>
-      <c r="C527" s="12"/>
+      <c r="A527" s="13"/>
+      <c r="B527" s="13"/>
+      <c r="C527" s="13"/>
     </row>
     <row r="528" ht="21.0" customHeight="1">
-      <c r="A528" s="12"/>
-      <c r="B528" s="12"/>
-      <c r="C528" s="12"/>
+      <c r="A528" s="13"/>
+      <c r="B528" s="13"/>
+      <c r="C528" s="13"/>
     </row>
     <row r="529" ht="21.0" customHeight="1">
-      <c r="A529" s="12"/>
-      <c r="B529" s="12"/>
-      <c r="C529" s="12"/>
+      <c r="A529" s="13"/>
+      <c r="B529" s="13"/>
+      <c r="C529" s="13"/>
     </row>
     <row r="530" ht="21.0" customHeight="1">
-      <c r="A530" s="12"/>
-      <c r="B530" s="12"/>
-      <c r="C530" s="12"/>
+      <c r="A530" s="13"/>
+      <c r="B530" s="13"/>
+      <c r="C530" s="13"/>
     </row>
     <row r="531" ht="21.0" customHeight="1">
-      <c r="A531" s="12"/>
-      <c r="B531" s="12"/>
-      <c r="C531" s="12"/>
+      <c r="A531" s="13"/>
+      <c r="B531" s="13"/>
+      <c r="C531" s="13"/>
     </row>
     <row r="532" ht="21.0" customHeight="1">
-      <c r="A532" s="12"/>
-      <c r="B532" s="12"/>
-      <c r="C532" s="12"/>
+      <c r="A532" s="13"/>
+      <c r="B532" s="13"/>
+      <c r="C532" s="13"/>
     </row>
     <row r="533" ht="21.0" customHeight="1">
-      <c r="A533" s="12"/>
-      <c r="B533" s="12"/>
-      <c r="C533" s="12"/>
+      <c r="A533" s="13"/>
+      <c r="B533" s="13"/>
+      <c r="C533" s="13"/>
     </row>
     <row r="534" ht="21.0" customHeight="1">
-      <c r="A534" s="12"/>
-      <c r="B534" s="12"/>
-      <c r="C534" s="12"/>
+      <c r="A534" s="13"/>
+      <c r="B534" s="13"/>
+      <c r="C534" s="13"/>
     </row>
     <row r="535" ht="21.0" customHeight="1">
-      <c r="A535" s="12"/>
-      <c r="B535" s="12"/>
-      <c r="C535" s="12"/>
+      <c r="A535" s="13"/>
+      <c r="B535" s="13"/>
+      <c r="C535" s="13"/>
     </row>
     <row r="536" ht="21.0" customHeight="1">
-      <c r="A536" s="12"/>
-      <c r="B536" s="12"/>
-      <c r="C536" s="12"/>
+      <c r="A536" s="13"/>
+      <c r="B536" s="13"/>
+      <c r="C536" s="13"/>
     </row>
     <row r="537" ht="21.0" customHeight="1">
-      <c r="A537" s="12"/>
-      <c r="B537" s="12"/>
-      <c r="C537" s="12"/>
+      <c r="A537" s="13"/>
+      <c r="B537" s="13"/>
+      <c r="C537" s="13"/>
     </row>
     <row r="538" ht="21.0" customHeight="1">
-      <c r="A538" s="12"/>
-      <c r="B538" s="12"/>
-      <c r="C538" s="12"/>
+      <c r="A538" s="13"/>
+      <c r="B538" s="13"/>
+      <c r="C538" s="13"/>
     </row>
     <row r="539" ht="21.0" customHeight="1">
-      <c r="A539" s="12"/>
-      <c r="B539" s="12"/>
-      <c r="C539" s="12"/>
+      <c r="A539" s="13"/>
+      <c r="B539" s="13"/>
+      <c r="C539" s="13"/>
     </row>
     <row r="540" ht="21.0" customHeight="1">
-      <c r="A540" s="12"/>
-      <c r="B540" s="12"/>
-      <c r="C540" s="12"/>
+      <c r="A540" s="13"/>
+      <c r="B540" s="13"/>
+      <c r="C540" s="13"/>
     </row>
     <row r="541" ht="21.0" customHeight="1">
-      <c r="A541" s="12"/>
-      <c r="B541" s="12"/>
-      <c r="C541" s="12"/>
+      <c r="A541" s="13"/>
+      <c r="B541" s="13"/>
+      <c r="C541" s="13"/>
     </row>
     <row r="542" ht="21.0" customHeight="1">
-      <c r="A542" s="12"/>
-      <c r="B542" s="12"/>
-      <c r="C542" s="12"/>
+      <c r="A542" s="13"/>
+      <c r="B542" s="13"/>
+      <c r="C542" s="13"/>
     </row>
     <row r="543" ht="21.0" customHeight="1">
-      <c r="A543" s="12"/>
-      <c r="B543" s="12"/>
-      <c r="C543" s="12"/>
+      <c r="A543" s="13"/>
+      <c r="B543" s="13"/>
+      <c r="C543" s="13"/>
     </row>
     <row r="544" ht="21.0" customHeight="1">
-      <c r="A544" s="12"/>
-      <c r="B544" s="12"/>
-      <c r="C544" s="12"/>
+      <c r="A544" s="13"/>
+      <c r="B544" s="13"/>
+      <c r="C544" s="13"/>
     </row>
     <row r="545" ht="21.0" customHeight="1">
-      <c r="A545" s="12"/>
-      <c r="B545" s="12"/>
-      <c r="C545" s="12"/>
+      <c r="A545" s="13"/>
+      <c r="B545" s="13"/>
+      <c r="C545" s="13"/>
     </row>
     <row r="546" ht="21.0" customHeight="1">
-      <c r="A546" s="12"/>
-      <c r="B546" s="12"/>
-      <c r="C546" s="12"/>
+      <c r="A546" s="13"/>
+      <c r="B546" s="13"/>
+      <c r="C546" s="13"/>
     </row>
     <row r="547" ht="21.0" customHeight="1">
-      <c r="A547" s="12"/>
-      <c r="B547" s="12"/>
-      <c r="C547" s="12"/>
+      <c r="A547" s="13"/>
+      <c r="B547" s="13"/>
+      <c r="C547" s="13"/>
     </row>
     <row r="548" ht="21.0" customHeight="1">
-      <c r="A548" s="12"/>
-      <c r="B548" s="12"/>
-      <c r="C548" s="12"/>
+      <c r="A548" s="13"/>
+      <c r="B548" s="13"/>
+      <c r="C548" s="13"/>
     </row>
     <row r="549" ht="21.0" customHeight="1">
-      <c r="A549" s="12"/>
-      <c r="B549" s="12"/>
-      <c r="C549" s="12"/>
+      <c r="A549" s="13"/>
+      <c r="B549" s="13"/>
+      <c r="C549" s="13"/>
     </row>
     <row r="550" ht="21.0" customHeight="1">
-      <c r="A550" s="12"/>
-      <c r="B550" s="12"/>
-      <c r="C550" s="12"/>
+      <c r="A550" s="13"/>
+      <c r="B550" s="13"/>
+      <c r="C550" s="13"/>
     </row>
     <row r="551" ht="21.0" customHeight="1">
-      <c r="A551" s="12"/>
-      <c r="B551" s="12"/>
-      <c r="C551" s="12"/>
+      <c r="A551" s="13"/>
+      <c r="B551" s="13"/>
+      <c r="C551" s="13"/>
     </row>
     <row r="552" ht="21.0" customHeight="1">
-      <c r="A552" s="12"/>
-      <c r="B552" s="12"/>
-      <c r="C552" s="12"/>
+      <c r="A552" s="13"/>
+      <c r="B552" s="13"/>
+      <c r="C552" s="13"/>
     </row>
     <row r="553" ht="21.0" customHeight="1">
-      <c r="A553" s="12"/>
-      <c r="B553" s="12"/>
-      <c r="C553" s="12"/>
+      <c r="A553" s="13"/>
+      <c r="B553" s="13"/>
+      <c r="C553" s="13"/>
     </row>
     <row r="554" ht="21.0" customHeight="1">
-      <c r="A554" s="12"/>
-      <c r="B554" s="12"/>
-      <c r="C554" s="12"/>
+      <c r="A554" s="13"/>
+      <c r="B554" s="13"/>
+      <c r="C554" s="13"/>
     </row>
     <row r="555" ht="21.0" customHeight="1">
-      <c r="A555" s="12"/>
-      <c r="B555" s="12"/>
-      <c r="C555" s="12"/>
+      <c r="A555" s="13"/>
+      <c r="B555" s="13"/>
+      <c r="C555" s="13"/>
     </row>
     <row r="556" ht="21.0" customHeight="1">
-      <c r="A556" s="12"/>
-      <c r="B556" s="12"/>
-      <c r="C556" s="12"/>
+      <c r="A556" s="13"/>
+      <c r="B556" s="13"/>
+      <c r="C556" s="13"/>
     </row>
     <row r="557" ht="21.0" customHeight="1">
-      <c r="A557" s="12"/>
-      <c r="B557" s="12"/>
-      <c r="C557" s="12"/>
+      <c r="A557" s="13"/>
+      <c r="B557" s="13"/>
+      <c r="C557" s="13"/>
     </row>
     <row r="558" ht="21.0" customHeight="1">
-      <c r="A558" s="12"/>
-      <c r="B558" s="12"/>
-      <c r="C558" s="12"/>
+      <c r="A558" s="13"/>
+      <c r="B558" s="13"/>
+      <c r="C558" s="13"/>
     </row>
     <row r="559" ht="21.0" customHeight="1">
-      <c r="A559" s="12"/>
-      <c r="B559" s="12"/>
-      <c r="C559" s="12"/>
+      <c r="A559" s="13"/>
+      <c r="B559" s="13"/>
+      <c r="C559" s="13"/>
     </row>
     <row r="560" ht="21.0" customHeight="1">
-      <c r="A560" s="12"/>
-      <c r="B560" s="12"/>
-      <c r="C560" s="12"/>
+      <c r="A560" s="13"/>
+      <c r="B560" s="13"/>
+      <c r="C560" s="13"/>
     </row>
     <row r="561" ht="21.0" customHeight="1">
-      <c r="A561" s="12"/>
-      <c r="B561" s="12"/>
-      <c r="C561" s="12"/>
+      <c r="A561" s="13"/>
+      <c r="B561" s="13"/>
+      <c r="C561" s="13"/>
     </row>
     <row r="562" ht="21.0" customHeight="1">
-      <c r="A562" s="12"/>
-      <c r="B562" s="12"/>
-      <c r="C562" s="12"/>
+      <c r="A562" s="13"/>
+      <c r="B562" s="13"/>
+      <c r="C562" s="13"/>
     </row>
     <row r="563" ht="21.0" customHeight="1">
-      <c r="A563" s="12"/>
-      <c r="B563" s="12"/>
-      <c r="C563" s="12"/>
+      <c r="A563" s="13"/>
+      <c r="B563" s="13"/>
+      <c r="C563" s="13"/>
     </row>
     <row r="564" ht="21.0" customHeight="1">
-      <c r="A564" s="12"/>
-      <c r="B564" s="12"/>
-      <c r="C564" s="12"/>
+      <c r="A564" s="13"/>
+      <c r="B564" s="13"/>
+      <c r="C564" s="13"/>
     </row>
     <row r="565" ht="21.0" customHeight="1">
-      <c r="A565" s="12"/>
-      <c r="B565" s="12"/>
-      <c r="C565" s="12"/>
+      <c r="A565" s="13"/>
+      <c r="B565" s="13"/>
+      <c r="C565" s="13"/>
     </row>
     <row r="566" ht="21.0" customHeight="1">
-      <c r="A566" s="12"/>
-      <c r="B566" s="12"/>
-      <c r="C566" s="12"/>
+      <c r="A566" s="13"/>
+      <c r="B566" s="13"/>
+      <c r="C566" s="13"/>
     </row>
     <row r="567" ht="21.0" customHeight="1">
-      <c r="A567" s="12"/>
-      <c r="B567" s="12"/>
-      <c r="C567" s="12"/>
+      <c r="A567" s="13"/>
+      <c r="B567" s="13"/>
+      <c r="C567" s="13"/>
     </row>
     <row r="568" ht="21.0" customHeight="1">
-      <c r="A568" s="12"/>
-      <c r="B568" s="12"/>
-      <c r="C568" s="12"/>
+      <c r="A568" s="13"/>
+      <c r="B568" s="13"/>
+      <c r="C568" s="13"/>
     </row>
     <row r="569" ht="21.0" customHeight="1">
-      <c r="A569" s="12"/>
-      <c r="B569" s="12"/>
-      <c r="C569" s="12"/>
+      <c r="A569" s="13"/>
+      <c r="B569" s="13"/>
+      <c r="C569" s="13"/>
     </row>
     <row r="570" ht="21.0" customHeight="1">
-      <c r="A570" s="12"/>
-      <c r="B570" s="12"/>
-      <c r="C570" s="12"/>
+      <c r="A570" s="13"/>
+      <c r="B570" s="13"/>
+      <c r="C570" s="13"/>
     </row>
     <row r="571" ht="21.0" customHeight="1">
-      <c r="A571" s="12"/>
-      <c r="B571" s="12"/>
-      <c r="C571" s="12"/>
+      <c r="A571" s="13"/>
+      <c r="B571" s="13"/>
+      <c r="C571" s="13"/>
     </row>
     <row r="572" ht="21.0" customHeight="1">
-      <c r="A572" s="12"/>
-      <c r="B572" s="12"/>
-      <c r="C572" s="12"/>
+      <c r="A572" s="13"/>
+      <c r="B572" s="13"/>
+      <c r="C572" s="13"/>
     </row>
     <row r="573" ht="21.0" customHeight="1">
-      <c r="A573" s="12"/>
-      <c r="B573" s="12"/>
-      <c r="C573" s="12"/>
+      <c r="A573" s="13"/>
+      <c r="B573" s="13"/>
+      <c r="C573" s="13"/>
     </row>
     <row r="574" ht="21.0" customHeight="1">
-      <c r="A574" s="12"/>
-      <c r="B574" s="12"/>
-      <c r="C574" s="12"/>
+      <c r="A574" s="13"/>
+      <c r="B574" s="13"/>
+      <c r="C574" s="13"/>
     </row>
     <row r="575" ht="21.0" customHeight="1">
-      <c r="A575" s="12"/>
-      <c r="B575" s="12"/>
-      <c r="C575" s="12"/>
+      <c r="A575" s="13"/>
+      <c r="B575" s="13"/>
+      <c r="C575" s="13"/>
     </row>
     <row r="576" ht="21.0" customHeight="1">
-      <c r="A576" s="12"/>
-      <c r="B576" s="12"/>
-      <c r="C576" s="12"/>
+      <c r="A576" s="13"/>
+      <c r="B576" s="13"/>
+      <c r="C576" s="13"/>
     </row>
     <row r="577" ht="21.0" customHeight="1">
-      <c r="A577" s="12"/>
-      <c r="B577" s="12"/>
-      <c r="C577" s="12"/>
+      <c r="A577" s="13"/>
+      <c r="B577" s="13"/>
+      <c r="C577" s="13"/>
     </row>
     <row r="578" ht="21.0" customHeight="1">
-      <c r="A578" s="12"/>
-      <c r="B578" s="12"/>
-      <c r="C578" s="12"/>
+      <c r="A578" s="13"/>
+      <c r="B578" s="13"/>
+      <c r="C578" s="13"/>
     </row>
     <row r="579" ht="21.0" customHeight="1">
-      <c r="A579" s="12"/>
-      <c r="B579" s="12"/>
-      <c r="C579" s="12"/>
+      <c r="A579" s="13"/>
+      <c r="B579" s="13"/>
+      <c r="C579" s="13"/>
     </row>
     <row r="580" ht="21.0" customHeight="1">
-      <c r="A580" s="12"/>
-      <c r="B580" s="12"/>
-      <c r="C580" s="12"/>
+      <c r="A580" s="13"/>
+      <c r="B580" s="13"/>
+      <c r="C580" s="13"/>
     </row>
     <row r="581" ht="21.0" customHeight="1">
-      <c r="A581" s="12"/>
-      <c r="B581" s="12"/>
-      <c r="C581" s="12"/>
+      <c r="A581" s="13"/>
+      <c r="B581" s="13"/>
+      <c r="C581" s="13"/>
     </row>
     <row r="582" ht="21.0" customHeight="1">
-      <c r="A582" s="12"/>
-      <c r="B582" s="12"/>
-      <c r="C582" s="12"/>
+      <c r="A582" s="13"/>
+      <c r="B582" s="13"/>
+      <c r="C582" s="13"/>
     </row>
     <row r="583" ht="21.0" customHeight="1">
-      <c r="A583" s="12"/>
-      <c r="B583" s="12"/>
-      <c r="C583" s="12"/>
+      <c r="A583" s="13"/>
+      <c r="B583" s="13"/>
+      <c r="C583" s="13"/>
     </row>
     <row r="584" ht="21.0" customHeight="1">
-      <c r="A584" s="12"/>
-      <c r="B584" s="12"/>
-      <c r="C584" s="12"/>
+      <c r="A584" s="13"/>
+      <c r="B584" s="13"/>
+      <c r="C584" s="13"/>
     </row>
     <row r="585" ht="21.0" customHeight="1">
-      <c r="A585" s="12"/>
-      <c r="B585" s="12"/>
-      <c r="C585" s="12"/>
+      <c r="A585" s="13"/>
+      <c r="B585" s="13"/>
+      <c r="C585" s="13"/>
     </row>
     <row r="586" ht="21.0" customHeight="1">
-      <c r="A586" s="12"/>
-      <c r="B586" s="12"/>
-      <c r="C586" s="12"/>
+      <c r="A586" s="13"/>
+      <c r="B586" s="13"/>
+      <c r="C586" s="13"/>
     </row>
     <row r="587" ht="21.0" customHeight="1">
-      <c r="A587" s="12"/>
-      <c r="B587" s="12"/>
-      <c r="C587" s="12"/>
+      <c r="A587" s="13"/>
+      <c r="B587" s="13"/>
+      <c r="C587" s="13"/>
     </row>
     <row r="588" ht="21.0" customHeight="1">
-      <c r="A588" s="12"/>
-      <c r="B588" s="12"/>
-      <c r="C588" s="12"/>
+      <c r="A588" s="13"/>
+      <c r="B588" s="13"/>
+      <c r="C588" s="13"/>
     </row>
     <row r="589" ht="21.0" customHeight="1">
-      <c r="A589" s="12"/>
-      <c r="B589" s="12"/>
-      <c r="C589" s="12"/>
+      <c r="A589" s="13"/>
+      <c r="B589" s="13"/>
+      <c r="C589" s="13"/>
     </row>
     <row r="590" ht="21.0" customHeight="1">
-      <c r="A590" s="12"/>
-      <c r="B590" s="12"/>
-      <c r="C590" s="12"/>
+      <c r="A590" s="13"/>
+      <c r="B590" s="13"/>
+      <c r="C590" s="13"/>
     </row>
     <row r="591" ht="21.0" customHeight="1">
-      <c r="A591" s="12"/>
-      <c r="B591" s="12"/>
-      <c r="C591" s="12"/>
+      <c r="A591" s="13"/>
+      <c r="B591" s="13"/>
+      <c r="C591" s="13"/>
     </row>
     <row r="592" ht="21.0" customHeight="1">
-      <c r="A592" s="12"/>
-      <c r="B592" s="12"/>
-      <c r="C592" s="12"/>
+      <c r="A592" s="13"/>
+      <c r="B592" s="13"/>
+      <c r="C592" s="13"/>
     </row>
     <row r="593" ht="21.0" customHeight="1">
-      <c r="A593" s="12"/>
-      <c r="B593" s="12"/>
-      <c r="C593" s="12"/>
+      <c r="A593" s="13"/>
+      <c r="B593" s="13"/>
+      <c r="C593" s="13"/>
     </row>
     <row r="594" ht="21.0" customHeight="1">
-      <c r="A594" s="12"/>
-      <c r="B594" s="12"/>
-      <c r="C594" s="12"/>
+      <c r="A594" s="13"/>
+      <c r="B594" s="13"/>
+      <c r="C594" s="13"/>
     </row>
     <row r="595" ht="21.0" customHeight="1">
-      <c r="A595" s="12"/>
-      <c r="B595" s="12"/>
-      <c r="C595" s="12"/>
+      <c r="A595" s="13"/>
+      <c r="B595" s="13"/>
+      <c r="C595" s="13"/>
     </row>
     <row r="596" ht="21.0" customHeight="1">
-      <c r="A596" s="12"/>
-      <c r="B596" s="12"/>
-      <c r="C596" s="12"/>
+      <c r="A596" s="13"/>
+      <c r="B596" s="13"/>
+      <c r="C596" s="13"/>
     </row>
     <row r="597" ht="21.0" customHeight="1">
-      <c r="A597" s="12"/>
-      <c r="B597" s="12"/>
-      <c r="C597" s="12"/>
+      <c r="A597" s="13"/>
+      <c r="B597" s="13"/>
+      <c r="C597" s="13"/>
     </row>
     <row r="598" ht="21.0" customHeight="1">
-      <c r="A598" s="12"/>
-      <c r="B598" s="12"/>
-      <c r="C598" s="12"/>
+      <c r="A598" s="13"/>
+      <c r="B598" s="13"/>
+      <c r="C598" s="13"/>
     </row>
     <row r="599" ht="21.0" customHeight="1">
-      <c r="A599" s="12"/>
-      <c r="B599" s="12"/>
-      <c r="C599" s="12"/>
+      <c r="A599" s="13"/>
+      <c r="B599" s="13"/>
+      <c r="C599" s="13"/>
     </row>
     <row r="600" ht="21.0" customHeight="1">
-      <c r="A600" s="12"/>
-      <c r="B600" s="12"/>
-      <c r="C600" s="12"/>
+      <c r="A600" s="13"/>
+      <c r="B600" s="13"/>
+      <c r="C600" s="13"/>
     </row>
     <row r="601" ht="21.0" customHeight="1">
-      <c r="A601" s="12"/>
-      <c r="B601" s="12"/>
-      <c r="C601" s="12"/>
+      <c r="A601" s="13"/>
+      <c r="B601" s="13"/>
+      <c r="C601" s="13"/>
     </row>
     <row r="602" ht="21.0" customHeight="1">
-      <c r="A602" s="12"/>
-      <c r="B602" s="12"/>
-      <c r="C602" s="12"/>
+      <c r="A602" s="13"/>
+      <c r="B602" s="13"/>
+      <c r="C602" s="13"/>
     </row>
     <row r="603" ht="21.0" customHeight="1">
-      <c r="A603" s="12"/>
-      <c r="B603" s="12"/>
-      <c r="C603" s="12"/>
+      <c r="A603" s="13"/>
+      <c r="B603" s="13"/>
+      <c r="C603" s="13"/>
     </row>
     <row r="604" ht="21.0" customHeight="1">
-      <c r="A604" s="12"/>
-      <c r="B604" s="12"/>
-      <c r="C604" s="12"/>
+      <c r="A604" s="13"/>
+      <c r="B604" s="13"/>
+      <c r="C604" s="13"/>
     </row>
     <row r="605" ht="21.0" customHeight="1">
-      <c r="A605" s="12"/>
-      <c r="B605" s="12"/>
-      <c r="C605" s="12"/>
+      <c r="A605" s="13"/>
+      <c r="B605" s="13"/>
+      <c r="C605" s="13"/>
     </row>
     <row r="606" ht="21.0" customHeight="1">
-      <c r="A606" s="12"/>
-      <c r="B606" s="12"/>
-      <c r="C606" s="12"/>
+      <c r="A606" s="13"/>
+      <c r="B606" s="13"/>
+      <c r="C606" s="13"/>
     </row>
     <row r="607" ht="21.0" customHeight="1">
-      <c r="A607" s="12"/>
-      <c r="B607" s="12"/>
-      <c r="C607" s="12"/>
+      <c r="A607" s="13"/>
+      <c r="B607" s="13"/>
+      <c r="C607" s="13"/>
     </row>
     <row r="608" ht="21.0" customHeight="1">
-      <c r="A608" s="12"/>
-      <c r="B608" s="12"/>
-      <c r="C608" s="12"/>
+      <c r="A608" s="13"/>
+      <c r="B608" s="13"/>
+      <c r="C608" s="13"/>
     </row>
     <row r="609" ht="21.0" customHeight="1">
-      <c r="A609" s="12"/>
-      <c r="B609" s="12"/>
-      <c r="C609" s="12"/>
+      <c r="A609" s="13"/>
+      <c r="B609" s="13"/>
+      <c r="C609" s="13"/>
     </row>
     <row r="610" ht="21.0" customHeight="1">
-      <c r="A610" s="12"/>
-      <c r="B610" s="12"/>
-      <c r="C610" s="12"/>
+      <c r="A610" s="13"/>
+      <c r="B610" s="13"/>
+      <c r="C610" s="13"/>
     </row>
     <row r="611" ht="21.0" customHeight="1">
-      <c r="A611" s="12"/>
-      <c r="B611" s="12"/>
-      <c r="C611" s="12"/>
+      <c r="A611" s="13"/>
+      <c r="B611" s="13"/>
+      <c r="C611" s="13"/>
     </row>
     <row r="612" ht="21.0" customHeight="1">
-      <c r="A612" s="12"/>
-      <c r="B612" s="12"/>
-      <c r="C612" s="12"/>
+      <c r="A612" s="13"/>
+      <c r="B612" s="13"/>
+      <c r="C612" s="13"/>
     </row>
     <row r="613" ht="21.0" customHeight="1">
-      <c r="A613" s="12"/>
-      <c r="B613" s="12"/>
-      <c r="C613" s="12"/>
+      <c r="A613" s="13"/>
+      <c r="B613" s="13"/>
+      <c r="C613" s="13"/>
     </row>
     <row r="614" ht="21.0" customHeight="1">
-      <c r="A614" s="12"/>
-      <c r="B614" s="12"/>
-      <c r="C614" s="12"/>
+      <c r="A614" s="13"/>
+      <c r="B614" s="13"/>
+      <c r="C614" s="13"/>
     </row>
     <row r="615" ht="21.0" customHeight="1">
-      <c r="A615" s="12"/>
-      <c r="B615" s="12"/>
-      <c r="C615" s="12"/>
+      <c r="A615" s="13"/>
+      <c r="B615" s="13"/>
+      <c r="C615" s="13"/>
     </row>
     <row r="616" ht="21.0" customHeight="1">
-      <c r="A616" s="12"/>
-      <c r="B616" s="12"/>
-      <c r="C616" s="12"/>
+      <c r="A616" s="13"/>
+      <c r="B616" s="13"/>
+      <c r="C616" s="13"/>
     </row>
     <row r="617" ht="21.0" customHeight="1">
-      <c r="A617" s="12"/>
-      <c r="B617" s="12"/>
-      <c r="C617" s="12"/>
+      <c r="A617" s="13"/>
+      <c r="B617" s="13"/>
+      <c r="C617" s="13"/>
     </row>
     <row r="618" ht="21.0" customHeight="1">
-      <c r="A618" s="12"/>
-      <c r="B618" s="12"/>
-      <c r="C618" s="12"/>
+      <c r="A618" s="13"/>
+      <c r="B618" s="13"/>
+      <c r="C618" s="13"/>
     </row>
     <row r="619" ht="21.0" customHeight="1">
-      <c r="A619" s="12"/>
-      <c r="B619" s="12"/>
-      <c r="C619" s="12"/>
+      <c r="A619" s="13"/>
+      <c r="B619" s="13"/>
+      <c r="C619" s="13"/>
     </row>
     <row r="620" ht="21.0" customHeight="1">
-      <c r="A620" s="12"/>
-      <c r="B620" s="12"/>
-      <c r="C620" s="12"/>
+      <c r="A620" s="13"/>
+      <c r="B620" s="13"/>
+      <c r="C620" s="13"/>
     </row>
     <row r="621" ht="21.0" customHeight="1">
-      <c r="A621" s="12"/>
-      <c r="B621" s="12"/>
-      <c r="C621" s="12"/>
+      <c r="A621" s="13"/>
+      <c r="B621" s="13"/>
+      <c r="C621" s="13"/>
     </row>
     <row r="622" ht="21.0" customHeight="1">
-      <c r="A622" s="12"/>
-      <c r="B622" s="12"/>
-      <c r="C622" s="12"/>
+      <c r="A622" s="13"/>
+      <c r="B622" s="13"/>
+      <c r="C622" s="13"/>
     </row>
     <row r="623" ht="21.0" customHeight="1">
-      <c r="A623" s="12"/>
-      <c r="B623" s="12"/>
-      <c r="C623" s="12"/>
+      <c r="A623" s="13"/>
+      <c r="B623" s="13"/>
+      <c r="C623" s="13"/>
     </row>
     <row r="624" ht="21.0" customHeight="1">
-      <c r="A624" s="12"/>
-      <c r="B624" s="12"/>
-      <c r="C624" s="12"/>
+      <c r="A624" s="13"/>
+      <c r="B624" s="13"/>
+      <c r="C624" s="13"/>
     </row>
     <row r="625" ht="21.0" customHeight="1">
-      <c r="A625" s="12"/>
-      <c r="B625" s="12"/>
-      <c r="C625" s="12"/>
+      <c r="A625" s="13"/>
+      <c r="B625" s="13"/>
+      <c r="C625" s="13"/>
     </row>
     <row r="626" ht="21.0" customHeight="1">
-      <c r="A626" s="12"/>
-      <c r="B626" s="12"/>
-      <c r="C626" s="12"/>
+      <c r="A626" s="13"/>
+      <c r="B626" s="13"/>
+      <c r="C626" s="13"/>
     </row>
     <row r="627" ht="21.0" customHeight="1">
-      <c r="A627" s="12"/>
-      <c r="B627" s="12"/>
-      <c r="C627" s="12"/>
+      <c r="A627" s="13"/>
+      <c r="B627" s="13"/>
+      <c r="C627" s="13"/>
     </row>
     <row r="628" ht="21.0" customHeight="1">
-      <c r="A628" s="12"/>
-      <c r="B628" s="12"/>
-      <c r="C628" s="12"/>
+      <c r="A628" s="13"/>
+      <c r="B628" s="13"/>
+      <c r="C628" s="13"/>
     </row>
     <row r="629" ht="21.0" customHeight="1">
-      <c r="A629" s="12"/>
-      <c r="B629" s="12"/>
-      <c r="C629" s="12"/>
+      <c r="A629" s="13"/>
+      <c r="B629" s="13"/>
+      <c r="C629" s="13"/>
     </row>
     <row r="630" ht="21.0" customHeight="1">
-      <c r="A630" s="12"/>
-      <c r="B630" s="12"/>
-      <c r="C630" s="12"/>
+      <c r="A630" s="13"/>
+      <c r="B630" s="13"/>
+      <c r="C630" s="13"/>
     </row>
     <row r="631" ht="21.0" customHeight="1">
-      <c r="A631" s="12"/>
-      <c r="B631" s="12"/>
-      <c r="C631" s="12"/>
+      <c r="A631" s="13"/>
+      <c r="B631" s="13"/>
+      <c r="C631" s="13"/>
     </row>
     <row r="632" ht="21.0" customHeight="1">
-      <c r="A632" s="12"/>
-      <c r="B632" s="12"/>
-      <c r="C632" s="12"/>
+      <c r="A632" s="13"/>
+      <c r="B632" s="13"/>
+      <c r="C632" s="13"/>
     </row>
     <row r="633" ht="21.0" customHeight="1">
-      <c r="A633" s="12"/>
-      <c r="B633" s="12"/>
-      <c r="C633" s="12"/>
+      <c r="A633" s="13"/>
+      <c r="B633" s="13"/>
+      <c r="C633" s="13"/>
     </row>
     <row r="634" ht="21.0" customHeight="1">
-      <c r="A634" s="12"/>
-      <c r="B634" s="12"/>
-      <c r="C634" s="12"/>
+      <c r="A634" s="13"/>
+      <c r="B634" s="13"/>
+      <c r="C634" s="13"/>
     </row>
     <row r="635" ht="21.0" customHeight="1">
-      <c r="A635" s="12"/>
-      <c r="B635" s="12"/>
-      <c r="C635" s="12"/>
+      <c r="A635" s="13"/>
+      <c r="B635" s="13"/>
+      <c r="C635" s="13"/>
     </row>
     <row r="636" ht="21.0" customHeight="1">
-      <c r="A636" s="12"/>
-      <c r="B636" s="12"/>
-      <c r="C636" s="12"/>
+      <c r="A636" s="13"/>
+      <c r="B636" s="13"/>
+      <c r="C636" s="13"/>
     </row>
     <row r="637" ht="21.0" customHeight="1">
-      <c r="A637" s="12"/>
-      <c r="B637" s="12"/>
-      <c r="C637" s="12"/>
+      <c r="A637" s="13"/>
+      <c r="B637" s="13"/>
+      <c r="C637" s="13"/>
     </row>
     <row r="638" ht="21.0" customHeight="1">
-      <c r="A638" s="12"/>
-      <c r="B638" s="12"/>
-      <c r="C638" s="12"/>
+      <c r="A638" s="13"/>
+      <c r="B638" s="13"/>
+      <c r="C638" s="13"/>
     </row>
     <row r="639" ht="21.0" customHeight="1">
-      <c r="A639" s="12"/>
-      <c r="B639" s="12"/>
-      <c r="C639" s="12"/>
+      <c r="A639" s="13"/>
+      <c r="B639" s="13"/>
+      <c r="C639" s="13"/>
     </row>
     <row r="640" ht="21.0" customHeight="1">
-      <c r="A640" s="12"/>
-      <c r="B640" s="12"/>
-      <c r="C640" s="12"/>
+      <c r="A640" s="13"/>
+      <c r="B640" s="13"/>
+      <c r="C640" s="13"/>
     </row>
     <row r="641" ht="21.0" customHeight="1">
-      <c r="A641" s="12"/>
-      <c r="B641" s="12"/>
-      <c r="C641" s="12"/>
+      <c r="A641" s="13"/>
+      <c r="B641" s="13"/>
+      <c r="C641" s="13"/>
     </row>
     <row r="642" ht="21.0" customHeight="1">
-      <c r="A642" s="12"/>
-      <c r="B642" s="12"/>
-      <c r="C642" s="12"/>
+      <c r="A642" s="13"/>
+      <c r="B642" s="13"/>
+      <c r="C642" s="13"/>
     </row>
     <row r="643" ht="21.0" customHeight="1">
-      <c r="A643" s="12"/>
-      <c r="B643" s="12"/>
-      <c r="C643" s="12"/>
+      <c r="A643" s="13"/>
+      <c r="B643" s="13"/>
+      <c r="C643" s="13"/>
     </row>
     <row r="644" ht="21.0" customHeight="1">
-      <c r="A644" s="12"/>
-      <c r="B644" s="12"/>
-      <c r="C644" s="12"/>
+      <c r="A644" s="13"/>
+      <c r="B644" s="13"/>
+      <c r="C644" s="13"/>
     </row>
     <row r="645" ht="21.0" customHeight="1">
-      <c r="A645" s="12"/>
-      <c r="B645" s="12"/>
-      <c r="C645" s="12"/>
+      <c r="A645" s="13"/>
+      <c r="B645" s="13"/>
+      <c r="C645" s="13"/>
     </row>
     <row r="646" ht="21.0" customHeight="1">
-      <c r="A646" s="12"/>
-      <c r="B646" s="12"/>
-      <c r="C646" s="12"/>
+      <c r="A646" s="13"/>
+      <c r="B646" s="13"/>
+      <c r="C646" s="13"/>
     </row>
     <row r="647" ht="21.0" customHeight="1">
-      <c r="A647" s="12"/>
-      <c r="B647" s="12"/>
-      <c r="C647" s="12"/>
+      <c r="A647" s="13"/>
+      <c r="B647" s="13"/>
+      <c r="C647" s="13"/>
     </row>
     <row r="648" ht="21.0" customHeight="1">
-      <c r="A648" s="12"/>
-      <c r="B648" s="12"/>
-      <c r="C648" s="12"/>
+      <c r="A648" s="13"/>
+      <c r="B648" s="13"/>
+      <c r="C648" s="13"/>
     </row>
     <row r="649" ht="21.0" customHeight="1">
-      <c r="A649" s="12"/>
-      <c r="B649" s="12"/>
-      <c r="C649" s="12"/>
+      <c r="A649" s="13"/>
+      <c r="B649" s="13"/>
+      <c r="C649" s="13"/>
     </row>
     <row r="650" ht="21.0" customHeight="1">
-      <c r="A650" s="12"/>
-      <c r="B650" s="12"/>
-      <c r="C650" s="12"/>
+      <c r="A650" s="13"/>
+      <c r="B650" s="13"/>
+      <c r="C650" s="13"/>
     </row>
     <row r="651" ht="21.0" customHeight="1">
-      <c r="A651" s="12"/>
-      <c r="B651" s="12"/>
-      <c r="C651" s="12"/>
+      <c r="A651" s="13"/>
+      <c r="B651" s="13"/>
+      <c r="C651" s="13"/>
     </row>
     <row r="652" ht="21.0" customHeight="1">
-      <c r="A652" s="12"/>
-      <c r="B652" s="12"/>
-      <c r="C652" s="12"/>
+      <c r="A652" s="13"/>
+      <c r="B652" s="13"/>
+      <c r="C652" s="13"/>
     </row>
     <row r="653" ht="21.0" customHeight="1">
-      <c r="A653" s="12"/>
-      <c r="B653" s="12"/>
-      <c r="C653" s="12"/>
+      <c r="A653" s="13"/>
+      <c r="B653" s="13"/>
+      <c r="C653" s="13"/>
     </row>
     <row r="654" ht="21.0" customHeight="1">
-      <c r="A654" s="12"/>
-      <c r="B654" s="12"/>
-      <c r="C654" s="12"/>
+      <c r="A654" s="13"/>
+      <c r="B654" s="13"/>
+      <c r="C654" s="13"/>
     </row>
     <row r="655" ht="21.0" customHeight="1">
-      <c r="A655" s="12"/>
-      <c r="B655" s="12"/>
-      <c r="C655" s="12"/>
+      <c r="A655" s="13"/>
+      <c r="B655" s="13"/>
+      <c r="C655" s="13"/>
     </row>
     <row r="656" ht="21.0" customHeight="1">
-      <c r="A656" s="12"/>
-      <c r="B656" s="12"/>
-      <c r="C656" s="12"/>
+      <c r="A656" s="13"/>
+      <c r="B656" s="13"/>
+      <c r="C656" s="13"/>
     </row>
     <row r="657" ht="21.0" customHeight="1">
-      <c r="A657" s="12"/>
-      <c r="B657" s="12"/>
-      <c r="C657" s="12"/>
+      <c r="A657" s="13"/>
+      <c r="B657" s="13"/>
+      <c r="C657" s="13"/>
     </row>
     <row r="658" ht="21.0" customHeight="1">
-      <c r="A658" s="12"/>
-      <c r="B658" s="12"/>
-      <c r="C658" s="12"/>
+      <c r="A658" s="13"/>
+      <c r="B658" s="13"/>
+      <c r="C658" s="13"/>
     </row>
     <row r="659" ht="21.0" customHeight="1">
-      <c r="A659" s="12"/>
-      <c r="B659" s="12"/>
-      <c r="C659" s="12"/>
+      <c r="A659" s="13"/>
+      <c r="B659" s="13"/>
+      <c r="C659" s="13"/>
     </row>
     <row r="660" ht="21.0" customHeight="1">
-      <c r="A660" s="12"/>
-      <c r="B660" s="12"/>
-      <c r="C660" s="12"/>
+      <c r="A660" s="13"/>
+      <c r="B660" s="13"/>
+      <c r="C660" s="13"/>
     </row>
     <row r="661" ht="21.0" customHeight="1">
-      <c r="A661" s="12"/>
-      <c r="B661" s="12"/>
-      <c r="C661" s="12"/>
+      <c r="A661" s="13"/>
+      <c r="B661" s="13"/>
+      <c r="C661" s="13"/>
     </row>
     <row r="662" ht="21.0" customHeight="1">
-      <c r="A662" s="12"/>
-      <c r="B662" s="12"/>
-      <c r="C662" s="12"/>
+      <c r="A662" s="13"/>
+      <c r="B662" s="13"/>
+      <c r="C662" s="13"/>
     </row>
     <row r="663" ht="21.0" customHeight="1">
-      <c r="A663" s="12"/>
-      <c r="B663" s="12"/>
-      <c r="C663" s="12"/>
+      <c r="A663" s="13"/>
+      <c r="B663" s="13"/>
+      <c r="C663" s="13"/>
     </row>
     <row r="664" ht="21.0" customHeight="1">
-      <c r="A664" s="12"/>
-      <c r="B664" s="12"/>
-      <c r="C664" s="12"/>
+      <c r="A664" s="13"/>
+      <c r="B664" s="13"/>
+      <c r="C664" s="13"/>
     </row>
     <row r="665" ht="21.0" customHeight="1">
-      <c r="A665" s="12"/>
-      <c r="B665" s="12"/>
-      <c r="C665" s="12"/>
+      <c r="A665" s="13"/>
+      <c r="B665" s="13"/>
+      <c r="C665" s="13"/>
     </row>
     <row r="666" ht="21.0" customHeight="1">
-      <c r="A666" s="12"/>
-      <c r="B666" s="12"/>
-      <c r="C666" s="12"/>
+      <c r="A666" s="13"/>
+      <c r="B666" s="13"/>
+      <c r="C666" s="13"/>
     </row>
     <row r="667" ht="21.0" customHeight="1">
-      <c r="A667" s="12"/>
-      <c r="B667" s="12"/>
-      <c r="C667" s="12"/>
+      <c r="A667" s="13"/>
+      <c r="B667" s="13"/>
+      <c r="C667" s="13"/>
     </row>
     <row r="668" ht="21.0" customHeight="1">
-      <c r="A668" s="12"/>
-      <c r="B668" s="12"/>
-      <c r="C668" s="12"/>
+      <c r="A668" s="13"/>
+      <c r="B668" s="13"/>
+      <c r="C668" s="13"/>
     </row>
     <row r="669" ht="21.0" customHeight="1">
-      <c r="A669" s="12"/>
-      <c r="B669" s="12"/>
-      <c r="C669" s="12"/>
+      <c r="A669" s="13"/>
+      <c r="B669" s="13"/>
+      <c r="C669" s="13"/>
     </row>
     <row r="670" ht="21.0" customHeight="1">
-      <c r="A670" s="12"/>
-      <c r="B670" s="12"/>
-      <c r="C670" s="12"/>
+      <c r="A670" s="13"/>
+      <c r="B670" s="13"/>
+      <c r="C670" s="13"/>
     </row>
     <row r="671" ht="21.0" customHeight="1">
-      <c r="A671" s="12"/>
-      <c r="B671" s="12"/>
-      <c r="C671" s="12"/>
+      <c r="A671" s="13"/>
+      <c r="B671" s="13"/>
+      <c r="C671" s="13"/>
     </row>
     <row r="672" ht="21.0" customHeight="1">
-      <c r="A672" s="12"/>
-      <c r="B672" s="12"/>
-      <c r="C672" s="12"/>
+      <c r="A672" s="13"/>
+      <c r="B672" s="13"/>
+      <c r="C672" s="13"/>
     </row>
     <row r="673" ht="21.0" customHeight="1">
-      <c r="A673" s="12"/>
-      <c r="B673" s="12"/>
-      <c r="C673" s="12"/>
+      <c r="A673" s="13"/>
+      <c r="B673" s="13"/>
+      <c r="C673" s="13"/>
     </row>
     <row r="674" ht="21.0" customHeight="1">
-      <c r="A674" s="12"/>
-      <c r="B674" s="12"/>
-      <c r="C674" s="12"/>
+      <c r="A674" s="13"/>
+      <c r="B674" s="13"/>
+      <c r="C674" s="13"/>
     </row>
     <row r="675" ht="21.0" customHeight="1">
-      <c r="A675" s="12"/>
-      <c r="B675" s="12"/>
-      <c r="C675" s="12"/>
+      <c r="A675" s="13"/>
+      <c r="B675" s="13"/>
+      <c r="C675" s="13"/>
     </row>
     <row r="676" ht="21.0" customHeight="1">
-      <c r="A676" s="12"/>
-      <c r="B676" s="12"/>
-      <c r="C676" s="12"/>
+      <c r="A676" s="13"/>
+      <c r="B676" s="13"/>
+      <c r="C676" s="13"/>
     </row>
     <row r="677" ht="21.0" customHeight="1">
-      <c r="A677" s="12"/>
-      <c r="B677" s="12"/>
-      <c r="C677" s="12"/>
+      <c r="A677" s="13"/>
+      <c r="B677" s="13"/>
+      <c r="C677" s="13"/>
     </row>
     <row r="678" ht="21.0" customHeight="1">
-      <c r="A678" s="12"/>
-      <c r="B678" s="12"/>
-      <c r="C678" s="12"/>
+      <c r="A678" s="13"/>
+      <c r="B678" s="13"/>
+      <c r="C678" s="13"/>
     </row>
     <row r="679" ht="21.0" customHeight="1">
-      <c r="A679" s="12"/>
-      <c r="B679" s="12"/>
-      <c r="C679" s="12"/>
+      <c r="A679" s="13"/>
+      <c r="B679" s="13"/>
+      <c r="C679" s="13"/>
     </row>
     <row r="680" ht="21.0" customHeight="1">
-      <c r="A680" s="12"/>
-      <c r="B680" s="12"/>
-      <c r="C680" s="12"/>
+      <c r="A680" s="13"/>
+      <c r="B680" s="13"/>
+      <c r="C680" s="13"/>
     </row>
     <row r="681" ht="21.0" customHeight="1">
-      <c r="A681" s="12"/>
-      <c r="B681" s="12"/>
-      <c r="C681" s="12"/>
+      <c r="A681" s="13"/>
+      <c r="B681" s="13"/>
+      <c r="C681" s="13"/>
     </row>
     <row r="682" ht="21.0" customHeight="1">
-      <c r="A682" s="12"/>
-      <c r="B682" s="12"/>
-      <c r="C682" s="12"/>
+      <c r="A682" s="13"/>
+      <c r="B682" s="13"/>
+      <c r="C682" s="13"/>
     </row>
     <row r="683" ht="21.0" customHeight="1">
-      <c r="A683" s="12"/>
-      <c r="B683" s="12"/>
-      <c r="C683" s="12"/>
+      <c r="A683" s="13"/>
+      <c r="B683" s="13"/>
+      <c r="C683" s="13"/>
     </row>
     <row r="684" ht="21.0" customHeight="1">
-      <c r="A684" s="12"/>
-      <c r="B684" s="12"/>
-      <c r="C684" s="12"/>
+      <c r="A684" s="13"/>
+      <c r="B684" s="13"/>
+      <c r="C684" s="13"/>
     </row>
     <row r="685" ht="21.0" customHeight="1">
-      <c r="A685" s="12"/>
-      <c r="B685" s="12"/>
-      <c r="C685" s="12"/>
+      <c r="A685" s="13"/>
+      <c r="B685" s="13"/>
+      <c r="C685" s="13"/>
     </row>
     <row r="686" ht="21.0" customHeight="1">
-      <c r="A686" s="12"/>
-      <c r="B686" s="12"/>
-      <c r="C686" s="12"/>
+      <c r="A686" s="13"/>
+      <c r="B686" s="13"/>
+      <c r="C686" s="13"/>
     </row>
     <row r="687" ht="21.0" customHeight="1">
-      <c r="A687" s="12"/>
-      <c r="B687" s="12"/>
-      <c r="C687" s="12"/>
+      <c r="A687" s="13"/>
+      <c r="B687" s="13"/>
+      <c r="C687" s="13"/>
     </row>
     <row r="688" ht="21.0" customHeight="1">
-      <c r="A688" s="12"/>
-      <c r="B688" s="12"/>
-      <c r="C688" s="12"/>
+      <c r="A688" s="13"/>
+      <c r="B688" s="13"/>
+      <c r="C688" s="13"/>
     </row>
     <row r="689" ht="21.0" customHeight="1">
-      <c r="A689" s="12"/>
-      <c r="B689" s="12"/>
-      <c r="C689" s="12"/>
+      <c r="A689" s="13"/>
+      <c r="B689" s="13"/>
+      <c r="C689" s="13"/>
     </row>
     <row r="690" ht="21.0" customHeight="1">
-      <c r="A690" s="12"/>
-      <c r="B690" s="12"/>
-      <c r="C690" s="12"/>
+      <c r="A690" s="13"/>
+      <c r="B690" s="13"/>
+      <c r="C690" s="13"/>
     </row>
     <row r="691" ht="21.0" customHeight="1">
-      <c r="A691" s="12"/>
-      <c r="B691" s="12"/>
-      <c r="C691" s="12"/>
+      <c r="A691" s="13"/>
+      <c r="B691" s="13"/>
+      <c r="C691" s="13"/>
     </row>
     <row r="692" ht="21.0" customHeight="1">
-      <c r="A692" s="12"/>
-      <c r="B692" s="12"/>
-      <c r="C692" s="12"/>
+      <c r="A692" s="13"/>
+      <c r="B692" s="13"/>
+      <c r="C692" s="13"/>
     </row>
     <row r="693" ht="21.0" customHeight="1">
-      <c r="A693" s="12"/>
-      <c r="B693" s="12"/>
-      <c r="C693" s="12"/>
+      <c r="A693" s="13"/>
+      <c r="B693" s="13"/>
+      <c r="C693" s="13"/>
     </row>
     <row r="694" ht="21.0" customHeight="1">
-      <c r="A694" s="12"/>
-      <c r="B694" s="12"/>
-      <c r="C694" s="12"/>
+      <c r="A694" s="13"/>
+      <c r="B694" s="13"/>
+      <c r="C694" s="13"/>
     </row>
     <row r="695" ht="21.0" customHeight="1">
-      <c r="A695" s="12"/>
-      <c r="B695" s="12"/>
-      <c r="C695" s="12"/>
+      <c r="A695" s="13"/>
+      <c r="B695" s="13"/>
+      <c r="C695" s="13"/>
     </row>
     <row r="696" ht="21.0" customHeight="1">
-      <c r="A696" s="12"/>
-      <c r="B696" s="12"/>
-      <c r="C696" s="12"/>
+      <c r="A696" s="13"/>
+      <c r="B696" s="13"/>
+      <c r="C696" s="13"/>
     </row>
     <row r="697" ht="21.0" customHeight="1">
-      <c r="A697" s="12"/>
-      <c r="B697" s="12"/>
-      <c r="C697" s="12"/>
+      <c r="A697" s="13"/>
+      <c r="B697" s="13"/>
+      <c r="C697" s="13"/>
     </row>
     <row r="698" ht="21.0" customHeight="1">
-      <c r="A698" s="12"/>
-      <c r="B698" s="12"/>
-      <c r="C698" s="12"/>
+      <c r="A698" s="13"/>
+      <c r="B698" s="13"/>
+      <c r="C698" s="13"/>
     </row>
     <row r="699" ht="21.0" customHeight="1">
-      <c r="A699" s="12"/>
-      <c r="B699" s="12"/>
-      <c r="C699" s="12"/>
+      <c r="A699" s="13"/>
+      <c r="B699" s="13"/>
+      <c r="C699" s="13"/>
     </row>
     <row r="700" ht="21.0" customHeight="1">
-      <c r="A700" s="12"/>
-      <c r="B700" s="12"/>
-      <c r="C700" s="12"/>
+      <c r="A700" s="13"/>
+      <c r="B700" s="13"/>
+      <c r="C700" s="13"/>
     </row>
     <row r="701" ht="21.0" customHeight="1">
-      <c r="A701" s="12"/>
-      <c r="B701" s="12"/>
-      <c r="C701" s="12"/>
+      <c r="A701" s="13"/>
+      <c r="B701" s="13"/>
+      <c r="C701" s="13"/>
     </row>
     <row r="702" ht="21.0" customHeight="1">
-      <c r="A702" s="12"/>
-      <c r="B702" s="12"/>
-      <c r="C702" s="12"/>
+      <c r="A702" s="13"/>
+      <c r="B702" s="13"/>
+      <c r="C702" s="13"/>
     </row>
     <row r="703" ht="21.0" customHeight="1">
-      <c r="A703" s="12"/>
-      <c r="B703" s="12"/>
-      <c r="C703" s="12"/>
+      <c r="A703" s="13"/>
+      <c r="B703" s="13"/>
+      <c r="C703" s="13"/>
     </row>
     <row r="704" ht="21.0" customHeight="1">
-      <c r="A704" s="12"/>
-      <c r="B704" s="12"/>
-      <c r="C704" s="12"/>
+      <c r="A704" s="13"/>
+      <c r="B704" s="13"/>
+      <c r="C704" s="13"/>
     </row>
     <row r="705" ht="21.0" customHeight="1">
-      <c r="A705" s="12"/>
-      <c r="B705" s="12"/>
-      <c r="C705" s="12"/>
+      <c r="A705" s="13"/>
+      <c r="B705" s="13"/>
+      <c r="C705" s="13"/>
     </row>
     <row r="706" ht="21.0" customHeight="1">
-      <c r="A706" s="12"/>
-      <c r="B706" s="12"/>
-      <c r="C706" s="12"/>
+      <c r="A706" s="13"/>
+      <c r="B706" s="13"/>
+      <c r="C706" s="13"/>
     </row>
     <row r="707" ht="21.0" customHeight="1">
-      <c r="A707" s="12"/>
-      <c r="B707" s="12"/>
-      <c r="C707" s="12"/>
+      <c r="A707" s="13"/>
+      <c r="B707" s="13"/>
+      <c r="C707" s="13"/>
     </row>
     <row r="708" ht="21.0" customHeight="1">
-      <c r="A708" s="12"/>
-      <c r="B708" s="12"/>
-      <c r="C708" s="12"/>
+      <c r="A708" s="13"/>
+      <c r="B708" s="13"/>
+      <c r="C708" s="13"/>
     </row>
     <row r="709" ht="21.0" customHeight="1">
-      <c r="A709" s="12"/>
-      <c r="B709" s="12"/>
-      <c r="C709" s="12"/>
+      <c r="A709" s="13"/>
+      <c r="B709" s="13"/>
+      <c r="C709" s="13"/>
     </row>
     <row r="710" ht="21.0" customHeight="1">
-      <c r="A710" s="12"/>
-      <c r="B710" s="12"/>
-      <c r="C710" s="12"/>
+      <c r="A710" s="13"/>
+      <c r="B710" s="13"/>
+      <c r="C710" s="13"/>
     </row>
     <row r="711" ht="21.0" customHeight="1">
-      <c r="A711" s="12"/>
-      <c r="B711" s="12"/>
-      <c r="C711" s="12"/>
+      <c r="A711" s="13"/>
+      <c r="B711" s="13"/>
+      <c r="C711" s="13"/>
     </row>
     <row r="712" ht="21.0" customHeight="1">
-      <c r="A712" s="12"/>
-      <c r="B712" s="12"/>
-      <c r="C712" s="12"/>
+      <c r="A712" s="13"/>
+      <c r="B712" s="13"/>
+      <c r="C712" s="13"/>
     </row>
     <row r="713" ht="21.0" customHeight="1">
-      <c r="A713" s="12"/>
-      <c r="B713" s="12"/>
-      <c r="C713" s="12"/>
+      <c r="A713" s="13"/>
+      <c r="B713" s="13"/>
+      <c r="C713" s="13"/>
     </row>
     <row r="714" ht="21.0" customHeight="1">
-      <c r="A714" s="12"/>
-      <c r="B714" s="12"/>
-      <c r="C714" s="12"/>
+      <c r="A714" s="13"/>
+      <c r="B714" s="13"/>
+      <c r="C714" s="13"/>
     </row>
     <row r="715" ht="21.0" customHeight="1">
-      <c r="A715" s="12"/>
-      <c r="B715" s="12"/>
-      <c r="C715" s="12"/>
+      <c r="A715" s="13"/>
+      <c r="B715" s="13"/>
+      <c r="C715" s="13"/>
     </row>
     <row r="716" ht="21.0" customHeight="1">
-      <c r="A716" s="12"/>
-      <c r="B716" s="12"/>
-      <c r="C716" s="12"/>
+      <c r="A716" s="13"/>
+      <c r="B716" s="13"/>
+      <c r="C716" s="13"/>
     </row>
     <row r="717" ht="21.0" customHeight="1">
-      <c r="A717" s="12"/>
-      <c r="B717" s="12"/>
-      <c r="C717" s="12"/>
+      <c r="A717" s="13"/>
+      <c r="B717" s="13"/>
+      <c r="C717" s="13"/>
     </row>
     <row r="718" ht="21.0" customHeight="1">
-      <c r="A718" s="12"/>
-      <c r="B718" s="12"/>
-      <c r="C718" s="12"/>
+      <c r="A718" s="13"/>
+      <c r="B718" s="13"/>
+      <c r="C718" s="13"/>
     </row>
     <row r="719" ht="21.0" customHeight="1">
-      <c r="A719" s="12"/>
-      <c r="B719" s="12"/>
-      <c r="C719" s="12"/>
+      <c r="A719" s="13"/>
+      <c r="B719" s="13"/>
+      <c r="C719" s="13"/>
     </row>
     <row r="720" ht="21.0" customHeight="1">
-      <c r="A720" s="12"/>
-      <c r="B720" s="12"/>
-      <c r="C720" s="12"/>
+      <c r="A720" s="13"/>
+      <c r="B720" s="13"/>
+      <c r="C720" s="13"/>
     </row>
     <row r="721" ht="21.0" customHeight="1">
-      <c r="A721" s="12"/>
-      <c r="B721" s="12"/>
-      <c r="C721" s="12"/>
+      <c r="A721" s="13"/>
+      <c r="B721" s="13"/>
+      <c r="C721" s="13"/>
     </row>
     <row r="722" ht="21.0" customHeight="1">
-      <c r="A722" s="12"/>
-      <c r="B722" s="12"/>
-      <c r="C722" s="12"/>
+      <c r="A722" s="13"/>
+      <c r="B722" s="13"/>
+      <c r="C722" s="13"/>
     </row>
     <row r="723" ht="21.0" customHeight="1">
-      <c r="A723" s="12"/>
-      <c r="B723" s="12"/>
-      <c r="C723" s="12"/>
+      <c r="A723" s="13"/>
+      <c r="B723" s="13"/>
+      <c r="C723" s="13"/>
     </row>
     <row r="724" ht="21.0" customHeight="1">
-      <c r="A724" s="12"/>
-      <c r="B724" s="12"/>
-      <c r="C724" s="12"/>
+      <c r="A724" s="13"/>
+      <c r="B724" s="13"/>
+      <c r="C724" s="13"/>
     </row>
     <row r="725" ht="21.0" customHeight="1">
-      <c r="A725" s="12"/>
-      <c r="B725" s="12"/>
-      <c r="C725" s="12"/>
+      <c r="A725" s="13"/>
+      <c r="B725" s="13"/>
+      <c r="C725" s="13"/>
     </row>
     <row r="726" ht="21.0" customHeight="1">
-      <c r="A726" s="12"/>
-      <c r="B726" s="12"/>
-      <c r="C726" s="12"/>
+      <c r="A726" s="13"/>
+      <c r="B726" s="13"/>
+      <c r="C726" s="13"/>
     </row>
     <row r="727" ht="21.0" customHeight="1">
-      <c r="A727" s="12"/>
-      <c r="B727" s="12"/>
-      <c r="C727" s="12"/>
+      <c r="A727" s="13"/>
+      <c r="B727" s="13"/>
+      <c r="C727" s="13"/>
     </row>
     <row r="728" ht="21.0" customHeight="1">
-      <c r="A728" s="12"/>
-      <c r="B728" s="12"/>
-      <c r="C728" s="12"/>
+      <c r="A728" s="13"/>
+      <c r="B728" s="13"/>
+      <c r="C728" s="13"/>
     </row>
     <row r="729" ht="21.0" customHeight="1">
-      <c r="A729" s="12"/>
-      <c r="B729" s="12"/>
-      <c r="C729" s="12"/>
+      <c r="A729" s="13"/>
+      <c r="B729" s="13"/>
+      <c r="C729" s="13"/>
     </row>
     <row r="730" ht="21.0" customHeight="1">
-      <c r="A730" s="12"/>
-      <c r="B730" s="12"/>
-      <c r="C730" s="12"/>
+      <c r="A730" s="13"/>
+      <c r="B730" s="13"/>
+      <c r="C730" s="13"/>
     </row>
     <row r="731" ht="21.0" customHeight="1">
-      <c r="A731" s="12"/>
-      <c r="B731" s="12"/>
-      <c r="C731" s="12"/>
+      <c r="A731" s="13"/>
+      <c r="B731" s="13"/>
+      <c r="C731" s="13"/>
     </row>
     <row r="732" ht="21.0" customHeight="1">
-      <c r="A732" s="12"/>
-      <c r="B732" s="12"/>
-      <c r="C732" s="12"/>
+      <c r="A732" s="13"/>
+      <c r="B732" s="13"/>
+      <c r="C732" s="13"/>
     </row>
     <row r="733" ht="21.0" customHeight="1">
-      <c r="A733" s="12"/>
-      <c r="B733" s="12"/>
-      <c r="C733" s="12"/>
+      <c r="A733" s="13"/>
+      <c r="B733" s="13"/>
+      <c r="C733" s="13"/>
     </row>
     <row r="734" ht="21.0" customHeight="1">
-      <c r="A734" s="12"/>
-      <c r="B734" s="12"/>
-      <c r="C734" s="12"/>
+      <c r="A734" s="13"/>
+      <c r="B734" s="13"/>
+      <c r="C734" s="13"/>
     </row>
     <row r="735" ht="21.0" customHeight="1">
-      <c r="A735" s="12"/>
-      <c r="B735" s="12"/>
-      <c r="C735" s="12"/>
+      <c r="A735" s="13"/>
+      <c r="B735" s="13"/>
+      <c r="C735" s="13"/>
     </row>
     <row r="736" ht="21.0" customHeight="1">
-      <c r="A736" s="12"/>
-      <c r="B736" s="12"/>
-      <c r="C736" s="12"/>
+      <c r="A736" s="13"/>
+      <c r="B736" s="13"/>
+      <c r="C736" s="13"/>
     </row>
     <row r="737" ht="21.0" customHeight="1">
-      <c r="A737" s="12"/>
-      <c r="B737" s="12"/>
-      <c r="C737" s="12"/>
+      <c r="A737" s="13"/>
+      <c r="B737" s="13"/>
+      <c r="C737" s="13"/>
     </row>
     <row r="738" ht="21.0" customHeight="1">
-      <c r="A738" s="12"/>
-      <c r="B738" s="12"/>
-      <c r="C738" s="12"/>
+      <c r="A738" s="13"/>
+      <c r="B738" s="13"/>
+      <c r="C738" s="13"/>
     </row>
     <row r="739" ht="21.0" customHeight="1">
-      <c r="A739" s="12"/>
-      <c r="B739" s="12"/>
-      <c r="C739" s="12"/>
+      <c r="A739" s="13"/>
+      <c r="B739" s="13"/>
+      <c r="C739" s="13"/>
     </row>
     <row r="740" ht="21.0" customHeight="1">
-      <c r="A740" s="12"/>
-      <c r="B740" s="12"/>
-      <c r="C740" s="12"/>
+      <c r="A740" s="13"/>
+      <c r="B740" s="13"/>
+      <c r="C740" s="13"/>
     </row>
     <row r="741" ht="21.0" customHeight="1">
-      <c r="A741" s="12"/>
-      <c r="B741" s="12"/>
-      <c r="C741" s="12"/>
+      <c r="A741" s="13"/>
+      <c r="B741" s="13"/>
+      <c r="C741" s="13"/>
     </row>
     <row r="742" ht="21.0" customHeight="1">
-      <c r="A742" s="12"/>
-      <c r="B742" s="12"/>
-      <c r="C742" s="12"/>
+      <c r="A742" s="13"/>
+      <c r="B742" s="13"/>
+      <c r="C742" s="13"/>
     </row>
     <row r="743" ht="21.0" customHeight="1">
-      <c r="A743" s="12"/>
-      <c r="B743" s="12"/>
-      <c r="C743" s="12"/>
+      <c r="A743" s="13"/>
+      <c r="B743" s="13"/>
+      <c r="C743" s="13"/>
     </row>
     <row r="744" ht="21.0" customHeight="1">
-      <c r="A744" s="12"/>
-      <c r="B744" s="12"/>
-      <c r="C744" s="12"/>
+      <c r="A744" s="13"/>
+      <c r="B744" s="13"/>
+      <c r="C744" s="13"/>
     </row>
     <row r="745" ht="21.0" customHeight="1">
-      <c r="A745" s="12"/>
-      <c r="B745" s="12"/>
-      <c r="C745" s="12"/>
+      <c r="A745" s="13"/>
+      <c r="B745" s="13"/>
+      <c r="C745" s="13"/>
     </row>
     <row r="746" ht="21.0" customHeight="1">
-      <c r="A746" s="12"/>
-      <c r="B746" s="12"/>
-      <c r="C746" s="12"/>
+      <c r="A746" s="13"/>
+      <c r="B746" s="13"/>
+      <c r="C746" s="13"/>
     </row>
     <row r="747" ht="21.0" customHeight="1">
-      <c r="A747" s="12"/>
-      <c r="B747" s="12"/>
-      <c r="C747" s="12"/>
+      <c r="A747" s="13"/>
+      <c r="B747" s="13"/>
+      <c r="C747" s="13"/>
     </row>
     <row r="748" ht="21.0" customHeight="1">
-      <c r="A748" s="12"/>
-      <c r="B748" s="12"/>
-      <c r="C748" s="12"/>
+      <c r="A748" s="13"/>
+      <c r="B748" s="13"/>
+      <c r="C748" s="13"/>
     </row>
     <row r="749" ht="21.0" customHeight="1">
-      <c r="A749" s="12"/>
-      <c r="B749" s="12"/>
-      <c r="C749" s="12"/>
+      <c r="A749" s="13"/>
+      <c r="B749" s="13"/>
+      <c r="C749" s="13"/>
     </row>
     <row r="750" ht="21.0" customHeight="1">
-      <c r="A750" s="12"/>
-      <c r="B750" s="12"/>
-      <c r="C750" s="12"/>
+      <c r="A750" s="13"/>
+      <c r="B750" s="13"/>
+      <c r="C750" s="13"/>
     </row>
     <row r="751" ht="21.0" customHeight="1">
-      <c r="A751" s="12"/>
-      <c r="B751" s="12"/>
-      <c r="C751" s="12"/>
+      <c r="A751" s="13"/>
+      <c r="B751" s="13"/>
+      <c r="C751" s="13"/>
     </row>
     <row r="752" ht="21.0" customHeight="1">
-      <c r="A752" s="12"/>
-      <c r="B752" s="12"/>
-      <c r="C752" s="12"/>
+      <c r="A752" s="13"/>
+      <c r="B752" s="13"/>
+      <c r="C752" s="13"/>
     </row>
     <row r="753" ht="21.0" customHeight="1">
-      <c r="A753" s="12"/>
-      <c r="B753" s="12"/>
-      <c r="C753" s="12"/>
+      <c r="A753" s="13"/>
+      <c r="B753" s="13"/>
+      <c r="C753" s="13"/>
     </row>
     <row r="754" ht="21.0" customHeight="1">
-      <c r="A754" s="12"/>
-      <c r="B754" s="12"/>
-      <c r="C754" s="12"/>
+      <c r="A754" s="13"/>
+      <c r="B754" s="13"/>
+      <c r="C754" s="13"/>
     </row>
     <row r="755" ht="21.0" customHeight="1">
-      <c r="A755" s="12"/>
-      <c r="B755" s="12"/>
-      <c r="C755" s="12"/>
+      <c r="A755" s="13"/>
+      <c r="B755" s="13"/>
+      <c r="C755" s="13"/>
     </row>
     <row r="756" ht="21.0" customHeight="1">
-      <c r="A756" s="12"/>
-      <c r="B756" s="12"/>
-      <c r="C756" s="12"/>
+      <c r="A756" s="13"/>
+      <c r="B756" s="13"/>
+      <c r="C756" s="13"/>
     </row>
     <row r="757" ht="21.0" customHeight="1">
-      <c r="A757" s="12"/>
-      <c r="B757" s="12"/>
-      <c r="C757" s="12"/>
+      <c r="A757" s="13"/>
+      <c r="B757" s="13"/>
+      <c r="C757" s="13"/>
     </row>
     <row r="758" ht="21.0" customHeight="1">
-      <c r="A758" s="12"/>
-      <c r="B758" s="12"/>
-      <c r="C758" s="12"/>
+      <c r="A758" s="13"/>
+      <c r="B758" s="13"/>
+      <c r="C758" s="13"/>
     </row>
     <row r="759" ht="21.0" customHeight="1">
-      <c r="A759" s="12"/>
-      <c r="B759" s="12"/>
-      <c r="C759" s="12"/>
+      <c r="A759" s="13"/>
+      <c r="B759" s="13"/>
+      <c r="C759" s="13"/>
     </row>
     <row r="760" ht="21.0" customHeight="1">
-      <c r="A760" s="12"/>
-      <c r="B760" s="12"/>
-      <c r="C760" s="12"/>
+      <c r="A760" s="13"/>
+      <c r="B760" s="13"/>
+      <c r="C760" s="13"/>
     </row>
     <row r="761" ht="21.0" customHeight="1">
-      <c r="A761" s="12"/>
-      <c r="B761" s="12"/>
-      <c r="C761" s="12"/>
+      <c r="A761" s="13"/>
+      <c r="B761" s="13"/>
+      <c r="C761" s="13"/>
     </row>
     <row r="762" ht="21.0" customHeight="1">
-      <c r="A762" s="12"/>
-      <c r="B762" s="12"/>
-      <c r="C762" s="12"/>
+      <c r="A762" s="13"/>
+      <c r="B762" s="13"/>
+      <c r="C762" s="13"/>
     </row>
     <row r="763" ht="21.0" customHeight="1">
-      <c r="A763" s="12"/>
-      <c r="B763" s="12"/>
-      <c r="C763" s="12"/>
+      <c r="A763" s="13"/>
+      <c r="B763" s="13"/>
+      <c r="C763" s="13"/>
     </row>
     <row r="764" ht="21.0" customHeight="1">
-      <c r="A764" s="12"/>
-      <c r="B764" s="12"/>
-      <c r="C764" s="12"/>
+      <c r="A764" s="13"/>
+      <c r="B764" s="13"/>
+      <c r="C764" s="13"/>
     </row>
     <row r="765" ht="21.0" customHeight="1">
-      <c r="A765" s="12"/>
-      <c r="B765" s="12"/>
-      <c r="C765" s="12"/>
+      <c r="A765" s="13"/>
+      <c r="B765" s="13"/>
+      <c r="C765" s="13"/>
     </row>
     <row r="766" ht="21.0" customHeight="1">
-      <c r="A766" s="12"/>
-      <c r="B766" s="12"/>
-      <c r="C766" s="12"/>
+      <c r="A766" s="13"/>
+      <c r="B766" s="13"/>
+      <c r="C766" s="13"/>
     </row>
     <row r="767" ht="21.0" customHeight="1">
-      <c r="A767" s="12"/>
-      <c r="B767" s="12"/>
-      <c r="C767" s="12"/>
+      <c r="A767" s="13"/>
+      <c r="B767" s="13"/>
+      <c r="C767" s="13"/>
     </row>
     <row r="768" ht="21.0" customHeight="1">
-      <c r="A768" s="12"/>
-      <c r="B768" s="12"/>
-      <c r="C768" s="12"/>
+      <c r="A768" s="13"/>
+      <c r="B768" s="13"/>
+      <c r="C768" s="13"/>
     </row>
     <row r="769" ht="21.0" customHeight="1">
-      <c r="A769" s="12"/>
-      <c r="B769" s="12"/>
-      <c r="C769" s="12"/>
+      <c r="A769" s="13"/>
+      <c r="B769" s="13"/>
+      <c r="C769" s="13"/>
     </row>
     <row r="770" ht="21.0" customHeight="1">
-      <c r="A770" s="12"/>
-      <c r="B770" s="12"/>
-      <c r="C770" s="12"/>
+      <c r="A770" s="13"/>
+      <c r="B770" s="13"/>
+      <c r="C770" s="13"/>
     </row>
     <row r="771" ht="21.0" customHeight="1">
-      <c r="A771" s="12"/>
-      <c r="B771" s="12"/>
-      <c r="C771" s="12"/>
+      <c r="A771" s="13"/>
+      <c r="B771" s="13"/>
+      <c r="C771" s="13"/>
     </row>
     <row r="772" ht="21.0" customHeight="1">
-      <c r="A772" s="12"/>
-      <c r="B772" s="12"/>
-      <c r="C772" s="12"/>
+      <c r="A772" s="13"/>
+      <c r="B772" s="13"/>
+      <c r="C772" s="13"/>
     </row>
     <row r="773" ht="21.0" customHeight="1">
-      <c r="A773" s="12"/>
-      <c r="B773" s="12"/>
-      <c r="C773" s="12"/>
+      <c r="A773" s="13"/>
+      <c r="B773" s="13"/>
+      <c r="C773" s="13"/>
     </row>
     <row r="774" ht="21.0" customHeight="1">
-      <c r="A774" s="12"/>
-      <c r="B774" s="12"/>
-      <c r="C774" s="12"/>
+      <c r="A774" s="13"/>
+      <c r="B774" s="13"/>
+      <c r="C774" s="13"/>
     </row>
     <row r="775" ht="21.0" customHeight="1">
-      <c r="A775" s="12"/>
-      <c r="B775" s="12"/>
-      <c r="C775" s="12"/>
+      <c r="A775" s="13"/>
+      <c r="B775" s="13"/>
+      <c r="C775" s="13"/>
     </row>
     <row r="776" ht="21.0" customHeight="1">
-      <c r="A776" s="12"/>
-      <c r="B776" s="12"/>
-      <c r="C776" s="12"/>
+      <c r="A776" s="13"/>
+      <c r="B776" s="13"/>
+      <c r="C776" s="13"/>
     </row>
     <row r="777" ht="21.0" customHeight="1">
-      <c r="A777" s="12"/>
-      <c r="B777" s="12"/>
-      <c r="C777" s="12"/>
+      <c r="A777" s="13"/>
+      <c r="B777" s="13"/>
+      <c r="C777" s="13"/>
     </row>
     <row r="778" ht="21.0" customHeight="1">
-      <c r="A778" s="12"/>
-      <c r="B778" s="12"/>
-      <c r="C778" s="12"/>
+      <c r="A778" s="13"/>
+      <c r="B778" s="13"/>
+      <c r="C778" s="13"/>
     </row>
     <row r="779" ht="21.0" customHeight="1">
-      <c r="A779" s="12"/>
-      <c r="B779" s="12"/>
-      <c r="C779" s="12"/>
+      <c r="A779" s="13"/>
+      <c r="B779" s="13"/>
+      <c r="C779" s="13"/>
     </row>
     <row r="780" ht="21.0" customHeight="1">
-      <c r="A780" s="12"/>
-      <c r="B780" s="12"/>
-      <c r="C780" s="12"/>
+      <c r="A780" s="13"/>
+      <c r="B780" s="13"/>
+      <c r="C780" s="13"/>
     </row>
     <row r="781" ht="21.0" customHeight="1">
-      <c r="A781" s="12"/>
-      <c r="B781" s="12"/>
-      <c r="C781" s="12"/>
+      <c r="A781" s="13"/>
+      <c r="B781" s="13"/>
+      <c r="C781" s="13"/>
     </row>
     <row r="782" ht="21.0" customHeight="1">
-      <c r="A782" s="12"/>
-      <c r="B782" s="12"/>
-      <c r="C782" s="12"/>
+      <c r="A782" s="13"/>
+      <c r="B782" s="13"/>
+      <c r="C782" s="13"/>
     </row>
     <row r="783" ht="21.0" customHeight="1">
-      <c r="A783" s="12"/>
-      <c r="B783" s="12"/>
-      <c r="C783" s="12"/>
+      <c r="A783" s="13"/>
+      <c r="B783" s="13"/>
+      <c r="C783" s="13"/>
     </row>
     <row r="784" ht="21.0" customHeight="1">
-      <c r="A784" s="12"/>
-      <c r="B784" s="12"/>
-      <c r="C784" s="12"/>
+      <c r="A784" s="13"/>
+      <c r="B784" s="13"/>
+      <c r="C784" s="13"/>
     </row>
     <row r="785" ht="21.0" customHeight="1">
-      <c r="A785" s="12"/>
-      <c r="B785" s="12"/>
-      <c r="C785" s="12"/>
+      <c r="A785" s="13"/>
+      <c r="B785" s="13"/>
+      <c r="C785" s="13"/>
     </row>
     <row r="786" ht="21.0" customHeight="1">
-      <c r="A786" s="12"/>
-      <c r="B786" s="12"/>
-      <c r="C786" s="12"/>
+      <c r="A786" s="13"/>
+      <c r="B786" s="13"/>
+      <c r="C786" s="13"/>
     </row>
     <row r="787" ht="21.0" customHeight="1">
-      <c r="A787" s="12"/>
-      <c r="B787" s="12"/>
-      <c r="C787" s="12"/>
+      <c r="A787" s="13"/>
+      <c r="B787" s="13"/>
+      <c r="C787" s="13"/>
     </row>
     <row r="788" ht="21.0" customHeight="1">
-      <c r="A788" s="12"/>
-      <c r="B788" s="12"/>
-      <c r="C788" s="12"/>
+      <c r="A788" s="13"/>
+      <c r="B788" s="13"/>
+      <c r="C788" s="13"/>
     </row>
     <row r="789" ht="21.0" customHeight="1">
-      <c r="A789" s="12"/>
-      <c r="B789" s="12"/>
-      <c r="C789" s="12"/>
+      <c r="A789" s="13"/>
+      <c r="B789" s="13"/>
+      <c r="C789" s="13"/>
     </row>
     <row r="790" ht="21.0" customHeight="1">
-      <c r="A790" s="12"/>
-      <c r="B790" s="12"/>
-      <c r="C790" s="12"/>
+      <c r="A790" s="13"/>
+      <c r="B790" s="13"/>
+      <c r="C790" s="13"/>
     </row>
     <row r="791" ht="21.0" customHeight="1">
-      <c r="A791" s="12"/>
-      <c r="B791" s="12"/>
-      <c r="C791" s="12"/>
+      <c r="A791" s="13"/>
+      <c r="B791" s="13"/>
+      <c r="C791" s="13"/>
     </row>
     <row r="792" ht="21.0" customHeight="1">
-      <c r="A792" s="12"/>
-      <c r="B792" s="12"/>
-      <c r="C792" s="12"/>
+      <c r="A792" s="13"/>
+      <c r="B792" s="13"/>
+      <c r="C792" s="13"/>
     </row>
     <row r="793" ht="21.0" customHeight="1">
-      <c r="A793" s="12"/>
-      <c r="B793" s="12"/>
-      <c r="C793" s="12"/>
+      <c r="A793" s="13"/>
+      <c r="B793" s="13"/>
+      <c r="C793" s="13"/>
     </row>
     <row r="794" ht="21.0" customHeight="1">
-      <c r="A794" s="12"/>
-      <c r="B794" s="12"/>
-      <c r="C794" s="12"/>
+      <c r="A794" s="13"/>
+      <c r="B794" s="13"/>
+      <c r="C794" s="13"/>
     </row>
     <row r="795" ht="21.0" customHeight="1">
-      <c r="A795" s="12"/>
-      <c r="B795" s="12"/>
-      <c r="C795" s="12"/>
+      <c r="A795" s="13"/>
+      <c r="B795" s="13"/>
+      <c r="C795" s="13"/>
     </row>
     <row r="796" ht="21.0" customHeight="1">
-      <c r="A796" s="12"/>
-      <c r="B796" s="12"/>
-      <c r="C796" s="12"/>
+      <c r="A796" s="13"/>
+      <c r="B796" s="13"/>
+      <c r="C796" s="13"/>
     </row>
     <row r="797" ht="21.0" customHeight="1">
-      <c r="A797" s="12"/>
-      <c r="B797" s="12"/>
-      <c r="C797" s="12"/>
+      <c r="A797" s="13"/>
+      <c r="B797" s="13"/>
+      <c r="C797" s="13"/>
     </row>
     <row r="798" ht="21.0" customHeight="1">
-      <c r="A798" s="12"/>
-      <c r="B798" s="12"/>
-      <c r="C798" s="12"/>
+      <c r="A798" s="13"/>
+      <c r="B798" s="13"/>
+      <c r="C798" s="13"/>
     </row>
     <row r="799" ht="21.0" customHeight="1">
-      <c r="A799" s="12"/>
-      <c r="B799" s="12"/>
-      <c r="C799" s="12"/>
+      <c r="A799" s="13"/>
+      <c r="B799" s="13"/>
+      <c r="C799" s="13"/>
     </row>
     <row r="800" ht="21.0" customHeight="1">
-      <c r="A800" s="12"/>
-      <c r="B800" s="12"/>
-      <c r="C800" s="12"/>
+      <c r="A800" s="13"/>
+      <c r="B800" s="13"/>
+      <c r="C800" s="13"/>
     </row>
     <row r="801" ht="21.0" customHeight="1">
-      <c r="A801" s="12"/>
-      <c r="B801" s="12"/>
-      <c r="C801" s="12"/>
+      <c r="A801" s="13"/>
+      <c r="B801" s="13"/>
+      <c r="C801" s="13"/>
     </row>
     <row r="802" ht="21.0" customHeight="1">
-      <c r="A802" s="12"/>
-      <c r="B802" s="12"/>
-      <c r="C802" s="12"/>
+      <c r="A802" s="13"/>
+      <c r="B802" s="13"/>
+      <c r="C802" s="13"/>
     </row>
     <row r="803" ht="21.0" customHeight="1">
-      <c r="A803" s="12"/>
-      <c r="B803" s="12"/>
-      <c r="C803" s="12"/>
+      <c r="A803" s="13"/>
+      <c r="B803" s="13"/>
+      <c r="C803" s="13"/>
     </row>
     <row r="804" ht="21.0" customHeight="1">
-      <c r="A804" s="12"/>
-      <c r="B804" s="12"/>
-      <c r="C804" s="12"/>
+      <c r="A804" s="13"/>
+      <c r="B804" s="13"/>
+      <c r="C804" s="13"/>
     </row>
     <row r="805" ht="21.0" customHeight="1">
-      <c r="A805" s="12"/>
-      <c r="B805" s="12"/>
-      <c r="C805" s="12"/>
+      <c r="A805" s="13"/>
+      <c r="B805" s="13"/>
+      <c r="C805" s="13"/>
     </row>
     <row r="806" ht="21.0" customHeight="1">
-      <c r="A806" s="12"/>
-      <c r="B806" s="12"/>
-      <c r="C806" s="12"/>
+      <c r="A806" s="13"/>
+      <c r="B806" s="13"/>
+      <c r="C806" s="13"/>
     </row>
     <row r="807" ht="21.0" customHeight="1">
-      <c r="A807" s="12"/>
-      <c r="B807" s="12"/>
-      <c r="C807" s="12"/>
+      <c r="A807" s="13"/>
+      <c r="B807" s="13"/>
+      <c r="C807" s="13"/>
     </row>
     <row r="808" ht="21.0" customHeight="1">
-      <c r="A808" s="12"/>
-      <c r="B808" s="12"/>
-      <c r="C808" s="12"/>
+      <c r="A808" s="13"/>
+      <c r="B808" s="13"/>
+      <c r="C808" s="13"/>
     </row>
     <row r="809" ht="21.0" customHeight="1">
-      <c r="A809" s="12"/>
-      <c r="B809" s="12"/>
-      <c r="C809" s="12"/>
+      <c r="A809" s="13"/>
+      <c r="B809" s="13"/>
+      <c r="C809" s="13"/>
     </row>
     <row r="810" ht="21.0" customHeight="1">
-      <c r="A810" s="12"/>
-      <c r="B810" s="12"/>
-      <c r="C810" s="12"/>
+      <c r="A810" s="13"/>
+      <c r="B810" s="13"/>
+      <c r="C810" s="13"/>
     </row>
     <row r="811" ht="21.0" customHeight="1">
-      <c r="A811" s="12"/>
-      <c r="B811" s="12"/>
-      <c r="C811" s="12"/>
+      <c r="A811" s="13"/>
+      <c r="B811" s="13"/>
+      <c r="C811" s="13"/>
     </row>
     <row r="812" ht="21.0" customHeight="1">
-      <c r="A812" s="12"/>
-      <c r="B812" s="12"/>
-      <c r="C812" s="12"/>
+      <c r="A812" s="13"/>
+      <c r="B812" s="13"/>
+      <c r="C812" s="13"/>
     </row>
     <row r="813" ht="21.0" customHeight="1">
-      <c r="A813" s="12"/>
-      <c r="B813" s="12"/>
-      <c r="C813" s="12"/>
+      <c r="A813" s="13"/>
+      <c r="B813" s="13"/>
+      <c r="C813" s="13"/>
     </row>
     <row r="814" ht="21.0" customHeight="1">
-      <c r="A814" s="12"/>
-      <c r="B814" s="12"/>
-      <c r="C814" s="12"/>
+      <c r="A814" s="13"/>
+      <c r="B814" s="13"/>
+      <c r="C814" s="13"/>
     </row>
     <row r="815" ht="21.0" customHeight="1">
-      <c r="A815" s="12"/>
-      <c r="B815" s="12"/>
-      <c r="C815" s="12"/>
+      <c r="A815" s="13"/>
+      <c r="B815" s="13"/>
+      <c r="C815" s="13"/>
     </row>
     <row r="816" ht="21.0" customHeight="1">
-      <c r="A816" s="12"/>
-      <c r="B816" s="12"/>
-      <c r="C816" s="12"/>
+      <c r="A816" s="13"/>
+      <c r="B816" s="13"/>
+      <c r="C816" s="13"/>
     </row>
     <row r="817" ht="21.0" customHeight="1">
-      <c r="A817" s="12"/>
-      <c r="B817" s="12"/>
-      <c r="C817" s="12"/>
+      <c r="A817" s="13"/>
+      <c r="B817" s="13"/>
+      <c r="C817" s="13"/>
     </row>
     <row r="818" ht="21.0" customHeight="1">
-      <c r="A818" s="12"/>
-      <c r="B818" s="12"/>
-      <c r="C818" s="12"/>
+      <c r="A818" s="13"/>
+      <c r="B818" s="13"/>
+      <c r="C818" s="13"/>
     </row>
     <row r="819" ht="21.0" customHeight="1">
-      <c r="A819" s="12"/>
-      <c r="B819" s="12"/>
-      <c r="C819" s="12"/>
+      <c r="A819" s="13"/>
+      <c r="B819" s="13"/>
+      <c r="C819" s="13"/>
     </row>
     <row r="820" ht="21.0" customHeight="1">
-      <c r="A820" s="12"/>
-      <c r="B820" s="12"/>
-      <c r="C820" s="12"/>
+      <c r="A820" s="13"/>
+      <c r="B820" s="13"/>
+      <c r="C820" s="13"/>
     </row>
     <row r="821" ht="21.0" customHeight="1">
-      <c r="A821" s="12"/>
-      <c r="B821" s="12"/>
-      <c r="C821" s="12"/>
+      <c r="A821" s="13"/>
+      <c r="B821" s="13"/>
+      <c r="C821" s="13"/>
     </row>
     <row r="822" ht="21.0" customHeight="1">
-      <c r="A822" s="12"/>
-      <c r="B822" s="12"/>
-      <c r="C822" s="12"/>
+      <c r="A822" s="13"/>
+      <c r="B822" s="13"/>
+      <c r="C822" s="13"/>
     </row>
     <row r="823" ht="21.0" customHeight="1">
-      <c r="A823" s="12"/>
-      <c r="B823" s="12"/>
-      <c r="C823" s="12"/>
+      <c r="A823" s="13"/>
+      <c r="B823" s="13"/>
+      <c r="C823" s="13"/>
     </row>
     <row r="824" ht="21.0" customHeight="1">
-      <c r="A824" s="12"/>
-      <c r="B824" s="12"/>
-      <c r="C824" s="12"/>
+      <c r="A824" s="13"/>
+      <c r="B824" s="13"/>
+      <c r="C824" s="13"/>
     </row>
     <row r="825" ht="21.0" customHeight="1">
-      <c r="A825" s="12"/>
-      <c r="B825" s="12"/>
-      <c r="C825" s="12"/>
+      <c r="A825" s="13"/>
+      <c r="B825" s="13"/>
+      <c r="C825" s="13"/>
     </row>
     <row r="826" ht="21.0" customHeight="1">
-      <c r="A826" s="12"/>
-      <c r="B826" s="12"/>
-      <c r="C826" s="12"/>
+      <c r="A826" s="13"/>
+      <c r="B826" s="13"/>
+      <c r="C826" s="13"/>
     </row>
     <row r="827" ht="21.0" customHeight="1">
-      <c r="A827" s="12"/>
-      <c r="B827" s="12"/>
-      <c r="C827" s="12"/>
+      <c r="A827" s="13"/>
+      <c r="B827" s="13"/>
+      <c r="C827" s="13"/>
     </row>
     <row r="828" ht="21.0" customHeight="1">
-      <c r="A828" s="12"/>
-      <c r="B828" s="12"/>
-      <c r="C828" s="12"/>
+      <c r="A828" s="13"/>
+      <c r="B828" s="13"/>
+      <c r="C828" s="13"/>
     </row>
     <row r="829" ht="21.0" customHeight="1">
-      <c r="A829" s="12"/>
-      <c r="B829" s="12"/>
-      <c r="C829" s="12"/>
+      <c r="A829" s="13"/>
+      <c r="B829" s="13"/>
+      <c r="C829" s="13"/>
     </row>
     <row r="830" ht="21.0" customHeight="1">
-      <c r="A830" s="12"/>
-      <c r="B830" s="12"/>
-      <c r="C830" s="12"/>
+      <c r="A830" s="13"/>
+      <c r="B830" s="13"/>
+      <c r="C830" s="13"/>
     </row>
     <row r="831" ht="21.0" customHeight="1">
-      <c r="A831" s="12"/>
-      <c r="B831" s="12"/>
-      <c r="C831" s="12"/>
+      <c r="A831" s="13"/>
+      <c r="B831" s="13"/>
+      <c r="C831" s="13"/>
     </row>
     <row r="832" ht="21.0" customHeight="1">
-      <c r="A832" s="12"/>
-      <c r="B832" s="12"/>
-      <c r="C832" s="12"/>
+      <c r="A832" s="13"/>
+      <c r="B832" s="13"/>
+      <c r="C832" s="13"/>
     </row>
     <row r="833" ht="21.0" customHeight="1">
-      <c r="A833" s="12"/>
-      <c r="B833" s="12"/>
-      <c r="C833" s="12"/>
+      <c r="A833" s="13"/>
+      <c r="B833" s="13"/>
+      <c r="C833" s="13"/>
     </row>
     <row r="834" ht="21.0" customHeight="1">
-      <c r="A834" s="12"/>
-      <c r="B834" s="12"/>
-      <c r="C834" s="12"/>
+      <c r="A834" s="13"/>
+      <c r="B834" s="13"/>
+      <c r="C834" s="13"/>
     </row>
     <row r="835" ht="21.0" customHeight="1">
-      <c r="A835" s="12"/>
-      <c r="B835" s="12"/>
-      <c r="C835" s="12"/>
+      <c r="A835" s="13"/>
+      <c r="B835" s="13"/>
+      <c r="C835" s="13"/>
     </row>
     <row r="836" ht="21.0" customHeight="1">
-      <c r="A836" s="12"/>
-      <c r="B836" s="12"/>
-      <c r="C836" s="12"/>
+      <c r="A836" s="13"/>
+      <c r="B836" s="13"/>
+      <c r="C836" s="13"/>
     </row>
     <row r="837" ht="21.0" customHeight="1">
-      <c r="A837" s="12"/>
-      <c r="B837" s="12"/>
-      <c r="C837" s="12"/>
+      <c r="A837" s="13"/>
+      <c r="B837" s="13"/>
+      <c r="C837" s="13"/>
     </row>
     <row r="838" ht="21.0" customHeight="1">
-      <c r="A838" s="12"/>
-      <c r="B838" s="12"/>
-      <c r="C838" s="12"/>
+      <c r="A838" s="13"/>
+      <c r="B838" s="13"/>
+      <c r="C838" s="13"/>
     </row>
     <row r="839" ht="21.0" customHeight="1">
-      <c r="A839" s="12"/>
-      <c r="B839" s="12"/>
-      <c r="C839" s="12"/>
+      <c r="A839" s="13"/>
+      <c r="B839" s="13"/>
+      <c r="C839" s="13"/>
     </row>
     <row r="840" ht="21.0" customHeight="1">
-      <c r="A840" s="12"/>
-      <c r="B840" s="12"/>
-      <c r="C840" s="12"/>
+      <c r="A840" s="13"/>
+      <c r="B840" s="13"/>
+      <c r="C840" s="13"/>
     </row>
     <row r="841" ht="21.0" customHeight="1">
-      <c r="A841" s="12"/>
-      <c r="B841" s="12"/>
-      <c r="C841" s="12"/>
+      <c r="A841" s="13"/>
+      <c r="B841" s="13"/>
+      <c r="C841" s="13"/>
     </row>
     <row r="842" ht="21.0" customHeight="1">
-      <c r="A842" s="12"/>
-      <c r="B842" s="12"/>
-      <c r="C842" s="12"/>
+      <c r="A842" s="13"/>
+      <c r="B842" s="13"/>
+      <c r="C842" s="13"/>
     </row>
     <row r="843" ht="21.0" customHeight="1">
-      <c r="A843" s="12"/>
-      <c r="B843" s="12"/>
-      <c r="C843" s="12"/>
+      <c r="A843" s="13"/>
+      <c r="B843" s="13"/>
+      <c r="C843" s="13"/>
     </row>
     <row r="844" ht="21.0" customHeight="1">
-      <c r="A844" s="12"/>
-      <c r="B844" s="12"/>
-      <c r="C844" s="12"/>
+      <c r="A844" s="13"/>
+      <c r="B844" s="13"/>
+      <c r="C844" s="13"/>
     </row>
     <row r="845" ht="21.0" customHeight="1">
-      <c r="A845" s="12"/>
-      <c r="B845" s="12"/>
-      <c r="C845" s="12"/>
+      <c r="A845" s="13"/>
+      <c r="B845" s="13"/>
+      <c r="C845" s="13"/>
     </row>
     <row r="846" ht="21.0" customHeight="1">
-      <c r="A846" s="12"/>
-      <c r="B846" s="12"/>
-      <c r="C846" s="12"/>
+      <c r="A846" s="13"/>
+      <c r="B846" s="13"/>
+      <c r="C846" s="13"/>
     </row>
     <row r="847" ht="21.0" customHeight="1">
-      <c r="A847" s="12"/>
-      <c r="B847" s="12"/>
-      <c r="C847" s="12"/>
+      <c r="A847" s="13"/>
+      <c r="B847" s="13"/>
+      <c r="C847" s="13"/>
     </row>
     <row r="848" ht="21.0" customHeight="1">
-      <c r="A848" s="12"/>
-      <c r="B848" s="12"/>
-      <c r="C848" s="12"/>
+      <c r="A848" s="13"/>
+      <c r="B848" s="13"/>
+      <c r="C848" s="13"/>
     </row>
     <row r="849" ht="21.0" customHeight="1">
-      <c r="A849" s="12"/>
-      <c r="B849" s="12"/>
-      <c r="C849" s="12"/>
+      <c r="A849" s="13"/>
+      <c r="B849" s="13"/>
+      <c r="C849" s="13"/>
     </row>
     <row r="850" ht="21.0" customHeight="1">
-      <c r="A850" s="12"/>
-      <c r="B850" s="12"/>
-      <c r="C850" s="12"/>
+      <c r="A850" s="13"/>
+      <c r="B850" s="13"/>
+      <c r="C850" s="13"/>
     </row>
     <row r="851" ht="21.0" customHeight="1">
-      <c r="A851" s="12"/>
-      <c r="B851" s="12"/>
-      <c r="C851" s="12"/>
+      <c r="A851" s="13"/>
+      <c r="B851" s="13"/>
+      <c r="C851" s="13"/>
     </row>
     <row r="852" ht="21.0" customHeight="1">
-      <c r="A852" s="12"/>
-      <c r="B852" s="12"/>
-      <c r="C852" s="12"/>
+      <c r="A852" s="13"/>
+      <c r="B852" s="13"/>
+      <c r="C852" s="13"/>
     </row>
     <row r="853" ht="21.0" customHeight="1">
-      <c r="A853" s="12"/>
-      <c r="B853" s="12"/>
-      <c r="C853" s="12"/>
+      <c r="A853" s="13"/>
+      <c r="B853" s="13"/>
+      <c r="C853" s="13"/>
     </row>
     <row r="854" ht="21.0" customHeight="1">
-      <c r="A854" s="12"/>
-      <c r="B854" s="12"/>
-      <c r="C854" s="12"/>
+      <c r="A854" s="13"/>
+      <c r="B854" s="13"/>
+      <c r="C854" s="13"/>
     </row>
     <row r="855" ht="21.0" customHeight="1">
-      <c r="A855" s="12"/>
-      <c r="B855" s="12"/>
-      <c r="C855" s="12"/>
+      <c r="A855" s="13"/>
+      <c r="B855" s="13"/>
+      <c r="C855" s="13"/>
     </row>
     <row r="856" ht="21.0" customHeight="1">
-      <c r="A856" s="12"/>
-      <c r="B856" s="12"/>
-      <c r="C856" s="12"/>
+      <c r="A856" s="13"/>
+      <c r="B856" s="13"/>
+      <c r="C856" s="13"/>
     </row>
     <row r="857" ht="21.0" customHeight="1">
-      <c r="A857" s="12"/>
-      <c r="B857" s="12"/>
-      <c r="C857" s="12"/>
+      <c r="A857" s="13"/>
+      <c r="B857" s="13"/>
+      <c r="C857" s="13"/>
     </row>
     <row r="858" ht="21.0" customHeight="1">
-      <c r="A858" s="12"/>
-      <c r="B858" s="12"/>
-      <c r="C858" s="12"/>
+      <c r="A858" s="13"/>
+      <c r="B858" s="13"/>
+      <c r="C858" s="13"/>
     </row>
     <row r="859" ht="21.0" customHeight="1">
-      <c r="A859" s="12"/>
-      <c r="B859" s="12"/>
-      <c r="C859" s="12"/>
+      <c r="A859" s="13"/>
+      <c r="B859" s="13"/>
+      <c r="C859" s="13"/>
     </row>
     <row r="860" ht="21.0" customHeight="1">
-      <c r="A860" s="12"/>
-      <c r="B860" s="12"/>
-      <c r="C860" s="12"/>
+      <c r="A860" s="13"/>
+      <c r="B860" s="13"/>
+      <c r="C860" s="13"/>
     </row>
     <row r="861" ht="21.0" customHeight="1">
-      <c r="A861" s="12"/>
-      <c r="B861" s="12"/>
-      <c r="C861" s="12"/>
+      <c r="A861" s="13"/>
+      <c r="B861" s="13"/>
+      <c r="C861" s="13"/>
     </row>
     <row r="862" ht="21.0" customHeight="1">
-      <c r="A862" s="12"/>
-      <c r="B862" s="12"/>
-      <c r="C862" s="12"/>
+      <c r="A862" s="13"/>
+      <c r="B862" s="13"/>
+      <c r="C862" s="13"/>
     </row>
     <row r="863" ht="21.0" customHeight="1">
-      <c r="A863" s="12"/>
-      <c r="B863" s="12"/>
-      <c r="C863" s="12"/>
+      <c r="A863" s="13"/>
+      <c r="B863" s="13"/>
+      <c r="C863" s="13"/>
     </row>
     <row r="864" ht="21.0" customHeight="1">
-      <c r="A864" s="12"/>
-      <c r="B864" s="12"/>
-      <c r="C864" s="12"/>
+      <c r="A864" s="13"/>
+      <c r="B864" s="13"/>
+      <c r="C864" s="13"/>
     </row>
     <row r="865" ht="21.0" customHeight="1">
-      <c r="A865" s="12"/>
-      <c r="B865" s="12"/>
-      <c r="C865" s="12"/>
+      <c r="A865" s="13"/>
+      <c r="B865" s="13"/>
+      <c r="C865" s="13"/>
     </row>
     <row r="866" ht="21.0" customHeight="1">
-      <c r="A866" s="12"/>
-      <c r="B866" s="12"/>
-      <c r="C866" s="12"/>
+      <c r="A866" s="13"/>
+      <c r="B866" s="13"/>
+      <c r="C866" s="13"/>
     </row>
     <row r="867" ht="21.0" customHeight="1">
-      <c r="A867" s="12"/>
-      <c r="B867" s="12"/>
-      <c r="C867" s="12"/>
+      <c r="A867" s="13"/>
+      <c r="B867" s="13"/>
+      <c r="C867" s="13"/>
     </row>
     <row r="868" ht="21.0" customHeight="1">
-      <c r="A868" s="12"/>
-      <c r="B868" s="12"/>
-      <c r="C868" s="12"/>
+      <c r="A868" s="13"/>
+      <c r="B868" s="13"/>
+      <c r="C868" s="13"/>
     </row>
     <row r="869" ht="21.0" customHeight="1">
-      <c r="A869" s="12"/>
-      <c r="B869" s="12"/>
-      <c r="C869" s="12"/>
+      <c r="A869" s="13"/>
+      <c r="B869" s="13"/>
+      <c r="C869" s="13"/>
     </row>
     <row r="870" ht="21.0" customHeight="1">
-      <c r="A870" s="12"/>
-      <c r="B870" s="12"/>
-      <c r="C870" s="12"/>
+      <c r="A870" s="13"/>
+      <c r="B870" s="13"/>
+      <c r="C870" s="13"/>
     </row>
     <row r="871" ht="21.0" customHeight="1">
-      <c r="A871" s="12"/>
-      <c r="B871" s="12"/>
-      <c r="C871" s="12"/>
+      <c r="A871" s="13"/>
+      <c r="B871" s="13"/>
+      <c r="C871" s="13"/>
     </row>
     <row r="872" ht="21.0" customHeight="1">
-      <c r="A872" s="12"/>
-      <c r="B872" s="12"/>
-      <c r="C872" s="12"/>
+      <c r="A872" s="13"/>
+      <c r="B872" s="13"/>
+      <c r="C872" s="13"/>
     </row>
     <row r="873" ht="21.0" customHeight="1">
-      <c r="A873" s="12"/>
-      <c r="B873" s="12"/>
-      <c r="C873" s="12"/>
+      <c r="A873" s="13"/>
+      <c r="B873" s="13"/>
+      <c r="C873" s="13"/>
     </row>
     <row r="874" ht="21.0" customHeight="1">
-      <c r="A874" s="12"/>
-      <c r="B874" s="12"/>
-      <c r="C874" s="12"/>
+      <c r="A874" s="13"/>
+      <c r="B874" s="13"/>
+      <c r="C874" s="13"/>
     </row>
     <row r="875" ht="21.0" customHeight="1">
-      <c r="A875" s="12"/>
-      <c r="B875" s="12"/>
-      <c r="C875" s="12"/>
+      <c r="A875" s="13"/>
+      <c r="B875" s="13"/>
+      <c r="C875" s="13"/>
     </row>
     <row r="876" ht="21.0" customHeight="1">
-      <c r="A876" s="12"/>
-      <c r="B876" s="12"/>
-      <c r="C876" s="12"/>
+      <c r="A876" s="13"/>
+      <c r="B876" s="13"/>
+      <c r="C876" s="13"/>
     </row>
     <row r="877" ht="21.0" customHeight="1">
-      <c r="A877" s="12"/>
-      <c r="B877" s="12"/>
-      <c r="C877" s="12"/>
+      <c r="A877" s="13"/>
+      <c r="B877" s="13"/>
+      <c r="C877" s="13"/>
     </row>
     <row r="878" ht="21.0" customHeight="1">
-      <c r="A878" s="12"/>
-      <c r="B878" s="12"/>
-      <c r="C878" s="12"/>
+      <c r="A878" s="13"/>
+      <c r="B878" s="13"/>
+      <c r="C878" s="13"/>
     </row>
     <row r="879" ht="21.0" customHeight="1">
-      <c r="A879" s="12"/>
-      <c r="B879" s="12"/>
-      <c r="C879" s="12"/>
+      <c r="A879" s="13"/>
+      <c r="B879" s="13"/>
+      <c r="C879" s="13"/>
     </row>
     <row r="880" ht="21.0" customHeight="1">
-      <c r="A880" s="12"/>
-      <c r="B880" s="12"/>
-      <c r="C880" s="12"/>
+      <c r="A880" s="13"/>
+      <c r="B880" s="13"/>
+      <c r="C880" s="13"/>
     </row>
     <row r="881" ht="21.0" customHeight="1">
-      <c r="A881" s="12"/>
-      <c r="B881" s="12"/>
-      <c r="C881" s="12"/>
+      <c r="A881" s="13"/>
+      <c r="B881" s="13"/>
+      <c r="C881" s="13"/>
     </row>
     <row r="882" ht="21.0" customHeight="1">
-      <c r="A882" s="12"/>
-      <c r="B882" s="12"/>
-      <c r="C882" s="12"/>
+      <c r="A882" s="13"/>
+      <c r="B882" s="13"/>
+      <c r="C882" s="13"/>
     </row>
     <row r="883" ht="21.0" customHeight="1">
-      <c r="A883" s="12"/>
-      <c r="B883" s="12"/>
-      <c r="C883" s="12"/>
+      <c r="A883" s="13"/>
+      <c r="B883" s="13"/>
+      <c r="C883" s="13"/>
     </row>
     <row r="884" ht="21.0" customHeight="1">
-      <c r="A884" s="12"/>
-      <c r="B884" s="12"/>
-      <c r="C884" s="12"/>
+      <c r="A884" s="13"/>
+      <c r="B884" s="13"/>
+      <c r="C884" s="13"/>
     </row>
     <row r="885" ht="21.0" customHeight="1">
-      <c r="A885" s="12"/>
-      <c r="B885" s="12"/>
-      <c r="C885" s="12"/>
+      <c r="A885" s="13"/>
+      <c r="B885" s="13"/>
+      <c r="C885" s="13"/>
     </row>
     <row r="886" ht="21.0" customHeight="1">
-      <c r="A886" s="12"/>
-      <c r="B886" s="12"/>
-      <c r="C886" s="12"/>
+      <c r="A886" s="13"/>
+      <c r="B886" s="13"/>
+      <c r="C886" s="13"/>
     </row>
     <row r="887" ht="21.0" customHeight="1">
-      <c r="A887" s="12"/>
-      <c r="B887" s="12"/>
-      <c r="C887" s="12"/>
+      <c r="A887" s="13"/>
+      <c r="B887" s="13"/>
+      <c r="C887" s="13"/>
     </row>
     <row r="888" ht="21.0" customHeight="1">
-      <c r="A888" s="12"/>
-      <c r="B888" s="12"/>
-      <c r="C888" s="12"/>
+      <c r="A888" s="13"/>
+      <c r="B888" s="13"/>
+      <c r="C888" s="13"/>
     </row>
     <row r="889" ht="21.0" customHeight="1">
-      <c r="A889" s="12"/>
-      <c r="B889" s="12"/>
-      <c r="C889" s="12"/>
+      <c r="A889" s="13"/>
+      <c r="B889" s="13"/>
+      <c r="C889" s="13"/>
     </row>
     <row r="890" ht="21.0" customHeight="1">
-      <c r="A890" s="12"/>
-      <c r="B890" s="12"/>
-      <c r="C890" s="12"/>
+      <c r="A890" s="13"/>
+      <c r="B890" s="13"/>
+      <c r="C890" s="13"/>
     </row>
     <row r="891" ht="21.0" customHeight="1">
-      <c r="A891" s="12"/>
-      <c r="B891" s="12"/>
-      <c r="C891" s="12"/>
+      <c r="A891" s="13"/>
+      <c r="B891" s="13"/>
+      <c r="C891" s="13"/>
     </row>
     <row r="892" ht="21.0" customHeight="1">
-      <c r="A892" s="12"/>
-      <c r="B892" s="12"/>
-      <c r="C892" s="12"/>
+      <c r="A892" s="13"/>
+      <c r="B892" s="13"/>
+      <c r="C892" s="13"/>
     </row>
     <row r="893" ht="21.0" customHeight="1">
-      <c r="A893" s="12"/>
-      <c r="B893" s="12"/>
-      <c r="C893" s="12"/>
+      <c r="A893" s="13"/>
+      <c r="B893" s="13"/>
+      <c r="C893" s="13"/>
     </row>
     <row r="894" ht="21.0" customHeight="1">
-      <c r="A894" s="12"/>
-      <c r="B894" s="12"/>
-      <c r="C894" s="12"/>
+      <c r="A894" s="13"/>
+      <c r="B894" s="13"/>
+      <c r="C894" s="13"/>
     </row>
     <row r="895" ht="21.0" customHeight="1">
-      <c r="A895" s="12"/>
-      <c r="B895" s="12"/>
-      <c r="C895" s="12"/>
+      <c r="A895" s="13"/>
+      <c r="B895" s="13"/>
+      <c r="C895" s="13"/>
     </row>
     <row r="896" ht="21.0" customHeight="1">
-      <c r="A896" s="12"/>
-      <c r="B896" s="12"/>
-      <c r="C896" s="12"/>
+      <c r="A896" s="13"/>
+      <c r="B896" s="13"/>
+      <c r="C896" s="13"/>
     </row>
     <row r="897" ht="21.0" customHeight="1">
-      <c r="A897" s="12"/>
-      <c r="B897" s="12"/>
-      <c r="C897" s="12"/>
+      <c r="A897" s="13"/>
+      <c r="B897" s="13"/>
+      <c r="C897" s="13"/>
     </row>
     <row r="898" ht="21.0" customHeight="1">
-      <c r="A898" s="12"/>
-      <c r="B898" s="12"/>
-      <c r="C898" s="12"/>
+      <c r="A898" s="13"/>
+      <c r="B898" s="13"/>
+      <c r="C898" s="13"/>
     </row>
     <row r="899" ht="21.0" customHeight="1">
-      <c r="A899" s="12"/>
-      <c r="B899" s="12"/>
-      <c r="C899" s="12"/>
+      <c r="A899" s="13"/>
+      <c r="B899" s="13"/>
+      <c r="C899" s="13"/>
     </row>
     <row r="900" ht="21.0" customHeight="1">
-      <c r="A900" s="12"/>
-      <c r="B900" s="12"/>
-      <c r="C900" s="12"/>
+      <c r="A900" s="13"/>
+      <c r="B900" s="13"/>
+      <c r="C900" s="13"/>
     </row>
     <row r="901" ht="21.0" customHeight="1">
-      <c r="A901" s="12"/>
-      <c r="B901" s="12"/>
-      <c r="C901" s="12"/>
+      <c r="A901" s="13"/>
+      <c r="B901" s="13"/>
+      <c r="C901" s="13"/>
     </row>
     <row r="902" ht="21.0" customHeight="1">
-      <c r="A902" s="12"/>
-      <c r="B902" s="12"/>
-      <c r="C902" s="12"/>
+      <c r="A902" s="13"/>
+      <c r="B902" s="13"/>
+      <c r="C902" s="13"/>
     </row>
     <row r="903" ht="21.0" customHeight="1">
-      <c r="A903" s="12"/>
-      <c r="B903" s="12"/>
-      <c r="C903" s="12"/>
+      <c r="A903" s="13"/>
+      <c r="B903" s="13"/>
+      <c r="C903" s="13"/>
     </row>
     <row r="904" ht="21.0" customHeight="1">
-      <c r="A904" s="12"/>
-      <c r="B904" s="12"/>
-      <c r="C904" s="12"/>
+      <c r="A904" s="13"/>
+      <c r="B904" s="13"/>
+      <c r="C904" s="13"/>
     </row>
     <row r="905" ht="21.0" customHeight="1">
-      <c r="A905" s="12"/>
-      <c r="B905" s="12"/>
-      <c r="C905" s="12"/>
+      <c r="A905" s="13"/>
+      <c r="B905" s="13"/>
+      <c r="C905" s="13"/>
     </row>
     <row r="906" ht="21.0" customHeight="1">
-      <c r="A906" s="12"/>
-      <c r="B906" s="12"/>
-      <c r="C906" s="12"/>
+      <c r="A906" s="13"/>
+      <c r="B906" s="13"/>
+      <c r="C906" s="13"/>
     </row>
     <row r="907" ht="21.0" customHeight="1">
-      <c r="A907" s="12"/>
-      <c r="B907" s="12"/>
-      <c r="C907" s="12"/>
+      <c r="A907" s="13"/>
+      <c r="B907" s="13"/>
+      <c r="C907" s="13"/>
     </row>
     <row r="908" ht="21.0" customHeight="1">
-      <c r="A908" s="12"/>
-      <c r="B908" s="12"/>
-      <c r="C908" s="12"/>
+      <c r="A908" s="13"/>
+      <c r="B908" s="13"/>
+      <c r="C908" s="13"/>
     </row>
     <row r="909" ht="21.0" customHeight="1">
-      <c r="A909" s="12"/>
-      <c r="B909" s="12"/>
-      <c r="C909" s="12"/>
+      <c r="A909" s="13"/>
+      <c r="B909" s="13"/>
+      <c r="C909" s="13"/>
     </row>
     <row r="910" ht="21.0" customHeight="1">
-      <c r="A910" s="12"/>
-      <c r="B910" s="12"/>
-      <c r="C910" s="12"/>
+      <c r="A910" s="13"/>
+      <c r="B910" s="13"/>
+      <c r="C910" s="13"/>
     </row>
     <row r="911" ht="21.0" customHeight="1">
-      <c r="A911" s="12"/>
-      <c r="B911" s="12"/>
-      <c r="C911" s="12"/>
+      <c r="A911" s="13"/>
+      <c r="B911" s="13"/>
+      <c r="C911" s="13"/>
     </row>
     <row r="912" ht="21.0" customHeight="1">
-      <c r="A912" s="12"/>
-      <c r="B912" s="12"/>
-      <c r="C912" s="12"/>
+      <c r="A912" s="13"/>
+      <c r="B912" s="13"/>
+      <c r="C912" s="13"/>
     </row>
     <row r="913" ht="21.0" customHeight="1">
-      <c r="A913" s="12"/>
-      <c r="B913" s="12"/>
-      <c r="C913" s="12"/>
+      <c r="A913" s="13"/>
+      <c r="B913" s="13"/>
+      <c r="C913" s="13"/>
     </row>
     <row r="914" ht="21.0" customHeight="1">
-      <c r="A914" s="12"/>
-      <c r="B914" s="12"/>
-      <c r="C914" s="12"/>
+      <c r="A914" s="13"/>
+      <c r="B914" s="13"/>
+      <c r="C914" s="13"/>
     </row>
     <row r="915" ht="21.0" customHeight="1">
-      <c r="A915" s="12"/>
-      <c r="B915" s="12"/>
-      <c r="C915" s="12"/>
+      <c r="A915" s="13"/>
+      <c r="B915" s="13"/>
+      <c r="C915" s="13"/>
     </row>
     <row r="916" ht="21.0" customHeight="1">
-      <c r="A916" s="12"/>
-      <c r="B916" s="12"/>
-      <c r="C916" s="12"/>
+      <c r="A916" s="13"/>
+      <c r="B916" s="13"/>
+      <c r="C916" s="13"/>
     </row>
     <row r="917" ht="21.0" customHeight="1">
-      <c r="A917" s="12"/>
-      <c r="B917" s="12"/>
-      <c r="C917" s="12"/>
+      <c r="A917" s="13"/>
+      <c r="B917" s="13"/>
+      <c r="C917" s="13"/>
     </row>
     <row r="918" ht="21.0" customHeight="1">
-      <c r="A918" s="12"/>
-      <c r="B918" s="12"/>
-      <c r="C918" s="12"/>
+      <c r="A918" s="13"/>
+      <c r="B918" s="13"/>
+      <c r="C918" s="13"/>
     </row>
     <row r="919" ht="21.0" customHeight="1">
-      <c r="A919" s="12"/>
-      <c r="B919" s="12"/>
-      <c r="C919" s="12"/>
+      <c r="A919" s="13"/>
+      <c r="B919" s="13"/>
+      <c r="C919" s="13"/>
     </row>
     <row r="920" ht="21.0" customHeight="1">
-      <c r="A920" s="12"/>
-      <c r="B920" s="12"/>
-      <c r="C920" s="12"/>
+      <c r="A920" s="13"/>
+      <c r="B920" s="13"/>
+      <c r="C920" s="13"/>
     </row>
     <row r="921" ht="21.0" customHeight="1">
-      <c r="A921" s="12"/>
-      <c r="B921" s="12"/>
-      <c r="C921" s="12"/>
+      <c r="A921" s="13"/>
+      <c r="B921" s="13"/>
+      <c r="C921" s="13"/>
     </row>
     <row r="922" ht="21.0" customHeight="1">
-      <c r="A922" s="12"/>
-      <c r="B922" s="12"/>
-      <c r="C922" s="12"/>
+      <c r="A922" s="13"/>
+      <c r="B922" s="13"/>
+      <c r="C922" s="13"/>
     </row>
     <row r="923" ht="21.0" customHeight="1">
-      <c r="A923" s="12"/>
-      <c r="B923" s="12"/>
-      <c r="C923" s="12"/>
+      <c r="A923" s="13"/>
+      <c r="B923" s="13"/>
+      <c r="C923" s="13"/>
     </row>
     <row r="924" ht="21.0" customHeight="1">
-      <c r="A924" s="12"/>
-      <c r="B924" s="12"/>
-      <c r="C924" s="12"/>
+      <c r="A924" s="13"/>
+      <c r="B924" s="13"/>
+      <c r="C924" s="13"/>
     </row>
     <row r="925" ht="21.0" customHeight="1">
-      <c r="A925" s="12"/>
-      <c r="B925" s="12"/>
-      <c r="C925" s="12"/>
+      <c r="A925" s="13"/>
+      <c r="B925" s="13"/>
+      <c r="C925" s="13"/>
     </row>
     <row r="926" ht="21.0" customHeight="1">
-      <c r="A926" s="12"/>
-      <c r="B926" s="12"/>
-      <c r="C926" s="12"/>
+      <c r="A926" s="13"/>
+      <c r="B926" s="13"/>
+      <c r="C926" s="13"/>
     </row>
     <row r="927" ht="21.0" customHeight="1">
-      <c r="A927" s="12"/>
-      <c r="B927" s="12"/>
-      <c r="C927" s="12"/>
+      <c r="A927" s="13"/>
+      <c r="B927" s="13"/>
+      <c r="C927" s="13"/>
     </row>
     <row r="928" ht="21.0" customHeight="1">
-      <c r="A928" s="12"/>
-      <c r="B928" s="12"/>
-      <c r="C928" s="12"/>
+      <c r="A928" s="13"/>
+      <c r="B928" s="13"/>
+      <c r="C928" s="13"/>
     </row>
     <row r="929" ht="21.0" customHeight="1">
-      <c r="A929" s="12"/>
-      <c r="B929" s="12"/>
-      <c r="C929" s="12"/>
+      <c r="A929" s="13"/>
+      <c r="B929" s="13"/>
+      <c r="C929" s="13"/>
     </row>
     <row r="930" ht="21.0" customHeight="1">
-      <c r="A930" s="12"/>
-      <c r="B930" s="12"/>
-      <c r="C930" s="12"/>
+      <c r="A930" s="13"/>
+      <c r="B930" s="13"/>
+      <c r="C930" s="13"/>
     </row>
     <row r="931" ht="21.0" customHeight="1">
-      <c r="A931" s="12"/>
-      <c r="B931" s="12"/>
-      <c r="C931" s="12"/>
+      <c r="A931" s="13"/>
+      <c r="B931" s="13"/>
+      <c r="C931" s="13"/>
     </row>
     <row r="932" ht="21.0" customHeight="1">
-      <c r="A932" s="12"/>
-      <c r="B932" s="12"/>
-      <c r="C932" s="12"/>
+      <c r="A932" s="13"/>
+      <c r="B932" s="13"/>
+      <c r="C932" s="13"/>
     </row>
     <row r="933" ht="21.0" customHeight="1">
-      <c r="A933" s="12"/>
-      <c r="B933" s="12"/>
-      <c r="C933" s="12"/>
+      <c r="A933" s="13"/>
+      <c r="B933" s="13"/>
+      <c r="C933" s="13"/>
     </row>
     <row r="934" ht="21.0" customHeight="1">
-      <c r="A934" s="12"/>
-      <c r="B934" s="12"/>
-      <c r="C934" s="12"/>
+      <c r="A934" s="13"/>
+      <c r="B934" s="13"/>
+      <c r="C934" s="13"/>
     </row>
     <row r="935" ht="21.0" customHeight="1">
-      <c r="A935" s="12"/>
-      <c r="B935" s="12"/>
-      <c r="C935" s="12"/>
+      <c r="A935" s="13"/>
+      <c r="B935" s="13"/>
+      <c r="C935" s="13"/>
     </row>
     <row r="936" ht="21.0" customHeight="1">
-      <c r="A936" s="12"/>
-      <c r="B936" s="12"/>
-      <c r="C936" s="12"/>
+      <c r="A936" s="13"/>
+      <c r="B936" s="13"/>
+      <c r="C936" s="13"/>
     </row>
     <row r="937" ht="21.0" customHeight="1">
-      <c r="A937" s="12"/>
-      <c r="B937" s="12"/>
-      <c r="C937" s="12"/>
+      <c r="A937" s="13"/>
+      <c r="B937" s="13"/>
+      <c r="C937" s="13"/>
     </row>
     <row r="938" ht="21.0" customHeight="1">
-      <c r="A938" s="12"/>
-      <c r="B938" s="12"/>
-      <c r="C938" s="12"/>
+      <c r="A938" s="13"/>
+      <c r="B938" s="13"/>
+      <c r="C938" s="13"/>
     </row>
     <row r="939" ht="21.0" customHeight="1">
-      <c r="A939" s="12"/>
-      <c r="B939" s="12"/>
-      <c r="C939" s="12"/>
+      <c r="A939" s="13"/>
+      <c r="B939" s="13"/>
+      <c r="C939" s="13"/>
     </row>
     <row r="940" ht="21.0" customHeight="1">
-      <c r="A940" s="12"/>
-      <c r="B940" s="12"/>
-      <c r="C940" s="12"/>
+      <c r="A940" s="13"/>
+      <c r="B940" s="13"/>
+      <c r="C940" s="13"/>
     </row>
     <row r="941" ht="21.0" customHeight="1">
-      <c r="A941" s="12"/>
-      <c r="B941" s="12"/>
-      <c r="C941" s="12"/>
+      <c r="A941" s="13"/>
+      <c r="B941" s="13"/>
+      <c r="C941" s="13"/>
     </row>
     <row r="942" ht="21.0" customHeight="1">
-      <c r="A942" s="12"/>
-      <c r="B942" s="12"/>
-      <c r="C942" s="12"/>
+      <c r="A942" s="13"/>
+      <c r="B942" s="13"/>
+      <c r="C942" s="13"/>
     </row>
     <row r="943" ht="21.0" customHeight="1">
-      <c r="A943" s="12"/>
-      <c r="B943" s="12"/>
-      <c r="C943" s="12"/>
+      <c r="A943" s="13"/>
+      <c r="B943" s="13"/>
+      <c r="C943" s="13"/>
     </row>
     <row r="944" ht="21.0" customHeight="1">
-      <c r="A944" s="12"/>
-      <c r="B944" s="12"/>
-      <c r="C944" s="12"/>
+      <c r="A944" s="13"/>
+      <c r="B944" s="13"/>
+      <c r="C944" s="13"/>
     </row>
     <row r="945" ht="21.0" customHeight="1">
-      <c r="A945" s="12"/>
-      <c r="B945" s="12"/>
-      <c r="C945" s="12"/>
+      <c r="A945" s="13"/>
+      <c r="B945" s="13"/>
+      <c r="C945" s="13"/>
     </row>
     <row r="946" ht="21.0" customHeight="1">
-      <c r="A946" s="12"/>
-      <c r="B946" s="12"/>
-      <c r="C946" s="12"/>
+      <c r="A946" s="13"/>
+      <c r="B946" s="13"/>
+      <c r="C946" s="13"/>
     </row>
     <row r="947" ht="21.0" customHeight="1">
-      <c r="A947" s="12"/>
-      <c r="B947" s="12"/>
-      <c r="C947" s="12"/>
+      <c r="A947" s="13"/>
+      <c r="B947" s="13"/>
+      <c r="C947" s="13"/>
     </row>
     <row r="948" ht="21.0" customHeight="1">
-      <c r="A948" s="12"/>
-      <c r="B948" s="12"/>
-      <c r="C948" s="12"/>
+      <c r="A948" s="13"/>
+      <c r="B948" s="13"/>
+      <c r="C948" s="13"/>
     </row>
     <row r="949" ht="21.0" customHeight="1">
-      <c r="A949" s="12"/>
-      <c r="B949" s="12"/>
-      <c r="C949" s="12"/>
+      <c r="A949" s="13"/>
+      <c r="B949" s="13"/>
+      <c r="C949" s="13"/>
     </row>
     <row r="950" ht="21.0" customHeight="1">
-      <c r="A950" s="12"/>
-      <c r="B950" s="12"/>
-      <c r="C950" s="12"/>
+      <c r="A950" s="13"/>
+      <c r="B950" s="13"/>
+      <c r="C950" s="13"/>
     </row>
     <row r="951" ht="21.0" customHeight="1">
-      <c r="A951" s="12"/>
-      <c r="B951" s="12"/>
-      <c r="C951" s="12"/>
+      <c r="A951" s="13"/>
+      <c r="B951" s="13"/>
+      <c r="C951" s="13"/>
     </row>
     <row r="952" ht="21.0" customHeight="1">
-      <c r="A952" s="12"/>
-      <c r="B952" s="12"/>
-      <c r="C952" s="12"/>
+      <c r="A952" s="13"/>
+      <c r="B952" s="13"/>
+      <c r="C952" s="13"/>
     </row>
     <row r="953" ht="21.0" customHeight="1">
-      <c r="A953" s="12"/>
-      <c r="B953" s="12"/>
-      <c r="C953" s="12"/>
+      <c r="A953" s="13"/>
+      <c r="B953" s="13"/>
+      <c r="C953" s="13"/>
     </row>
     <row r="954" ht="21.0" customHeight="1">
-      <c r="A954" s="12"/>
-      <c r="B954" s="12"/>
-      <c r="C954" s="12"/>
+      <c r="A954" s="13"/>
+      <c r="B954" s="13"/>
+      <c r="C954" s="13"/>
     </row>
     <row r="955" ht="21.0" customHeight="1">
-      <c r="A955" s="12"/>
-      <c r="B955" s="12"/>
-      <c r="C955" s="12"/>
+      <c r="A955" s="13"/>
+      <c r="B955" s="13"/>
+      <c r="C955" s="13"/>
     </row>
     <row r="956" ht="21.0" customHeight="1">
-      <c r="A956" s="12"/>
-      <c r="B956" s="12"/>
-      <c r="C956" s="12"/>
+      <c r="A956" s="13"/>
+      <c r="B956" s="13"/>
+      <c r="C956" s="13"/>
     </row>
     <row r="957" ht="21.0" customHeight="1">
-      <c r="A957" s="12"/>
-      <c r="B957" s="12"/>
-      <c r="C957" s="12"/>
+      <c r="A957" s="13"/>
+      <c r="B957" s="13"/>
+      <c r="C957" s="13"/>
     </row>
     <row r="958" ht="21.0" customHeight="1">
-      <c r="A958" s="12"/>
-      <c r="B958" s="12"/>
-      <c r="C958" s="12"/>
+      <c r="A958" s="13"/>
+      <c r="B958" s="13"/>
+      <c r="C958" s="13"/>
     </row>
     <row r="959" ht="21.0" customHeight="1">
-      <c r="A959" s="12"/>
-      <c r="B959" s="12"/>
-      <c r="C959" s="12"/>
+      <c r="A959" s="13"/>
+      <c r="B959" s="13"/>
+      <c r="C959" s="13"/>
     </row>
     <row r="960" ht="21.0" customHeight="1">
-      <c r="A960" s="12"/>
-      <c r="B960" s="12"/>
-      <c r="C960" s="12"/>
+      <c r="A960" s="13"/>
+      <c r="B960" s="13"/>
+      <c r="C960" s="13"/>
     </row>
     <row r="961" ht="21.0" customHeight="1">
-      <c r="A961" s="12"/>
-      <c r="B961" s="12"/>
-      <c r="C961" s="12"/>
+      <c r="A961" s="13"/>
+      <c r="B961" s="13"/>
+      <c r="C961" s="13"/>
     </row>
     <row r="962" ht="21.0" customHeight="1">
-      <c r="A962" s="12"/>
-      <c r="B962" s="12"/>
-      <c r="C962" s="12"/>
+      <c r="A962" s="13"/>
+      <c r="B962" s="13"/>
+      <c r="C962" s="13"/>
     </row>
     <row r="963" ht="21.0" customHeight="1">
-      <c r="A963" s="12"/>
-      <c r="B963" s="12"/>
-      <c r="C963" s="12"/>
+      <c r="A963" s="13"/>
+      <c r="B963" s="13"/>
+      <c r="C963" s="13"/>
     </row>
     <row r="964" ht="21.0" customHeight="1">
-      <c r="A964" s="12"/>
-      <c r="B964" s="12"/>
-      <c r="C964" s="12"/>
+      <c r="A964" s="13"/>
+      <c r="B964" s="13"/>
+      <c r="C964" s="13"/>
     </row>
     <row r="965" ht="21.0" customHeight="1">
-      <c r="A965" s="12"/>
-      <c r="B965" s="12"/>
-      <c r="C965" s="12"/>
+      <c r="A965" s="13"/>
+      <c r="B965" s="13"/>
+      <c r="C965" s="13"/>
     </row>
     <row r="966" ht="21.0" customHeight="1">
-      <c r="A966" s="12"/>
-      <c r="B966" s="12"/>
-      <c r="C966" s="12"/>
+      <c r="A966" s="13"/>
+      <c r="B966" s="13"/>
+      <c r="C966" s="13"/>
     </row>
     <row r="967" ht="21.0" customHeight="1">
-      <c r="A967" s="12"/>
-      <c r="B967" s="12"/>
-      <c r="C967" s="12"/>
+      <c r="A967" s="13"/>
+      <c r="B967" s="13"/>
+      <c r="C967" s="13"/>
     </row>
     <row r="968" ht="21.0" customHeight="1">
-      <c r="A968" s="12"/>
-      <c r="B968" s="12"/>
-      <c r="C968" s="12"/>
+      <c r="A968" s="13"/>
+      <c r="B968" s="13"/>
+      <c r="C968" s="13"/>
     </row>
     <row r="969" ht="21.0" customHeight="1">
-      <c r="A969" s="12"/>
-      <c r="B969" s="12"/>
-      <c r="C969" s="12"/>
+      <c r="A969" s="13"/>
+      <c r="B969" s="13"/>
+      <c r="C969" s="13"/>
     </row>
     <row r="970" ht="21.0" customHeight="1">
-      <c r="A970" s="12"/>
-      <c r="B970" s="12"/>
-      <c r="C970" s="12"/>
+      <c r="A970" s="13"/>
+      <c r="B970" s="13"/>
+      <c r="C970" s="13"/>
     </row>
     <row r="971" ht="21.0" customHeight="1">
-      <c r="A971" s="12"/>
-      <c r="B971" s="12"/>
-      <c r="C971" s="12"/>
+      <c r="A971" s="13"/>
+      <c r="B971" s="13"/>
+      <c r="C971" s="13"/>
     </row>
     <row r="972" ht="21.0" customHeight="1">
-      <c r="A972" s="12"/>
-      <c r="B972" s="12"/>
-      <c r="C972" s="12"/>
+      <c r="A972" s="13"/>
+      <c r="B972" s="13"/>
+      <c r="C972" s="13"/>
     </row>
     <row r="973" ht="21.0" customHeight="1">
-      <c r="A973" s="12"/>
-      <c r="B973" s="12"/>
-      <c r="C973" s="12"/>
+      <c r="A973" s="13"/>
+      <c r="B973" s="13"/>
+      <c r="C973" s="13"/>
     </row>
     <row r="974" ht="21.0" customHeight="1">
-      <c r="A974" s="12"/>
-      <c r="B974" s="12"/>
-      <c r="C974" s="12"/>
+      <c r="A974" s="13"/>
+      <c r="B974" s="13"/>
+      <c r="C974" s="13"/>
     </row>
     <row r="975" ht="21.0" customHeight="1">
-      <c r="A975" s="12"/>
-      <c r="B975" s="12"/>
-      <c r="C975" s="12"/>
+      <c r="A975" s="13"/>
+      <c r="B975" s="13"/>
+      <c r="C975" s="13"/>
     </row>
     <row r="976" ht="21.0" customHeight="1">
-      <c r="A976" s="12"/>
-      <c r="B976" s="12"/>
-      <c r="C976" s="12"/>
+      <c r="A976" s="13"/>
+      <c r="B976" s="13"/>
+      <c r="C976" s="13"/>
     </row>
     <row r="977" ht="21.0" customHeight="1">
-      <c r="A977" s="12"/>
-      <c r="B977" s="12"/>
-      <c r="C977" s="12"/>
+      <c r="A977" s="13"/>
+      <c r="B977" s="13"/>
+      <c r="C977" s="13"/>
     </row>
     <row r="978" ht="21.0" customHeight="1">
-      <c r="A978" s="12"/>
-      <c r="B978" s="12"/>
-      <c r="C978" s="12"/>
+      <c r="A978" s="13"/>
+      <c r="B978" s="13"/>
+      <c r="C978" s="13"/>
     </row>
     <row r="979" ht="21.0" customHeight="1">
-      <c r="A979" s="12"/>
-      <c r="B979" s="12"/>
-      <c r="C979" s="12"/>
+      <c r="A979" s="13"/>
+      <c r="B979" s="13"/>
+      <c r="C979" s="13"/>
     </row>
     <row r="980" ht="21.0" customHeight="1">
-      <c r="A980" s="12"/>
-      <c r="B980" s="12"/>
-      <c r="C980" s="12"/>
+      <c r="A980" s="13"/>
+      <c r="B980" s="13"/>
+      <c r="C980" s="13"/>
     </row>
     <row r="981" ht="21.0" customHeight="1">
-      <c r="A981" s="12"/>
-      <c r="B981" s="12"/>
-      <c r="C981" s="12"/>
+      <c r="A981" s="13"/>
+      <c r="B981" s="13"/>
+      <c r="C981" s="13"/>
     </row>
     <row r="982" ht="21.0" customHeight="1">
-      <c r="A982" s="12"/>
-      <c r="B982" s="12"/>
-      <c r="C982" s="12"/>
+      <c r="A982" s="13"/>
+      <c r="B982" s="13"/>
+      <c r="C982" s="13"/>
     </row>
     <row r="983" ht="21.0" customHeight="1">
-      <c r="A983" s="12"/>
-      <c r="B983" s="12"/>
-      <c r="C983" s="12"/>
+      <c r="A983" s="13"/>
+      <c r="B983" s="13"/>
+      <c r="C983" s="13"/>
     </row>
     <row r="984" ht="21.0" customHeight="1">
-      <c r="A984" s="12"/>
-      <c r="B984" s="12"/>
-      <c r="C984" s="12"/>
+      <c r="A984" s="13"/>
+      <c r="B984" s="13"/>
+      <c r="C984" s="13"/>
     </row>
     <row r="985" ht="21.0" customHeight="1">
-      <c r="A985" s="12"/>
-      <c r="B985" s="12"/>
-      <c r="C985" s="12"/>
+      <c r="A985" s="13"/>
+      <c r="B985" s="13"/>
+      <c r="C985" s="13"/>
     </row>
     <row r="986" ht="21.0" customHeight="1">
-      <c r="A986" s="12"/>
-      <c r="B986" s="12"/>
-      <c r="C986" s="12"/>
+      <c r="A986" s="13"/>
+      <c r="B986" s="13"/>
+      <c r="C986" s="13"/>
     </row>
     <row r="987" ht="21.0" customHeight="1">
-      <c r="A987" s="12"/>
-      <c r="B987" s="12"/>
-      <c r="C987" s="12"/>
+      <c r="A987" s="13"/>
+      <c r="B987" s="13"/>
+      <c r="C987" s="13"/>
     </row>
     <row r="988" ht="21.0" customHeight="1">
-      <c r="A988" s="12"/>
-      <c r="B988" s="12"/>
-      <c r="C988" s="12"/>
+      <c r="A988" s="13"/>
+      <c r="B988" s="13"/>
+      <c r="C988" s="13"/>
     </row>
     <row r="989" ht="21.0" customHeight="1">
-      <c r="A989" s="12"/>
-      <c r="B989" s="12"/>
-      <c r="C989" s="12"/>
+      <c r="A989" s="13"/>
+      <c r="B989" s="13"/>
+      <c r="C989" s="13"/>
     </row>
     <row r="990" ht="21.0" customHeight="1">
-      <c r="A990" s="12"/>
-      <c r="B990" s="12"/>
-      <c r="C990" s="12"/>
+      <c r="A990" s="13"/>
+      <c r="B990" s="13"/>
+      <c r="C990" s="13"/>
     </row>
     <row r="991" ht="21.0" customHeight="1">
-      <c r="A991" s="12"/>
-      <c r="B991" s="12"/>
-      <c r="C991" s="12"/>
+      <c r="A991" s="13"/>
+      <c r="B991" s="13"/>
+      <c r="C991" s="13"/>
     </row>
     <row r="992" ht="21.0" customHeight="1">
-      <c r="A992" s="12"/>
-      <c r="B992" s="12"/>
-      <c r="C992" s="12"/>
+      <c r="A992" s="13"/>
+      <c r="B992" s="13"/>
+      <c r="C992" s="13"/>
     </row>
     <row r="993" ht="21.0" customHeight="1">
-      <c r="A993" s="12"/>
-      <c r="B993" s="12"/>
-      <c r="C993" s="12"/>
+      <c r="A993" s="13"/>
+      <c r="B993" s="13"/>
+      <c r="C993" s="13"/>
     </row>
     <row r="994" ht="21.0" customHeight="1">
-      <c r="A994" s="12"/>
-      <c r="B994" s="12"/>
-      <c r="C994" s="12"/>
+      <c r="A994" s="13"/>
+      <c r="B994" s="13"/>
+      <c r="C994" s="13"/>
     </row>
     <row r="995" ht="21.0" customHeight="1">
-      <c r="A995" s="12"/>
-      <c r="B995" s="12"/>
-      <c r="C995" s="12"/>
+      <c r="A995" s="13"/>
+      <c r="B995" s="13"/>
+      <c r="C995" s="13"/>
     </row>
     <row r="996" ht="21.0" customHeight="1">
-      <c r="A996" s="12"/>
-      <c r="B996" s="12"/>
-      <c r="C996" s="12"/>
+      <c r="A996" s="13"/>
+      <c r="B996" s="13"/>
+      <c r="C996" s="13"/>
     </row>
     <row r="997" ht="21.0" customHeight="1">
-      <c r="A997" s="12"/>
-      <c r="B997" s="12"/>
-      <c r="C997" s="12"/>
+      <c r="A997" s="13"/>
+      <c r="B997" s="13"/>
+      <c r="C997" s="13"/>
     </row>
     <row r="998" ht="21.0" customHeight="1">
-      <c r="A998" s="12"/>
-      <c r="B998" s="12"/>
-      <c r="C998" s="12"/>
+      <c r="A998" s="13"/>
+      <c r="B998" s="13"/>
+      <c r="C998" s="13"/>
     </row>
     <row r="999" ht="21.0" customHeight="1">
-      <c r="A999" s="12"/>
-      <c r="B999" s="12"/>
-      <c r="C999" s="12"/>
+      <c r="A999" s="13"/>
+      <c r="B999" s="13"/>
+      <c r="C999" s="13"/>
     </row>
     <row r="1000" ht="21.0" customHeight="1">
-      <c r="A1000" s="12"/>
-      <c r="B1000" s="12"/>
-      <c r="C1000" s="12"/>
+      <c r="A1000" s="13"/>
+      <c r="B1000" s="13"/>
+      <c r="C1000" s="13"/>
     </row>
     <row r="1001" ht="21.0" customHeight="1">
-      <c r="A1001" s="12"/>
-      <c r="B1001" s="12"/>
-      <c r="C1001" s="12"/>
+      <c r="A1001" s="13"/>
+      <c r="B1001" s="13"/>
+      <c r="C1001" s="13"/>
     </row>
     <row r="1002" ht="21.0" customHeight="1">
-      <c r="A1002" s="12"/>
-      <c r="B1002" s="12"/>
-      <c r="C1002" s="12"/>
+      <c r="A1002" s="13"/>
+      <c r="B1002" s="13"/>
+      <c r="C1002" s="13"/>
     </row>
     <row r="1003" ht="21.0" customHeight="1">
-      <c r="A1003" s="12"/>
-      <c r="B1003" s="12"/>
-      <c r="C1003" s="12"/>
+      <c r="A1003" s="13"/>
+      <c r="B1003" s="13"/>
+      <c r="C1003" s="13"/>
     </row>
     <row r="1004" ht="21.0" customHeight="1">
-      <c r="A1004" s="12"/>
-      <c r="B1004" s="12"/>
-      <c r="C1004" s="12"/>
+      <c r="A1004" s="13"/>
+      <c r="B1004" s="13"/>
+      <c r="C1004" s="13"/>
     </row>
     <row r="1005" ht="21.0" customHeight="1">
-      <c r="A1005" s="12"/>
-      <c r="B1005" s="12"/>
-      <c r="C1005" s="12"/>
+      <c r="A1005" s="13"/>
+      <c r="B1005" s="13"/>
+      <c r="C1005" s="13"/>
     </row>
     <row r="1006" ht="21.0" customHeight="1">
-      <c r="A1006" s="12"/>
-      <c r="B1006" s="12"/>
-      <c r="C1006" s="12"/>
+      <c r="A1006" s="13"/>
+      <c r="B1006" s="13"/>
+      <c r="C1006" s="13"/>
     </row>
     <row r="1007" ht="21.0" customHeight="1">
-      <c r="A1007" s="12"/>
-      <c r="B1007" s="12"/>
-      <c r="C1007" s="12"/>
+      <c r="A1007" s="13"/>
+      <c r="B1007" s="13"/>
+      <c r="C1007" s="13"/>
     </row>
     <row r="1008" ht="21.0" customHeight="1">
-      <c r="A1008" s="12"/>
-      <c r="B1008" s="12"/>
-      <c r="C1008" s="12"/>
+      <c r="A1008" s="13"/>
+      <c r="B1008" s="13"/>
+      <c r="C1008" s="13"/>
     </row>
     <row r="1009" ht="21.0" customHeight="1">
-      <c r="A1009" s="12"/>
-      <c r="B1009" s="12"/>
-      <c r="C1009" s="12"/>
+      <c r="A1009" s="13"/>
+      <c r="B1009" s="13"/>
+      <c r="C1009" s="13"/>
     </row>
     <row r="1010" ht="21.0" customHeight="1">
-      <c r="A1010" s="12"/>
-      <c r="B1010" s="12"/>
-      <c r="C1010" s="12"/>
+      <c r="A1010" s="13"/>
+      <c r="B1010" s="13"/>
+      <c r="C1010" s="13"/>
     </row>
     <row r="1011" ht="21.0" customHeight="1">
-      <c r="A1011" s="12"/>
-      <c r="B1011" s="12"/>
-      <c r="C1011" s="12"/>
+      <c r="A1011" s="13"/>
+      <c r="B1011" s="13"/>
+      <c r="C1011" s="13"/>
     </row>
     <row r="1012" ht="21.0" customHeight="1">
-      <c r="A1012" s="12"/>
-      <c r="B1012" s="12"/>
-      <c r="C1012" s="12"/>
+      <c r="A1012" s="13"/>
+      <c r="B1012" s="13"/>
+      <c r="C1012" s="13"/>
     </row>
     <row r="1013" ht="21.0" customHeight="1">
-      <c r="A1013" s="12"/>
-      <c r="B1013" s="12"/>
-      <c r="C1013" s="12"/>
+      <c r="A1013" s="13"/>
+      <c r="B1013" s="13"/>
+      <c r="C1013" s="13"/>
     </row>
     <row r="1014" ht="21.0" customHeight="1">
-      <c r="A1014" s="12"/>
-      <c r="B1014" s="12"/>
-      <c r="C1014" s="12"/>
+      <c r="A1014" s="13"/>
+      <c r="B1014" s="13"/>
+      <c r="C1014" s="13"/>
     </row>
     <row r="1015" ht="21.0" customHeight="1">
-      <c r="A1015" s="12"/>
-      <c r="B1015" s="12"/>
-      <c r="C1015" s="12"/>
+      <c r="A1015" s="13"/>
+      <c r="B1015" s="13"/>
+      <c r="C1015" s="13"/>
     </row>
     <row r="1016" ht="21.0" customHeight="1">
-      <c r="A1016" s="12"/>
-      <c r="B1016" s="12"/>
-      <c r="C1016" s="12"/>
+      <c r="A1016" s="13"/>
+      <c r="B1016" s="13"/>
+      <c r="C1016" s="13"/>
     </row>
     <row r="1017" ht="21.0" customHeight="1">
-      <c r="A1017" s="12"/>
-      <c r="B1017" s="12"/>
-      <c r="C1017" s="12"/>
+      <c r="A1017" s="13"/>
+      <c r="B1017" s="13"/>
+      <c r="C1017" s="13"/>
     </row>
     <row r="1018" ht="21.0" customHeight="1">
-      <c r="A1018" s="12"/>
-      <c r="B1018" s="12"/>
-      <c r="C1018" s="12"/>
+      <c r="A1018" s="13"/>
+      <c r="B1018" s="13"/>
+      <c r="C1018" s="13"/>
     </row>
     <row r="1019" ht="21.0" customHeight="1">
-      <c r="A1019" s="12"/>
-      <c r="B1019" s="12"/>
-      <c r="C1019" s="12"/>
+      <c r="A1019" s="13"/>
+      <c r="B1019" s="13"/>
+      <c r="C1019" s="13"/>
     </row>
     <row r="1020" ht="21.0" customHeight="1">
-      <c r="A1020" s="12"/>
-      <c r="B1020" s="12"/>
-      <c r="C1020" s="12"/>
+      <c r="A1020" s="13"/>
+      <c r="B1020" s="13"/>
+      <c r="C1020" s="13"/>
     </row>
     <row r="1021" ht="21.0" customHeight="1">
-      <c r="A1021" s="12"/>
-      <c r="B1021" s="12"/>
-      <c r="C1021" s="12"/>
+      <c r="A1021" s="13"/>
+      <c r="B1021" s="13"/>
+      <c r="C1021" s="13"/>
     </row>
     <row r="1022" ht="21.0" customHeight="1">
-      <c r="A1022" s="12"/>
-      <c r="B1022" s="12"/>
-      <c r="C1022" s="12"/>
+      <c r="A1022" s="13"/>
+      <c r="B1022" s="13"/>
+      <c r="C1022" s="13"/>
     </row>
     <row r="1023" ht="21.0" customHeight="1">
-      <c r="A1023" s="12"/>
-      <c r="B1023" s="12"/>
-      <c r="C1023" s="12"/>
+      <c r="A1023" s="13"/>
+      <c r="B1023" s="13"/>
+      <c r="C1023" s="13"/>
     </row>
     <row r="1024" ht="21.0" customHeight="1">
-      <c r="A1024" s="12"/>
-      <c r="B1024" s="12"/>
-      <c r="C1024" s="12"/>
+      <c r="A1024" s="13"/>
+      <c r="B1024" s="13"/>
+      <c r="C1024" s="13"/>
     </row>
     <row r="1025" ht="21.0" customHeight="1">
-      <c r="A1025" s="12"/>
-      <c r="B1025" s="12"/>
-      <c r="C1025" s="12"/>
+      <c r="A1025" s="13"/>
+      <c r="B1025" s="13"/>
+      <c r="C1025" s="13"/>
     </row>
     <row r="1026" ht="21.0" customHeight="1">
-      <c r="A1026" s="12"/>
-      <c r="B1026" s="12"/>
-      <c r="C1026" s="12"/>
+      <c r="A1026" s="13"/>
+      <c r="B1026" s="13"/>
+      <c r="C1026" s="13"/>
     </row>
     <row r="1027" ht="21.0" customHeight="1">
-      <c r="A1027" s="12"/>
-      <c r="B1027" s="12"/>
-      <c r="C1027" s="12"/>
+      <c r="A1027" s="13"/>
+      <c r="B1027" s="13"/>
+      <c r="C1027" s="13"/>
     </row>
     <row r="1028" ht="21.0" customHeight="1">
-      <c r="A1028" s="12"/>
-      <c r="B1028" s="12"/>
-      <c r="C1028" s="12"/>
+      <c r="A1028" s="13"/>
+      <c r="B1028" s="13"/>
+      <c r="C1028" s="13"/>
     </row>
     <row r="1029" ht="21.0" customHeight="1">
-      <c r="A1029" s="12"/>
-      <c r="B1029" s="12"/>
-      <c r="C1029" s="12"/>
+      <c r="A1029" s="13"/>
+      <c r="B1029" s="13"/>
+      <c r="C1029" s="13"/>
     </row>
     <row r="1030" ht="21.0" customHeight="1">
-      <c r="A1030" s="12"/>
-      <c r="B1030" s="12"/>
-      <c r="C1030" s="12"/>
+      <c r="A1030" s="13"/>
+      <c r="B1030" s="13"/>
+      <c r="C1030" s="13"/>
     </row>
     <row r="1031" ht="21.0" customHeight="1">
-      <c r="A1031" s="12"/>
-      <c r="B1031" s="12"/>
-      <c r="C1031" s="12"/>
+      <c r="A1031" s="13"/>
+      <c r="B1031" s="13"/>
+      <c r="C1031" s="13"/>
     </row>
     <row r="1032" ht="21.0" customHeight="1">
-      <c r="A1032" s="12"/>
-      <c r="B1032" s="12"/>
-      <c r="C1032" s="12"/>
+      <c r="A1032" s="13"/>
+      <c r="B1032" s="13"/>
+      <c r="C1032" s="13"/>
     </row>
     <row r="1033" ht="21.0" customHeight="1">
-      <c r="A1033" s="12"/>
-      <c r="B1033" s="12"/>
-      <c r="C1033" s="12"/>
+      <c r="A1033" s="13"/>
+      <c r="B1033" s="13"/>
+      <c r="C1033" s="13"/>
     </row>
     <row r="1034" ht="21.0" customHeight="1">
-      <c r="A1034" s="12"/>
-      <c r="B1034" s="12"/>
-      <c r="C1034" s="12"/>
+      <c r="A1034" s="13"/>
+      <c r="B1034" s="13"/>
+      <c r="C1034" s="13"/>
     </row>
     <row r="1035" ht="21.0" customHeight="1">
-      <c r="A1035" s="12"/>
-      <c r="B1035" s="12"/>
-      <c r="C1035" s="12"/>
+      <c r="A1035" s="13"/>
+      <c r="B1035" s="13"/>
+      <c r="C1035" s="13"/>
     </row>
     <row r="1036" ht="21.0" customHeight="1">
-      <c r="A1036" s="12"/>
-      <c r="B1036" s="12"/>
-      <c r="C1036" s="12"/>
+      <c r="A1036" s="13"/>
+      <c r="B1036" s="13"/>
+      <c r="C1036" s="13"/>
     </row>
     <row r="1037" ht="21.0" customHeight="1">
-      <c r="A1037" s="12"/>
-      <c r="B1037" s="12"/>
-      <c r="C1037" s="12"/>
+      <c r="A1037" s="13"/>
+      <c r="B1037" s="13"/>
+      <c r="C1037" s="13"/>
     </row>
     <row r="1038" ht="21.0" customHeight="1">
-      <c r="A1038" s="12"/>
-      <c r="B1038" s="12"/>
-      <c r="C1038" s="12"/>
+      <c r="A1038" s="13"/>
+      <c r="B1038" s="13"/>
+      <c r="C1038" s="13"/>
     </row>
     <row r="1039" ht="21.0" customHeight="1">
-      <c r="A1039" s="12"/>
-      <c r="B1039" s="12"/>
-      <c r="C1039" s="12"/>
+      <c r="A1039" s="13"/>
+      <c r="B1039" s="13"/>
+      <c r="C1039" s="13"/>
     </row>
     <row r="1040" ht="21.0" customHeight="1">
-      <c r="A1040" s="12"/>
-      <c r="B1040" s="12"/>
-      <c r="C1040" s="12"/>
+      <c r="A1040" s="13"/>
+      <c r="B1040" s="13"/>
+      <c r="C1040" s="13"/>
     </row>
     <row r="1041" ht="21.0" customHeight="1">
-      <c r="A1041" s="12"/>
-      <c r="B1041" s="12"/>
-      <c r="C1041" s="12"/>
+      <c r="A1041" s="13"/>
+      <c r="B1041" s="13"/>
+      <c r="C1041" s="13"/>
     </row>
     <row r="1042" ht="21.0" customHeight="1">
-      <c r="A1042" s="12"/>
-      <c r="B1042" s="12"/>
-      <c r="C1042" s="12"/>
+      <c r="A1042" s="13"/>
+      <c r="B1042" s="13"/>
+      <c r="C1042" s="13"/>
     </row>
     <row r="1043" ht="21.0" customHeight="1">
-      <c r="A1043" s="12"/>
-      <c r="B1043" s="12"/>
-      <c r="C1043" s="12"/>
+      <c r="A1043" s="13"/>
+      <c r="B1043" s="13"/>
+      <c r="C1043" s="13"/>
     </row>
     <row r="1044" ht="21.0" customHeight="1">
-      <c r="A1044" s="12"/>
-      <c r="B1044" s="12"/>
-      <c r="C1044" s="12"/>
+      <c r="A1044" s="13"/>
+      <c r="B1044" s="13"/>
+      <c r="C1044" s="13"/>
     </row>
     <row r="1045" ht="21.0" customHeight="1">
-      <c r="A1045" s="12"/>
-      <c r="B1045" s="12"/>
-      <c r="C1045" s="12"/>
+      <c r="A1045" s="13"/>
+      <c r="B1045" s="13"/>
+      <c r="C1045" s="13"/>
     </row>
     <row r="1046" ht="21.0" customHeight="1">
-      <c r="A1046" s="12"/>
-      <c r="B1046" s="12"/>
-      <c r="C1046" s="12"/>
+      <c r="A1046" s="13"/>
+      <c r="B1046" s="13"/>
+      <c r="C1046" s="13"/>
     </row>
     <row r="1047" ht="21.0" customHeight="1">
-      <c r="A1047" s="12"/>
-      <c r="B1047" s="12"/>
-      <c r="C1047" s="12"/>
+      <c r="A1047" s="13"/>
+      <c r="B1047" s="13"/>
+      <c r="C1047" s="13"/>
     </row>
     <row r="1048" ht="21.0" customHeight="1">
-      <c r="A1048" s="12"/>
-      <c r="B1048" s="12"/>
-      <c r="C1048" s="12"/>
+      <c r="A1048" s="13"/>
+      <c r="B1048" s="13"/>
+      <c r="C1048" s="13"/>
     </row>
     <row r="1049" ht="21.0" customHeight="1">
-      <c r="A1049" s="12"/>
-      <c r="B1049" s="12"/>
-      <c r="C1049" s="12"/>
+      <c r="A1049" s="13"/>
+      <c r="B1049" s="13"/>
+      <c r="C1049" s="13"/>
     </row>
     <row r="1050" ht="21.0" customHeight="1">
-      <c r="A1050" s="12"/>
-      <c r="B1050" s="12"/>
-      <c r="C1050" s="12"/>
+      <c r="A1050" s="13"/>
+      <c r="B1050" s="13"/>
+      <c r="C1050" s="13"/>
     </row>
     <row r="1051" ht="21.0" customHeight="1">
-      <c r="A1051" s="12"/>
-      <c r="B1051" s="12"/>
-      <c r="C1051" s="12"/>
+      <c r="A1051" s="13"/>
+      <c r="B1051" s="13"/>
+      <c r="C1051" s="13"/>
     </row>
     <row r="1052" ht="21.0" customHeight="1">
-      <c r="A1052" s="12"/>
-      <c r="B1052" s="12"/>
-      <c r="C1052" s="12"/>
+      <c r="A1052" s="13"/>
+      <c r="B1052" s="13"/>
+      <c r="C1052" s="13"/>
     </row>
     <row r="1053" ht="21.0" customHeight="1">
-      <c r="A1053" s="12"/>
-      <c r="B1053" s="12"/>
-      <c r="C1053" s="12"/>
+      <c r="A1053" s="13"/>
+      <c r="B1053" s="13"/>
+      <c r="C1053" s="13"/>
     </row>
     <row r="1054" ht="21.0" customHeight="1">
-      <c r="A1054" s="12"/>
-      <c r="B1054" s="12"/>
-      <c r="C1054" s="12"/>
+      <c r="A1054" s="13"/>
+      <c r="B1054" s="13"/>
+      <c r="C1054" s="13"/>
     </row>
     <row r="1055" ht="21.0" customHeight="1">
-      <c r="A1055" s="12"/>
-      <c r="B1055" s="12"/>
-      <c r="C1055" s="12"/>
+      <c r="A1055" s="13"/>
+      <c r="B1055" s="13"/>
+      <c r="C1055" s="13"/>
+    </row>
+    <row r="1056" ht="21.0" customHeight="1">
+      <c r="A1056" s="13"/>
+      <c r="B1056" s="13"/>
+      <c r="C1056" s="13"/>
+    </row>
+    <row r="1057" ht="21.0" customHeight="1">
+      <c r="A1057" s="13"/>
+      <c r="B1057" s="13"/>
+      <c r="C1057" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="C54"/>
+    <hyperlink r:id="rId2" ref="C56"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -12027,46 +12104,46 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -12380,123 +12457,123 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>201</v>
+        <v>210</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>206</v>
+        <v>215</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>209</v>
+        <v>218</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>222</v>
+        <v>232</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>224</v>
+        <v>232</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -13739,35 +13816,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>226</v>
+      <c r="C2" s="14" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>228</v>
+      <c r="A3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>230</v>
+      <c r="A4" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -5,9 +5,12 @@
   <sheets>
     <sheet state="visible" name="Admin" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="User" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Messages Templates" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="General" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Language" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Rent" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Room Rent" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="home applicant" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="room applicant" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="General" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Language" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,38 +23,12 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C17">
+    <comment authorId="0" ref="A1">
       <text>
         <t xml:space="preserve">translate
-	-Ali Mughrabi</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C16">
-      <text>
-        <t xml:space="preserve">translate this @mj.app.apple@gmail.com
-_Assigned to MohammadHassan Jamali (MJ)_
-	-Ali Mughrabi</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B69">
-      <text>
-        <t xml:space="preserve">if someone click delete after the pending ad already posted/declined
-	-Ali Mughrabi</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="B2">
-      <text>
-        <t xml:space="preserve">[description] will add new line before it and after it
+	-Ali Mughrabi
+----
+[description] will add new line before it and after it
 	-Ali Mughrabi</t>
       </text>
     </comment>
@@ -60,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="302">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -147,433 +124,6 @@
   </si>
   <si>
     <t>choose one from the following categories:</t>
-  </si>
-  <si>
-    <t>rent_btn</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>اجاره خانه🏠</t>
-  </si>
-  <si>
-    <t>rent_t1</t>
-  </si>
-  <si>
-    <t>category: rent</t>
-  </si>
-  <si>
-    <t>📦 دسته بندی : اجاره خانه</t>
-  </si>
-  <si>
-    <t>rent_t2</t>
-  </si>
-  <si>
-    <t>Choose one of the following cities:</t>
-  </si>
-  <si>
-    <t>📍 از بین شهرهای زیر یکی رو انتخاب کنید یا نام آن را وارد نمایید:</t>
-  </si>
-  <si>
-    <t>city_1</t>
-  </si>
-  <si>
-    <t>Vienna</t>
-  </si>
-  <si>
-    <t>وین</t>
-  </si>
-  <si>
-    <t>city_2</t>
-  </si>
-  <si>
-    <t>Linz</t>
-  </si>
-  <si>
-    <t>لینتس</t>
-  </si>
-  <si>
-    <t>city_3</t>
-  </si>
-  <si>
-    <t>Gratz</t>
-  </si>
-  <si>
-    <t>گراتس</t>
-  </si>
-  <si>
-    <t>city_4</t>
-  </si>
-  <si>
-    <t>Klagen Fort</t>
-  </si>
-  <si>
-    <t>کلاگن فورت</t>
-  </si>
-  <si>
-    <t>city_5</t>
-  </si>
-  <si>
-    <t>Innsbruck</t>
-  </si>
-  <si>
-    <t>اینسبروک</t>
-  </si>
-  <si>
-    <t>city_6</t>
-  </si>
-  <si>
-    <t>Salzburg</t>
-  </si>
-  <si>
-    <t>زالتسبورگ</t>
-  </si>
-  <si>
-    <t>city_other</t>
-  </si>
-  <si>
-    <t>Other City</t>
-  </si>
-  <si>
-    <t>rent_other_city</t>
-  </si>
-  <si>
-    <t>Write your City:</t>
-  </si>
-  <si>
-    <t>rent_sub_city</t>
-  </si>
-  <si>
-    <t>Enter the desired area or distirict:</t>
-  </si>
-  <si>
-    <t>🔎 منطقه یا محدوده مورد نظر را وارد نمایید :</t>
-  </si>
-  <si>
-    <t>rent_start_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter your desired start date:
-format:dd/mm/ yyyy example: [automatic tomorrow date] </t>
-  </si>
-  <si>
-    <t>📅 تاریخ شروع مورد نظرتان را به میلادی وارد نمایید : 
-فرمت : dd/mm/yyyy مثال : 28/11/2023</t>
-  </si>
-  <si>
-    <t>rent_end_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the end date you want:
-format:dd/mm/ yyyy example: [automatic tomorrow date] </t>
-  </si>
-  <si>
-    <t>📅 تاریخ پایان مورد نظرتان را به میلادی وارد نمایید : 
-فرمت : dd/mm/yyyy مثال : 28/11/2023</t>
-  </si>
-  <si>
-    <t>rent_contract_status</t>
-  </si>
-  <si>
-    <t>Specify the status of the contract:</t>
-  </si>
-  <si>
-    <t>📑وضعیت قرارداد را مشخص نمایید :</t>
-  </si>
-  <si>
-    <t>rent_pricing_type</t>
-  </si>
-  <si>
-    <t>How would you like to announce the price?</t>
-  </si>
-  <si>
-    <t>💰 مایلید قیمت را به چه صورت اعلام نمایید ؟</t>
-  </si>
-  <si>
-    <t>rent_price</t>
-  </si>
-  <si>
-    <t>Enter the price you want in euros:
-(Just enter a number, such as: 5 or 5.50)</t>
-  </si>
-  <si>
-    <t>💰 قیمت مورد نظرتان را به یورو وارد نمایید : 
-(فقط عدد وارد کنید مانند : 5 یا 5.50)</t>
-  </si>
-  <si>
-    <t>rent_description</t>
-  </si>
-  <si>
-    <t>Send the description of your ad:</t>
-  </si>
-  <si>
-    <t>📋 توضیحات مربوط به اگهی خود را ارسال نمایید :</t>
-  </si>
-  <si>
-    <t>rent_agreemental</t>
-  </si>
-  <si>
-    <t>Agreementale</t>
-  </si>
-  <si>
-    <t>توافقی🤝</t>
-  </si>
-  <si>
-    <t>rent_photos</t>
-  </si>
-  <si>
-    <t>Submit as many photos as you want for your ad:
-Note: Only the first photo you upload below will be placed at the top
-of your ad in the channel, other photos can be viewed by clicking on
-the ""view ad images "" button. Inside the ad, your ad will be visible to
-the visitors .
-Submit photos individually ( upload one photo at a time ).
-If you upload a group of photos, your photos will not be received.</t>
-  </si>
-  <si>
-    <t>🖼 هر تعداد عکس که می خواهید برای آگهی خود ارسال کنید:
- نکته : تنها عکس اولی که در پایین آپلود می کنید در بالای آگهی شما در کانال قرار می گیرد. عکس های دیگر با زدن روی دکمه «مشاهده تصاویر آگهی 👁‍🗨» درون آگهی، برای بازدید کنندگان آگهی شما قابل نمایش خواهد بود.
-🛑 عکس ها را به صورت تکی ارسال کنید (هر بار یک عکس آپلود کنید). در صورت آپلود گروهی عکس ها، عکس های شما دریافت نخواهد شد.</t>
-  </si>
-  <si>
-    <t>rent_photo_error</t>
-  </si>
-  <si>
-    <t>Please send photo or choose without photo</t>
-  </si>
-  <si>
-    <t>لطفا عکس مورد نظرتان را ارسال کنید یا بدون عکس را انتخاب کنید</t>
-  </si>
-  <si>
-    <t>rent_photo_error2</t>
-  </si>
-  <si>
-    <t>Please send photo or choose NEXT STEP</t>
-  </si>
-  <si>
-    <t>لطفا عکس مورد نظرتان را ارسال کنید یا مرحله بعد را انتخاب کنید</t>
-  </si>
-  <si>
-    <t>rent_photos_done</t>
-  </si>
-  <si>
-    <t>✅photo uploaded succesfully 
-you can upload next photo or go to next step</t>
-  </si>
-  <si>
-    <t>عکس با موفقیت آپلود شد ✅ 
- می توانید عکس بعدی را ارسال نمایید یا به مرحله بعد بروید :</t>
-  </si>
-  <si>
-    <t>rent_without_photo</t>
-  </si>
-  <si>
-    <t>WITHOUT PHOTO</t>
-  </si>
-  <si>
-    <t>بدون عکس</t>
-  </si>
-  <si>
-    <t>rent_creating_ad</t>
-  </si>
-  <si>
-    <t>creating your ad...</t>
-  </si>
-  <si>
-    <t>در حال ساخت آگهی شما . . . 🚧⏳
-لطفا کمی صبور باشید🙏🏻</t>
-  </si>
-  <si>
-    <t>rent_thank_you_msg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you for your cooperation.
-Your ad has been successfully registered
-Your ad was received by the robot and will be placed on the channel after
-the admin's approval. Please be patient.
-The ad status will be sent to you by this robot
-🔴 You can start registering your next ads before the admin
-approves or rejects this ad.
-</t>
-  </si>
-  <si>
-    <t>از همکاری شما متشکریم.
-آگهی شما با موفقیت ثبت شد ❇️
-آگهی شما توسط ربات دریافت شد و پس از تایید ادمین در کانال قرار خواهد گرفت. لطفا شکیبا باشید.
-وضعیت آگهی توسط همین ربات برای شما ارسال خواهد شد💯 
-🔴 شما می توانید قبل از تایید یا رد این آگهی توسط ادمین،شروع به ثبت آگهی های بعدی خود نمایید.</t>
-  </si>
-  <si>
-    <t>rent_confirmed_ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad Posted!, thank you </t>
-  </si>
-  <si>
-    <t>آگهی ارسال شد✅</t>
-  </si>
-  <si>
-    <t>rent_confirmed_ad_admin</t>
-  </si>
-  <si>
-    <t>Ad Posted successfully.</t>
-  </si>
-  <si>
-    <t>آگهی با موفقیت ارسال شد✅</t>
-  </si>
-  <si>
-    <t>rent_declined_ad</t>
-  </si>
-  <si>
-    <t>Ad declined!</t>
-  </si>
-  <si>
-    <t>آگهی رد شد!⛔️</t>
-  </si>
-  <si>
-    <t>rent_declined_ad_admin</t>
-  </si>
-  <si>
-    <t>Ad declined</t>
-  </si>
-  <si>
-    <t>آگهی رد شد⛔️</t>
-  </si>
-  <si>
-    <t>rent_next_step</t>
-  </si>
-  <si>
-    <t>NEXT STEP</t>
-  </si>
-  <si>
-    <t>➡️ مرحله بعد</t>
-  </si>
-  <si>
-    <t>rent_channel_view_photos</t>
-  </si>
-  <si>
-    <t>View Photos</t>
-  </si>
-  <si>
-    <t>مشاهده تصاویر آگهی 👁‍🗨</t>
-  </si>
-  <si>
-    <t>rent_daily</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>روزانه</t>
-  </si>
-  <si>
-    <t>rent_monthly</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>ماهانه</t>
-  </si>
-  <si>
-    <t>rent_with_contract</t>
-  </si>
-  <si>
-    <t>With Contract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">با قرارداد </t>
-  </si>
-  <si>
-    <t>rent_without_contract</t>
-  </si>
-  <si>
-    <t>No Contract</t>
-  </si>
-  <si>
-    <t>بدون قرارداد</t>
-  </si>
-  <si>
-    <t>end_date_label</t>
-  </si>
-  <si>
-    <t>End Date:</t>
-  </si>
-  <si>
-    <t>تاریخ پایان:</t>
-  </si>
-  <si>
-    <t>city_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City: </t>
-  </si>
-  <si>
-    <t>📍شهر:</t>
-  </si>
-  <si>
-    <t>contract_state_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract: </t>
-  </si>
-  <si>
-    <t>قرارداد:</t>
-  </si>
-  <si>
-    <t>pricing_type_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pricing Type: </t>
-  </si>
-  <si>
-    <t>اعلام قیمت:</t>
-  </si>
-  <si>
-    <t>price_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price: </t>
-  </si>
-  <si>
-    <t>قیمت:</t>
-  </si>
-  <si>
-    <t>description_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">🗯توضیحات: </t>
-  </si>
-  <si>
-    <t>rent_order_canceled</t>
-  </si>
-  <si>
-    <t>Rent Order Canceled!</t>
-  </si>
-  <si>
-    <t>آگهی در حال ساخت شما حذف شد✅</t>
-  </si>
-  <si>
-    <t>home_btn</t>
-  </si>
-  <si>
-    <t>home applicant</t>
-  </si>
-  <si>
-    <t>متقاضی خانه</t>
-  </si>
-  <si>
-    <t>room_btn</t>
-  </si>
-  <si>
-    <t>room rent</t>
-  </si>
-  <si>
-    <t>اجاره اتاق</t>
   </si>
   <si>
     <t>mm_btn_2</t>
@@ -689,6 +239,439 @@
     <t>کمک! 🤝</t>
   </si>
   <si>
+    <t>rent_btn</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>اجاره خانه🏠</t>
+  </si>
+  <si>
+    <t>rent_t1</t>
+  </si>
+  <si>
+    <t>category: rent</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : اجاره خانه</t>
+  </si>
+  <si>
+    <t>rent_t2</t>
+  </si>
+  <si>
+    <t>Choose one of the following cities:</t>
+  </si>
+  <si>
+    <t>📍 از بین شهرهای زیر یکی رو انتخاب کنید یا نام آن را وارد نمایید:</t>
+  </si>
+  <si>
+    <t>city_1</t>
+  </si>
+  <si>
+    <t>Vienna</t>
+  </si>
+  <si>
+    <t>وین</t>
+  </si>
+  <si>
+    <t>city_2</t>
+  </si>
+  <si>
+    <t>Linz</t>
+  </si>
+  <si>
+    <t>لینتس</t>
+  </si>
+  <si>
+    <t>city_3</t>
+  </si>
+  <si>
+    <t>Gratz</t>
+  </si>
+  <si>
+    <t>گراتس</t>
+  </si>
+  <si>
+    <t>city_4</t>
+  </si>
+  <si>
+    <t>Klagen Fort</t>
+  </si>
+  <si>
+    <t>کلاگن فورت</t>
+  </si>
+  <si>
+    <t>city_5</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>اینسبروک</t>
+  </si>
+  <si>
+    <t>city_6</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
+  </si>
+  <si>
+    <t>زالتسبورگ</t>
+  </si>
+  <si>
+    <t>city_other</t>
+  </si>
+  <si>
+    <t>Other City</t>
+  </si>
+  <si>
+    <t>سایر</t>
+  </si>
+  <si>
+    <t>rent_other_city</t>
+  </si>
+  <si>
+    <t>Write your City:</t>
+  </si>
+  <si>
+    <t>نام شهر را بنویسید :</t>
+  </si>
+  <si>
+    <t>rent_sub_city</t>
+  </si>
+  <si>
+    <t>Enter the desired area or distirict:</t>
+  </si>
+  <si>
+    <t>🔎 منطقه یا محدوده مورد نظر را وارد نمایید :</t>
+  </si>
+  <si>
+    <t>rent_start_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter your desired start date:
+format:dd/mm/ yyyy example: [automatic tomorrow date] </t>
+  </si>
+  <si>
+    <t>📅 تاریخ شروع مورد نظرتان را به میلادی وارد نمایید : 
+فرمت : dd/mm/yyyy مثال : 28/11/2023</t>
+  </si>
+  <si>
+    <t>rent_end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the end date you want:
+format:dd/mm/ yyyy example: [automatic tomorrow date] </t>
+  </si>
+  <si>
+    <t>📅 تاریخ پایان مورد نظرتان را به میلادی وارد نمایید : 
+فرمت : dd/mm/yyyy مثال : 28/11/2023</t>
+  </si>
+  <si>
+    <t>rent_contract_status</t>
+  </si>
+  <si>
+    <t>Specify the status of the contract:</t>
+  </si>
+  <si>
+    <t>📑وضعیت قرارداد را مشخص نمایید :</t>
+  </si>
+  <si>
+    <t>rent_pricing_type</t>
+  </si>
+  <si>
+    <t>How would you like to announce the price?</t>
+  </si>
+  <si>
+    <t>💰 مایلید قیمت را به چه صورت اعلام نمایید ؟</t>
+  </si>
+  <si>
+    <t>rent_price</t>
+  </si>
+  <si>
+    <t>Enter the price you want in euros:
+(Just enter a number, such as: 5 or 5.50)</t>
+  </si>
+  <si>
+    <t>💰 قیمت مورد نظرتان را به یورو وارد نمایید : 
+(فقط عدد وارد کنید مانند : 5 یا 5.50)</t>
+  </si>
+  <si>
+    <t>rent_description</t>
+  </si>
+  <si>
+    <t>Send the description of your ad:</t>
+  </si>
+  <si>
+    <t>📋 توضیحات مربوط به اگهی خود را ارسال نمایید :</t>
+  </si>
+  <si>
+    <t>rent_agreemental</t>
+  </si>
+  <si>
+    <t>Agreementale</t>
+  </si>
+  <si>
+    <t>توافقی🤝</t>
+  </si>
+  <si>
+    <t>rent_photos</t>
+  </si>
+  <si>
+    <t>Submit as many photos as you want for your ad:
+Note: Only the first photo you upload below will be placed at the top
+of your ad in the channel, other photos can be viewed by clicking on
+the ""view ad images "" button. Inside the ad, your ad will be visible to
+the visitors .
+Submit photos individually ( upload one photo at a time ).
+If you upload a group of photos, your photos will not be received.</t>
+  </si>
+  <si>
+    <t>🖼 هر تعداد عکس که می خواهید برای آگهی خود ارسال کنید:
+ نکته : تنها عکس اولی که در پایین آپلود می کنید در بالای آگهی شما در کانال قرار می گیرد. عکس های دیگر با زدن روی دکمه «مشاهده تصاویر آگهی 👁‍🗨» درون آگهی، برای بازدید کنندگان آگهی شما قابل نمایش خواهد بود.
+🛑 عکس ها را به صورت تکی ارسال کنید (هر بار یک عکس آپلود کنید). در صورت آپلود گروهی عکس ها، عکس های شما دریافت نخواهد شد.</t>
+  </si>
+  <si>
+    <t>rent_photo_error</t>
+  </si>
+  <si>
+    <t>Please send photo or choose without photo</t>
+  </si>
+  <si>
+    <t>لطفا عکس مورد نظرتان را ارسال کنید یا بدون عکس را انتخاب کنید</t>
+  </si>
+  <si>
+    <t>rent_photo_error2</t>
+  </si>
+  <si>
+    <t>Please send photo or choose NEXT STEP</t>
+  </si>
+  <si>
+    <t>لطفا عکس مورد نظرتان را ارسال کنید یا مرحله بعد را انتخاب کنید</t>
+  </si>
+  <si>
+    <t>rent_photos_done</t>
+  </si>
+  <si>
+    <t>✅photo uploaded succesfully 
+you can upload next photo or go to next step</t>
+  </si>
+  <si>
+    <t>عکس با موفقیت آپلود شد ✅ 
+ می توانید عکس بعدی را ارسال نمایید یا به مرحله بعد بروید :</t>
+  </si>
+  <si>
+    <t>rent_without_photo</t>
+  </si>
+  <si>
+    <t>WITHOUT PHOTO</t>
+  </si>
+  <si>
+    <t>بدون عکس</t>
+  </si>
+  <si>
+    <t>rent_creating_ad</t>
+  </si>
+  <si>
+    <t>creating your ad...</t>
+  </si>
+  <si>
+    <t>در حال ساخت آگهی شما . . . 🚧⏳
+لطفا کمی صبور باشید🙏🏻</t>
+  </si>
+  <si>
+    <t>rent_thank_you_msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you for your cooperation.
+Your ad has been successfully registered
+Your ad was received by the robot and will be placed on the channel after
+the admin's approval. Please be patient.
+The ad status will be sent to you by this robot
+🔴 You can start registering your next ads before the admin
+approves or rejects this ad.
+</t>
+  </si>
+  <si>
+    <t>از همکاری شما متشکریم.
+آگهی شما با موفقیت ثبت شد ❇️
+آگهی شما توسط ربات دریافت شد و پس از تایید ادمین در کانال قرار خواهد گرفت. لطفا شکیبا باشید.
+وضعیت آگهی توسط همین ربات برای شما ارسال خواهد شد💯 
+🔴 شما می توانید قبل از تایید یا رد این آگهی توسط ادمین،شروع به ثبت آگهی های بعدی خود نمایید.</t>
+  </si>
+  <si>
+    <t>rent_confirmed_ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad Posted!, thank you </t>
+  </si>
+  <si>
+    <t>آگهی ارسال شد✅</t>
+  </si>
+  <si>
+    <t>rent_confirmed_ad_admin</t>
+  </si>
+  <si>
+    <t>Ad Posted successfully.</t>
+  </si>
+  <si>
+    <t>آگهی با موفقیت ارسال شد✅</t>
+  </si>
+  <si>
+    <t>rent_declined_ad</t>
+  </si>
+  <si>
+    <t>Ad declined!</t>
+  </si>
+  <si>
+    <t>آگهی رد شد!⛔️</t>
+  </si>
+  <si>
+    <t>rent_declined_ad_admin</t>
+  </si>
+  <si>
+    <t>Ad declined</t>
+  </si>
+  <si>
+    <t>آگهی رد شد⛔️</t>
+  </si>
+  <si>
+    <t>rent_next_step</t>
+  </si>
+  <si>
+    <t>NEXT STEP</t>
+  </si>
+  <si>
+    <t>➡️ مرحله بعد</t>
+  </si>
+  <si>
+    <t>rent_channel_view_photos</t>
+  </si>
+  <si>
+    <t>View Photos</t>
+  </si>
+  <si>
+    <t>مشاهده تصاویر آگهی 👁‍🗨</t>
+  </si>
+  <si>
+    <t>rent_daily</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>روزانه</t>
+  </si>
+  <si>
+    <t>rent_monthly</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>ماهانه</t>
+  </si>
+  <si>
+    <t>rent_with_contract</t>
+  </si>
+  <si>
+    <t>with_contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با_قرارداد </t>
+  </si>
+  <si>
+    <t>rent_without_contract</t>
+  </si>
+  <si>
+    <t>no_contract</t>
+  </si>
+  <si>
+    <t>بدون_قرارداد</t>
+  </si>
+  <si>
+    <t>rent_with_contract_btn</t>
+  </si>
+  <si>
+    <t>With Contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با قرارداد </t>
+  </si>
+  <si>
+    <t>rent_without_contract_btn</t>
+  </si>
+  <si>
+    <t>No Contract</t>
+  </si>
+  <si>
+    <t>بدون قرارداد</t>
+  </si>
+  <si>
+    <t>end_date_label</t>
+  </si>
+  <si>
+    <t>End Date:</t>
+  </si>
+  <si>
+    <t>تاریخ پایان:</t>
+  </si>
+  <si>
+    <t>city_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City: </t>
+  </si>
+  <si>
+    <t>📍شهر:</t>
+  </si>
+  <si>
+    <t>contract_state_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contract: </t>
+  </si>
+  <si>
+    <t>قرارداد:</t>
+  </si>
+  <si>
+    <t>pricing_type_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pricing Type: </t>
+  </si>
+  <si>
+    <t>اعلام قیمت:</t>
+  </si>
+  <si>
+    <t>price_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price: </t>
+  </si>
+  <si>
+    <t>قیمت:</t>
+  </si>
+  <si>
+    <t>description_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">🗯توضیحات: </t>
+  </si>
+  <si>
+    <t>rent_order_canceled</t>
+  </si>
+  <si>
+    <t>Rent Order Canceled!</t>
+  </si>
+  <si>
+    <t>آگهی در حال ساخت شما حذف شد✅</t>
+  </si>
+  <si>
     <t>pending_ad_deleted</t>
   </si>
   <si>
@@ -723,6 +706,24 @@
   </si>
   <si>
     <t>تایید ✅ یا حذف ❌</t>
+  </si>
+  <si>
+    <t>price_eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">👁 Price: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">👁 قيمت: </t>
+  </si>
+  <si>
+    <t>euros_per</t>
+  </si>
+  <si>
+    <t xml:space="preserve">euros per </t>
+  </si>
+  <si>
+    <t>یورو</t>
   </si>
   <si>
     <t>rent_user_preview</t>
@@ -733,7 +734,7 @@
 🔎 Area: [sub_city]
 🗓️️ Date: From [start_date] until [end_date]
 📝 Type of contract: #[contract_status]
-👁 Price: [price] euros per [pricing_type]
+[price_line]
 [description]</t>
   </si>
   <si>
@@ -742,7 +743,7 @@
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
 📝 نوع قرارداد: #[contract_status]
-💰 قیمت: [price] یورو #[pricing_type]
+[price_line]
 [description]</t>
   </si>
   <si>
@@ -757,7 +758,7 @@
 🔎 Area: [sub_city]
 🗓️️ Date: From [start_date] until [end_date]
 📝 Type of contract: #[contract_status]
-👁 Price: [price] euros per [pricing_type]
+[price_line]
 [description]
 Contact the [advertiser]</t>
   </si>
@@ -767,7 +768,7 @@
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
 📝 نوع قرارداد: #[contract_status]
-💰 قیمت: [price] یورو #[pricing_type]
+[price_line]
 [description]
 👤تماس با [advertiser]</t>
   </si>
@@ -780,7 +781,7 @@
 🔎 Area: [sub_city]
 🗓️️ Date: From [start_date] until [end_date]
 📝 Type of contract: #[contract_status]
-👁 Price: [price] euros per [pricing_type]
+[price_line]
 [description]
 Contact the [advertiser]
 🤖️️️ @bot_username
@@ -792,20 +793,314 @@
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
 📝 نوع قرارداد: #[contract_status]
-💰 قیمت: [price] یورو #[pricing_type]
+[price_line]
 [description]
 👤تماس با [advertiser]
 🤖️️️ @bot_username
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>room_rent_btn</t>
+  </si>
+  <si>
+    <t>room rent</t>
+  </si>
+  <si>
+    <t>اجاره اتاق</t>
+  </si>
+  <si>
+    <t>room_rent_t1</t>
+  </si>
+  <si>
+    <t>category: room rent</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : اجاره اتاق</t>
+  </si>
+  <si>
+    <t>room_rent_t2</t>
+  </si>
+  <si>
+    <t>room_rent_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room _rent ✅️️️️💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[price_line]
+[description]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره_اتاق✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[price_line]
+[description]</t>
+  </si>
+  <si>
+    <t>room_rent_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room _rent ✅️️️️💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[price_line]
+[description]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره_اتاق✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[price_line]
+[description]</t>
+  </si>
+  <si>
+    <t>room_rent_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room _rent ✅️️️️💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[price_line]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره_اتاق✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[price_line]
+[description]
+👤تماس با [advertiser]</t>
+  </si>
+  <si>
+    <t>room_rent_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room _rent ✅️️️️💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[price_line]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره_اتاق✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[price_line]
+[description]
+👤تماس با [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>home_applicant_btn</t>
+  </si>
+  <si>
+    <t>home applicant</t>
+  </si>
+  <si>
+    <t>متقاضی خانه</t>
+  </si>
+  <si>
+    <t>home_applicant_t1</t>
+  </si>
+  <si>
+    <t>category: home applicant</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : متقاضی خانه</t>
+  </si>
+  <si>
+    <t>home_applicant_t2</t>
+  </si>
+  <si>
+    <t>home_applicant_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]</t>
+  </si>
+  <si>
+    <t>home_applicant_user_view_ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]💠 ✅️️️️ #room_rent ✅️️️️💠
+</t>
+  </si>
+  <si>
+    <t>home_applicant_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]
+👤تماس با [advertiser]</t>
+  </si>
+  <si>
+    <t>home_applicant_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]
+👤تماس با [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>room_applicant_btn</t>
+  </si>
+  <si>
+    <t>room applicant</t>
+  </si>
+  <si>
+    <t>room_applicant_t1</t>
+  </si>
+  <si>
+    <t>category: room applicant</t>
+  </si>
+  <si>
+    <t>room_applicant_t2</t>
+  </si>
+  <si>
+    <t>room_applicant_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]</t>
+  </si>
+  <si>
+    <t>room_applicant_user_view_ad</t>
+  </si>
+  <si>
+    <t>room_applicant_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]
+👤تماس با [advertiser]</t>
+  </si>
+  <si>
+    <t>room_applicant_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]
+👤تماس با [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
     <t>cancel_t</t>
   </si>
   <si>
     <t>CANCEL</t>
   </si>
   <si>
-    <t>لغو ❌</t>
+    <t>لغو آگهی ❌</t>
   </si>
   <si>
     <t>canceled_t</t>
@@ -820,7 +1115,7 @@
     <t>CONFIRM</t>
   </si>
   <si>
-    <t>تایید ✅</t>
+    <t>ارسال آگهی ✅</t>
   </si>
   <si>
     <t>confirmed_t</t>
@@ -947,7 +1242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -971,12 +1266,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1008,7 +1309,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1036,10 +1337,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1048,13 +1346,19 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1085,6 +1389,18 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -6386,7 +6702,8 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6461,5617 +6778,217 @@
       <c r="C6" s="8"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" ht="21.0" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" ht="21.0" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" ht="21.0" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" ht="21.0" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>86</v>
-      </c>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" ht="21.0" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>89</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>92</v>
-      </c>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" ht="21.0" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>101</v>
-      </c>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" ht="21.0" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>104</v>
-      </c>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" ht="21.0" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>107</v>
-      </c>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" ht="21.0" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" ht="21.0" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>113</v>
-      </c>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" ht="21.0" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" ht="21.0" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" ht="21.0" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" ht="21.0" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" ht="21.0" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" ht="21.0" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" ht="21.0" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" ht="21.0" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" ht="21.0" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" ht="21.0" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" ht="21.0" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" ht="21.0" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" ht="21.0" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" ht="21.0" customHeight="1">
-      <c r="A49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" ht="21.0" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" ht="21.0" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" ht="21.0" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" ht="21.0" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" ht="21.0" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" ht="21.0" customHeight="1">
-      <c r="A55" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" ht="21.0" customHeight="1">
-      <c r="A56" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" ht="21.0" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" ht="21.0" customHeight="1">
-      <c r="A58" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" ht="21.0" customHeight="1">
-      <c r="A59" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="60" ht="21.0" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="8"/>
-    </row>
-    <row r="61" ht="21.0" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="62" ht="21.0" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" ht="21.0" customHeight="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="8"/>
-    </row>
-    <row r="64" ht="21.0" customHeight="1">
-      <c r="A64" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" ht="21.0" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" ht="21.0" customHeight="1">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12"/>
-    </row>
-    <row r="67" ht="21.0" customHeight="1">
-      <c r="A67" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="68" ht="21.0" customHeight="1">
-      <c r="A68" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" ht="21.0" customHeight="1">
-      <c r="A69" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" ht="21.0" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" ht="21.0" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" ht="21.0" customHeight="1">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12"/>
-    </row>
-    <row r="73" ht="21.0" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12"/>
-    </row>
-    <row r="74" ht="21.0" customHeight="1">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12"/>
-    </row>
-    <row r="75" ht="21.0" customHeight="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12"/>
-    </row>
-    <row r="76" ht="21.0" customHeight="1">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12"/>
-    </row>
-    <row r="77" ht="21.0" customHeight="1">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12"/>
-    </row>
-    <row r="78" ht="21.0" customHeight="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12"/>
-    </row>
-    <row r="79" ht="21.0" customHeight="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-    </row>
-    <row r="80" ht="21.0" customHeight="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-    </row>
-    <row r="81" ht="21.0" customHeight="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-    </row>
-    <row r="82" ht="21.0" customHeight="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-    </row>
-    <row r="83" ht="21.0" customHeight="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-    </row>
-    <row r="84" ht="21.0" customHeight="1">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-    </row>
-    <row r="85" ht="21.0" customHeight="1">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-    </row>
-    <row r="86" ht="21.0" customHeight="1">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
-    </row>
-    <row r="87" ht="21.0" customHeight="1">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-    </row>
-    <row r="88" ht="21.0" customHeight="1">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-    </row>
-    <row r="89" ht="21.0" customHeight="1">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
-    </row>
-    <row r="90" ht="21.0" customHeight="1">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-    </row>
-    <row r="91" ht="21.0" customHeight="1">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-    </row>
-    <row r="92" ht="21.0" customHeight="1">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-    </row>
-    <row r="93" ht="21.0" customHeight="1">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
-    </row>
-    <row r="94" ht="21.0" customHeight="1">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-    </row>
-    <row r="95" ht="21.0" customHeight="1">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-    </row>
-    <row r="96" ht="21.0" customHeight="1">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-    </row>
-    <row r="97" ht="21.0" customHeight="1">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-    </row>
-    <row r="98" ht="21.0" customHeight="1">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-    </row>
-    <row r="99" ht="21.0" customHeight="1">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-    </row>
-    <row r="100" ht="21.0" customHeight="1">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-    </row>
-    <row r="101" ht="21.0" customHeight="1">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-    </row>
-    <row r="102" ht="21.0" customHeight="1">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
-    </row>
-    <row r="103" ht="21.0" customHeight="1">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-    </row>
-    <row r="104" ht="21.0" customHeight="1">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
-    </row>
-    <row r="105" ht="21.0" customHeight="1">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
-    </row>
-    <row r="106" ht="21.0" customHeight="1">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
-    </row>
-    <row r="107" ht="21.0" customHeight="1">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-    </row>
-    <row r="108" ht="21.0" customHeight="1">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
-    </row>
-    <row r="109" ht="21.0" customHeight="1">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-    </row>
-    <row r="110" ht="21.0" customHeight="1">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-    </row>
-    <row r="111" ht="21.0" customHeight="1">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-    </row>
-    <row r="112" ht="21.0" customHeight="1">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
-    </row>
-    <row r="113" ht="21.0" customHeight="1">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-    </row>
-    <row r="114" ht="21.0" customHeight="1">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
-    </row>
-    <row r="115" ht="21.0" customHeight="1">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="11"/>
-    </row>
-    <row r="116" ht="21.0" customHeight="1">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
-    </row>
-    <row r="117" ht="21.0" customHeight="1">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-    </row>
-    <row r="118" ht="21.0" customHeight="1">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
-    </row>
-    <row r="119" ht="21.0" customHeight="1">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-    </row>
-    <row r="120" ht="21.0" customHeight="1">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
-    </row>
-    <row r="121" ht="21.0" customHeight="1">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
-    </row>
-    <row r="122" ht="21.0" customHeight="1">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-    </row>
-    <row r="123" ht="21.0" customHeight="1">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="11"/>
-    </row>
-    <row r="124" ht="21.0" customHeight="1">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-    </row>
-    <row r="125" ht="21.0" customHeight="1">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-    </row>
-    <row r="126" ht="21.0" customHeight="1">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-    </row>
-    <row r="127" ht="21.0" customHeight="1">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-    </row>
-    <row r="128" ht="21.0" customHeight="1">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
-    </row>
-    <row r="129" ht="21.0" customHeight="1">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
-    </row>
-    <row r="130" ht="21.0" customHeight="1">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-    </row>
-    <row r="131" ht="21.0" customHeight="1">
-      <c r="A131" s="11"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-    </row>
-    <row r="132" ht="21.0" customHeight="1">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-    </row>
-    <row r="133" ht="21.0" customHeight="1">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-    </row>
-    <row r="134" ht="21.0" customHeight="1">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
-    </row>
-    <row r="135" ht="21.0" customHeight="1">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="11"/>
-    </row>
-    <row r="136" ht="21.0" customHeight="1">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-    </row>
-    <row r="137" ht="21.0" customHeight="1">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-    </row>
-    <row r="138" ht="21.0" customHeight="1">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-    </row>
-    <row r="139" ht="21.0" customHeight="1">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-    </row>
-    <row r="140" ht="21.0" customHeight="1">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-    </row>
-    <row r="141" ht="21.0" customHeight="1">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-    </row>
-    <row r="142" ht="21.0" customHeight="1">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-    </row>
-    <row r="143" ht="21.0" customHeight="1">
-      <c r="A143" s="13"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-    </row>
-    <row r="144" ht="21.0" customHeight="1">
-      <c r="A144" s="13"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
-    </row>
-    <row r="145" ht="21.0" customHeight="1">
-      <c r="A145" s="13"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-    </row>
-    <row r="146" ht="21.0" customHeight="1">
-      <c r="A146" s="13"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-    </row>
-    <row r="147" ht="21.0" customHeight="1">
-      <c r="A147" s="13"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-    </row>
-    <row r="148" ht="21.0" customHeight="1">
-      <c r="A148" s="13"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-    </row>
-    <row r="149" ht="21.0" customHeight="1">
-      <c r="A149" s="13"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
-    </row>
-    <row r="150" ht="21.0" customHeight="1">
-      <c r="A150" s="13"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-    </row>
-    <row r="151" ht="21.0" customHeight="1">
-      <c r="A151" s="13"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-    </row>
-    <row r="152" ht="21.0" customHeight="1">
-      <c r="A152" s="13"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-    </row>
-    <row r="153" ht="21.0" customHeight="1">
-      <c r="A153" s="13"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-    </row>
-    <row r="154" ht="21.0" customHeight="1">
-      <c r="A154" s="13"/>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-    </row>
-    <row r="155" ht="21.0" customHeight="1">
-      <c r="A155" s="13"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-    </row>
-    <row r="156" ht="21.0" customHeight="1">
-      <c r="A156" s="13"/>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-    </row>
-    <row r="157" ht="21.0" customHeight="1">
-      <c r="A157" s="13"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="13"/>
-    </row>
-    <row r="158" ht="21.0" customHeight="1">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-    </row>
-    <row r="159" ht="21.0" customHeight="1">
-      <c r="A159" s="13"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-    </row>
-    <row r="160" ht="21.0" customHeight="1">
-      <c r="A160" s="13"/>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-    </row>
-    <row r="161" ht="21.0" customHeight="1">
-      <c r="A161" s="13"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-    </row>
-    <row r="162" ht="21.0" customHeight="1">
-      <c r="A162" s="13"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
-    </row>
-    <row r="163" ht="21.0" customHeight="1">
-      <c r="A163" s="13"/>
-      <c r="B163" s="13"/>
-      <c r="C163" s="13"/>
-    </row>
-    <row r="164" ht="21.0" customHeight="1">
-      <c r="A164" s="13"/>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
-    </row>
-    <row r="165" ht="21.0" customHeight="1">
-      <c r="A165" s="13"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="13"/>
-    </row>
-    <row r="166" ht="21.0" customHeight="1">
-      <c r="A166" s="13"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-    </row>
-    <row r="167" ht="21.0" customHeight="1">
-      <c r="A167" s="13"/>
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
-    </row>
-    <row r="168" ht="21.0" customHeight="1">
-      <c r="A168" s="13"/>
-      <c r="B168" s="13"/>
-      <c r="C168" s="13"/>
-    </row>
-    <row r="169" ht="21.0" customHeight="1">
-      <c r="A169" s="13"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
-    </row>
-    <row r="170" ht="21.0" customHeight="1">
-      <c r="A170" s="13"/>
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
-    </row>
-    <row r="171" ht="21.0" customHeight="1">
-      <c r="A171" s="13"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-    </row>
-    <row r="172" ht="21.0" customHeight="1">
-      <c r="A172" s="13"/>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-    </row>
-    <row r="173" ht="21.0" customHeight="1">
-      <c r="A173" s="13"/>
-      <c r="B173" s="13"/>
-      <c r="C173" s="13"/>
-    </row>
-    <row r="174" ht="21.0" customHeight="1">
-      <c r="A174" s="13"/>
-      <c r="B174" s="13"/>
-      <c r="C174" s="13"/>
-    </row>
-    <row r="175" ht="21.0" customHeight="1">
-      <c r="A175" s="13"/>
-      <c r="B175" s="13"/>
-      <c r="C175" s="13"/>
-    </row>
-    <row r="176" ht="21.0" customHeight="1">
-      <c r="A176" s="13"/>
-      <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
-    </row>
-    <row r="177" ht="21.0" customHeight="1">
-      <c r="A177" s="13"/>
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
-    </row>
-    <row r="178" ht="21.0" customHeight="1">
-      <c r="A178" s="13"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-    </row>
-    <row r="179" ht="21.0" customHeight="1">
-      <c r="A179" s="13"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-    </row>
-    <row r="180" ht="21.0" customHeight="1">
-      <c r="A180" s="13"/>
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-    </row>
-    <row r="181" ht="21.0" customHeight="1">
-      <c r="A181" s="13"/>
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
-    </row>
-    <row r="182" ht="21.0" customHeight="1">
-      <c r="A182" s="13"/>
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
-    </row>
-    <row r="183" ht="21.0" customHeight="1">
-      <c r="A183" s="13"/>
-      <c r="B183" s="13"/>
-      <c r="C183" s="13"/>
-    </row>
-    <row r="184" ht="21.0" customHeight="1">
-      <c r="A184" s="13"/>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-    </row>
-    <row r="185" ht="21.0" customHeight="1">
-      <c r="A185" s="13"/>
-      <c r="B185" s="13"/>
-      <c r="C185" s="13"/>
-    </row>
-    <row r="186" ht="21.0" customHeight="1">
-      <c r="A186" s="13"/>
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-    </row>
-    <row r="187" ht="21.0" customHeight="1">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13"/>
-      <c r="C187" s="13"/>
-    </row>
-    <row r="188" ht="21.0" customHeight="1">
-      <c r="A188" s="13"/>
-      <c r="B188" s="13"/>
-      <c r="C188" s="13"/>
-    </row>
-    <row r="189" ht="21.0" customHeight="1">
-      <c r="A189" s="13"/>
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-    </row>
-    <row r="190" ht="21.0" customHeight="1">
-      <c r="A190" s="13"/>
-      <c r="B190" s="13"/>
-      <c r="C190" s="13"/>
-    </row>
-    <row r="191" ht="21.0" customHeight="1">
-      <c r="A191" s="13"/>
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
-    </row>
-    <row r="192" ht="21.0" customHeight="1">
-      <c r="A192" s="13"/>
-      <c r="B192" s="13"/>
-      <c r="C192" s="13"/>
-    </row>
-    <row r="193" ht="21.0" customHeight="1">
-      <c r="A193" s="13"/>
-      <c r="B193" s="13"/>
-      <c r="C193" s="13"/>
-    </row>
-    <row r="194" ht="21.0" customHeight="1">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-    </row>
-    <row r="195" ht="21.0" customHeight="1">
-      <c r="A195" s="13"/>
-      <c r="B195" s="13"/>
-      <c r="C195" s="13"/>
-    </row>
-    <row r="196" ht="21.0" customHeight="1">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13"/>
-      <c r="C196" s="13"/>
-    </row>
-    <row r="197" ht="21.0" customHeight="1">
-      <c r="A197" s="13"/>
-      <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
-    </row>
-    <row r="198" ht="21.0" customHeight="1">
-      <c r="A198" s="13"/>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-    </row>
-    <row r="199" ht="21.0" customHeight="1">
-      <c r="A199" s="13"/>
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-    </row>
-    <row r="200" ht="21.0" customHeight="1">
-      <c r="A200" s="13"/>
-      <c r="B200" s="13"/>
-      <c r="C200" s="13"/>
-    </row>
-    <row r="201" ht="21.0" customHeight="1">
-      <c r="A201" s="13"/>
-      <c r="B201" s="13"/>
-      <c r="C201" s="13"/>
-    </row>
-    <row r="202" ht="21.0" customHeight="1">
-      <c r="A202" s="13"/>
-      <c r="B202" s="13"/>
-      <c r="C202" s="13"/>
-    </row>
-    <row r="203" ht="21.0" customHeight="1">
-      <c r="A203" s="13"/>
-      <c r="B203" s="13"/>
-      <c r="C203" s="13"/>
-    </row>
-    <row r="204" ht="21.0" customHeight="1">
-      <c r="A204" s="13"/>
-      <c r="B204" s="13"/>
-      <c r="C204" s="13"/>
-    </row>
-    <row r="205" ht="21.0" customHeight="1">
-      <c r="A205" s="13"/>
-      <c r="B205" s="13"/>
-      <c r="C205" s="13"/>
-    </row>
-    <row r="206" ht="21.0" customHeight="1">
-      <c r="A206" s="13"/>
-      <c r="B206" s="13"/>
-      <c r="C206" s="13"/>
-    </row>
-    <row r="207" ht="21.0" customHeight="1">
-      <c r="A207" s="13"/>
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-    </row>
-    <row r="208" ht="21.0" customHeight="1">
-      <c r="A208" s="13"/>
-      <c r="B208" s="13"/>
-      <c r="C208" s="13"/>
-    </row>
-    <row r="209" ht="21.0" customHeight="1">
-      <c r="A209" s="13"/>
-      <c r="B209" s="13"/>
-      <c r="C209" s="13"/>
-    </row>
-    <row r="210" ht="21.0" customHeight="1">
-      <c r="A210" s="13"/>
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-    </row>
-    <row r="211" ht="21.0" customHeight="1">
-      <c r="A211" s="13"/>
-      <c r="B211" s="13"/>
-      <c r="C211" s="13"/>
-    </row>
-    <row r="212" ht="21.0" customHeight="1">
-      <c r="A212" s="13"/>
-      <c r="B212" s="13"/>
-      <c r="C212" s="13"/>
-    </row>
-    <row r="213" ht="21.0" customHeight="1">
-      <c r="A213" s="13"/>
-      <c r="B213" s="13"/>
-      <c r="C213" s="13"/>
-    </row>
-    <row r="214" ht="21.0" customHeight="1">
-      <c r="A214" s="13"/>
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-    </row>
-    <row r="215" ht="21.0" customHeight="1">
-      <c r="A215" s="13"/>
-      <c r="B215" s="13"/>
-      <c r="C215" s="13"/>
-    </row>
-    <row r="216" ht="21.0" customHeight="1">
-      <c r="A216" s="13"/>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-    </row>
-    <row r="217" ht="21.0" customHeight="1">
-      <c r="A217" s="13"/>
-      <c r="B217" s="13"/>
-      <c r="C217" s="13"/>
-    </row>
-    <row r="218" ht="21.0" customHeight="1">
-      <c r="A218" s="13"/>
-      <c r="B218" s="13"/>
-      <c r="C218" s="13"/>
-    </row>
-    <row r="219" ht="21.0" customHeight="1">
-      <c r="A219" s="13"/>
-      <c r="B219" s="13"/>
-      <c r="C219" s="13"/>
-    </row>
-    <row r="220" ht="21.0" customHeight="1">
-      <c r="A220" s="13"/>
-      <c r="B220" s="13"/>
-      <c r="C220" s="13"/>
-    </row>
-    <row r="221" ht="21.0" customHeight="1">
-      <c r="A221" s="13"/>
-      <c r="B221" s="13"/>
-      <c r="C221" s="13"/>
-    </row>
-    <row r="222" ht="21.0" customHeight="1">
-      <c r="A222" s="13"/>
-      <c r="B222" s="13"/>
-      <c r="C222" s="13"/>
-    </row>
-    <row r="223" ht="21.0" customHeight="1">
-      <c r="A223" s="13"/>
-      <c r="B223" s="13"/>
-      <c r="C223" s="13"/>
-    </row>
-    <row r="224" ht="21.0" customHeight="1">
-      <c r="A224" s="13"/>
-      <c r="B224" s="13"/>
-      <c r="C224" s="13"/>
-    </row>
-    <row r="225" ht="21.0" customHeight="1">
-      <c r="A225" s="13"/>
-      <c r="B225" s="13"/>
-      <c r="C225" s="13"/>
-    </row>
-    <row r="226" ht="21.0" customHeight="1">
-      <c r="A226" s="13"/>
-      <c r="B226" s="13"/>
-      <c r="C226" s="13"/>
-    </row>
-    <row r="227" ht="21.0" customHeight="1">
-      <c r="A227" s="13"/>
-      <c r="B227" s="13"/>
-      <c r="C227" s="13"/>
-    </row>
-    <row r="228" ht="21.0" customHeight="1">
-      <c r="A228" s="13"/>
-      <c r="B228" s="13"/>
-      <c r="C228" s="13"/>
-    </row>
-    <row r="229" ht="21.0" customHeight="1">
-      <c r="A229" s="13"/>
-      <c r="B229" s="13"/>
-      <c r="C229" s="13"/>
-    </row>
-    <row r="230" ht="21.0" customHeight="1">
-      <c r="A230" s="13"/>
-      <c r="B230" s="13"/>
-      <c r="C230" s="13"/>
-    </row>
-    <row r="231" ht="21.0" customHeight="1">
-      <c r="A231" s="13"/>
-      <c r="B231" s="13"/>
-      <c r="C231" s="13"/>
-    </row>
-    <row r="232" ht="21.0" customHeight="1">
-      <c r="A232" s="13"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13"/>
-    </row>
-    <row r="233" ht="21.0" customHeight="1">
-      <c r="A233" s="13"/>
-      <c r="B233" s="13"/>
-      <c r="C233" s="13"/>
-    </row>
-    <row r="234" ht="21.0" customHeight="1">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-    </row>
-    <row r="235" ht="21.0" customHeight="1">
-      <c r="A235" s="13"/>
-      <c r="B235" s="13"/>
-      <c r="C235" s="13"/>
-    </row>
-    <row r="236" ht="21.0" customHeight="1">
-      <c r="A236" s="13"/>
-      <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-    </row>
-    <row r="237" ht="21.0" customHeight="1">
-      <c r="A237" s="13"/>
-      <c r="B237" s="13"/>
-      <c r="C237" s="13"/>
-    </row>
-    <row r="238" ht="21.0" customHeight="1">
-      <c r="A238" s="13"/>
-      <c r="B238" s="13"/>
-      <c r="C238" s="13"/>
-    </row>
-    <row r="239" ht="21.0" customHeight="1">
-      <c r="A239" s="13"/>
-      <c r="B239" s="13"/>
-      <c r="C239" s="13"/>
-    </row>
-    <row r="240" ht="21.0" customHeight="1">
-      <c r="A240" s="13"/>
-      <c r="B240" s="13"/>
-      <c r="C240" s="13"/>
-    </row>
-    <row r="241" ht="21.0" customHeight="1">
-      <c r="A241" s="13"/>
-      <c r="B241" s="13"/>
-      <c r="C241" s="13"/>
-    </row>
-    <row r="242" ht="21.0" customHeight="1">
-      <c r="A242" s="13"/>
-      <c r="B242" s="13"/>
-      <c r="C242" s="13"/>
-    </row>
-    <row r="243" ht="21.0" customHeight="1">
-      <c r="A243" s="13"/>
-      <c r="B243" s="13"/>
-      <c r="C243" s="13"/>
-    </row>
-    <row r="244" ht="21.0" customHeight="1">
-      <c r="A244" s="13"/>
-      <c r="B244" s="13"/>
-      <c r="C244" s="13"/>
-    </row>
-    <row r="245" ht="21.0" customHeight="1">
-      <c r="A245" s="13"/>
-      <c r="B245" s="13"/>
-      <c r="C245" s="13"/>
-    </row>
-    <row r="246" ht="21.0" customHeight="1">
-      <c r="A246" s="13"/>
-      <c r="B246" s="13"/>
-      <c r="C246" s="13"/>
-    </row>
-    <row r="247" ht="21.0" customHeight="1">
-      <c r="A247" s="13"/>
-      <c r="B247" s="13"/>
-      <c r="C247" s="13"/>
-    </row>
-    <row r="248" ht="21.0" customHeight="1">
-      <c r="A248" s="13"/>
-      <c r="B248" s="13"/>
-      <c r="C248" s="13"/>
-    </row>
-    <row r="249" ht="21.0" customHeight="1">
-      <c r="A249" s="13"/>
-      <c r="B249" s="13"/>
-      <c r="C249" s="13"/>
-    </row>
-    <row r="250" ht="21.0" customHeight="1">
-      <c r="A250" s="13"/>
-      <c r="B250" s="13"/>
-      <c r="C250" s="13"/>
-    </row>
-    <row r="251" ht="21.0" customHeight="1">
-      <c r="A251" s="13"/>
-      <c r="B251" s="13"/>
-      <c r="C251" s="13"/>
-    </row>
-    <row r="252" ht="21.0" customHeight="1">
-      <c r="A252" s="13"/>
-      <c r="B252" s="13"/>
-      <c r="C252" s="13"/>
-    </row>
-    <row r="253" ht="21.0" customHeight="1">
-      <c r="A253" s="13"/>
-      <c r="B253" s="13"/>
-      <c r="C253" s="13"/>
-    </row>
-    <row r="254" ht="21.0" customHeight="1">
-      <c r="A254" s="13"/>
-      <c r="B254" s="13"/>
-      <c r="C254" s="13"/>
-    </row>
-    <row r="255" ht="21.0" customHeight="1">
-      <c r="A255" s="13"/>
-      <c r="B255" s="13"/>
-      <c r="C255" s="13"/>
-    </row>
-    <row r="256" ht="21.0" customHeight="1">
-      <c r="A256" s="13"/>
-      <c r="B256" s="13"/>
-      <c r="C256" s="13"/>
-    </row>
-    <row r="257" ht="21.0" customHeight="1">
-      <c r="A257" s="13"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="13"/>
-    </row>
-    <row r="258" ht="21.0" customHeight="1">
-      <c r="A258" s="13"/>
-      <c r="B258" s="13"/>
-      <c r="C258" s="13"/>
-    </row>
-    <row r="259" ht="21.0" customHeight="1">
-      <c r="A259" s="13"/>
-      <c r="B259" s="13"/>
-      <c r="C259" s="13"/>
-    </row>
-    <row r="260" ht="21.0" customHeight="1">
-      <c r="A260" s="13"/>
-      <c r="B260" s="13"/>
-      <c r="C260" s="13"/>
-    </row>
-    <row r="261" ht="21.0" customHeight="1">
-      <c r="A261" s="13"/>
-      <c r="B261" s="13"/>
-      <c r="C261" s="13"/>
-    </row>
-    <row r="262" ht="21.0" customHeight="1">
-      <c r="A262" s="13"/>
-      <c r="B262" s="13"/>
-      <c r="C262" s="13"/>
-    </row>
-    <row r="263" ht="21.0" customHeight="1">
-      <c r="A263" s="13"/>
-      <c r="B263" s="13"/>
-      <c r="C263" s="13"/>
-    </row>
-    <row r="264" ht="21.0" customHeight="1">
-      <c r="A264" s="13"/>
-      <c r="B264" s="13"/>
-      <c r="C264" s="13"/>
-    </row>
-    <row r="265" ht="21.0" customHeight="1">
-      <c r="A265" s="13"/>
-      <c r="B265" s="13"/>
-      <c r="C265" s="13"/>
-    </row>
-    <row r="266" ht="21.0" customHeight="1">
-      <c r="A266" s="13"/>
-      <c r="B266" s="13"/>
-      <c r="C266" s="13"/>
-    </row>
-    <row r="267" ht="21.0" customHeight="1">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13"/>
-      <c r="C267" s="13"/>
-    </row>
-    <row r="268" ht="21.0" customHeight="1">
-      <c r="A268" s="13"/>
-      <c r="B268" s="13"/>
-      <c r="C268" s="13"/>
-    </row>
-    <row r="269" ht="21.0" customHeight="1">
-      <c r="A269" s="13"/>
-      <c r="B269" s="13"/>
-      <c r="C269" s="13"/>
-    </row>
-    <row r="270" ht="21.0" customHeight="1">
-      <c r="A270" s="13"/>
-      <c r="B270" s="13"/>
-      <c r="C270" s="13"/>
-    </row>
-    <row r="271" ht="21.0" customHeight="1">
-      <c r="A271" s="13"/>
-      <c r="B271" s="13"/>
-      <c r="C271" s="13"/>
-    </row>
-    <row r="272" ht="21.0" customHeight="1">
-      <c r="A272" s="13"/>
-      <c r="B272" s="13"/>
-      <c r="C272" s="13"/>
-    </row>
-    <row r="273" ht="21.0" customHeight="1">
-      <c r="A273" s="13"/>
-      <c r="B273" s="13"/>
-      <c r="C273" s="13"/>
-    </row>
-    <row r="274" ht="21.0" customHeight="1">
-      <c r="A274" s="13"/>
-      <c r="B274" s="13"/>
-      <c r="C274" s="13"/>
-    </row>
-    <row r="275" ht="21.0" customHeight="1">
-      <c r="A275" s="13"/>
-      <c r="B275" s="13"/>
-      <c r="C275" s="13"/>
-    </row>
-    <row r="276" ht="21.0" customHeight="1">
-      <c r="A276" s="13"/>
-      <c r="B276" s="13"/>
-      <c r="C276" s="13"/>
-    </row>
-    <row r="277" ht="21.0" customHeight="1">
-      <c r="A277" s="13"/>
-      <c r="B277" s="13"/>
-      <c r="C277" s="13"/>
-    </row>
-    <row r="278" ht="21.0" customHeight="1">
-      <c r="A278" s="13"/>
-      <c r="B278" s="13"/>
-      <c r="C278" s="13"/>
-    </row>
-    <row r="279" ht="21.0" customHeight="1">
-      <c r="A279" s="13"/>
-      <c r="B279" s="13"/>
-      <c r="C279" s="13"/>
-    </row>
-    <row r="280" ht="21.0" customHeight="1">
-      <c r="A280" s="13"/>
-      <c r="B280" s="13"/>
-      <c r="C280" s="13"/>
-    </row>
-    <row r="281" ht="21.0" customHeight="1">
-      <c r="A281" s="13"/>
-      <c r="B281" s="13"/>
-      <c r="C281" s="13"/>
-    </row>
-    <row r="282" ht="21.0" customHeight="1">
-      <c r="A282" s="13"/>
-      <c r="B282" s="13"/>
-      <c r="C282" s="13"/>
-    </row>
-    <row r="283" ht="21.0" customHeight="1">
-      <c r="A283" s="13"/>
-      <c r="B283" s="13"/>
-      <c r="C283" s="13"/>
-    </row>
-    <row r="284" ht="21.0" customHeight="1">
-      <c r="A284" s="13"/>
-      <c r="B284" s="13"/>
-      <c r="C284" s="13"/>
-    </row>
-    <row r="285" ht="21.0" customHeight="1">
-      <c r="A285" s="13"/>
-      <c r="B285" s="13"/>
-      <c r="C285" s="13"/>
-    </row>
-    <row r="286" ht="21.0" customHeight="1">
-      <c r="A286" s="13"/>
-      <c r="B286" s="13"/>
-      <c r="C286" s="13"/>
-    </row>
-    <row r="287" ht="21.0" customHeight="1">
-      <c r="A287" s="13"/>
-      <c r="B287" s="13"/>
-      <c r="C287" s="13"/>
-    </row>
-    <row r="288" ht="21.0" customHeight="1">
-      <c r="A288" s="13"/>
-      <c r="B288" s="13"/>
-      <c r="C288" s="13"/>
-    </row>
-    <row r="289" ht="21.0" customHeight="1">
-      <c r="A289" s="13"/>
-      <c r="B289" s="13"/>
-      <c r="C289" s="13"/>
-    </row>
-    <row r="290" ht="21.0" customHeight="1">
-      <c r="A290" s="13"/>
-      <c r="B290" s="13"/>
-      <c r="C290" s="13"/>
-    </row>
-    <row r="291" ht="21.0" customHeight="1">
-      <c r="A291" s="13"/>
-      <c r="B291" s="13"/>
-      <c r="C291" s="13"/>
-    </row>
-    <row r="292" ht="21.0" customHeight="1">
-      <c r="A292" s="13"/>
-      <c r="B292" s="13"/>
-      <c r="C292" s="13"/>
-    </row>
-    <row r="293" ht="21.0" customHeight="1">
-      <c r="A293" s="13"/>
-      <c r="B293" s="13"/>
-      <c r="C293" s="13"/>
-    </row>
-    <row r="294" ht="21.0" customHeight="1">
-      <c r="A294" s="13"/>
-      <c r="B294" s="13"/>
-      <c r="C294" s="13"/>
-    </row>
-    <row r="295" ht="21.0" customHeight="1">
-      <c r="A295" s="13"/>
-      <c r="B295" s="13"/>
-      <c r="C295" s="13"/>
-    </row>
-    <row r="296" ht="21.0" customHeight="1">
-      <c r="A296" s="13"/>
-      <c r="B296" s="13"/>
-      <c r="C296" s="13"/>
-    </row>
-    <row r="297" ht="21.0" customHeight="1">
-      <c r="A297" s="13"/>
-      <c r="B297" s="13"/>
-      <c r="C297" s="13"/>
-    </row>
-    <row r="298" ht="21.0" customHeight="1">
-      <c r="A298" s="13"/>
-      <c r="B298" s="13"/>
-      <c r="C298" s="13"/>
-    </row>
-    <row r="299" ht="21.0" customHeight="1">
-      <c r="A299" s="13"/>
-      <c r="B299" s="13"/>
-      <c r="C299" s="13"/>
-    </row>
-    <row r="300" ht="21.0" customHeight="1">
-      <c r="A300" s="13"/>
-      <c r="B300" s="13"/>
-      <c r="C300" s="13"/>
-    </row>
-    <row r="301" ht="21.0" customHeight="1">
-      <c r="A301" s="13"/>
-      <c r="B301" s="13"/>
-      <c r="C301" s="13"/>
-    </row>
-    <row r="302" ht="21.0" customHeight="1">
-      <c r="A302" s="13"/>
-      <c r="B302" s="13"/>
-      <c r="C302" s="13"/>
-    </row>
-    <row r="303" ht="21.0" customHeight="1">
-      <c r="A303" s="13"/>
-      <c r="B303" s="13"/>
-      <c r="C303" s="13"/>
-    </row>
-    <row r="304" ht="21.0" customHeight="1">
-      <c r="A304" s="13"/>
-      <c r="B304" s="13"/>
-      <c r="C304" s="13"/>
-    </row>
-    <row r="305" ht="21.0" customHeight="1">
-      <c r="A305" s="13"/>
-      <c r="B305" s="13"/>
-      <c r="C305" s="13"/>
-    </row>
-    <row r="306" ht="21.0" customHeight="1">
-      <c r="A306" s="13"/>
-      <c r="B306" s="13"/>
-      <c r="C306" s="13"/>
-    </row>
-    <row r="307" ht="21.0" customHeight="1">
-      <c r="A307" s="13"/>
-      <c r="B307" s="13"/>
-      <c r="C307" s="13"/>
-    </row>
-    <row r="308" ht="21.0" customHeight="1">
-      <c r="A308" s="13"/>
-      <c r="B308" s="13"/>
-      <c r="C308" s="13"/>
-    </row>
-    <row r="309" ht="21.0" customHeight="1">
-      <c r="A309" s="13"/>
-      <c r="B309" s="13"/>
-      <c r="C309" s="13"/>
-    </row>
-    <row r="310" ht="21.0" customHeight="1">
-      <c r="A310" s="13"/>
-      <c r="B310" s="13"/>
-      <c r="C310" s="13"/>
-    </row>
-    <row r="311" ht="21.0" customHeight="1">
-      <c r="A311" s="13"/>
-      <c r="B311" s="13"/>
-      <c r="C311" s="13"/>
-    </row>
-    <row r="312" ht="21.0" customHeight="1">
-      <c r="A312" s="13"/>
-      <c r="B312" s="13"/>
-      <c r="C312" s="13"/>
-    </row>
-    <row r="313" ht="21.0" customHeight="1">
-      <c r="A313" s="13"/>
-      <c r="B313" s="13"/>
-      <c r="C313" s="13"/>
-    </row>
-    <row r="314" ht="21.0" customHeight="1">
-      <c r="A314" s="13"/>
-      <c r="B314" s="13"/>
-      <c r="C314" s="13"/>
-    </row>
-    <row r="315" ht="21.0" customHeight="1">
-      <c r="A315" s="13"/>
-      <c r="B315" s="13"/>
-      <c r="C315" s="13"/>
-    </row>
-    <row r="316" ht="21.0" customHeight="1">
-      <c r="A316" s="13"/>
-      <c r="B316" s="13"/>
-      <c r="C316" s="13"/>
-    </row>
-    <row r="317" ht="21.0" customHeight="1">
-      <c r="A317" s="13"/>
-      <c r="B317" s="13"/>
-      <c r="C317" s="13"/>
-    </row>
-    <row r="318" ht="21.0" customHeight="1">
-      <c r="A318" s="13"/>
-      <c r="B318" s="13"/>
-      <c r="C318" s="13"/>
-    </row>
-    <row r="319" ht="21.0" customHeight="1">
-      <c r="A319" s="13"/>
-      <c r="B319" s="13"/>
-      <c r="C319" s="13"/>
-    </row>
-    <row r="320" ht="21.0" customHeight="1">
-      <c r="A320" s="13"/>
-      <c r="B320" s="13"/>
-      <c r="C320" s="13"/>
-    </row>
-    <row r="321" ht="21.0" customHeight="1">
-      <c r="A321" s="13"/>
-      <c r="B321" s="13"/>
-      <c r="C321" s="13"/>
-    </row>
-    <row r="322" ht="21.0" customHeight="1">
-      <c r="A322" s="13"/>
-      <c r="B322" s="13"/>
-      <c r="C322" s="13"/>
-    </row>
-    <row r="323" ht="21.0" customHeight="1">
-      <c r="A323" s="13"/>
-      <c r="B323" s="13"/>
-      <c r="C323" s="13"/>
-    </row>
-    <row r="324" ht="21.0" customHeight="1">
-      <c r="A324" s="13"/>
-      <c r="B324" s="13"/>
-      <c r="C324" s="13"/>
-    </row>
-    <row r="325" ht="21.0" customHeight="1">
-      <c r="A325" s="13"/>
-      <c r="B325" s="13"/>
-      <c r="C325" s="13"/>
-    </row>
-    <row r="326" ht="21.0" customHeight="1">
-      <c r="A326" s="13"/>
-      <c r="B326" s="13"/>
-      <c r="C326" s="13"/>
-    </row>
-    <row r="327" ht="21.0" customHeight="1">
-      <c r="A327" s="13"/>
-      <c r="B327" s="13"/>
-      <c r="C327" s="13"/>
-    </row>
-    <row r="328" ht="21.0" customHeight="1">
-      <c r="A328" s="13"/>
-      <c r="B328" s="13"/>
-      <c r="C328" s="13"/>
-    </row>
-    <row r="329" ht="21.0" customHeight="1">
-      <c r="A329" s="13"/>
-      <c r="B329" s="13"/>
-      <c r="C329" s="13"/>
-    </row>
-    <row r="330" ht="21.0" customHeight="1">
-      <c r="A330" s="13"/>
-      <c r="B330" s="13"/>
-      <c r="C330" s="13"/>
-    </row>
-    <row r="331" ht="21.0" customHeight="1">
-      <c r="A331" s="13"/>
-      <c r="B331" s="13"/>
-      <c r="C331" s="13"/>
-    </row>
-    <row r="332" ht="21.0" customHeight="1">
-      <c r="A332" s="13"/>
-      <c r="B332" s="13"/>
-      <c r="C332" s="13"/>
-    </row>
-    <row r="333" ht="21.0" customHeight="1">
-      <c r="A333" s="13"/>
-      <c r="B333" s="13"/>
-      <c r="C333" s="13"/>
-    </row>
-    <row r="334" ht="21.0" customHeight="1">
-      <c r="A334" s="13"/>
-      <c r="B334" s="13"/>
-      <c r="C334" s="13"/>
-    </row>
-    <row r="335" ht="21.0" customHeight="1">
-      <c r="A335" s="13"/>
-      <c r="B335" s="13"/>
-      <c r="C335" s="13"/>
-    </row>
-    <row r="336" ht="21.0" customHeight="1">
-      <c r="A336" s="13"/>
-      <c r="B336" s="13"/>
-      <c r="C336" s="13"/>
-    </row>
-    <row r="337" ht="21.0" customHeight="1">
-      <c r="A337" s="13"/>
-      <c r="B337" s="13"/>
-      <c r="C337" s="13"/>
-    </row>
-    <row r="338" ht="21.0" customHeight="1">
-      <c r="A338" s="13"/>
-      <c r="B338" s="13"/>
-      <c r="C338" s="13"/>
-    </row>
-    <row r="339" ht="21.0" customHeight="1">
-      <c r="A339" s="13"/>
-      <c r="B339" s="13"/>
-      <c r="C339" s="13"/>
-    </row>
-    <row r="340" ht="21.0" customHeight="1">
-      <c r="A340" s="13"/>
-      <c r="B340" s="13"/>
-      <c r="C340" s="13"/>
-    </row>
-    <row r="341" ht="21.0" customHeight="1">
-      <c r="A341" s="13"/>
-      <c r="B341" s="13"/>
-      <c r="C341" s="13"/>
-    </row>
-    <row r="342" ht="21.0" customHeight="1">
-      <c r="A342" s="13"/>
-      <c r="B342" s="13"/>
-      <c r="C342" s="13"/>
-    </row>
-    <row r="343" ht="21.0" customHeight="1">
-      <c r="A343" s="13"/>
-      <c r="B343" s="13"/>
-      <c r="C343" s="13"/>
-    </row>
-    <row r="344" ht="21.0" customHeight="1">
-      <c r="A344" s="13"/>
-      <c r="B344" s="13"/>
-      <c r="C344" s="13"/>
-    </row>
-    <row r="345" ht="21.0" customHeight="1">
-      <c r="A345" s="13"/>
-      <c r="B345" s="13"/>
-      <c r="C345" s="13"/>
-    </row>
-    <row r="346" ht="21.0" customHeight="1">
-      <c r="A346" s="13"/>
-      <c r="B346" s="13"/>
-      <c r="C346" s="13"/>
-    </row>
-    <row r="347" ht="21.0" customHeight="1">
-      <c r="A347" s="13"/>
-      <c r="B347" s="13"/>
-      <c r="C347" s="13"/>
-    </row>
-    <row r="348" ht="21.0" customHeight="1">
-      <c r="A348" s="13"/>
-      <c r="B348" s="13"/>
-      <c r="C348" s="13"/>
-    </row>
-    <row r="349" ht="21.0" customHeight="1">
-      <c r="A349" s="13"/>
-      <c r="B349" s="13"/>
-      <c r="C349" s="13"/>
-    </row>
-    <row r="350" ht="21.0" customHeight="1">
-      <c r="A350" s="13"/>
-      <c r="B350" s="13"/>
-      <c r="C350" s="13"/>
-    </row>
-    <row r="351" ht="21.0" customHeight="1">
-      <c r="A351" s="13"/>
-      <c r="B351" s="13"/>
-      <c r="C351" s="13"/>
-    </row>
-    <row r="352" ht="21.0" customHeight="1">
-      <c r="A352" s="13"/>
-      <c r="B352" s="13"/>
-      <c r="C352" s="13"/>
-    </row>
-    <row r="353" ht="21.0" customHeight="1">
-      <c r="A353" s="13"/>
-      <c r="B353" s="13"/>
-      <c r="C353" s="13"/>
-    </row>
-    <row r="354" ht="21.0" customHeight="1">
-      <c r="A354" s="13"/>
-      <c r="B354" s="13"/>
-      <c r="C354" s="13"/>
-    </row>
-    <row r="355" ht="21.0" customHeight="1">
-      <c r="A355" s="13"/>
-      <c r="B355" s="13"/>
-      <c r="C355" s="13"/>
-    </row>
-    <row r="356" ht="21.0" customHeight="1">
-      <c r="A356" s="13"/>
-      <c r="B356" s="13"/>
-      <c r="C356" s="13"/>
-    </row>
-    <row r="357" ht="21.0" customHeight="1">
-      <c r="A357" s="13"/>
-      <c r="B357" s="13"/>
-      <c r="C357" s="13"/>
-    </row>
-    <row r="358" ht="21.0" customHeight="1">
-      <c r="A358" s="13"/>
-      <c r="B358" s="13"/>
-      <c r="C358" s="13"/>
-    </row>
-    <row r="359" ht="21.0" customHeight="1">
-      <c r="A359" s="13"/>
-      <c r="B359" s="13"/>
-      <c r="C359" s="13"/>
-    </row>
-    <row r="360" ht="21.0" customHeight="1">
-      <c r="A360" s="13"/>
-      <c r="B360" s="13"/>
-      <c r="C360" s="13"/>
-    </row>
-    <row r="361" ht="21.0" customHeight="1">
-      <c r="A361" s="13"/>
-      <c r="B361" s="13"/>
-      <c r="C361" s="13"/>
-    </row>
-    <row r="362" ht="21.0" customHeight="1">
-      <c r="A362" s="13"/>
-      <c r="B362" s="13"/>
-      <c r="C362" s="13"/>
-    </row>
-    <row r="363" ht="21.0" customHeight="1">
-      <c r="A363" s="13"/>
-      <c r="B363" s="13"/>
-      <c r="C363" s="13"/>
-    </row>
-    <row r="364" ht="21.0" customHeight="1">
-      <c r="A364" s="13"/>
-      <c r="B364" s="13"/>
-      <c r="C364" s="13"/>
-    </row>
-    <row r="365" ht="21.0" customHeight="1">
-      <c r="A365" s="13"/>
-      <c r="B365" s="13"/>
-      <c r="C365" s="13"/>
-    </row>
-    <row r="366" ht="21.0" customHeight="1">
-      <c r="A366" s="13"/>
-      <c r="B366" s="13"/>
-      <c r="C366" s="13"/>
-    </row>
-    <row r="367" ht="21.0" customHeight="1">
-      <c r="A367" s="13"/>
-      <c r="B367" s="13"/>
-      <c r="C367" s="13"/>
-    </row>
-    <row r="368" ht="21.0" customHeight="1">
-      <c r="A368" s="13"/>
-      <c r="B368" s="13"/>
-      <c r="C368" s="13"/>
-    </row>
-    <row r="369" ht="21.0" customHeight="1">
-      <c r="A369" s="13"/>
-      <c r="B369" s="13"/>
-      <c r="C369" s="13"/>
-    </row>
-    <row r="370" ht="21.0" customHeight="1">
-      <c r="A370" s="13"/>
-      <c r="B370" s="13"/>
-      <c r="C370" s="13"/>
-    </row>
-    <row r="371" ht="21.0" customHeight="1">
-      <c r="A371" s="13"/>
-      <c r="B371" s="13"/>
-      <c r="C371" s="13"/>
-    </row>
-    <row r="372" ht="21.0" customHeight="1">
-      <c r="A372" s="13"/>
-      <c r="B372" s="13"/>
-      <c r="C372" s="13"/>
-    </row>
-    <row r="373" ht="21.0" customHeight="1">
-      <c r="A373" s="13"/>
-      <c r="B373" s="13"/>
-      <c r="C373" s="13"/>
-    </row>
-    <row r="374" ht="21.0" customHeight="1">
-      <c r="A374" s="13"/>
-      <c r="B374" s="13"/>
-      <c r="C374" s="13"/>
-    </row>
-    <row r="375" ht="21.0" customHeight="1">
-      <c r="A375" s="13"/>
-      <c r="B375" s="13"/>
-      <c r="C375" s="13"/>
-    </row>
-    <row r="376" ht="21.0" customHeight="1">
-      <c r="A376" s="13"/>
-      <c r="B376" s="13"/>
-      <c r="C376" s="13"/>
-    </row>
-    <row r="377" ht="21.0" customHeight="1">
-      <c r="A377" s="13"/>
-      <c r="B377" s="13"/>
-      <c r="C377" s="13"/>
-    </row>
-    <row r="378" ht="21.0" customHeight="1">
-      <c r="A378" s="13"/>
-      <c r="B378" s="13"/>
-      <c r="C378" s="13"/>
-    </row>
-    <row r="379" ht="21.0" customHeight="1">
-      <c r="A379" s="13"/>
-      <c r="B379" s="13"/>
-      <c r="C379" s="13"/>
-    </row>
-    <row r="380" ht="21.0" customHeight="1">
-      <c r="A380" s="13"/>
-      <c r="B380" s="13"/>
-      <c r="C380" s="13"/>
-    </row>
-    <row r="381" ht="21.0" customHeight="1">
-      <c r="A381" s="13"/>
-      <c r="B381" s="13"/>
-      <c r="C381" s="13"/>
-    </row>
-    <row r="382" ht="21.0" customHeight="1">
-      <c r="A382" s="13"/>
-      <c r="B382" s="13"/>
-      <c r="C382" s="13"/>
-    </row>
-    <row r="383" ht="21.0" customHeight="1">
-      <c r="A383" s="13"/>
-      <c r="B383" s="13"/>
-      <c r="C383" s="13"/>
-    </row>
-    <row r="384" ht="21.0" customHeight="1">
-      <c r="A384" s="13"/>
-      <c r="B384" s="13"/>
-      <c r="C384" s="13"/>
-    </row>
-    <row r="385" ht="21.0" customHeight="1">
-      <c r="A385" s="13"/>
-      <c r="B385" s="13"/>
-      <c r="C385" s="13"/>
-    </row>
-    <row r="386" ht="21.0" customHeight="1">
-      <c r="A386" s="13"/>
-      <c r="B386" s="13"/>
-      <c r="C386" s="13"/>
-    </row>
-    <row r="387" ht="21.0" customHeight="1">
-      <c r="A387" s="13"/>
-      <c r="B387" s="13"/>
-      <c r="C387" s="13"/>
-    </row>
-    <row r="388" ht="21.0" customHeight="1">
-      <c r="A388" s="13"/>
-      <c r="B388" s="13"/>
-      <c r="C388" s="13"/>
-    </row>
-    <row r="389" ht="21.0" customHeight="1">
-      <c r="A389" s="13"/>
-      <c r="B389" s="13"/>
-      <c r="C389" s="13"/>
-    </row>
-    <row r="390" ht="21.0" customHeight="1">
-      <c r="A390" s="13"/>
-      <c r="B390" s="13"/>
-      <c r="C390" s="13"/>
-    </row>
-    <row r="391" ht="21.0" customHeight="1">
-      <c r="A391" s="13"/>
-      <c r="B391" s="13"/>
-      <c r="C391" s="13"/>
-    </row>
-    <row r="392" ht="21.0" customHeight="1">
-      <c r="A392" s="13"/>
-      <c r="B392" s="13"/>
-      <c r="C392" s="13"/>
-    </row>
-    <row r="393" ht="21.0" customHeight="1">
-      <c r="A393" s="13"/>
-      <c r="B393" s="13"/>
-      <c r="C393" s="13"/>
-    </row>
-    <row r="394" ht="21.0" customHeight="1">
-      <c r="A394" s="13"/>
-      <c r="B394" s="13"/>
-      <c r="C394" s="13"/>
-    </row>
-    <row r="395" ht="21.0" customHeight="1">
-      <c r="A395" s="13"/>
-      <c r="B395" s="13"/>
-      <c r="C395" s="13"/>
-    </row>
-    <row r="396" ht="21.0" customHeight="1">
-      <c r="A396" s="13"/>
-      <c r="B396" s="13"/>
-      <c r="C396" s="13"/>
-    </row>
-    <row r="397" ht="21.0" customHeight="1">
-      <c r="A397" s="13"/>
-      <c r="B397" s="13"/>
-      <c r="C397" s="13"/>
-    </row>
-    <row r="398" ht="21.0" customHeight="1">
-      <c r="A398" s="13"/>
-      <c r="B398" s="13"/>
-      <c r="C398" s="13"/>
-    </row>
-    <row r="399" ht="21.0" customHeight="1">
-      <c r="A399" s="13"/>
-      <c r="B399" s="13"/>
-      <c r="C399" s="13"/>
-    </row>
-    <row r="400" ht="21.0" customHeight="1">
-      <c r="A400" s="13"/>
-      <c r="B400" s="13"/>
-      <c r="C400" s="13"/>
-    </row>
-    <row r="401" ht="21.0" customHeight="1">
-      <c r="A401" s="13"/>
-      <c r="B401" s="13"/>
-      <c r="C401" s="13"/>
-    </row>
-    <row r="402" ht="21.0" customHeight="1">
-      <c r="A402" s="13"/>
-      <c r="B402" s="13"/>
-      <c r="C402" s="13"/>
-    </row>
-    <row r="403" ht="21.0" customHeight="1">
-      <c r="A403" s="13"/>
-      <c r="B403" s="13"/>
-      <c r="C403" s="13"/>
-    </row>
-    <row r="404" ht="21.0" customHeight="1">
-      <c r="A404" s="13"/>
-      <c r="B404" s="13"/>
-      <c r="C404" s="13"/>
-    </row>
-    <row r="405" ht="21.0" customHeight="1">
-      <c r="A405" s="13"/>
-      <c r="B405" s="13"/>
-      <c r="C405" s="13"/>
-    </row>
-    <row r="406" ht="21.0" customHeight="1">
-      <c r="A406" s="13"/>
-      <c r="B406" s="13"/>
-      <c r="C406" s="13"/>
-    </row>
-    <row r="407" ht="21.0" customHeight="1">
-      <c r="A407" s="13"/>
-      <c r="B407" s="13"/>
-      <c r="C407" s="13"/>
-    </row>
-    <row r="408" ht="21.0" customHeight="1">
-      <c r="A408" s="13"/>
-      <c r="B408" s="13"/>
-      <c r="C408" s="13"/>
-    </row>
-    <row r="409" ht="21.0" customHeight="1">
-      <c r="A409" s="13"/>
-      <c r="B409" s="13"/>
-      <c r="C409" s="13"/>
-    </row>
-    <row r="410" ht="21.0" customHeight="1">
-      <c r="A410" s="13"/>
-      <c r="B410" s="13"/>
-      <c r="C410" s="13"/>
-    </row>
-    <row r="411" ht="21.0" customHeight="1">
-      <c r="A411" s="13"/>
-      <c r="B411" s="13"/>
-      <c r="C411" s="13"/>
-    </row>
-    <row r="412" ht="21.0" customHeight="1">
-      <c r="A412" s="13"/>
-      <c r="B412" s="13"/>
-      <c r="C412" s="13"/>
-    </row>
-    <row r="413" ht="21.0" customHeight="1">
-      <c r="A413" s="13"/>
-      <c r="B413" s="13"/>
-      <c r="C413" s="13"/>
-    </row>
-    <row r="414" ht="21.0" customHeight="1">
-      <c r="A414" s="13"/>
-      <c r="B414" s="13"/>
-      <c r="C414" s="13"/>
-    </row>
-    <row r="415" ht="21.0" customHeight="1">
-      <c r="A415" s="13"/>
-      <c r="B415" s="13"/>
-      <c r="C415" s="13"/>
-    </row>
-    <row r="416" ht="21.0" customHeight="1">
-      <c r="A416" s="13"/>
-      <c r="B416" s="13"/>
-      <c r="C416" s="13"/>
-    </row>
-    <row r="417" ht="21.0" customHeight="1">
-      <c r="A417" s="13"/>
-      <c r="B417" s="13"/>
-      <c r="C417" s="13"/>
-    </row>
-    <row r="418" ht="21.0" customHeight="1">
-      <c r="A418" s="13"/>
-      <c r="B418" s="13"/>
-      <c r="C418" s="13"/>
-    </row>
-    <row r="419" ht="21.0" customHeight="1">
-      <c r="A419" s="13"/>
-      <c r="B419" s="13"/>
-      <c r="C419" s="13"/>
-    </row>
-    <row r="420" ht="21.0" customHeight="1">
-      <c r="A420" s="13"/>
-      <c r="B420" s="13"/>
-      <c r="C420" s="13"/>
-    </row>
-    <row r="421" ht="21.0" customHeight="1">
-      <c r="A421" s="13"/>
-      <c r="B421" s="13"/>
-      <c r="C421" s="13"/>
-    </row>
-    <row r="422" ht="21.0" customHeight="1">
-      <c r="A422" s="13"/>
-      <c r="B422" s="13"/>
-      <c r="C422" s="13"/>
-    </row>
-    <row r="423" ht="21.0" customHeight="1">
-      <c r="A423" s="13"/>
-      <c r="B423" s="13"/>
-      <c r="C423" s="13"/>
-    </row>
-    <row r="424" ht="21.0" customHeight="1">
-      <c r="A424" s="13"/>
-      <c r="B424" s="13"/>
-      <c r="C424" s="13"/>
-    </row>
-    <row r="425" ht="21.0" customHeight="1">
-      <c r="A425" s="13"/>
-      <c r="B425" s="13"/>
-      <c r="C425" s="13"/>
-    </row>
-    <row r="426" ht="21.0" customHeight="1">
-      <c r="A426" s="13"/>
-      <c r="B426" s="13"/>
-      <c r="C426" s="13"/>
-    </row>
-    <row r="427" ht="21.0" customHeight="1">
-      <c r="A427" s="13"/>
-      <c r="B427" s="13"/>
-      <c r="C427" s="13"/>
-    </row>
-    <row r="428" ht="21.0" customHeight="1">
-      <c r="A428" s="13"/>
-      <c r="B428" s="13"/>
-      <c r="C428" s="13"/>
-    </row>
-    <row r="429" ht="21.0" customHeight="1">
-      <c r="A429" s="13"/>
-      <c r="B429" s="13"/>
-      <c r="C429" s="13"/>
-    </row>
-    <row r="430" ht="21.0" customHeight="1">
-      <c r="A430" s="13"/>
-      <c r="B430" s="13"/>
-      <c r="C430" s="13"/>
-    </row>
-    <row r="431" ht="21.0" customHeight="1">
-      <c r="A431" s="13"/>
-      <c r="B431" s="13"/>
-      <c r="C431" s="13"/>
-    </row>
-    <row r="432" ht="21.0" customHeight="1">
-      <c r="A432" s="13"/>
-      <c r="B432" s="13"/>
-      <c r="C432" s="13"/>
-    </row>
-    <row r="433" ht="21.0" customHeight="1">
-      <c r="A433" s="13"/>
-      <c r="B433" s="13"/>
-      <c r="C433" s="13"/>
-    </row>
-    <row r="434" ht="21.0" customHeight="1">
-      <c r="A434" s="13"/>
-      <c r="B434" s="13"/>
-      <c r="C434" s="13"/>
-    </row>
-    <row r="435" ht="21.0" customHeight="1">
-      <c r="A435" s="13"/>
-      <c r="B435" s="13"/>
-      <c r="C435" s="13"/>
-    </row>
-    <row r="436" ht="21.0" customHeight="1">
-      <c r="A436" s="13"/>
-      <c r="B436" s="13"/>
-      <c r="C436" s="13"/>
-    </row>
-    <row r="437" ht="21.0" customHeight="1">
-      <c r="A437" s="13"/>
-      <c r="B437" s="13"/>
-      <c r="C437" s="13"/>
-    </row>
-    <row r="438" ht="21.0" customHeight="1">
-      <c r="A438" s="13"/>
-      <c r="B438" s="13"/>
-      <c r="C438" s="13"/>
-    </row>
-    <row r="439" ht="21.0" customHeight="1">
-      <c r="A439" s="13"/>
-      <c r="B439" s="13"/>
-      <c r="C439" s="13"/>
-    </row>
-    <row r="440" ht="21.0" customHeight="1">
-      <c r="A440" s="13"/>
-      <c r="B440" s="13"/>
-      <c r="C440" s="13"/>
-    </row>
-    <row r="441" ht="21.0" customHeight="1">
-      <c r="A441" s="13"/>
-      <c r="B441" s="13"/>
-      <c r="C441" s="13"/>
-    </row>
-    <row r="442" ht="21.0" customHeight="1">
-      <c r="A442" s="13"/>
-      <c r="B442" s="13"/>
-      <c r="C442" s="13"/>
-    </row>
-    <row r="443" ht="21.0" customHeight="1">
-      <c r="A443" s="13"/>
-      <c r="B443" s="13"/>
-      <c r="C443" s="13"/>
-    </row>
-    <row r="444" ht="21.0" customHeight="1">
-      <c r="A444" s="13"/>
-      <c r="B444" s="13"/>
-      <c r="C444" s="13"/>
-    </row>
-    <row r="445" ht="21.0" customHeight="1">
-      <c r="A445" s="13"/>
-      <c r="B445" s="13"/>
-      <c r="C445" s="13"/>
-    </row>
-    <row r="446" ht="21.0" customHeight="1">
-      <c r="A446" s="13"/>
-      <c r="B446" s="13"/>
-      <c r="C446" s="13"/>
-    </row>
-    <row r="447" ht="21.0" customHeight="1">
-      <c r="A447" s="13"/>
-      <c r="B447" s="13"/>
-      <c r="C447" s="13"/>
-    </row>
-    <row r="448" ht="21.0" customHeight="1">
-      <c r="A448" s="13"/>
-      <c r="B448" s="13"/>
-      <c r="C448" s="13"/>
-    </row>
-    <row r="449" ht="21.0" customHeight="1">
-      <c r="A449" s="13"/>
-      <c r="B449" s="13"/>
-      <c r="C449" s="13"/>
-    </row>
-    <row r="450" ht="21.0" customHeight="1">
-      <c r="A450" s="13"/>
-      <c r="B450" s="13"/>
-      <c r="C450" s="13"/>
-    </row>
-    <row r="451" ht="21.0" customHeight="1">
-      <c r="A451" s="13"/>
-      <c r="B451" s="13"/>
-      <c r="C451" s="13"/>
-    </row>
-    <row r="452" ht="21.0" customHeight="1">
-      <c r="A452" s="13"/>
-      <c r="B452" s="13"/>
-      <c r="C452" s="13"/>
-    </row>
-    <row r="453" ht="21.0" customHeight="1">
-      <c r="A453" s="13"/>
-      <c r="B453" s="13"/>
-      <c r="C453" s="13"/>
-    </row>
-    <row r="454" ht="21.0" customHeight="1">
-      <c r="A454" s="13"/>
-      <c r="B454" s="13"/>
-      <c r="C454" s="13"/>
-    </row>
-    <row r="455" ht="21.0" customHeight="1">
-      <c r="A455" s="13"/>
-      <c r="B455" s="13"/>
-      <c r="C455" s="13"/>
-    </row>
-    <row r="456" ht="21.0" customHeight="1">
-      <c r="A456" s="13"/>
-      <c r="B456" s="13"/>
-      <c r="C456" s="13"/>
-    </row>
-    <row r="457" ht="21.0" customHeight="1">
-      <c r="A457" s="13"/>
-      <c r="B457" s="13"/>
-      <c r="C457" s="13"/>
-    </row>
-    <row r="458" ht="21.0" customHeight="1">
-      <c r="A458" s="13"/>
-      <c r="B458" s="13"/>
-      <c r="C458" s="13"/>
-    </row>
-    <row r="459" ht="21.0" customHeight="1">
-      <c r="A459" s="13"/>
-      <c r="B459" s="13"/>
-      <c r="C459" s="13"/>
-    </row>
-    <row r="460" ht="21.0" customHeight="1">
-      <c r="A460" s="13"/>
-      <c r="B460" s="13"/>
-      <c r="C460" s="13"/>
-    </row>
-    <row r="461" ht="21.0" customHeight="1">
-      <c r="A461" s="13"/>
-      <c r="B461" s="13"/>
-      <c r="C461" s="13"/>
-    </row>
-    <row r="462" ht="21.0" customHeight="1">
-      <c r="A462" s="13"/>
-      <c r="B462" s="13"/>
-      <c r="C462" s="13"/>
-    </row>
-    <row r="463" ht="21.0" customHeight="1">
-      <c r="A463" s="13"/>
-      <c r="B463" s="13"/>
-      <c r="C463" s="13"/>
-    </row>
-    <row r="464" ht="21.0" customHeight="1">
-      <c r="A464" s="13"/>
-      <c r="B464" s="13"/>
-      <c r="C464" s="13"/>
-    </row>
-    <row r="465" ht="21.0" customHeight="1">
-      <c r="A465" s="13"/>
-      <c r="B465" s="13"/>
-      <c r="C465" s="13"/>
-    </row>
-    <row r="466" ht="21.0" customHeight="1">
-      <c r="A466" s="13"/>
-      <c r="B466" s="13"/>
-      <c r="C466" s="13"/>
-    </row>
-    <row r="467" ht="21.0" customHeight="1">
-      <c r="A467" s="13"/>
-      <c r="B467" s="13"/>
-      <c r="C467" s="13"/>
-    </row>
-    <row r="468" ht="21.0" customHeight="1">
-      <c r="A468" s="13"/>
-      <c r="B468" s="13"/>
-      <c r="C468" s="13"/>
-    </row>
-    <row r="469" ht="21.0" customHeight="1">
-      <c r="A469" s="13"/>
-      <c r="B469" s="13"/>
-      <c r="C469" s="13"/>
-    </row>
-    <row r="470" ht="21.0" customHeight="1">
-      <c r="A470" s="13"/>
-      <c r="B470" s="13"/>
-      <c r="C470" s="13"/>
-    </row>
-    <row r="471" ht="21.0" customHeight="1">
-      <c r="A471" s="13"/>
-      <c r="B471" s="13"/>
-      <c r="C471" s="13"/>
-    </row>
-    <row r="472" ht="21.0" customHeight="1">
-      <c r="A472" s="13"/>
-      <c r="B472" s="13"/>
-      <c r="C472" s="13"/>
-    </row>
-    <row r="473" ht="21.0" customHeight="1">
-      <c r="A473" s="13"/>
-      <c r="B473" s="13"/>
-      <c r="C473" s="13"/>
-    </row>
-    <row r="474" ht="21.0" customHeight="1">
-      <c r="A474" s="13"/>
-      <c r="B474" s="13"/>
-      <c r="C474" s="13"/>
-    </row>
-    <row r="475" ht="21.0" customHeight="1">
-      <c r="A475" s="13"/>
-      <c r="B475" s="13"/>
-      <c r="C475" s="13"/>
-    </row>
-    <row r="476" ht="21.0" customHeight="1">
-      <c r="A476" s="13"/>
-      <c r="B476" s="13"/>
-      <c r="C476" s="13"/>
-    </row>
-    <row r="477" ht="21.0" customHeight="1">
-      <c r="A477" s="13"/>
-      <c r="B477" s="13"/>
-      <c r="C477" s="13"/>
-    </row>
-    <row r="478" ht="21.0" customHeight="1">
-      <c r="A478" s="13"/>
-      <c r="B478" s="13"/>
-      <c r="C478" s="13"/>
-    </row>
-    <row r="479" ht="21.0" customHeight="1">
-      <c r="A479" s="13"/>
-      <c r="B479" s="13"/>
-      <c r="C479" s="13"/>
-    </row>
-    <row r="480" ht="21.0" customHeight="1">
-      <c r="A480" s="13"/>
-      <c r="B480" s="13"/>
-      <c r="C480" s="13"/>
-    </row>
-    <row r="481" ht="21.0" customHeight="1">
-      <c r="A481" s="13"/>
-      <c r="B481" s="13"/>
-      <c r="C481" s="13"/>
-    </row>
-    <row r="482" ht="21.0" customHeight="1">
-      <c r="A482" s="13"/>
-      <c r="B482" s="13"/>
-      <c r="C482" s="13"/>
-    </row>
-    <row r="483" ht="21.0" customHeight="1">
-      <c r="A483" s="13"/>
-      <c r="B483" s="13"/>
-      <c r="C483" s="13"/>
-    </row>
-    <row r="484" ht="21.0" customHeight="1">
-      <c r="A484" s="13"/>
-      <c r="B484" s="13"/>
-      <c r="C484" s="13"/>
-    </row>
-    <row r="485" ht="21.0" customHeight="1">
-      <c r="A485" s="13"/>
-      <c r="B485" s="13"/>
-      <c r="C485" s="13"/>
-    </row>
-    <row r="486" ht="21.0" customHeight="1">
-      <c r="A486" s="13"/>
-      <c r="B486" s="13"/>
-      <c r="C486" s="13"/>
-    </row>
-    <row r="487" ht="21.0" customHeight="1">
-      <c r="A487" s="13"/>
-      <c r="B487" s="13"/>
-      <c r="C487" s="13"/>
-    </row>
-    <row r="488" ht="21.0" customHeight="1">
-      <c r="A488" s="13"/>
-      <c r="B488" s="13"/>
-      <c r="C488" s="13"/>
-    </row>
-    <row r="489" ht="21.0" customHeight="1">
-      <c r="A489" s="13"/>
-      <c r="B489" s="13"/>
-      <c r="C489" s="13"/>
-    </row>
-    <row r="490" ht="21.0" customHeight="1">
-      <c r="A490" s="13"/>
-      <c r="B490" s="13"/>
-      <c r="C490" s="13"/>
-    </row>
-    <row r="491" ht="21.0" customHeight="1">
-      <c r="A491" s="13"/>
-      <c r="B491" s="13"/>
-      <c r="C491" s="13"/>
-    </row>
-    <row r="492" ht="21.0" customHeight="1">
-      <c r="A492" s="13"/>
-      <c r="B492" s="13"/>
-      <c r="C492" s="13"/>
-    </row>
-    <row r="493" ht="21.0" customHeight="1">
-      <c r="A493" s="13"/>
-      <c r="B493" s="13"/>
-      <c r="C493" s="13"/>
-    </row>
-    <row r="494" ht="21.0" customHeight="1">
-      <c r="A494" s="13"/>
-      <c r="B494" s="13"/>
-      <c r="C494" s="13"/>
-    </row>
-    <row r="495" ht="21.0" customHeight="1">
-      <c r="A495" s="13"/>
-      <c r="B495" s="13"/>
-      <c r="C495" s="13"/>
-    </row>
-    <row r="496" ht="21.0" customHeight="1">
-      <c r="A496" s="13"/>
-      <c r="B496" s="13"/>
-      <c r="C496" s="13"/>
-    </row>
-    <row r="497" ht="21.0" customHeight="1">
-      <c r="A497" s="13"/>
-      <c r="B497" s="13"/>
-      <c r="C497" s="13"/>
-    </row>
-    <row r="498" ht="21.0" customHeight="1">
-      <c r="A498" s="13"/>
-      <c r="B498" s="13"/>
-      <c r="C498" s="13"/>
-    </row>
-    <row r="499" ht="21.0" customHeight="1">
-      <c r="A499" s="13"/>
-      <c r="B499" s="13"/>
-      <c r="C499" s="13"/>
-    </row>
-    <row r="500" ht="21.0" customHeight="1">
-      <c r="A500" s="13"/>
-      <c r="B500" s="13"/>
-      <c r="C500" s="13"/>
-    </row>
-    <row r="501" ht="21.0" customHeight="1">
-      <c r="A501" s="13"/>
-      <c r="B501" s="13"/>
-      <c r="C501" s="13"/>
-    </row>
-    <row r="502" ht="21.0" customHeight="1">
-      <c r="A502" s="13"/>
-      <c r="B502" s="13"/>
-      <c r="C502" s="13"/>
-    </row>
-    <row r="503" ht="21.0" customHeight="1">
-      <c r="A503" s="13"/>
-      <c r="B503" s="13"/>
-      <c r="C503" s="13"/>
-    </row>
-    <row r="504" ht="21.0" customHeight="1">
-      <c r="A504" s="13"/>
-      <c r="B504" s="13"/>
-      <c r="C504" s="13"/>
-    </row>
-    <row r="505" ht="21.0" customHeight="1">
-      <c r="A505" s="13"/>
-      <c r="B505" s="13"/>
-      <c r="C505" s="13"/>
-    </row>
-    <row r="506" ht="21.0" customHeight="1">
-      <c r="A506" s="13"/>
-      <c r="B506" s="13"/>
-      <c r="C506" s="13"/>
-    </row>
-    <row r="507" ht="21.0" customHeight="1">
-      <c r="A507" s="13"/>
-      <c r="B507" s="13"/>
-      <c r="C507" s="13"/>
-    </row>
-    <row r="508" ht="21.0" customHeight="1">
-      <c r="A508" s="13"/>
-      <c r="B508" s="13"/>
-      <c r="C508" s="13"/>
-    </row>
-    <row r="509" ht="21.0" customHeight="1">
-      <c r="A509" s="13"/>
-      <c r="B509" s="13"/>
-      <c r="C509" s="13"/>
-    </row>
-    <row r="510" ht="21.0" customHeight="1">
-      <c r="A510" s="13"/>
-      <c r="B510" s="13"/>
-      <c r="C510" s="13"/>
-    </row>
-    <row r="511" ht="21.0" customHeight="1">
-      <c r="A511" s="13"/>
-      <c r="B511" s="13"/>
-      <c r="C511" s="13"/>
-    </row>
-    <row r="512" ht="21.0" customHeight="1">
-      <c r="A512" s="13"/>
-      <c r="B512" s="13"/>
-      <c r="C512" s="13"/>
-    </row>
-    <row r="513" ht="21.0" customHeight="1">
-      <c r="A513" s="13"/>
-      <c r="B513" s="13"/>
-      <c r="C513" s="13"/>
-    </row>
-    <row r="514" ht="21.0" customHeight="1">
-      <c r="A514" s="13"/>
-      <c r="B514" s="13"/>
-      <c r="C514" s="13"/>
-    </row>
-    <row r="515" ht="21.0" customHeight="1">
-      <c r="A515" s="13"/>
-      <c r="B515" s="13"/>
-      <c r="C515" s="13"/>
-    </row>
-    <row r="516" ht="21.0" customHeight="1">
-      <c r="A516" s="13"/>
-      <c r="B516" s="13"/>
-      <c r="C516" s="13"/>
-    </row>
-    <row r="517" ht="21.0" customHeight="1">
-      <c r="A517" s="13"/>
-      <c r="B517" s="13"/>
-      <c r="C517" s="13"/>
-    </row>
-    <row r="518" ht="21.0" customHeight="1">
-      <c r="A518" s="13"/>
-      <c r="B518" s="13"/>
-      <c r="C518" s="13"/>
-    </row>
-    <row r="519" ht="21.0" customHeight="1">
-      <c r="A519" s="13"/>
-      <c r="B519" s="13"/>
-      <c r="C519" s="13"/>
-    </row>
-    <row r="520" ht="21.0" customHeight="1">
-      <c r="A520" s="13"/>
-      <c r="B520" s="13"/>
-      <c r="C520" s="13"/>
-    </row>
-    <row r="521" ht="21.0" customHeight="1">
-      <c r="A521" s="13"/>
-      <c r="B521" s="13"/>
-      <c r="C521" s="13"/>
-    </row>
-    <row r="522" ht="21.0" customHeight="1">
-      <c r="A522" s="13"/>
-      <c r="B522" s="13"/>
-      <c r="C522" s="13"/>
-    </row>
-    <row r="523" ht="21.0" customHeight="1">
-      <c r="A523" s="13"/>
-      <c r="B523" s="13"/>
-      <c r="C523" s="13"/>
-    </row>
-    <row r="524" ht="21.0" customHeight="1">
-      <c r="A524" s="13"/>
-      <c r="B524" s="13"/>
-      <c r="C524" s="13"/>
-    </row>
-    <row r="525" ht="21.0" customHeight="1">
-      <c r="A525" s="13"/>
-      <c r="B525" s="13"/>
-      <c r="C525" s="13"/>
-    </row>
-    <row r="526" ht="21.0" customHeight="1">
-      <c r="A526" s="13"/>
-      <c r="B526" s="13"/>
-      <c r="C526" s="13"/>
-    </row>
-    <row r="527" ht="21.0" customHeight="1">
-      <c r="A527" s="13"/>
-      <c r="B527" s="13"/>
-      <c r="C527" s="13"/>
-    </row>
-    <row r="528" ht="21.0" customHeight="1">
-      <c r="A528" s="13"/>
-      <c r="B528" s="13"/>
-      <c r="C528" s="13"/>
-    </row>
-    <row r="529" ht="21.0" customHeight="1">
-      <c r="A529" s="13"/>
-      <c r="B529" s="13"/>
-      <c r="C529" s="13"/>
-    </row>
-    <row r="530" ht="21.0" customHeight="1">
-      <c r="A530" s="13"/>
-      <c r="B530" s="13"/>
-      <c r="C530" s="13"/>
-    </row>
-    <row r="531" ht="21.0" customHeight="1">
-      <c r="A531" s="13"/>
-      <c r="B531" s="13"/>
-      <c r="C531" s="13"/>
-    </row>
-    <row r="532" ht="21.0" customHeight="1">
-      <c r="A532" s="13"/>
-      <c r="B532" s="13"/>
-      <c r="C532" s="13"/>
-    </row>
-    <row r="533" ht="21.0" customHeight="1">
-      <c r="A533" s="13"/>
-      <c r="B533" s="13"/>
-      <c r="C533" s="13"/>
-    </row>
-    <row r="534" ht="21.0" customHeight="1">
-      <c r="A534" s="13"/>
-      <c r="B534" s="13"/>
-      <c r="C534" s="13"/>
-    </row>
-    <row r="535" ht="21.0" customHeight="1">
-      <c r="A535" s="13"/>
-      <c r="B535" s="13"/>
-      <c r="C535" s="13"/>
-    </row>
-    <row r="536" ht="21.0" customHeight="1">
-      <c r="A536" s="13"/>
-      <c r="B536" s="13"/>
-      <c r="C536" s="13"/>
-    </row>
-    <row r="537" ht="21.0" customHeight="1">
-      <c r="A537" s="13"/>
-      <c r="B537" s="13"/>
-      <c r="C537" s="13"/>
-    </row>
-    <row r="538" ht="21.0" customHeight="1">
-      <c r="A538" s="13"/>
-      <c r="B538" s="13"/>
-      <c r="C538" s="13"/>
-    </row>
-    <row r="539" ht="21.0" customHeight="1">
-      <c r="A539" s="13"/>
-      <c r="B539" s="13"/>
-      <c r="C539" s="13"/>
-    </row>
-    <row r="540" ht="21.0" customHeight="1">
-      <c r="A540" s="13"/>
-      <c r="B540" s="13"/>
-      <c r="C540" s="13"/>
-    </row>
-    <row r="541" ht="21.0" customHeight="1">
-      <c r="A541" s="13"/>
-      <c r="B541" s="13"/>
-      <c r="C541" s="13"/>
-    </row>
-    <row r="542" ht="21.0" customHeight="1">
-      <c r="A542" s="13"/>
-      <c r="B542" s="13"/>
-      <c r="C542" s="13"/>
-    </row>
-    <row r="543" ht="21.0" customHeight="1">
-      <c r="A543" s="13"/>
-      <c r="B543" s="13"/>
-      <c r="C543" s="13"/>
-    </row>
-    <row r="544" ht="21.0" customHeight="1">
-      <c r="A544" s="13"/>
-      <c r="B544" s="13"/>
-      <c r="C544" s="13"/>
-    </row>
-    <row r="545" ht="21.0" customHeight="1">
-      <c r="A545" s="13"/>
-      <c r="B545" s="13"/>
-      <c r="C545" s="13"/>
-    </row>
-    <row r="546" ht="21.0" customHeight="1">
-      <c r="A546" s="13"/>
-      <c r="B546" s="13"/>
-      <c r="C546" s="13"/>
-    </row>
-    <row r="547" ht="21.0" customHeight="1">
-      <c r="A547" s="13"/>
-      <c r="B547" s="13"/>
-      <c r="C547" s="13"/>
-    </row>
-    <row r="548" ht="21.0" customHeight="1">
-      <c r="A548" s="13"/>
-      <c r="B548" s="13"/>
-      <c r="C548" s="13"/>
-    </row>
-    <row r="549" ht="21.0" customHeight="1">
-      <c r="A549" s="13"/>
-      <c r="B549" s="13"/>
-      <c r="C549" s="13"/>
-    </row>
-    <row r="550" ht="21.0" customHeight="1">
-      <c r="A550" s="13"/>
-      <c r="B550" s="13"/>
-      <c r="C550" s="13"/>
-    </row>
-    <row r="551" ht="21.0" customHeight="1">
-      <c r="A551" s="13"/>
-      <c r="B551" s="13"/>
-      <c r="C551" s="13"/>
-    </row>
-    <row r="552" ht="21.0" customHeight="1">
-      <c r="A552" s="13"/>
-      <c r="B552" s="13"/>
-      <c r="C552" s="13"/>
-    </row>
-    <row r="553" ht="21.0" customHeight="1">
-      <c r="A553" s="13"/>
-      <c r="B553" s="13"/>
-      <c r="C553" s="13"/>
-    </row>
-    <row r="554" ht="21.0" customHeight="1">
-      <c r="A554" s="13"/>
-      <c r="B554" s="13"/>
-      <c r="C554" s="13"/>
-    </row>
-    <row r="555" ht="21.0" customHeight="1">
-      <c r="A555" s="13"/>
-      <c r="B555" s="13"/>
-      <c r="C555" s="13"/>
-    </row>
-    <row r="556" ht="21.0" customHeight="1">
-      <c r="A556" s="13"/>
-      <c r="B556" s="13"/>
-      <c r="C556" s="13"/>
-    </row>
-    <row r="557" ht="21.0" customHeight="1">
-      <c r="A557" s="13"/>
-      <c r="B557" s="13"/>
-      <c r="C557" s="13"/>
-    </row>
-    <row r="558" ht="21.0" customHeight="1">
-      <c r="A558" s="13"/>
-      <c r="B558" s="13"/>
-      <c r="C558" s="13"/>
-    </row>
-    <row r="559" ht="21.0" customHeight="1">
-      <c r="A559" s="13"/>
-      <c r="B559" s="13"/>
-      <c r="C559" s="13"/>
-    </row>
-    <row r="560" ht="21.0" customHeight="1">
-      <c r="A560" s="13"/>
-      <c r="B560" s="13"/>
-      <c r="C560" s="13"/>
-    </row>
-    <row r="561" ht="21.0" customHeight="1">
-      <c r="A561" s="13"/>
-      <c r="B561" s="13"/>
-      <c r="C561" s="13"/>
-    </row>
-    <row r="562" ht="21.0" customHeight="1">
-      <c r="A562" s="13"/>
-      <c r="B562" s="13"/>
-      <c r="C562" s="13"/>
-    </row>
-    <row r="563" ht="21.0" customHeight="1">
-      <c r="A563" s="13"/>
-      <c r="B563" s="13"/>
-      <c r="C563" s="13"/>
-    </row>
-    <row r="564" ht="21.0" customHeight="1">
-      <c r="A564" s="13"/>
-      <c r="B564" s="13"/>
-      <c r="C564" s="13"/>
-    </row>
-    <row r="565" ht="21.0" customHeight="1">
-      <c r="A565" s="13"/>
-      <c r="B565" s="13"/>
-      <c r="C565" s="13"/>
-    </row>
-    <row r="566" ht="21.0" customHeight="1">
-      <c r="A566" s="13"/>
-      <c r="B566" s="13"/>
-      <c r="C566" s="13"/>
-    </row>
-    <row r="567" ht="21.0" customHeight="1">
-      <c r="A567" s="13"/>
-      <c r="B567" s="13"/>
-      <c r="C567" s="13"/>
-    </row>
-    <row r="568" ht="21.0" customHeight="1">
-      <c r="A568" s="13"/>
-      <c r="B568" s="13"/>
-      <c r="C568" s="13"/>
-    </row>
-    <row r="569" ht="21.0" customHeight="1">
-      <c r="A569" s="13"/>
-      <c r="B569" s="13"/>
-      <c r="C569" s="13"/>
-    </row>
-    <row r="570" ht="21.0" customHeight="1">
-      <c r="A570" s="13"/>
-      <c r="B570" s="13"/>
-      <c r="C570" s="13"/>
-    </row>
-    <row r="571" ht="21.0" customHeight="1">
-      <c r="A571" s="13"/>
-      <c r="B571" s="13"/>
-      <c r="C571" s="13"/>
-    </row>
-    <row r="572" ht="21.0" customHeight="1">
-      <c r="A572" s="13"/>
-      <c r="B572" s="13"/>
-      <c r="C572" s="13"/>
-    </row>
-    <row r="573" ht="21.0" customHeight="1">
-      <c r="A573" s="13"/>
-      <c r="B573" s="13"/>
-      <c r="C573" s="13"/>
-    </row>
-    <row r="574" ht="21.0" customHeight="1">
-      <c r="A574" s="13"/>
-      <c r="B574" s="13"/>
-      <c r="C574" s="13"/>
-    </row>
-    <row r="575" ht="21.0" customHeight="1">
-      <c r="A575" s="13"/>
-      <c r="B575" s="13"/>
-      <c r="C575" s="13"/>
-    </row>
-    <row r="576" ht="21.0" customHeight="1">
-      <c r="A576" s="13"/>
-      <c r="B576" s="13"/>
-      <c r="C576" s="13"/>
-    </row>
-    <row r="577" ht="21.0" customHeight="1">
-      <c r="A577" s="13"/>
-      <c r="B577" s="13"/>
-      <c r="C577" s="13"/>
-    </row>
-    <row r="578" ht="21.0" customHeight="1">
-      <c r="A578" s="13"/>
-      <c r="B578" s="13"/>
-      <c r="C578" s="13"/>
-    </row>
-    <row r="579" ht="21.0" customHeight="1">
-      <c r="A579" s="13"/>
-      <c r="B579" s="13"/>
-      <c r="C579" s="13"/>
-    </row>
-    <row r="580" ht="21.0" customHeight="1">
-      <c r="A580" s="13"/>
-      <c r="B580" s="13"/>
-      <c r="C580" s="13"/>
-    </row>
-    <row r="581" ht="21.0" customHeight="1">
-      <c r="A581" s="13"/>
-      <c r="B581" s="13"/>
-      <c r="C581" s="13"/>
-    </row>
-    <row r="582" ht="21.0" customHeight="1">
-      <c r="A582" s="13"/>
-      <c r="B582" s="13"/>
-      <c r="C582" s="13"/>
-    </row>
-    <row r="583" ht="21.0" customHeight="1">
-      <c r="A583" s="13"/>
-      <c r="B583" s="13"/>
-      <c r="C583" s="13"/>
-    </row>
-    <row r="584" ht="21.0" customHeight="1">
-      <c r="A584" s="13"/>
-      <c r="B584" s="13"/>
-      <c r="C584" s="13"/>
-    </row>
-    <row r="585" ht="21.0" customHeight="1">
-      <c r="A585" s="13"/>
-      <c r="B585" s="13"/>
-      <c r="C585" s="13"/>
-    </row>
-    <row r="586" ht="21.0" customHeight="1">
-      <c r="A586" s="13"/>
-      <c r="B586" s="13"/>
-      <c r="C586" s="13"/>
-    </row>
-    <row r="587" ht="21.0" customHeight="1">
-      <c r="A587" s="13"/>
-      <c r="B587" s="13"/>
-      <c r="C587" s="13"/>
-    </row>
-    <row r="588" ht="21.0" customHeight="1">
-      <c r="A588" s="13"/>
-      <c r="B588" s="13"/>
-      <c r="C588" s="13"/>
-    </row>
-    <row r="589" ht="21.0" customHeight="1">
-      <c r="A589" s="13"/>
-      <c r="B589" s="13"/>
-      <c r="C589" s="13"/>
-    </row>
-    <row r="590" ht="21.0" customHeight="1">
-      <c r="A590" s="13"/>
-      <c r="B590" s="13"/>
-      <c r="C590" s="13"/>
-    </row>
-    <row r="591" ht="21.0" customHeight="1">
-      <c r="A591" s="13"/>
-      <c r="B591" s="13"/>
-      <c r="C591" s="13"/>
-    </row>
-    <row r="592" ht="21.0" customHeight="1">
-      <c r="A592" s="13"/>
-      <c r="B592" s="13"/>
-      <c r="C592" s="13"/>
-    </row>
-    <row r="593" ht="21.0" customHeight="1">
-      <c r="A593" s="13"/>
-      <c r="B593" s="13"/>
-      <c r="C593" s="13"/>
-    </row>
-    <row r="594" ht="21.0" customHeight="1">
-      <c r="A594" s="13"/>
-      <c r="B594" s="13"/>
-      <c r="C594" s="13"/>
-    </row>
-    <row r="595" ht="21.0" customHeight="1">
-      <c r="A595" s="13"/>
-      <c r="B595" s="13"/>
-      <c r="C595" s="13"/>
-    </row>
-    <row r="596" ht="21.0" customHeight="1">
-      <c r="A596" s="13"/>
-      <c r="B596" s="13"/>
-      <c r="C596" s="13"/>
-    </row>
-    <row r="597" ht="21.0" customHeight="1">
-      <c r="A597" s="13"/>
-      <c r="B597" s="13"/>
-      <c r="C597" s="13"/>
-    </row>
-    <row r="598" ht="21.0" customHeight="1">
-      <c r="A598" s="13"/>
-      <c r="B598" s="13"/>
-      <c r="C598" s="13"/>
-    </row>
-    <row r="599" ht="21.0" customHeight="1">
-      <c r="A599" s="13"/>
-      <c r="B599" s="13"/>
-      <c r="C599" s="13"/>
-    </row>
-    <row r="600" ht="21.0" customHeight="1">
-      <c r="A600" s="13"/>
-      <c r="B600" s="13"/>
-      <c r="C600" s="13"/>
-    </row>
-    <row r="601" ht="21.0" customHeight="1">
-      <c r="A601" s="13"/>
-      <c r="B601" s="13"/>
-      <c r="C601" s="13"/>
-    </row>
-    <row r="602" ht="21.0" customHeight="1">
-      <c r="A602" s="13"/>
-      <c r="B602" s="13"/>
-      <c r="C602" s="13"/>
-    </row>
-    <row r="603" ht="21.0" customHeight="1">
-      <c r="A603" s="13"/>
-      <c r="B603" s="13"/>
-      <c r="C603" s="13"/>
-    </row>
-    <row r="604" ht="21.0" customHeight="1">
-      <c r="A604" s="13"/>
-      <c r="B604" s="13"/>
-      <c r="C604" s="13"/>
-    </row>
-    <row r="605" ht="21.0" customHeight="1">
-      <c r="A605" s="13"/>
-      <c r="B605" s="13"/>
-      <c r="C605" s="13"/>
-    </row>
-    <row r="606" ht="21.0" customHeight="1">
-      <c r="A606" s="13"/>
-      <c r="B606" s="13"/>
-      <c r="C606" s="13"/>
-    </row>
-    <row r="607" ht="21.0" customHeight="1">
-      <c r="A607" s="13"/>
-      <c r="B607" s="13"/>
-      <c r="C607" s="13"/>
-    </row>
-    <row r="608" ht="21.0" customHeight="1">
-      <c r="A608" s="13"/>
-      <c r="B608" s="13"/>
-      <c r="C608" s="13"/>
-    </row>
-    <row r="609" ht="21.0" customHeight="1">
-      <c r="A609" s="13"/>
-      <c r="B609" s="13"/>
-      <c r="C609" s="13"/>
-    </row>
-    <row r="610" ht="21.0" customHeight="1">
-      <c r="A610" s="13"/>
-      <c r="B610" s="13"/>
-      <c r="C610" s="13"/>
-    </row>
-    <row r="611" ht="21.0" customHeight="1">
-      <c r="A611" s="13"/>
-      <c r="B611" s="13"/>
-      <c r="C611" s="13"/>
-    </row>
-    <row r="612" ht="21.0" customHeight="1">
-      <c r="A612" s="13"/>
-      <c r="B612" s="13"/>
-      <c r="C612" s="13"/>
-    </row>
-    <row r="613" ht="21.0" customHeight="1">
-      <c r="A613" s="13"/>
-      <c r="B613" s="13"/>
-      <c r="C613" s="13"/>
-    </row>
-    <row r="614" ht="21.0" customHeight="1">
-      <c r="A614" s="13"/>
-      <c r="B614" s="13"/>
-      <c r="C614" s="13"/>
-    </row>
-    <row r="615" ht="21.0" customHeight="1">
-      <c r="A615" s="13"/>
-      <c r="B615" s="13"/>
-      <c r="C615" s="13"/>
-    </row>
-    <row r="616" ht="21.0" customHeight="1">
-      <c r="A616" s="13"/>
-      <c r="B616" s="13"/>
-      <c r="C616" s="13"/>
-    </row>
-    <row r="617" ht="21.0" customHeight="1">
-      <c r="A617" s="13"/>
-      <c r="B617" s="13"/>
-      <c r="C617" s="13"/>
-    </row>
-    <row r="618" ht="21.0" customHeight="1">
-      <c r="A618" s="13"/>
-      <c r="B618" s="13"/>
-      <c r="C618" s="13"/>
-    </row>
-    <row r="619" ht="21.0" customHeight="1">
-      <c r="A619" s="13"/>
-      <c r="B619" s="13"/>
-      <c r="C619" s="13"/>
-    </row>
-    <row r="620" ht="21.0" customHeight="1">
-      <c r="A620" s="13"/>
-      <c r="B620" s="13"/>
-      <c r="C620" s="13"/>
-    </row>
-    <row r="621" ht="21.0" customHeight="1">
-      <c r="A621" s="13"/>
-      <c r="B621" s="13"/>
-      <c r="C621" s="13"/>
-    </row>
-    <row r="622" ht="21.0" customHeight="1">
-      <c r="A622" s="13"/>
-      <c r="B622" s="13"/>
-      <c r="C622" s="13"/>
-    </row>
-    <row r="623" ht="21.0" customHeight="1">
-      <c r="A623" s="13"/>
-      <c r="B623" s="13"/>
-      <c r="C623" s="13"/>
-    </row>
-    <row r="624" ht="21.0" customHeight="1">
-      <c r="A624" s="13"/>
-      <c r="B624" s="13"/>
-      <c r="C624" s="13"/>
-    </row>
-    <row r="625" ht="21.0" customHeight="1">
-      <c r="A625" s="13"/>
-      <c r="B625" s="13"/>
-      <c r="C625" s="13"/>
-    </row>
-    <row r="626" ht="21.0" customHeight="1">
-      <c r="A626" s="13"/>
-      <c r="B626" s="13"/>
-      <c r="C626" s="13"/>
-    </row>
-    <row r="627" ht="21.0" customHeight="1">
-      <c r="A627" s="13"/>
-      <c r="B627" s="13"/>
-      <c r="C627" s="13"/>
-    </row>
-    <row r="628" ht="21.0" customHeight="1">
-      <c r="A628" s="13"/>
-      <c r="B628" s="13"/>
-      <c r="C628" s="13"/>
-    </row>
-    <row r="629" ht="21.0" customHeight="1">
-      <c r="A629" s="13"/>
-      <c r="B629" s="13"/>
-      <c r="C629" s="13"/>
-    </row>
-    <row r="630" ht="21.0" customHeight="1">
-      <c r="A630" s="13"/>
-      <c r="B630" s="13"/>
-      <c r="C630" s="13"/>
-    </row>
-    <row r="631" ht="21.0" customHeight="1">
-      <c r="A631" s="13"/>
-      <c r="B631" s="13"/>
-      <c r="C631" s="13"/>
-    </row>
-    <row r="632" ht="21.0" customHeight="1">
-      <c r="A632" s="13"/>
-      <c r="B632" s="13"/>
-      <c r="C632" s="13"/>
-    </row>
-    <row r="633" ht="21.0" customHeight="1">
-      <c r="A633" s="13"/>
-      <c r="B633" s="13"/>
-      <c r="C633" s="13"/>
-    </row>
-    <row r="634" ht="21.0" customHeight="1">
-      <c r="A634" s="13"/>
-      <c r="B634" s="13"/>
-      <c r="C634" s="13"/>
-    </row>
-    <row r="635" ht="21.0" customHeight="1">
-      <c r="A635" s="13"/>
-      <c r="B635" s="13"/>
-      <c r="C635" s="13"/>
-    </row>
-    <row r="636" ht="21.0" customHeight="1">
-      <c r="A636" s="13"/>
-      <c r="B636" s="13"/>
-      <c r="C636" s="13"/>
-    </row>
-    <row r="637" ht="21.0" customHeight="1">
-      <c r="A637" s="13"/>
-      <c r="B637" s="13"/>
-      <c r="C637" s="13"/>
-    </row>
-    <row r="638" ht="21.0" customHeight="1">
-      <c r="A638" s="13"/>
-      <c r="B638" s="13"/>
-      <c r="C638" s="13"/>
-    </row>
-    <row r="639" ht="21.0" customHeight="1">
-      <c r="A639" s="13"/>
-      <c r="B639" s="13"/>
-      <c r="C639" s="13"/>
-    </row>
-    <row r="640" ht="21.0" customHeight="1">
-      <c r="A640" s="13"/>
-      <c r="B640" s="13"/>
-      <c r="C640" s="13"/>
-    </row>
-    <row r="641" ht="21.0" customHeight="1">
-      <c r="A641" s="13"/>
-      <c r="B641" s="13"/>
-      <c r="C641" s="13"/>
-    </row>
-    <row r="642" ht="21.0" customHeight="1">
-      <c r="A642" s="13"/>
-      <c r="B642" s="13"/>
-      <c r="C642" s="13"/>
-    </row>
-    <row r="643" ht="21.0" customHeight="1">
-      <c r="A643" s="13"/>
-      <c r="B643" s="13"/>
-      <c r="C643" s="13"/>
-    </row>
-    <row r="644" ht="21.0" customHeight="1">
-      <c r="A644" s="13"/>
-      <c r="B644" s="13"/>
-      <c r="C644" s="13"/>
-    </row>
-    <row r="645" ht="21.0" customHeight="1">
-      <c r="A645" s="13"/>
-      <c r="B645" s="13"/>
-      <c r="C645" s="13"/>
-    </row>
-    <row r="646" ht="21.0" customHeight="1">
-      <c r="A646" s="13"/>
-      <c r="B646" s="13"/>
-      <c r="C646" s="13"/>
-    </row>
-    <row r="647" ht="21.0" customHeight="1">
-      <c r="A647" s="13"/>
-      <c r="B647" s="13"/>
-      <c r="C647" s="13"/>
-    </row>
-    <row r="648" ht="21.0" customHeight="1">
-      <c r="A648" s="13"/>
-      <c r="B648" s="13"/>
-      <c r="C648" s="13"/>
-    </row>
-    <row r="649" ht="21.0" customHeight="1">
-      <c r="A649" s="13"/>
-      <c r="B649" s="13"/>
-      <c r="C649" s="13"/>
-    </row>
-    <row r="650" ht="21.0" customHeight="1">
-      <c r="A650" s="13"/>
-      <c r="B650" s="13"/>
-      <c r="C650" s="13"/>
-    </row>
-    <row r="651" ht="21.0" customHeight="1">
-      <c r="A651" s="13"/>
-      <c r="B651" s="13"/>
-      <c r="C651" s="13"/>
-    </row>
-    <row r="652" ht="21.0" customHeight="1">
-      <c r="A652" s="13"/>
-      <c r="B652" s="13"/>
-      <c r="C652" s="13"/>
-    </row>
-    <row r="653" ht="21.0" customHeight="1">
-      <c r="A653" s="13"/>
-      <c r="B653" s="13"/>
-      <c r="C653" s="13"/>
-    </row>
-    <row r="654" ht="21.0" customHeight="1">
-      <c r="A654" s="13"/>
-      <c r="B654" s="13"/>
-      <c r="C654" s="13"/>
-    </row>
-    <row r="655" ht="21.0" customHeight="1">
-      <c r="A655" s="13"/>
-      <c r="B655" s="13"/>
-      <c r="C655" s="13"/>
-    </row>
-    <row r="656" ht="21.0" customHeight="1">
-      <c r="A656" s="13"/>
-      <c r="B656" s="13"/>
-      <c r="C656" s="13"/>
-    </row>
-    <row r="657" ht="21.0" customHeight="1">
-      <c r="A657" s="13"/>
-      <c r="B657" s="13"/>
-      <c r="C657" s="13"/>
-    </row>
-    <row r="658" ht="21.0" customHeight="1">
-      <c r="A658" s="13"/>
-      <c r="B658" s="13"/>
-      <c r="C658" s="13"/>
-    </row>
-    <row r="659" ht="21.0" customHeight="1">
-      <c r="A659" s="13"/>
-      <c r="B659" s="13"/>
-      <c r="C659" s="13"/>
-    </row>
-    <row r="660" ht="21.0" customHeight="1">
-      <c r="A660" s="13"/>
-      <c r="B660" s="13"/>
-      <c r="C660" s="13"/>
-    </row>
-    <row r="661" ht="21.0" customHeight="1">
-      <c r="A661" s="13"/>
-      <c r="B661" s="13"/>
-      <c r="C661" s="13"/>
-    </row>
-    <row r="662" ht="21.0" customHeight="1">
-      <c r="A662" s="13"/>
-      <c r="B662" s="13"/>
-      <c r="C662" s="13"/>
-    </row>
-    <row r="663" ht="21.0" customHeight="1">
-      <c r="A663" s="13"/>
-      <c r="B663" s="13"/>
-      <c r="C663" s="13"/>
-    </row>
-    <row r="664" ht="21.0" customHeight="1">
-      <c r="A664" s="13"/>
-      <c r="B664" s="13"/>
-      <c r="C664" s="13"/>
-    </row>
-    <row r="665" ht="21.0" customHeight="1">
-      <c r="A665" s="13"/>
-      <c r="B665" s="13"/>
-      <c r="C665" s="13"/>
-    </row>
-    <row r="666" ht="21.0" customHeight="1">
-      <c r="A666" s="13"/>
-      <c r="B666" s="13"/>
-      <c r="C666" s="13"/>
-    </row>
-    <row r="667" ht="21.0" customHeight="1">
-      <c r="A667" s="13"/>
-      <c r="B667" s="13"/>
-      <c r="C667" s="13"/>
-    </row>
-    <row r="668" ht="21.0" customHeight="1">
-      <c r="A668" s="13"/>
-      <c r="B668" s="13"/>
-      <c r="C668" s="13"/>
-    </row>
-    <row r="669" ht="21.0" customHeight="1">
-      <c r="A669" s="13"/>
-      <c r="B669" s="13"/>
-      <c r="C669" s="13"/>
-    </row>
-    <row r="670" ht="21.0" customHeight="1">
-      <c r="A670" s="13"/>
-      <c r="B670" s="13"/>
-      <c r="C670" s="13"/>
-    </row>
-    <row r="671" ht="21.0" customHeight="1">
-      <c r="A671" s="13"/>
-      <c r="B671" s="13"/>
-      <c r="C671" s="13"/>
-    </row>
-    <row r="672" ht="21.0" customHeight="1">
-      <c r="A672" s="13"/>
-      <c r="B672" s="13"/>
-      <c r="C672" s="13"/>
-    </row>
-    <row r="673" ht="21.0" customHeight="1">
-      <c r="A673" s="13"/>
-      <c r="B673" s="13"/>
-      <c r="C673" s="13"/>
-    </row>
-    <row r="674" ht="21.0" customHeight="1">
-      <c r="A674" s="13"/>
-      <c r="B674" s="13"/>
-      <c r="C674" s="13"/>
-    </row>
-    <row r="675" ht="21.0" customHeight="1">
-      <c r="A675" s="13"/>
-      <c r="B675" s="13"/>
-      <c r="C675" s="13"/>
-    </row>
-    <row r="676" ht="21.0" customHeight="1">
-      <c r="A676" s="13"/>
-      <c r="B676" s="13"/>
-      <c r="C676" s="13"/>
-    </row>
-    <row r="677" ht="21.0" customHeight="1">
-      <c r="A677" s="13"/>
-      <c r="B677" s="13"/>
-      <c r="C677" s="13"/>
-    </row>
-    <row r="678" ht="21.0" customHeight="1">
-      <c r="A678" s="13"/>
-      <c r="B678" s="13"/>
-      <c r="C678" s="13"/>
-    </row>
-    <row r="679" ht="21.0" customHeight="1">
-      <c r="A679" s="13"/>
-      <c r="B679" s="13"/>
-      <c r="C679" s="13"/>
-    </row>
-    <row r="680" ht="21.0" customHeight="1">
-      <c r="A680" s="13"/>
-      <c r="B680" s="13"/>
-      <c r="C680" s="13"/>
-    </row>
-    <row r="681" ht="21.0" customHeight="1">
-      <c r="A681" s="13"/>
-      <c r="B681" s="13"/>
-      <c r="C681" s="13"/>
-    </row>
-    <row r="682" ht="21.0" customHeight="1">
-      <c r="A682" s="13"/>
-      <c r="B682" s="13"/>
-      <c r="C682" s="13"/>
-    </row>
-    <row r="683" ht="21.0" customHeight="1">
-      <c r="A683" s="13"/>
-      <c r="B683" s="13"/>
-      <c r="C683" s="13"/>
-    </row>
-    <row r="684" ht="21.0" customHeight="1">
-      <c r="A684" s="13"/>
-      <c r="B684" s="13"/>
-      <c r="C684" s="13"/>
-    </row>
-    <row r="685" ht="21.0" customHeight="1">
-      <c r="A685" s="13"/>
-      <c r="B685" s="13"/>
-      <c r="C685" s="13"/>
-    </row>
-    <row r="686" ht="21.0" customHeight="1">
-      <c r="A686" s="13"/>
-      <c r="B686" s="13"/>
-      <c r="C686" s="13"/>
-    </row>
-    <row r="687" ht="21.0" customHeight="1">
-      <c r="A687" s="13"/>
-      <c r="B687" s="13"/>
-      <c r="C687" s="13"/>
-    </row>
-    <row r="688" ht="21.0" customHeight="1">
-      <c r="A688" s="13"/>
-      <c r="B688" s="13"/>
-      <c r="C688" s="13"/>
-    </row>
-    <row r="689" ht="21.0" customHeight="1">
-      <c r="A689" s="13"/>
-      <c r="B689" s="13"/>
-      <c r="C689" s="13"/>
-    </row>
-    <row r="690" ht="21.0" customHeight="1">
-      <c r="A690" s="13"/>
-      <c r="B690" s="13"/>
-      <c r="C690" s="13"/>
-    </row>
-    <row r="691" ht="21.0" customHeight="1">
-      <c r="A691" s="13"/>
-      <c r="B691" s="13"/>
-      <c r="C691" s="13"/>
-    </row>
-    <row r="692" ht="21.0" customHeight="1">
-      <c r="A692" s="13"/>
-      <c r="B692" s="13"/>
-      <c r="C692" s="13"/>
-    </row>
-    <row r="693" ht="21.0" customHeight="1">
-      <c r="A693" s="13"/>
-      <c r="B693" s="13"/>
-      <c r="C693" s="13"/>
-    </row>
-    <row r="694" ht="21.0" customHeight="1">
-      <c r="A694" s="13"/>
-      <c r="B694" s="13"/>
-      <c r="C694" s="13"/>
-    </row>
-    <row r="695" ht="21.0" customHeight="1">
-      <c r="A695" s="13"/>
-      <c r="B695" s="13"/>
-      <c r="C695" s="13"/>
-    </row>
-    <row r="696" ht="21.0" customHeight="1">
-      <c r="A696" s="13"/>
-      <c r="B696" s="13"/>
-      <c r="C696" s="13"/>
-    </row>
-    <row r="697" ht="21.0" customHeight="1">
-      <c r="A697" s="13"/>
-      <c r="B697" s="13"/>
-      <c r="C697" s="13"/>
-    </row>
-    <row r="698" ht="21.0" customHeight="1">
-      <c r="A698" s="13"/>
-      <c r="B698" s="13"/>
-      <c r="C698" s="13"/>
-    </row>
-    <row r="699" ht="21.0" customHeight="1">
-      <c r="A699" s="13"/>
-      <c r="B699" s="13"/>
-      <c r="C699" s="13"/>
-    </row>
-    <row r="700" ht="21.0" customHeight="1">
-      <c r="A700" s="13"/>
-      <c r="B700" s="13"/>
-      <c r="C700" s="13"/>
-    </row>
-    <row r="701" ht="21.0" customHeight="1">
-      <c r="A701" s="13"/>
-      <c r="B701" s="13"/>
-      <c r="C701" s="13"/>
-    </row>
-    <row r="702" ht="21.0" customHeight="1">
-      <c r="A702" s="13"/>
-      <c r="B702" s="13"/>
-      <c r="C702" s="13"/>
-    </row>
-    <row r="703" ht="21.0" customHeight="1">
-      <c r="A703" s="13"/>
-      <c r="B703" s="13"/>
-      <c r="C703" s="13"/>
-    </row>
-    <row r="704" ht="21.0" customHeight="1">
-      <c r="A704" s="13"/>
-      <c r="B704" s="13"/>
-      <c r="C704" s="13"/>
-    </row>
-    <row r="705" ht="21.0" customHeight="1">
-      <c r="A705" s="13"/>
-      <c r="B705" s="13"/>
-      <c r="C705" s="13"/>
-    </row>
-    <row r="706" ht="21.0" customHeight="1">
-      <c r="A706" s="13"/>
-      <c r="B706" s="13"/>
-      <c r="C706" s="13"/>
-    </row>
-    <row r="707" ht="21.0" customHeight="1">
-      <c r="A707" s="13"/>
-      <c r="B707" s="13"/>
-      <c r="C707" s="13"/>
-    </row>
-    <row r="708" ht="21.0" customHeight="1">
-      <c r="A708" s="13"/>
-      <c r="B708" s="13"/>
-      <c r="C708" s="13"/>
-    </row>
-    <row r="709" ht="21.0" customHeight="1">
-      <c r="A709" s="13"/>
-      <c r="B709" s="13"/>
-      <c r="C709" s="13"/>
-    </row>
-    <row r="710" ht="21.0" customHeight="1">
-      <c r="A710" s="13"/>
-      <c r="B710" s="13"/>
-      <c r="C710" s="13"/>
-    </row>
-    <row r="711" ht="21.0" customHeight="1">
-      <c r="A711" s="13"/>
-      <c r="B711" s="13"/>
-      <c r="C711" s="13"/>
-    </row>
-    <row r="712" ht="21.0" customHeight="1">
-      <c r="A712" s="13"/>
-      <c r="B712" s="13"/>
-      <c r="C712" s="13"/>
-    </row>
-    <row r="713" ht="21.0" customHeight="1">
-      <c r="A713" s="13"/>
-      <c r="B713" s="13"/>
-      <c r="C713" s="13"/>
-    </row>
-    <row r="714" ht="21.0" customHeight="1">
-      <c r="A714" s="13"/>
-      <c r="B714" s="13"/>
-      <c r="C714" s="13"/>
-    </row>
-    <row r="715" ht="21.0" customHeight="1">
-      <c r="A715" s="13"/>
-      <c r="B715" s="13"/>
-      <c r="C715" s="13"/>
-    </row>
-    <row r="716" ht="21.0" customHeight="1">
-      <c r="A716" s="13"/>
-      <c r="B716" s="13"/>
-      <c r="C716" s="13"/>
-    </row>
-    <row r="717" ht="21.0" customHeight="1">
-      <c r="A717" s="13"/>
-      <c r="B717" s="13"/>
-      <c r="C717" s="13"/>
-    </row>
-    <row r="718" ht="21.0" customHeight="1">
-      <c r="A718" s="13"/>
-      <c r="B718" s="13"/>
-      <c r="C718" s="13"/>
-    </row>
-    <row r="719" ht="21.0" customHeight="1">
-      <c r="A719" s="13"/>
-      <c r="B719" s="13"/>
-      <c r="C719" s="13"/>
-    </row>
-    <row r="720" ht="21.0" customHeight="1">
-      <c r="A720" s="13"/>
-      <c r="B720" s="13"/>
-      <c r="C720" s="13"/>
-    </row>
-    <row r="721" ht="21.0" customHeight="1">
-      <c r="A721" s="13"/>
-      <c r="B721" s="13"/>
-      <c r="C721" s="13"/>
-    </row>
-    <row r="722" ht="21.0" customHeight="1">
-      <c r="A722" s="13"/>
-      <c r="B722" s="13"/>
-      <c r="C722" s="13"/>
-    </row>
-    <row r="723" ht="21.0" customHeight="1">
-      <c r="A723" s="13"/>
-      <c r="B723" s="13"/>
-      <c r="C723" s="13"/>
-    </row>
-    <row r="724" ht="21.0" customHeight="1">
-      <c r="A724" s="13"/>
-      <c r="B724" s="13"/>
-      <c r="C724" s="13"/>
-    </row>
-    <row r="725" ht="21.0" customHeight="1">
-      <c r="A725" s="13"/>
-      <c r="B725" s="13"/>
-      <c r="C725" s="13"/>
-    </row>
-    <row r="726" ht="21.0" customHeight="1">
-      <c r="A726" s="13"/>
-      <c r="B726" s="13"/>
-      <c r="C726" s="13"/>
-    </row>
-    <row r="727" ht="21.0" customHeight="1">
-      <c r="A727" s="13"/>
-      <c r="B727" s="13"/>
-      <c r="C727" s="13"/>
-    </row>
-    <row r="728" ht="21.0" customHeight="1">
-      <c r="A728" s="13"/>
-      <c r="B728" s="13"/>
-      <c r="C728" s="13"/>
-    </row>
-    <row r="729" ht="21.0" customHeight="1">
-      <c r="A729" s="13"/>
-      <c r="B729" s="13"/>
-      <c r="C729" s="13"/>
-    </row>
-    <row r="730" ht="21.0" customHeight="1">
-      <c r="A730" s="13"/>
-      <c r="B730" s="13"/>
-      <c r="C730" s="13"/>
-    </row>
-    <row r="731" ht="21.0" customHeight="1">
-      <c r="A731" s="13"/>
-      <c r="B731" s="13"/>
-      <c r="C731" s="13"/>
-    </row>
-    <row r="732" ht="21.0" customHeight="1">
-      <c r="A732" s="13"/>
-      <c r="B732" s="13"/>
-      <c r="C732" s="13"/>
-    </row>
-    <row r="733" ht="21.0" customHeight="1">
-      <c r="A733" s="13"/>
-      <c r="B733" s="13"/>
-      <c r="C733" s="13"/>
-    </row>
-    <row r="734" ht="21.0" customHeight="1">
-      <c r="A734" s="13"/>
-      <c r="B734" s="13"/>
-      <c r="C734" s="13"/>
-    </row>
-    <row r="735" ht="21.0" customHeight="1">
-      <c r="A735" s="13"/>
-      <c r="B735" s="13"/>
-      <c r="C735" s="13"/>
-    </row>
-    <row r="736" ht="21.0" customHeight="1">
-      <c r="A736" s="13"/>
-      <c r="B736" s="13"/>
-      <c r="C736" s="13"/>
-    </row>
-    <row r="737" ht="21.0" customHeight="1">
-      <c r="A737" s="13"/>
-      <c r="B737" s="13"/>
-      <c r="C737" s="13"/>
-    </row>
-    <row r="738" ht="21.0" customHeight="1">
-      <c r="A738" s="13"/>
-      <c r="B738" s="13"/>
-      <c r="C738" s="13"/>
-    </row>
-    <row r="739" ht="21.0" customHeight="1">
-      <c r="A739" s="13"/>
-      <c r="B739" s="13"/>
-      <c r="C739" s="13"/>
-    </row>
-    <row r="740" ht="21.0" customHeight="1">
-      <c r="A740" s="13"/>
-      <c r="B740" s="13"/>
-      <c r="C740" s="13"/>
-    </row>
-    <row r="741" ht="21.0" customHeight="1">
-      <c r="A741" s="13"/>
-      <c r="B741" s="13"/>
-      <c r="C741" s="13"/>
-    </row>
-    <row r="742" ht="21.0" customHeight="1">
-      <c r="A742" s="13"/>
-      <c r="B742" s="13"/>
-      <c r="C742" s="13"/>
-    </row>
-    <row r="743" ht="21.0" customHeight="1">
-      <c r="A743" s="13"/>
-      <c r="B743" s="13"/>
-      <c r="C743" s="13"/>
-    </row>
-    <row r="744" ht="21.0" customHeight="1">
-      <c r="A744" s="13"/>
-      <c r="B744" s="13"/>
-      <c r="C744" s="13"/>
-    </row>
-    <row r="745" ht="21.0" customHeight="1">
-      <c r="A745" s="13"/>
-      <c r="B745" s="13"/>
-      <c r="C745" s="13"/>
-    </row>
-    <row r="746" ht="21.0" customHeight="1">
-      <c r="A746" s="13"/>
-      <c r="B746" s="13"/>
-      <c r="C746" s="13"/>
-    </row>
-    <row r="747" ht="21.0" customHeight="1">
-      <c r="A747" s="13"/>
-      <c r="B747" s="13"/>
-      <c r="C747" s="13"/>
-    </row>
-    <row r="748" ht="21.0" customHeight="1">
-      <c r="A748" s="13"/>
-      <c r="B748" s="13"/>
-      <c r="C748" s="13"/>
-    </row>
-    <row r="749" ht="21.0" customHeight="1">
-      <c r="A749" s="13"/>
-      <c r="B749" s="13"/>
-      <c r="C749" s="13"/>
-    </row>
-    <row r="750" ht="21.0" customHeight="1">
-      <c r="A750" s="13"/>
-      <c r="B750" s="13"/>
-      <c r="C750" s="13"/>
-    </row>
-    <row r="751" ht="21.0" customHeight="1">
-      <c r="A751" s="13"/>
-      <c r="B751" s="13"/>
-      <c r="C751" s="13"/>
-    </row>
-    <row r="752" ht="21.0" customHeight="1">
-      <c r="A752" s="13"/>
-      <c r="B752" s="13"/>
-      <c r="C752" s="13"/>
-    </row>
-    <row r="753" ht="21.0" customHeight="1">
-      <c r="A753" s="13"/>
-      <c r="B753" s="13"/>
-      <c r="C753" s="13"/>
-    </row>
-    <row r="754" ht="21.0" customHeight="1">
-      <c r="A754" s="13"/>
-      <c r="B754" s="13"/>
-      <c r="C754" s="13"/>
-    </row>
-    <row r="755" ht="21.0" customHeight="1">
-      <c r="A755" s="13"/>
-      <c r="B755" s="13"/>
-      <c r="C755" s="13"/>
-    </row>
-    <row r="756" ht="21.0" customHeight="1">
-      <c r="A756" s="13"/>
-      <c r="B756" s="13"/>
-      <c r="C756" s="13"/>
-    </row>
-    <row r="757" ht="21.0" customHeight="1">
-      <c r="A757" s="13"/>
-      <c r="B757" s="13"/>
-      <c r="C757" s="13"/>
-    </row>
-    <row r="758" ht="21.0" customHeight="1">
-      <c r="A758" s="13"/>
-      <c r="B758" s="13"/>
-      <c r="C758" s="13"/>
-    </row>
-    <row r="759" ht="21.0" customHeight="1">
-      <c r="A759" s="13"/>
-      <c r="B759" s="13"/>
-      <c r="C759" s="13"/>
-    </row>
-    <row r="760" ht="21.0" customHeight="1">
-      <c r="A760" s="13"/>
-      <c r="B760" s="13"/>
-      <c r="C760" s="13"/>
-    </row>
-    <row r="761" ht="21.0" customHeight="1">
-      <c r="A761" s="13"/>
-      <c r="B761" s="13"/>
-      <c r="C761" s="13"/>
-    </row>
-    <row r="762" ht="21.0" customHeight="1">
-      <c r="A762" s="13"/>
-      <c r="B762" s="13"/>
-      <c r="C762" s="13"/>
-    </row>
-    <row r="763" ht="21.0" customHeight="1">
-      <c r="A763" s="13"/>
-      <c r="B763" s="13"/>
-      <c r="C763" s="13"/>
-    </row>
-    <row r="764" ht="21.0" customHeight="1">
-      <c r="A764" s="13"/>
-      <c r="B764" s="13"/>
-      <c r="C764" s="13"/>
-    </row>
-    <row r="765" ht="21.0" customHeight="1">
-      <c r="A765" s="13"/>
-      <c r="B765" s="13"/>
-      <c r="C765" s="13"/>
-    </row>
-    <row r="766" ht="21.0" customHeight="1">
-      <c r="A766" s="13"/>
-      <c r="B766" s="13"/>
-      <c r="C766" s="13"/>
-    </row>
-    <row r="767" ht="21.0" customHeight="1">
-      <c r="A767" s="13"/>
-      <c r="B767" s="13"/>
-      <c r="C767" s="13"/>
-    </row>
-    <row r="768" ht="21.0" customHeight="1">
-      <c r="A768" s="13"/>
-      <c r="B768" s="13"/>
-      <c r="C768" s="13"/>
-    </row>
-    <row r="769" ht="21.0" customHeight="1">
-      <c r="A769" s="13"/>
-      <c r="B769" s="13"/>
-      <c r="C769" s="13"/>
-    </row>
-    <row r="770" ht="21.0" customHeight="1">
-      <c r="A770" s="13"/>
-      <c r="B770" s="13"/>
-      <c r="C770" s="13"/>
-    </row>
-    <row r="771" ht="21.0" customHeight="1">
-      <c r="A771" s="13"/>
-      <c r="B771" s="13"/>
-      <c r="C771" s="13"/>
-    </row>
-    <row r="772" ht="21.0" customHeight="1">
-      <c r="A772" s="13"/>
-      <c r="B772" s="13"/>
-      <c r="C772" s="13"/>
-    </row>
-    <row r="773" ht="21.0" customHeight="1">
-      <c r="A773" s="13"/>
-      <c r="B773" s="13"/>
-      <c r="C773" s="13"/>
-    </row>
-    <row r="774" ht="21.0" customHeight="1">
-      <c r="A774" s="13"/>
-      <c r="B774" s="13"/>
-      <c r="C774" s="13"/>
-    </row>
-    <row r="775" ht="21.0" customHeight="1">
-      <c r="A775" s="13"/>
-      <c r="B775" s="13"/>
-      <c r="C775" s="13"/>
-    </row>
-    <row r="776" ht="21.0" customHeight="1">
-      <c r="A776" s="13"/>
-      <c r="B776" s="13"/>
-      <c r="C776" s="13"/>
-    </row>
-    <row r="777" ht="21.0" customHeight="1">
-      <c r="A777" s="13"/>
-      <c r="B777" s="13"/>
-      <c r="C777" s="13"/>
-    </row>
-    <row r="778" ht="21.0" customHeight="1">
-      <c r="A778" s="13"/>
-      <c r="B778" s="13"/>
-      <c r="C778" s="13"/>
-    </row>
-    <row r="779" ht="21.0" customHeight="1">
-      <c r="A779" s="13"/>
-      <c r="B779" s="13"/>
-      <c r="C779" s="13"/>
-    </row>
-    <row r="780" ht="21.0" customHeight="1">
-      <c r="A780" s="13"/>
-      <c r="B780" s="13"/>
-      <c r="C780" s="13"/>
-    </row>
-    <row r="781" ht="21.0" customHeight="1">
-      <c r="A781" s="13"/>
-      <c r="B781" s="13"/>
-      <c r="C781" s="13"/>
-    </row>
-    <row r="782" ht="21.0" customHeight="1">
-      <c r="A782" s="13"/>
-      <c r="B782" s="13"/>
-      <c r="C782" s="13"/>
-    </row>
-    <row r="783" ht="21.0" customHeight="1">
-      <c r="A783" s="13"/>
-      <c r="B783" s="13"/>
-      <c r="C783" s="13"/>
-    </row>
-    <row r="784" ht="21.0" customHeight="1">
-      <c r="A784" s="13"/>
-      <c r="B784" s="13"/>
-      <c r="C784" s="13"/>
-    </row>
-    <row r="785" ht="21.0" customHeight="1">
-      <c r="A785" s="13"/>
-      <c r="B785" s="13"/>
-      <c r="C785" s="13"/>
-    </row>
-    <row r="786" ht="21.0" customHeight="1">
-      <c r="A786" s="13"/>
-      <c r="B786" s="13"/>
-      <c r="C786" s="13"/>
-    </row>
-    <row r="787" ht="21.0" customHeight="1">
-      <c r="A787" s="13"/>
-      <c r="B787" s="13"/>
-      <c r="C787" s="13"/>
-    </row>
-    <row r="788" ht="21.0" customHeight="1">
-      <c r="A788" s="13"/>
-      <c r="B788" s="13"/>
-      <c r="C788" s="13"/>
-    </row>
-    <row r="789" ht="21.0" customHeight="1">
-      <c r="A789" s="13"/>
-      <c r="B789" s="13"/>
-      <c r="C789" s="13"/>
-    </row>
-    <row r="790" ht="21.0" customHeight="1">
-      <c r="A790" s="13"/>
-      <c r="B790" s="13"/>
-      <c r="C790" s="13"/>
-    </row>
-    <row r="791" ht="21.0" customHeight="1">
-      <c r="A791" s="13"/>
-      <c r="B791" s="13"/>
-      <c r="C791" s="13"/>
-    </row>
-    <row r="792" ht="21.0" customHeight="1">
-      <c r="A792" s="13"/>
-      <c r="B792" s="13"/>
-      <c r="C792" s="13"/>
-    </row>
-    <row r="793" ht="21.0" customHeight="1">
-      <c r="A793" s="13"/>
-      <c r="B793" s="13"/>
-      <c r="C793" s="13"/>
-    </row>
-    <row r="794" ht="21.0" customHeight="1">
-      <c r="A794" s="13"/>
-      <c r="B794" s="13"/>
-      <c r="C794" s="13"/>
-    </row>
-    <row r="795" ht="21.0" customHeight="1">
-      <c r="A795" s="13"/>
-      <c r="B795" s="13"/>
-      <c r="C795" s="13"/>
-    </row>
-    <row r="796" ht="21.0" customHeight="1">
-      <c r="A796" s="13"/>
-      <c r="B796" s="13"/>
-      <c r="C796" s="13"/>
-    </row>
-    <row r="797" ht="21.0" customHeight="1">
-      <c r="A797" s="13"/>
-      <c r="B797" s="13"/>
-      <c r="C797" s="13"/>
-    </row>
-    <row r="798" ht="21.0" customHeight="1">
-      <c r="A798" s="13"/>
-      <c r="B798" s="13"/>
-      <c r="C798" s="13"/>
-    </row>
-    <row r="799" ht="21.0" customHeight="1">
-      <c r="A799" s="13"/>
-      <c r="B799" s="13"/>
-      <c r="C799" s="13"/>
-    </row>
-    <row r="800" ht="21.0" customHeight="1">
-      <c r="A800" s="13"/>
-      <c r="B800" s="13"/>
-      <c r="C800" s="13"/>
-    </row>
-    <row r="801" ht="21.0" customHeight="1">
-      <c r="A801" s="13"/>
-      <c r="B801" s="13"/>
-      <c r="C801" s="13"/>
-    </row>
-    <row r="802" ht="21.0" customHeight="1">
-      <c r="A802" s="13"/>
-      <c r="B802" s="13"/>
-      <c r="C802" s="13"/>
-    </row>
-    <row r="803" ht="21.0" customHeight="1">
-      <c r="A803" s="13"/>
-      <c r="B803" s="13"/>
-      <c r="C803" s="13"/>
-    </row>
-    <row r="804" ht="21.0" customHeight="1">
-      <c r="A804" s="13"/>
-      <c r="B804" s="13"/>
-      <c r="C804" s="13"/>
-    </row>
-    <row r="805" ht="21.0" customHeight="1">
-      <c r="A805" s="13"/>
-      <c r="B805" s="13"/>
-      <c r="C805" s="13"/>
-    </row>
-    <row r="806" ht="21.0" customHeight="1">
-      <c r="A806" s="13"/>
-      <c r="B806" s="13"/>
-      <c r="C806" s="13"/>
-    </row>
-    <row r="807" ht="21.0" customHeight="1">
-      <c r="A807" s="13"/>
-      <c r="B807" s="13"/>
-      <c r="C807" s="13"/>
-    </row>
-    <row r="808" ht="21.0" customHeight="1">
-      <c r="A808" s="13"/>
-      <c r="B808" s="13"/>
-      <c r="C808" s="13"/>
-    </row>
-    <row r="809" ht="21.0" customHeight="1">
-      <c r="A809" s="13"/>
-      <c r="B809" s="13"/>
-      <c r="C809" s="13"/>
-    </row>
-    <row r="810" ht="21.0" customHeight="1">
-      <c r="A810" s="13"/>
-      <c r="B810" s="13"/>
-      <c r="C810" s="13"/>
-    </row>
-    <row r="811" ht="21.0" customHeight="1">
-      <c r="A811" s="13"/>
-      <c r="B811" s="13"/>
-      <c r="C811" s="13"/>
-    </row>
-    <row r="812" ht="21.0" customHeight="1">
-      <c r="A812" s="13"/>
-      <c r="B812" s="13"/>
-      <c r="C812" s="13"/>
-    </row>
-    <row r="813" ht="21.0" customHeight="1">
-      <c r="A813" s="13"/>
-      <c r="B813" s="13"/>
-      <c r="C813" s="13"/>
-    </row>
-    <row r="814" ht="21.0" customHeight="1">
-      <c r="A814" s="13"/>
-      <c r="B814" s="13"/>
-      <c r="C814" s="13"/>
-    </row>
-    <row r="815" ht="21.0" customHeight="1">
-      <c r="A815" s="13"/>
-      <c r="B815" s="13"/>
-      <c r="C815" s="13"/>
-    </row>
-    <row r="816" ht="21.0" customHeight="1">
-      <c r="A816" s="13"/>
-      <c r="B816" s="13"/>
-      <c r="C816" s="13"/>
-    </row>
-    <row r="817" ht="21.0" customHeight="1">
-      <c r="A817" s="13"/>
-      <c r="B817" s="13"/>
-      <c r="C817" s="13"/>
-    </row>
-    <row r="818" ht="21.0" customHeight="1">
-      <c r="A818" s="13"/>
-      <c r="B818" s="13"/>
-      <c r="C818" s="13"/>
-    </row>
-    <row r="819" ht="21.0" customHeight="1">
-      <c r="A819" s="13"/>
-      <c r="B819" s="13"/>
-      <c r="C819" s="13"/>
-    </row>
-    <row r="820" ht="21.0" customHeight="1">
-      <c r="A820" s="13"/>
-      <c r="B820" s="13"/>
-      <c r="C820" s="13"/>
-    </row>
-    <row r="821" ht="21.0" customHeight="1">
-      <c r="A821" s="13"/>
-      <c r="B821" s="13"/>
-      <c r="C821" s="13"/>
-    </row>
-    <row r="822" ht="21.0" customHeight="1">
-      <c r="A822" s="13"/>
-      <c r="B822" s="13"/>
-      <c r="C822" s="13"/>
-    </row>
-    <row r="823" ht="21.0" customHeight="1">
-      <c r="A823" s="13"/>
-      <c r="B823" s="13"/>
-      <c r="C823" s="13"/>
-    </row>
-    <row r="824" ht="21.0" customHeight="1">
-      <c r="A824" s="13"/>
-      <c r="B824" s="13"/>
-      <c r="C824" s="13"/>
-    </row>
-    <row r="825" ht="21.0" customHeight="1">
-      <c r="A825" s="13"/>
-      <c r="B825" s="13"/>
-      <c r="C825" s="13"/>
-    </row>
-    <row r="826" ht="21.0" customHeight="1">
-      <c r="A826" s="13"/>
-      <c r="B826" s="13"/>
-      <c r="C826" s="13"/>
-    </row>
-    <row r="827" ht="21.0" customHeight="1">
-      <c r="A827" s="13"/>
-      <c r="B827" s="13"/>
-      <c r="C827" s="13"/>
-    </row>
-    <row r="828" ht="21.0" customHeight="1">
-      <c r="A828" s="13"/>
-      <c r="B828" s="13"/>
-      <c r="C828" s="13"/>
-    </row>
-    <row r="829" ht="21.0" customHeight="1">
-      <c r="A829" s="13"/>
-      <c r="B829" s="13"/>
-      <c r="C829" s="13"/>
-    </row>
-    <row r="830" ht="21.0" customHeight="1">
-      <c r="A830" s="13"/>
-      <c r="B830" s="13"/>
-      <c r="C830" s="13"/>
-    </row>
-    <row r="831" ht="21.0" customHeight="1">
-      <c r="A831" s="13"/>
-      <c r="B831" s="13"/>
-      <c r="C831" s="13"/>
-    </row>
-    <row r="832" ht="21.0" customHeight="1">
-      <c r="A832" s="13"/>
-      <c r="B832" s="13"/>
-      <c r="C832" s="13"/>
-    </row>
-    <row r="833" ht="21.0" customHeight="1">
-      <c r="A833" s="13"/>
-      <c r="B833" s="13"/>
-      <c r="C833" s="13"/>
-    </row>
-    <row r="834" ht="21.0" customHeight="1">
-      <c r="A834" s="13"/>
-      <c r="B834" s="13"/>
-      <c r="C834" s="13"/>
-    </row>
-    <row r="835" ht="21.0" customHeight="1">
-      <c r="A835" s="13"/>
-      <c r="B835" s="13"/>
-      <c r="C835" s="13"/>
-    </row>
-    <row r="836" ht="21.0" customHeight="1">
-      <c r="A836" s="13"/>
-      <c r="B836" s="13"/>
-      <c r="C836" s="13"/>
-    </row>
-    <row r="837" ht="21.0" customHeight="1">
-      <c r="A837" s="13"/>
-      <c r="B837" s="13"/>
-      <c r="C837" s="13"/>
-    </row>
-    <row r="838" ht="21.0" customHeight="1">
-      <c r="A838" s="13"/>
-      <c r="B838" s="13"/>
-      <c r="C838" s="13"/>
-    </row>
-    <row r="839" ht="21.0" customHeight="1">
-      <c r="A839" s="13"/>
-      <c r="B839" s="13"/>
-      <c r="C839" s="13"/>
-    </row>
-    <row r="840" ht="21.0" customHeight="1">
-      <c r="A840" s="13"/>
-      <c r="B840" s="13"/>
-      <c r="C840" s="13"/>
-    </row>
-    <row r="841" ht="21.0" customHeight="1">
-      <c r="A841" s="13"/>
-      <c r="B841" s="13"/>
-      <c r="C841" s="13"/>
-    </row>
-    <row r="842" ht="21.0" customHeight="1">
-      <c r="A842" s="13"/>
-      <c r="B842" s="13"/>
-      <c r="C842" s="13"/>
-    </row>
-    <row r="843" ht="21.0" customHeight="1">
-      <c r="A843" s="13"/>
-      <c r="B843" s="13"/>
-      <c r="C843" s="13"/>
-    </row>
-    <row r="844" ht="21.0" customHeight="1">
-      <c r="A844" s="13"/>
-      <c r="B844" s="13"/>
-      <c r="C844" s="13"/>
-    </row>
-    <row r="845" ht="21.0" customHeight="1">
-      <c r="A845" s="13"/>
-      <c r="B845" s="13"/>
-      <c r="C845" s="13"/>
-    </row>
-    <row r="846" ht="21.0" customHeight="1">
-      <c r="A846" s="13"/>
-      <c r="B846" s="13"/>
-      <c r="C846" s="13"/>
-    </row>
-    <row r="847" ht="21.0" customHeight="1">
-      <c r="A847" s="13"/>
-      <c r="B847" s="13"/>
-      <c r="C847" s="13"/>
-    </row>
-    <row r="848" ht="21.0" customHeight="1">
-      <c r="A848" s="13"/>
-      <c r="B848" s="13"/>
-      <c r="C848" s="13"/>
-    </row>
-    <row r="849" ht="21.0" customHeight="1">
-      <c r="A849" s="13"/>
-      <c r="B849" s="13"/>
-      <c r="C849" s="13"/>
-    </row>
-    <row r="850" ht="21.0" customHeight="1">
-      <c r="A850" s="13"/>
-      <c r="B850" s="13"/>
-      <c r="C850" s="13"/>
-    </row>
-    <row r="851" ht="21.0" customHeight="1">
-      <c r="A851" s="13"/>
-      <c r="B851" s="13"/>
-      <c r="C851" s="13"/>
-    </row>
-    <row r="852" ht="21.0" customHeight="1">
-      <c r="A852" s="13"/>
-      <c r="B852" s="13"/>
-      <c r="C852" s="13"/>
-    </row>
-    <row r="853" ht="21.0" customHeight="1">
-      <c r="A853" s="13"/>
-      <c r="B853" s="13"/>
-      <c r="C853" s="13"/>
-    </row>
-    <row r="854" ht="21.0" customHeight="1">
-      <c r="A854" s="13"/>
-      <c r="B854" s="13"/>
-      <c r="C854" s="13"/>
-    </row>
-    <row r="855" ht="21.0" customHeight="1">
-      <c r="A855" s="13"/>
-      <c r="B855" s="13"/>
-      <c r="C855" s="13"/>
-    </row>
-    <row r="856" ht="21.0" customHeight="1">
-      <c r="A856" s="13"/>
-      <c r="B856" s="13"/>
-      <c r="C856" s="13"/>
-    </row>
-    <row r="857" ht="21.0" customHeight="1">
-      <c r="A857" s="13"/>
-      <c r="B857" s="13"/>
-      <c r="C857" s="13"/>
-    </row>
-    <row r="858" ht="21.0" customHeight="1">
-      <c r="A858" s="13"/>
-      <c r="B858" s="13"/>
-      <c r="C858" s="13"/>
-    </row>
-    <row r="859" ht="21.0" customHeight="1">
-      <c r="A859" s="13"/>
-      <c r="B859" s="13"/>
-      <c r="C859" s="13"/>
-    </row>
-    <row r="860" ht="21.0" customHeight="1">
-      <c r="A860" s="13"/>
-      <c r="B860" s="13"/>
-      <c r="C860" s="13"/>
-    </row>
-    <row r="861" ht="21.0" customHeight="1">
-      <c r="A861" s="13"/>
-      <c r="B861" s="13"/>
-      <c r="C861" s="13"/>
-    </row>
-    <row r="862" ht="21.0" customHeight="1">
-      <c r="A862" s="13"/>
-      <c r="B862" s="13"/>
-      <c r="C862" s="13"/>
-    </row>
-    <row r="863" ht="21.0" customHeight="1">
-      <c r="A863" s="13"/>
-      <c r="B863" s="13"/>
-      <c r="C863" s="13"/>
-    </row>
-    <row r="864" ht="21.0" customHeight="1">
-      <c r="A864" s="13"/>
-      <c r="B864" s="13"/>
-      <c r="C864" s="13"/>
-    </row>
-    <row r="865" ht="21.0" customHeight="1">
-      <c r="A865" s="13"/>
-      <c r="B865" s="13"/>
-      <c r="C865" s="13"/>
-    </row>
-    <row r="866" ht="21.0" customHeight="1">
-      <c r="A866" s="13"/>
-      <c r="B866" s="13"/>
-      <c r="C866" s="13"/>
-    </row>
-    <row r="867" ht="21.0" customHeight="1">
-      <c r="A867" s="13"/>
-      <c r="B867" s="13"/>
-      <c r="C867" s="13"/>
-    </row>
-    <row r="868" ht="21.0" customHeight="1">
-      <c r="A868" s="13"/>
-      <c r="B868" s="13"/>
-      <c r="C868" s="13"/>
-    </row>
-    <row r="869" ht="21.0" customHeight="1">
-      <c r="A869" s="13"/>
-      <c r="B869" s="13"/>
-      <c r="C869" s="13"/>
-    </row>
-    <row r="870" ht="21.0" customHeight="1">
-      <c r="A870" s="13"/>
-      <c r="B870" s="13"/>
-      <c r="C870" s="13"/>
-    </row>
-    <row r="871" ht="21.0" customHeight="1">
-      <c r="A871" s="13"/>
-      <c r="B871" s="13"/>
-      <c r="C871" s="13"/>
-    </row>
-    <row r="872" ht="21.0" customHeight="1">
-      <c r="A872" s="13"/>
-      <c r="B872" s="13"/>
-      <c r="C872" s="13"/>
-    </row>
-    <row r="873" ht="21.0" customHeight="1">
-      <c r="A873" s="13"/>
-      <c r="B873" s="13"/>
-      <c r="C873" s="13"/>
-    </row>
-    <row r="874" ht="21.0" customHeight="1">
-      <c r="A874" s="13"/>
-      <c r="B874" s="13"/>
-      <c r="C874" s="13"/>
-    </row>
-    <row r="875" ht="21.0" customHeight="1">
-      <c r="A875" s="13"/>
-      <c r="B875" s="13"/>
-      <c r="C875" s="13"/>
-    </row>
-    <row r="876" ht="21.0" customHeight="1">
-      <c r="A876" s="13"/>
-      <c r="B876" s="13"/>
-      <c r="C876" s="13"/>
-    </row>
-    <row r="877" ht="21.0" customHeight="1">
-      <c r="A877" s="13"/>
-      <c r="B877" s="13"/>
-      <c r="C877" s="13"/>
-    </row>
-    <row r="878" ht="21.0" customHeight="1">
-      <c r="A878" s="13"/>
-      <c r="B878" s="13"/>
-      <c r="C878" s="13"/>
-    </row>
-    <row r="879" ht="21.0" customHeight="1">
-      <c r="A879" s="13"/>
-      <c r="B879" s="13"/>
-      <c r="C879" s="13"/>
-    </row>
-    <row r="880" ht="21.0" customHeight="1">
-      <c r="A880" s="13"/>
-      <c r="B880" s="13"/>
-      <c r="C880" s="13"/>
-    </row>
-    <row r="881" ht="21.0" customHeight="1">
-      <c r="A881" s="13"/>
-      <c r="B881" s="13"/>
-      <c r="C881" s="13"/>
-    </row>
-    <row r="882" ht="21.0" customHeight="1">
-      <c r="A882" s="13"/>
-      <c r="B882" s="13"/>
-      <c r="C882" s="13"/>
-    </row>
-    <row r="883" ht="21.0" customHeight="1">
-      <c r="A883" s="13"/>
-      <c r="B883" s="13"/>
-      <c r="C883" s="13"/>
-    </row>
-    <row r="884" ht="21.0" customHeight="1">
-      <c r="A884" s="13"/>
-      <c r="B884" s="13"/>
-      <c r="C884" s="13"/>
-    </row>
-    <row r="885" ht="21.0" customHeight="1">
-      <c r="A885" s="13"/>
-      <c r="B885" s="13"/>
-      <c r="C885" s="13"/>
-    </row>
-    <row r="886" ht="21.0" customHeight="1">
-      <c r="A886" s="13"/>
-      <c r="B886" s="13"/>
-      <c r="C886" s="13"/>
-    </row>
-    <row r="887" ht="21.0" customHeight="1">
-      <c r="A887" s="13"/>
-      <c r="B887" s="13"/>
-      <c r="C887" s="13"/>
-    </row>
-    <row r="888" ht="21.0" customHeight="1">
-      <c r="A888" s="13"/>
-      <c r="B888" s="13"/>
-      <c r="C888" s="13"/>
-    </row>
-    <row r="889" ht="21.0" customHeight="1">
-      <c r="A889" s="13"/>
-      <c r="B889" s="13"/>
-      <c r="C889" s="13"/>
-    </row>
-    <row r="890" ht="21.0" customHeight="1">
-      <c r="A890" s="13"/>
-      <c r="B890" s="13"/>
-      <c r="C890" s="13"/>
-    </row>
-    <row r="891" ht="21.0" customHeight="1">
-      <c r="A891" s="13"/>
-      <c r="B891" s="13"/>
-      <c r="C891" s="13"/>
-    </row>
-    <row r="892" ht="21.0" customHeight="1">
-      <c r="A892" s="13"/>
-      <c r="B892" s="13"/>
-      <c r="C892" s="13"/>
-    </row>
-    <row r="893" ht="21.0" customHeight="1">
-      <c r="A893" s="13"/>
-      <c r="B893" s="13"/>
-      <c r="C893" s="13"/>
-    </row>
-    <row r="894" ht="21.0" customHeight="1">
-      <c r="A894" s="13"/>
-      <c r="B894" s="13"/>
-      <c r="C894" s="13"/>
-    </row>
-    <row r="895" ht="21.0" customHeight="1">
-      <c r="A895" s="13"/>
-      <c r="B895" s="13"/>
-      <c r="C895" s="13"/>
-    </row>
-    <row r="896" ht="21.0" customHeight="1">
-      <c r="A896" s="13"/>
-      <c r="B896" s="13"/>
-      <c r="C896" s="13"/>
-    </row>
-    <row r="897" ht="21.0" customHeight="1">
-      <c r="A897" s="13"/>
-      <c r="B897" s="13"/>
-      <c r="C897" s="13"/>
-    </row>
-    <row r="898" ht="21.0" customHeight="1">
-      <c r="A898" s="13"/>
-      <c r="B898" s="13"/>
-      <c r="C898" s="13"/>
-    </row>
-    <row r="899" ht="21.0" customHeight="1">
-      <c r="A899" s="13"/>
-      <c r="B899" s="13"/>
-      <c r="C899" s="13"/>
-    </row>
-    <row r="900" ht="21.0" customHeight="1">
-      <c r="A900" s="13"/>
-      <c r="B900" s="13"/>
-      <c r="C900" s="13"/>
-    </row>
-    <row r="901" ht="21.0" customHeight="1">
-      <c r="A901" s="13"/>
-      <c r="B901" s="13"/>
-      <c r="C901" s="13"/>
-    </row>
-    <row r="902" ht="21.0" customHeight="1">
-      <c r="A902" s="13"/>
-      <c r="B902" s="13"/>
-      <c r="C902" s="13"/>
-    </row>
-    <row r="903" ht="21.0" customHeight="1">
-      <c r="A903" s="13"/>
-      <c r="B903" s="13"/>
-      <c r="C903" s="13"/>
-    </row>
-    <row r="904" ht="21.0" customHeight="1">
-      <c r="A904" s="13"/>
-      <c r="B904" s="13"/>
-      <c r="C904" s="13"/>
-    </row>
-    <row r="905" ht="21.0" customHeight="1">
-      <c r="A905" s="13"/>
-      <c r="B905" s="13"/>
-      <c r="C905" s="13"/>
-    </row>
-    <row r="906" ht="21.0" customHeight="1">
-      <c r="A906" s="13"/>
-      <c r="B906" s="13"/>
-      <c r="C906" s="13"/>
-    </row>
-    <row r="907" ht="21.0" customHeight="1">
-      <c r="A907" s="13"/>
-      <c r="B907" s="13"/>
-      <c r="C907" s="13"/>
-    </row>
-    <row r="908" ht="21.0" customHeight="1">
-      <c r="A908" s="13"/>
-      <c r="B908" s="13"/>
-      <c r="C908" s="13"/>
-    </row>
-    <row r="909" ht="21.0" customHeight="1">
-      <c r="A909" s="13"/>
-      <c r="B909" s="13"/>
-      <c r="C909" s="13"/>
-    </row>
-    <row r="910" ht="21.0" customHeight="1">
-      <c r="A910" s="13"/>
-      <c r="B910" s="13"/>
-      <c r="C910" s="13"/>
-    </row>
-    <row r="911" ht="21.0" customHeight="1">
-      <c r="A911" s="13"/>
-      <c r="B911" s="13"/>
-      <c r="C911" s="13"/>
-    </row>
-    <row r="912" ht="21.0" customHeight="1">
-      <c r="A912" s="13"/>
-      <c r="B912" s="13"/>
-      <c r="C912" s="13"/>
-    </row>
-    <row r="913" ht="21.0" customHeight="1">
-      <c r="A913" s="13"/>
-      <c r="B913" s="13"/>
-      <c r="C913" s="13"/>
-    </row>
-    <row r="914" ht="21.0" customHeight="1">
-      <c r="A914" s="13"/>
-      <c r="B914" s="13"/>
-      <c r="C914" s="13"/>
-    </row>
-    <row r="915" ht="21.0" customHeight="1">
-      <c r="A915" s="13"/>
-      <c r="B915" s="13"/>
-      <c r="C915" s="13"/>
-    </row>
-    <row r="916" ht="21.0" customHeight="1">
-      <c r="A916" s="13"/>
-      <c r="B916" s="13"/>
-      <c r="C916" s="13"/>
-    </row>
-    <row r="917" ht="21.0" customHeight="1">
-      <c r="A917" s="13"/>
-      <c r="B917" s="13"/>
-      <c r="C917" s="13"/>
-    </row>
-    <row r="918" ht="21.0" customHeight="1">
-      <c r="A918" s="13"/>
-      <c r="B918" s="13"/>
-      <c r="C918" s="13"/>
-    </row>
-    <row r="919" ht="21.0" customHeight="1">
-      <c r="A919" s="13"/>
-      <c r="B919" s="13"/>
-      <c r="C919" s="13"/>
-    </row>
-    <row r="920" ht="21.0" customHeight="1">
-      <c r="A920" s="13"/>
-      <c r="B920" s="13"/>
-      <c r="C920" s="13"/>
-    </row>
-    <row r="921" ht="21.0" customHeight="1">
-      <c r="A921" s="13"/>
-      <c r="B921" s="13"/>
-      <c r="C921" s="13"/>
-    </row>
-    <row r="922" ht="21.0" customHeight="1">
-      <c r="A922" s="13"/>
-      <c r="B922" s="13"/>
-      <c r="C922" s="13"/>
-    </row>
-    <row r="923" ht="21.0" customHeight="1">
-      <c r="A923" s="13"/>
-      <c r="B923" s="13"/>
-      <c r="C923" s="13"/>
-    </row>
-    <row r="924" ht="21.0" customHeight="1">
-      <c r="A924" s="13"/>
-      <c r="B924" s="13"/>
-      <c r="C924" s="13"/>
-    </row>
-    <row r="925" ht="21.0" customHeight="1">
-      <c r="A925" s="13"/>
-      <c r="B925" s="13"/>
-      <c r="C925" s="13"/>
-    </row>
-    <row r="926" ht="21.0" customHeight="1">
-      <c r="A926" s="13"/>
-      <c r="B926" s="13"/>
-      <c r="C926" s="13"/>
-    </row>
-    <row r="927" ht="21.0" customHeight="1">
-      <c r="A927" s="13"/>
-      <c r="B927" s="13"/>
-      <c r="C927" s="13"/>
-    </row>
-    <row r="928" ht="21.0" customHeight="1">
-      <c r="A928" s="13"/>
-      <c r="B928" s="13"/>
-      <c r="C928" s="13"/>
-    </row>
-    <row r="929" ht="21.0" customHeight="1">
-      <c r="A929" s="13"/>
-      <c r="B929" s="13"/>
-      <c r="C929" s="13"/>
-    </row>
-    <row r="930" ht="21.0" customHeight="1">
-      <c r="A930" s="13"/>
-      <c r="B930" s="13"/>
-      <c r="C930" s="13"/>
-    </row>
-    <row r="931" ht="21.0" customHeight="1">
-      <c r="A931" s="13"/>
-      <c r="B931" s="13"/>
-      <c r="C931" s="13"/>
-    </row>
-    <row r="932" ht="21.0" customHeight="1">
-      <c r="A932" s="13"/>
-      <c r="B932" s="13"/>
-      <c r="C932" s="13"/>
-    </row>
-    <row r="933" ht="21.0" customHeight="1">
-      <c r="A933" s="13"/>
-      <c r="B933" s="13"/>
-      <c r="C933" s="13"/>
-    </row>
-    <row r="934" ht="21.0" customHeight="1">
-      <c r="A934" s="13"/>
-      <c r="B934" s="13"/>
-      <c r="C934" s="13"/>
-    </row>
-    <row r="935" ht="21.0" customHeight="1">
-      <c r="A935" s="13"/>
-      <c r="B935" s="13"/>
-      <c r="C935" s="13"/>
-    </row>
-    <row r="936" ht="21.0" customHeight="1">
-      <c r="A936" s="13"/>
-      <c r="B936" s="13"/>
-      <c r="C936" s="13"/>
-    </row>
-    <row r="937" ht="21.0" customHeight="1">
-      <c r="A937" s="13"/>
-      <c r="B937" s="13"/>
-      <c r="C937" s="13"/>
-    </row>
-    <row r="938" ht="21.0" customHeight="1">
-      <c r="A938" s="13"/>
-      <c r="B938" s="13"/>
-      <c r="C938" s="13"/>
-    </row>
-    <row r="939" ht="21.0" customHeight="1">
-      <c r="A939" s="13"/>
-      <c r="B939" s="13"/>
-      <c r="C939" s="13"/>
-    </row>
-    <row r="940" ht="21.0" customHeight="1">
-      <c r="A940" s="13"/>
-      <c r="B940" s="13"/>
-      <c r="C940" s="13"/>
-    </row>
-    <row r="941" ht="21.0" customHeight="1">
-      <c r="A941" s="13"/>
-      <c r="B941" s="13"/>
-      <c r="C941" s="13"/>
-    </row>
-    <row r="942" ht="21.0" customHeight="1">
-      <c r="A942" s="13"/>
-      <c r="B942" s="13"/>
-      <c r="C942" s="13"/>
-    </row>
-    <row r="943" ht="21.0" customHeight="1">
-      <c r="A943" s="13"/>
-      <c r="B943" s="13"/>
-      <c r="C943" s="13"/>
-    </row>
-    <row r="944" ht="21.0" customHeight="1">
-      <c r="A944" s="13"/>
-      <c r="B944" s="13"/>
-      <c r="C944" s="13"/>
-    </row>
-    <row r="945" ht="21.0" customHeight="1">
-      <c r="A945" s="13"/>
-      <c r="B945" s="13"/>
-      <c r="C945" s="13"/>
-    </row>
-    <row r="946" ht="21.0" customHeight="1">
-      <c r="A946" s="13"/>
-      <c r="B946" s="13"/>
-      <c r="C946" s="13"/>
-    </row>
-    <row r="947" ht="21.0" customHeight="1">
-      <c r="A947" s="13"/>
-      <c r="B947" s="13"/>
-      <c r="C947" s="13"/>
-    </row>
-    <row r="948" ht="21.0" customHeight="1">
-      <c r="A948" s="13"/>
-      <c r="B948" s="13"/>
-      <c r="C948" s="13"/>
-    </row>
-    <row r="949" ht="21.0" customHeight="1">
-      <c r="A949" s="13"/>
-      <c r="B949" s="13"/>
-      <c r="C949" s="13"/>
-    </row>
-    <row r="950" ht="21.0" customHeight="1">
-      <c r="A950" s="13"/>
-      <c r="B950" s="13"/>
-      <c r="C950" s="13"/>
-    </row>
-    <row r="951" ht="21.0" customHeight="1">
-      <c r="A951" s="13"/>
-      <c r="B951" s="13"/>
-      <c r="C951" s="13"/>
-    </row>
-    <row r="952" ht="21.0" customHeight="1">
-      <c r="A952" s="13"/>
-      <c r="B952" s="13"/>
-      <c r="C952" s="13"/>
-    </row>
-    <row r="953" ht="21.0" customHeight="1">
-      <c r="A953" s="13"/>
-      <c r="B953" s="13"/>
-      <c r="C953" s="13"/>
-    </row>
-    <row r="954" ht="21.0" customHeight="1">
-      <c r="A954" s="13"/>
-      <c r="B954" s="13"/>
-      <c r="C954" s="13"/>
-    </row>
-    <row r="955" ht="21.0" customHeight="1">
-      <c r="A955" s="13"/>
-      <c r="B955" s="13"/>
-      <c r="C955" s="13"/>
-    </row>
-    <row r="956" ht="21.0" customHeight="1">
-      <c r="A956" s="13"/>
-      <c r="B956" s="13"/>
-      <c r="C956" s="13"/>
-    </row>
-    <row r="957" ht="21.0" customHeight="1">
-      <c r="A957" s="13"/>
-      <c r="B957" s="13"/>
-      <c r="C957" s="13"/>
-    </row>
-    <row r="958" ht="21.0" customHeight="1">
-      <c r="A958" s="13"/>
-      <c r="B958" s="13"/>
-      <c r="C958" s="13"/>
-    </row>
-    <row r="959" ht="21.0" customHeight="1">
-      <c r="A959" s="13"/>
-      <c r="B959" s="13"/>
-      <c r="C959" s="13"/>
-    </row>
-    <row r="960" ht="21.0" customHeight="1">
-      <c r="A960" s="13"/>
-      <c r="B960" s="13"/>
-      <c r="C960" s="13"/>
-    </row>
-    <row r="961" ht="21.0" customHeight="1">
-      <c r="A961" s="13"/>
-      <c r="B961" s="13"/>
-      <c r="C961" s="13"/>
-    </row>
-    <row r="962" ht="21.0" customHeight="1">
-      <c r="A962" s="13"/>
-      <c r="B962" s="13"/>
-      <c r="C962" s="13"/>
-    </row>
-    <row r="963" ht="21.0" customHeight="1">
-      <c r="A963" s="13"/>
-      <c r="B963" s="13"/>
-      <c r="C963" s="13"/>
-    </row>
-    <row r="964" ht="21.0" customHeight="1">
-      <c r="A964" s="13"/>
-      <c r="B964" s="13"/>
-      <c r="C964" s="13"/>
-    </row>
-    <row r="965" ht="21.0" customHeight="1">
-      <c r="A965" s="13"/>
-      <c r="B965" s="13"/>
-      <c r="C965" s="13"/>
-    </row>
-    <row r="966" ht="21.0" customHeight="1">
-      <c r="A966" s="13"/>
-      <c r="B966" s="13"/>
-      <c r="C966" s="13"/>
-    </row>
-    <row r="967" ht="21.0" customHeight="1">
-      <c r="A967" s="13"/>
-      <c r="B967" s="13"/>
-      <c r="C967" s="13"/>
-    </row>
-    <row r="968" ht="21.0" customHeight="1">
-      <c r="A968" s="13"/>
-      <c r="B968" s="13"/>
-      <c r="C968" s="13"/>
-    </row>
-    <row r="969" ht="21.0" customHeight="1">
-      <c r="A969" s="13"/>
-      <c r="B969" s="13"/>
-      <c r="C969" s="13"/>
-    </row>
-    <row r="970" ht="21.0" customHeight="1">
-      <c r="A970" s="13"/>
-      <c r="B970" s="13"/>
-      <c r="C970" s="13"/>
-    </row>
-    <row r="971" ht="21.0" customHeight="1">
-      <c r="A971" s="13"/>
-      <c r="B971" s="13"/>
-      <c r="C971" s="13"/>
-    </row>
-    <row r="972" ht="21.0" customHeight="1">
-      <c r="A972" s="13"/>
-      <c r="B972" s="13"/>
-      <c r="C972" s="13"/>
-    </row>
-    <row r="973" ht="21.0" customHeight="1">
-      <c r="A973" s="13"/>
-      <c r="B973" s="13"/>
-      <c r="C973" s="13"/>
-    </row>
-    <row r="974" ht="21.0" customHeight="1">
-      <c r="A974" s="13"/>
-      <c r="B974" s="13"/>
-      <c r="C974" s="13"/>
-    </row>
-    <row r="975" ht="21.0" customHeight="1">
-      <c r="A975" s="13"/>
-      <c r="B975" s="13"/>
-      <c r="C975" s="13"/>
-    </row>
-    <row r="976" ht="21.0" customHeight="1">
-      <c r="A976" s="13"/>
-      <c r="B976" s="13"/>
-      <c r="C976" s="13"/>
-    </row>
-    <row r="977" ht="21.0" customHeight="1">
-      <c r="A977" s="13"/>
-      <c r="B977" s="13"/>
-      <c r="C977" s="13"/>
-    </row>
-    <row r="978" ht="21.0" customHeight="1">
-      <c r="A978" s="13"/>
-      <c r="B978" s="13"/>
-      <c r="C978" s="13"/>
-    </row>
-    <row r="979" ht="21.0" customHeight="1">
-      <c r="A979" s="13"/>
-      <c r="B979" s="13"/>
-      <c r="C979" s="13"/>
-    </row>
-    <row r="980" ht="21.0" customHeight="1">
-      <c r="A980" s="13"/>
-      <c r="B980" s="13"/>
-      <c r="C980" s="13"/>
-    </row>
-    <row r="981" ht="21.0" customHeight="1">
-      <c r="A981" s="13"/>
-      <c r="B981" s="13"/>
-      <c r="C981" s="13"/>
-    </row>
-    <row r="982" ht="21.0" customHeight="1">
-      <c r="A982" s="13"/>
-      <c r="B982" s="13"/>
-      <c r="C982" s="13"/>
-    </row>
-    <row r="983" ht="21.0" customHeight="1">
-      <c r="A983" s="13"/>
-      <c r="B983" s="13"/>
-      <c r="C983" s="13"/>
-    </row>
-    <row r="984" ht="21.0" customHeight="1">
-      <c r="A984" s="13"/>
-      <c r="B984" s="13"/>
-      <c r="C984" s="13"/>
-    </row>
-    <row r="985" ht="21.0" customHeight="1">
-      <c r="A985" s="13"/>
-      <c r="B985" s="13"/>
-      <c r="C985" s="13"/>
-    </row>
-    <row r="986" ht="21.0" customHeight="1">
-      <c r="A986" s="13"/>
-      <c r="B986" s="13"/>
-      <c r="C986" s="13"/>
-    </row>
-    <row r="987" ht="21.0" customHeight="1">
-      <c r="A987" s="13"/>
-      <c r="B987" s="13"/>
-      <c r="C987" s="13"/>
-    </row>
-    <row r="988" ht="21.0" customHeight="1">
-      <c r="A988" s="13"/>
-      <c r="B988" s="13"/>
-      <c r="C988" s="13"/>
-    </row>
-    <row r="989" ht="21.0" customHeight="1">
-      <c r="A989" s="13"/>
-      <c r="B989" s="13"/>
-      <c r="C989" s="13"/>
-    </row>
-    <row r="990" ht="21.0" customHeight="1">
-      <c r="A990" s="13"/>
-      <c r="B990" s="13"/>
-      <c r="C990" s="13"/>
-    </row>
-    <row r="991" ht="21.0" customHeight="1">
-      <c r="A991" s="13"/>
-      <c r="B991" s="13"/>
-      <c r="C991" s="13"/>
-    </row>
-    <row r="992" ht="21.0" customHeight="1">
-      <c r="A992" s="13"/>
-      <c r="B992" s="13"/>
-      <c r="C992" s="13"/>
-    </row>
-    <row r="993" ht="21.0" customHeight="1">
-      <c r="A993" s="13"/>
-      <c r="B993" s="13"/>
-      <c r="C993" s="13"/>
-    </row>
-    <row r="994" ht="21.0" customHeight="1">
-      <c r="A994" s="13"/>
-      <c r="B994" s="13"/>
-      <c r="C994" s="13"/>
-    </row>
-    <row r="995" ht="21.0" customHeight="1">
-      <c r="A995" s="13"/>
-      <c r="B995" s="13"/>
-      <c r="C995" s="13"/>
-    </row>
-    <row r="996" ht="21.0" customHeight="1">
-      <c r="A996" s="13"/>
-      <c r="B996" s="13"/>
-      <c r="C996" s="13"/>
-    </row>
-    <row r="997" ht="21.0" customHeight="1">
-      <c r="A997" s="13"/>
-      <c r="B997" s="13"/>
-      <c r="C997" s="13"/>
-    </row>
-    <row r="998" ht="21.0" customHeight="1">
-      <c r="A998" s="13"/>
-      <c r="B998" s="13"/>
-      <c r="C998" s="13"/>
-    </row>
-    <row r="999" ht="21.0" customHeight="1">
-      <c r="A999" s="13"/>
-      <c r="B999" s="13"/>
-      <c r="C999" s="13"/>
-    </row>
-    <row r="1000" ht="21.0" customHeight="1">
-      <c r="A1000" s="13"/>
-      <c r="B1000" s="13"/>
-      <c r="C1000" s="13"/>
-    </row>
-    <row r="1001" ht="21.0" customHeight="1">
-      <c r="A1001" s="13"/>
-      <c r="B1001" s="13"/>
-      <c r="C1001" s="13"/>
-    </row>
-    <row r="1002" ht="21.0" customHeight="1">
-      <c r="A1002" s="13"/>
-      <c r="B1002" s="13"/>
-      <c r="C1002" s="13"/>
-    </row>
-    <row r="1003" ht="21.0" customHeight="1">
-      <c r="A1003" s="13"/>
-      <c r="B1003" s="13"/>
-      <c r="C1003" s="13"/>
-    </row>
-    <row r="1004" ht="21.0" customHeight="1">
-      <c r="A1004" s="13"/>
-      <c r="B1004" s="13"/>
-      <c r="C1004" s="13"/>
-    </row>
-    <row r="1005" ht="21.0" customHeight="1">
-      <c r="A1005" s="13"/>
-      <c r="B1005" s="13"/>
-      <c r="C1005" s="13"/>
-    </row>
-    <row r="1006" ht="21.0" customHeight="1">
-      <c r="A1006" s="13"/>
-      <c r="B1006" s="13"/>
-      <c r="C1006" s="13"/>
-    </row>
-    <row r="1007" ht="21.0" customHeight="1">
-      <c r="A1007" s="13"/>
-      <c r="B1007" s="13"/>
-      <c r="C1007" s="13"/>
-    </row>
-    <row r="1008" ht="21.0" customHeight="1">
-      <c r="A1008" s="13"/>
-      <c r="B1008" s="13"/>
-      <c r="C1008" s="13"/>
-    </row>
-    <row r="1009" ht="21.0" customHeight="1">
-      <c r="A1009" s="13"/>
-      <c r="B1009" s="13"/>
-      <c r="C1009" s="13"/>
-    </row>
-    <row r="1010" ht="21.0" customHeight="1">
-      <c r="A1010" s="13"/>
-      <c r="B1010" s="13"/>
-      <c r="C1010" s="13"/>
-    </row>
-    <row r="1011" ht="21.0" customHeight="1">
-      <c r="A1011" s="13"/>
-      <c r="B1011" s="13"/>
-      <c r="C1011" s="13"/>
-    </row>
-    <row r="1012" ht="21.0" customHeight="1">
-      <c r="A1012" s="13"/>
-      <c r="B1012" s="13"/>
-      <c r="C1012" s="13"/>
-    </row>
-    <row r="1013" ht="21.0" customHeight="1">
-      <c r="A1013" s="13"/>
-      <c r="B1013" s="13"/>
-      <c r="C1013" s="13"/>
-    </row>
-    <row r="1014" ht="21.0" customHeight="1">
-      <c r="A1014" s="13"/>
-      <c r="B1014" s="13"/>
-      <c r="C1014" s="13"/>
-    </row>
-    <row r="1015" ht="21.0" customHeight="1">
-      <c r="A1015" s="13"/>
-      <c r="B1015" s="13"/>
-      <c r="C1015" s="13"/>
-    </row>
-    <row r="1016" ht="21.0" customHeight="1">
-      <c r="A1016" s="13"/>
-      <c r="B1016" s="13"/>
-      <c r="C1016" s="13"/>
-    </row>
-    <row r="1017" ht="21.0" customHeight="1">
-      <c r="A1017" s="13"/>
-      <c r="B1017" s="13"/>
-      <c r="C1017" s="13"/>
-    </row>
-    <row r="1018" ht="21.0" customHeight="1">
-      <c r="A1018" s="13"/>
-      <c r="B1018" s="13"/>
-      <c r="C1018" s="13"/>
-    </row>
-    <row r="1019" ht="21.0" customHeight="1">
-      <c r="A1019" s="13"/>
-      <c r="B1019" s="13"/>
-      <c r="C1019" s="13"/>
-    </row>
-    <row r="1020" ht="21.0" customHeight="1">
-      <c r="A1020" s="13"/>
-      <c r="B1020" s="13"/>
-      <c r="C1020" s="13"/>
-    </row>
-    <row r="1021" ht="21.0" customHeight="1">
-      <c r="A1021" s="13"/>
-      <c r="B1021" s="13"/>
-      <c r="C1021" s="13"/>
-    </row>
-    <row r="1022" ht="21.0" customHeight="1">
-      <c r="A1022" s="13"/>
-      <c r="B1022" s="13"/>
-      <c r="C1022" s="13"/>
-    </row>
-    <row r="1023" ht="21.0" customHeight="1">
-      <c r="A1023" s="13"/>
-      <c r="B1023" s="13"/>
-      <c r="C1023" s="13"/>
-    </row>
-    <row r="1024" ht="21.0" customHeight="1">
-      <c r="A1024" s="13"/>
-      <c r="B1024" s="13"/>
-      <c r="C1024" s="13"/>
-    </row>
-    <row r="1025" ht="21.0" customHeight="1">
-      <c r="A1025" s="13"/>
-      <c r="B1025" s="13"/>
-      <c r="C1025" s="13"/>
-    </row>
-    <row r="1026" ht="21.0" customHeight="1">
-      <c r="A1026" s="13"/>
-      <c r="B1026" s="13"/>
-      <c r="C1026" s="13"/>
-    </row>
-    <row r="1027" ht="21.0" customHeight="1">
-      <c r="A1027" s="13"/>
-      <c r="B1027" s="13"/>
-      <c r="C1027" s="13"/>
-    </row>
-    <row r="1028" ht="21.0" customHeight="1">
-      <c r="A1028" s="13"/>
-      <c r="B1028" s="13"/>
-      <c r="C1028" s="13"/>
-    </row>
-    <row r="1029" ht="21.0" customHeight="1">
-      <c r="A1029" s="13"/>
-      <c r="B1029" s="13"/>
-      <c r="C1029" s="13"/>
-    </row>
-    <row r="1030" ht="21.0" customHeight="1">
-      <c r="A1030" s="13"/>
-      <c r="B1030" s="13"/>
-      <c r="C1030" s="13"/>
-    </row>
-    <row r="1031" ht="21.0" customHeight="1">
-      <c r="A1031" s="13"/>
-      <c r="B1031" s="13"/>
-      <c r="C1031" s="13"/>
-    </row>
-    <row r="1032" ht="21.0" customHeight="1">
-      <c r="A1032" s="13"/>
-      <c r="B1032" s="13"/>
-      <c r="C1032" s="13"/>
-    </row>
-    <row r="1033" ht="21.0" customHeight="1">
-      <c r="A1033" s="13"/>
-      <c r="B1033" s="13"/>
-      <c r="C1033" s="13"/>
-    </row>
-    <row r="1034" ht="21.0" customHeight="1">
-      <c r="A1034" s="13"/>
-      <c r="B1034" s="13"/>
-      <c r="C1034" s="13"/>
-    </row>
-    <row r="1035" ht="21.0" customHeight="1">
-      <c r="A1035" s="13"/>
-      <c r="B1035" s="13"/>
-      <c r="C1035" s="13"/>
-    </row>
-    <row r="1036" ht="21.0" customHeight="1">
-      <c r="A1036" s="13"/>
-      <c r="B1036" s="13"/>
-      <c r="C1036" s="13"/>
-    </row>
-    <row r="1037" ht="21.0" customHeight="1">
-      <c r="A1037" s="13"/>
-      <c r="B1037" s="13"/>
-      <c r="C1037" s="13"/>
-    </row>
-    <row r="1038" ht="21.0" customHeight="1">
-      <c r="A1038" s="13"/>
-      <c r="B1038" s="13"/>
-      <c r="C1038" s="13"/>
-    </row>
-    <row r="1039" ht="21.0" customHeight="1">
-      <c r="A1039" s="13"/>
-      <c r="B1039" s="13"/>
-      <c r="C1039" s="13"/>
-    </row>
-    <row r="1040" ht="21.0" customHeight="1">
-      <c r="A1040" s="13"/>
-      <c r="B1040" s="13"/>
-      <c r="C1040" s="13"/>
-    </row>
-    <row r="1041" ht="21.0" customHeight="1">
-      <c r="A1041" s="13"/>
-      <c r="B1041" s="13"/>
-      <c r="C1041" s="13"/>
-    </row>
-    <row r="1042" ht="21.0" customHeight="1">
-      <c r="A1042" s="13"/>
-      <c r="B1042" s="13"/>
-      <c r="C1042" s="13"/>
-    </row>
-    <row r="1043" ht="21.0" customHeight="1">
-      <c r="A1043" s="13"/>
-      <c r="B1043" s="13"/>
-      <c r="C1043" s="13"/>
-    </row>
-    <row r="1044" ht="21.0" customHeight="1">
-      <c r="A1044" s="13"/>
-      <c r="B1044" s="13"/>
-      <c r="C1044" s="13"/>
-    </row>
-    <row r="1045" ht="21.0" customHeight="1">
-      <c r="A1045" s="13"/>
-      <c r="B1045" s="13"/>
-      <c r="C1045" s="13"/>
-    </row>
-    <row r="1046" ht="21.0" customHeight="1">
-      <c r="A1046" s="13"/>
-      <c r="B1046" s="13"/>
-      <c r="C1046" s="13"/>
-    </row>
-    <row r="1047" ht="21.0" customHeight="1">
-      <c r="A1047" s="13"/>
-      <c r="B1047" s="13"/>
-      <c r="C1047" s="13"/>
-    </row>
-    <row r="1048" ht="21.0" customHeight="1">
-      <c r="A1048" s="13"/>
-      <c r="B1048" s="13"/>
-      <c r="C1048" s="13"/>
-    </row>
-    <row r="1049" ht="21.0" customHeight="1">
-      <c r="A1049" s="13"/>
-      <c r="B1049" s="13"/>
-      <c r="C1049" s="13"/>
-    </row>
-    <row r="1050" ht="21.0" customHeight="1">
-      <c r="A1050" s="13"/>
-      <c r="B1050" s="13"/>
-      <c r="C1050" s="13"/>
-    </row>
-    <row r="1051" ht="21.0" customHeight="1">
-      <c r="A1051" s="13"/>
-      <c r="B1051" s="13"/>
-      <c r="C1051" s="13"/>
-    </row>
-    <row r="1052" ht="21.0" customHeight="1">
-      <c r="A1052" s="13"/>
-      <c r="B1052" s="13"/>
-      <c r="C1052" s="13"/>
-    </row>
-    <row r="1053" ht="21.0" customHeight="1">
-      <c r="A1053" s="13"/>
-      <c r="B1053" s="13"/>
-      <c r="C1053" s="13"/>
-    </row>
-    <row r="1054" ht="21.0" customHeight="1">
-      <c r="A1054" s="13"/>
-      <c r="B1054" s="13"/>
-      <c r="C1054" s="13"/>
-    </row>
-    <row r="1055" ht="21.0" customHeight="1">
-      <c r="A1055" s="13"/>
-      <c r="B1055" s="13"/>
-      <c r="C1055" s="13"/>
-    </row>
-    <row r="1056" ht="21.0" customHeight="1">
-      <c r="A1056" s="13"/>
-      <c r="B1056" s="13"/>
-      <c r="C1056" s="13"/>
-    </row>
-    <row r="1057" ht="21.0" customHeight="1">
-      <c r="A1057" s="13"/>
-      <c r="B1057" s="13"/>
-      <c r="C1057" s="13"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="C56"/>
+    <hyperlink r:id="rId1" ref="C9"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12104,67 +7021,735 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>201</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>202</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>201</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" ht="21.0" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" ht="21.0" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" ht="21.0" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" ht="21.0" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" ht="21.0" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" ht="21.0" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" ht="21.0" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" ht="21.0" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" ht="21.0" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" ht="21.0" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" ht="21.0" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" ht="21.0" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" ht="21.0" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" ht="21.0" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" ht="21.0" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" ht="21.0" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" ht="21.0" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" ht="21.0" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" ht="21.0" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" ht="21.0" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" ht="21.0" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" ht="21.0" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" ht="21.0" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" ht="21.0" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" ht="21.0" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" ht="21.0" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" ht="21.0" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" ht="21.0" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" ht="21.0" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" ht="21.0" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" ht="21.0" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" ht="21.0" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="54" ht="21.0" customHeight="1">
+      <c r="A54" s="10"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="11"/>
+    </row>
+    <row r="55" ht="21.0" customHeight="1">
+      <c r="A55" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="B55" s="3" t="s">
         <v>208</v>
       </c>
+      <c r="C55" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" ht="21.0" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" ht="21.0" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" ht="21.0" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="3" max="3" width="33.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="3"/>
@@ -12179,6 +7764,357 @@
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" ht="21.0" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" ht="21.0" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" ht="21.0" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" ht="21.0" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" ht="21.0" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" ht="21.0" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" ht="21.0" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" ht="21.0" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" ht="21.0" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" ht="21.0" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" ht="21.0" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" ht="21.0" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" ht="21.0" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" ht="21.0" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" ht="21.0" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" ht="21.0" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" ht="21.0" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" ht="21.0" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" ht="21.0" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" ht="21.0" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" ht="21.0" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" ht="21.0" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" ht="21.0" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" ht="21.0" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" ht="21.0" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" ht="21.0" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" ht="21.0" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" ht="21.0" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" ht="21.0" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" ht="21.0" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" ht="21.0" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" ht="21.0" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" ht="21.0" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" ht="21.0" customHeight="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="40.38"/>
+    <col customWidth="1" min="3" max="3" width="33.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="8"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -12362,75 +8298,336 @@
       <c r="C48" s="8"/>
     </row>
     <row r="49" ht="21.0" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="8"/>
-    </row>
-    <row r="50" ht="21.0" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="8"/>
-    </row>
-    <row r="51" ht="21.0" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="8"/>
-    </row>
-    <row r="52" ht="21.0" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="8"/>
-    </row>
-    <row r="53" ht="21.0" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" ht="21.0" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="8"/>
-    </row>
-    <row r="55" ht="21.0" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="8"/>
-    </row>
-    <row r="56" ht="21.0" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" ht="21.0" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="8"/>
-    </row>
-    <row r="58" ht="21.0" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="8"/>
-    </row>
-    <row r="59" ht="21.0" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="8"/>
-    </row>
-    <row r="60" ht="21.0" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="8"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="3" max="3" width="33.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" ht="21.0" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" ht="21.0" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" ht="21.0" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" ht="21.0" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" ht="21.0" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" ht="21.0" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="24" ht="21.0" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" ht="21.0" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" ht="21.0" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" ht="21.0" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="8"/>
+    </row>
+    <row r="28" ht="21.0" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" ht="21.0" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" ht="21.0" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" ht="21.0" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" ht="21.0" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" ht="21.0" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" ht="21.0" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" ht="21.0" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" ht="21.0" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" ht="21.0" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" ht="21.0" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="8"/>
+    </row>
+    <row r="39" ht="21.0" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="8"/>
+    </row>
+    <row r="40" ht="21.0" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" ht="21.0" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" ht="21.0" customHeight="1">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" ht="21.0" customHeight="1">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="8"/>
+    </row>
+    <row r="44" ht="21.0" customHeight="1">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" ht="21.0" customHeight="1">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" ht="21.0" customHeight="1">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="8"/>
+    </row>
+    <row r="47" ht="21.0" customHeight="1">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" ht="21.0" customHeight="1">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" ht="21.0" customHeight="1">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12457,123 +8654,123 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>211</v>
+        <v>270</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>212</v>
+        <v>272</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>216</v>
+        <v>275</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>219</v>
+        <v>278</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>224</v>
+        <v>283</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>225</v>
+        <v>285</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>226</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>227</v>
+        <v>287</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>229</v>
+        <v>289</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>231</v>
+        <v>291</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>233</v>
+        <v>292</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>235</v>
+        <v>292</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -13789,7 +9986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13816,35 +10013,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>237</v>
+      <c r="C2" s="15" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>239</v>
+      <c r="A3" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>241</v>
+      <c r="A4" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="304">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Broadcast Message (All Users)</t>
+  </si>
+  <si>
+    <t>admin_mm_btn_5</t>
+  </si>
+  <si>
+    <t>TurnOff Bot</t>
   </si>
   <si>
     <t>confirm_action_ask</t>
@@ -711,16 +717,16 @@
     <t>price_eye</t>
   </si>
   <si>
-    <t xml:space="preserve">👁 Price: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">👁 قيمت: </t>
+    <t>👁 Price:</t>
+  </si>
+  <si>
+    <t>👁 قيمت:</t>
   </si>
   <si>
     <t>euros_per</t>
   </si>
   <si>
-    <t xml:space="preserve">euros per </t>
+    <t>euros per</t>
   </si>
   <si>
     <t>یورو</t>
@@ -1712,56 +1718,62 @@
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
     </row>
     <row r="15" ht="21.0" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="5"/>
@@ -2073,20 +2085,20 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
+    <row r="81" ht="21.0" customHeight="1">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" ht="21.0" customHeight="1">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" ht="21.0" customHeight="1">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="7"/>
@@ -6697,6 +6709,21 @@
       <c r="A1005" s="7"/>
       <c r="B1005" s="7"/>
       <c r="C1005" s="7"/>
+    </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="A1006" s="7"/>
+      <c r="B1006" s="7"/>
+      <c r="C1006" s="7"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="A1007" s="7"/>
+      <c r="B1007" s="7"/>
+      <c r="C1007" s="7"/>
+    </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="A1008" s="7"/>
+      <c r="B1008" s="7"/>
+      <c r="C1008" s="7"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -6736,13 +6763,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6752,24 +6779,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6784,24 +6811,24 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -6811,24 +6838,24 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -6838,24 +6865,24 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
@@ -6865,24 +6892,24 @@
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
@@ -6892,13 +6919,13 @@
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -7021,497 +7048,497 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" ht="21.0" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" ht="21.0" customHeight="1">
@@ -7521,68 +7548,68 @@
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54" ht="21.0" customHeight="1">
@@ -7592,46 +7619,46 @@
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="C56" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7671,35 +7698,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -7709,46 +7736,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -7938,46 +7965,46 @@
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
@@ -8022,35 +8049,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -8060,46 +8087,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -8339,35 +8366,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -8377,46 +8404,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -8654,123 +8681,123 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>292</v>
-      </c>
       <c r="C12" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -10013,35 +10040,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -16,6 +16,8 @@
     <sheet state="visible" name="selling_goods" sheetId="11" r:id="rId14"/>
     <sheet state="visible" name="buying_goods" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="buying_cargo" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="selling_cargo" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="buying_euro" sheetId="15" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="523">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -968,7 +970,13 @@
     <t>آگهی در حال ساخت شما حذف شد ✅</t>
   </si>
   <si>
-    <t>error3</t>
+    <t>ad_expired</t>
+  </si>
+  <si>
+    <t>Your Ad Expired</t>
+  </si>
+  <si>
+    <t>ad_delete_error</t>
   </si>
   <si>
     <t>Your Ad can't be deleted</t>
@@ -977,6 +985,18 @@
     <t>حذف آگهی شما امکان پذیر نمی باشد ❌</t>
   </si>
   <si>
+    <t>ad_expired_error</t>
+  </si>
+  <si>
+    <t>Your Ad can't be expired</t>
+  </si>
+  <si>
+    <t>ad_expired_line</t>
+  </si>
+  <si>
+    <t>🆘️️❌️️ This ad has expired❌️️🆘️️</t>
+  </si>
+  <si>
     <t>rent_confirm_delete_ad</t>
   </si>
   <si>
@@ -984,6 +1004,12 @@
   </si>
   <si>
     <t>تایید حذف آگهی؟</t>
+  </si>
+  <si>
+    <t>rent_confirm_expire_ad</t>
+  </si>
+  <si>
+    <t>Confirm Expire Ad?</t>
   </si>
   <si>
     <t>rent_hint_text_confirm_or_cancel</t>
@@ -1200,6 +1226,9 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>error3</t>
+  </si>
+  <si>
     <t>home_applicant_btn</t>
   </si>
   <si>
@@ -1817,66 +1846,277 @@
   </si>
   <si>
     <t>💠 ✅️️️️ #buying_cargo ✅️️️️💠
-Product Name: [product_name]
-📍 related to the city: #[city]
-🔎 Area: [sub_city]
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
 [description]</t>
   </si>
   <si>
+    <t>buying_cargo_user_view_ad</t>
+  </si>
+  <si>
+    <t>buying_cargo_admin_preview</t>
+  </si>
+  <si>
     <t>💠 ✅️️️️ #buying_cargo ✅️️️️💠
-Product Name: [product_name]
-📍مربوط به شهر:  #[city]
-🔎 محدوده: [sub_city]
-[description]</t>
-  </si>
-  <si>
-    <t>buying_cargo_user_view_ad</t>
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>buying_cargo_channel_message</t>
   </si>
   <si>
     <t>💠 ✅️️️️ #buying_cargo ✅️️️️💠
-Product Name: [product_name]
-📍 related to the city: #[city]
-🔎 Area: [sub_city]
-[description]</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #buying_cargo ✅️️️️💠
-Product Name: [product_name]
-📍مربوط به شهر:  #[city]
-🔎 محدوده: [sub_city]
-[description]</t>
-  </si>
-  <si>
-    <t>buying_cargo_admin_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #buying_cargo ✅️️️️💠
-Product Name: [product_name]
-📍 related to the city: #[city]
-🔎 Area: [sub_city]
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
 [description]
 Contact the [advertiser]
 🤖️️️ @bot_username
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #buying_cargo ✅️️️️💠
-Product Name: [product_name]
-📍مربوط به شهر:  #[city]
-🔎 محدوده: [sub_city]
+    <t>selling_cargo_btn</t>
+  </si>
+  <si>
+    <t>selling Cargo</t>
+  </si>
+  <si>
+    <t>selling_cargo_t1</t>
+  </si>
+  <si>
+    <t>category: selling Cargo</t>
+  </si>
+  <si>
+    <t>selling_cargo_t2</t>
+  </si>
+  <si>
+    <t>selling_cargo_origin</t>
+  </si>
+  <si>
+    <t>selling_cargo_origin_label</t>
+  </si>
+  <si>
+    <t>selling_cargo_destination</t>
+  </si>
+  <si>
+    <t>selling_cargo_destination_label</t>
+  </si>
+  <si>
+    <t>selling_cargo_flight_date</t>
+  </si>
+  <si>
+    <t>selling_cargo_flight_date_label</t>
+  </si>
+  <si>
+    <t>selling_cargo_price</t>
+  </si>
+  <si>
+    <t>selling_cargo_price_label</t>
+  </si>
+  <si>
+    <t>selling_cargo_load</t>
+  </si>
+  <si>
+    <t>selling_cargo_load_label</t>
+  </si>
+  <si>
+    <t>selling_cargo_od_label</t>
+  </si>
+  <si>
+    <t>selling_cargo_ia_btn</t>
+  </si>
+  <si>
+    <t>selling_cargo_ai_btn</t>
+  </si>
+  <si>
+    <t>selling_cargo_ia</t>
+  </si>
+  <si>
+    <t>selling_cargo_ai</t>
+  </si>
+  <si>
+    <t>selling_cargo_iran</t>
+  </si>
+  <si>
+    <t>selling_cargo_austria</t>
+  </si>
+  <si>
+    <t>selling_cargo_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #selling_cargo ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]</t>
+  </si>
+  <si>
+    <t>selling_cargo_user_view_ad</t>
+  </si>
+  <si>
+    <t>selling_cargo_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #selling_cargo ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
 [description]
-👤تماس با [advertiser]</t>
-  </si>
-  <si>
-    <t>buying_cargo_channel_message</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #buying_cargo ✅️️️️💠
-Product Name: [product_name]
-📍مربوط به شهر:  #[city]
-🔎 محدوده: [sub_city]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>selling_cargo_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #selling_cargo ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
 [description]
-👤تماس با [advertiser]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>buying_euro_btn</t>
+  </si>
+  <si>
+    <t>euro sell</t>
+  </si>
+  <si>
+    <t>buying_euro_t1</t>
+  </si>
+  <si>
+    <t>category: euro sell</t>
+  </si>
+  <si>
+    <t>buying_euro_t2</t>
+  </si>
+  <si>
+    <t>how many euros do you want to sell</t>
+  </si>
+  <si>
+    <t>buying_euro_tomans</t>
+  </si>
+  <si>
+    <t>how many tomans do you want to sell each euro?</t>
+  </si>
+  <si>
+    <t>buying_euro_transfer</t>
+  </si>
+  <si>
+    <t>specify how to transfer euros:</t>
+  </si>
+  <si>
+    <t>specify how to transger euros:</t>
+  </si>
+  <si>
+    <t>euro_transfer_1</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>euro_transfer_2</t>
+  </si>
+  <si>
+    <t>Revolut</t>
+  </si>
+  <si>
+    <t>euro_transfer_3</t>
+  </si>
+  <si>
+    <t>Monese</t>
+  </si>
+  <si>
+    <t>euro_transfer_4</t>
+  </si>
+  <si>
+    <t>IBAN</t>
+  </si>
+  <si>
+    <t>euro_transfer_5</t>
+  </si>
+  <si>
+    <t>Wise</t>
+  </si>
+  <si>
+    <t>euro_transfer_6</t>
+  </si>
+  <si>
+    <t>arz digital</t>
+  </si>
+  <si>
+    <t>euro_transfer_7</t>
+  </si>
+  <si>
+    <t>by person</t>
+  </si>
+  <si>
+    <t>buying_euro_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #buying_euro ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]</t>
+  </si>
+  <si>
+    <t>buying_euro_user_view_ad</t>
+  </si>
+  <si>
+    <t>buying_euro_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #buying_euro ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>buying_euro_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #buying_euro ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]
+Contact the [advertiser]
 🤖️️️ @bot_username
 ✅️️️️️️️ @channel_username</t>
   </si>
@@ -1952,7 +2192,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2005,6 +2245,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2032,6 +2275,14 @@
 </file>
 
 <file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3661,29 +3912,29 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>94</v>
@@ -3699,46 +3950,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -3979,29 +4230,29 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>94</v>
@@ -4017,46 +4268,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4292,29 +4543,29 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>94</v>
@@ -4330,46 +4581,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4605,143 +4856,909 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>409</v>
-      </c>
+      <c r="A3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>413</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" ht="21.0" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" ht="21.0" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" ht="21.0" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" ht="21.0" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" ht="21.0" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" ht="21.0" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" ht="21.0" customHeight="1">
+      <c r="A27" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" ht="21.0" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" ht="21.0" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" ht="21.0" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" ht="21.0" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="32" ht="21.0" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" ht="21.0" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="34" ht="21.0" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" ht="21.0" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" ht="21.0" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" ht="21.0" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" ht="21.0" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" ht="21.0" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" ht="21.0" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" ht="21.0" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF011627"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="3" max="3" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" ht="21.0" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" ht="21.0" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" ht="21.0" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" ht="21.0" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" ht="21.0" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" ht="21.0" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" ht="21.0" customHeight="1">
+      <c r="A27" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="28" ht="21.0" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" ht="21.0" customHeight="1">
+      <c r="A29" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="30" ht="21.0" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" ht="21.0" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" ht="21.0" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="33" ht="21.0" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="34" ht="21.0" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" ht="21.0" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" ht="21.0" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" ht="21.0" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" ht="21.0" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" ht="21.0" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" ht="21.0" customHeight="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" ht="21.0" customHeight="1">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="11"/>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF011627"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="3" max="3" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>417</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>418</v>
+        <v>502</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>419</v>
+        <v>503</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>424</v>
+        <v>512</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>425</v>
+        <v>513</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>425</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>426</v>
+        <v>514</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>427</v>
+        <v>515</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>427</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
@@ -4750,352 +5767,53 @@
       <c r="C17" s="7"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>429</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>431</v>
+        <v>517</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>431</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>432</v>
+        <v>519</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>433</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>434</v>
+        <v>521</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>435</v>
+        <v>522</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" ht="21.0" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="24" ht="21.0" customHeight="1">
-      <c r="A24" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" ht="21.0" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" ht="21.0" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" ht="21.0" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="28" ht="21.0" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" ht="21.0" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="30" ht="21.0" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="31" ht="21.0" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="32" ht="21.0" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="33" ht="21.0" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" ht="21.0" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="11"/>
-    </row>
-    <row r="35" ht="21.0" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" ht="21.0" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="11"/>
-    </row>
-    <row r="37" ht="21.0" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="11"/>
-    </row>
-    <row r="38" ht="21.0" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="11"/>
-    </row>
-    <row r="39" ht="21.0" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" ht="21.0" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="41" ht="21.0" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" ht="21.0" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" ht="21.0" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" ht="21.0" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="11"/>
-    </row>
-    <row r="45" ht="21.0" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="11"/>
-    </row>
-    <row r="46" ht="21.0" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="11"/>
-    </row>
-    <row r="47" ht="21.0" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="11"/>
-    </row>
-    <row r="48" ht="21.0" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="11"/>
-    </row>
-    <row r="49" ht="21.0" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="50" ht="21.0" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="11"/>
-    </row>
-    <row r="51" ht="21.0" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="11"/>
-    </row>
-    <row r="52" ht="21.0" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="11"/>
-    </row>
-    <row r="53" ht="21.0" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="11"/>
-    </row>
-    <row r="54" ht="21.0" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="55" ht="21.0" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="11"/>
-    </row>
-    <row r="56" ht="21.0" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="11"/>
-    </row>
-    <row r="57" ht="21.0" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="11"/>
-    </row>
-    <row r="58" ht="21.0" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" ht="21.0" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" ht="21.0" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="11"/>
-    </row>
-    <row r="61" ht="21.0" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="11"/>
-    </row>
-    <row r="62" ht="21.0" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="11"/>
-    </row>
-    <row r="63" ht="21.0" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" ht="21.0" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" ht="21.0" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="11"/>
-    </row>
-    <row r="66" ht="21.0" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="11"/>
-    </row>
-    <row r="67" ht="21.0" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="11"/>
-    </row>
-    <row r="68" ht="21.0" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="11"/>
-    </row>
-    <row r="69" ht="21.0" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" ht="21.0" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="11"/>
-    </row>
-    <row r="71" ht="21.0" customHeight="1">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="14"/>
+        <v>522</v>
+      </c>
     </row>
   </sheetData>
   <printOptions/>
@@ -11923,910 +12641,914 @@
       <c r="C4" s="11"/>
     </row>
     <row r="5" ht="21.0" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="11"/>
+      <c r="A7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="11"/>
+      <c r="A8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>104</v>
+        <v>117</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" ht="21.0" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>147</v>
-      </c>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="11"/>
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>149</v>
+        <v>159</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>151</v>
+        <v>162</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="39" ht="21.0" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>157</v>
+        <v>168</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="42" ht="21.0" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="43" ht="21.0" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="11"/>
+      <c r="A43" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="44" ht="21.0" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" ht="21.0" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" ht="21.0" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>209</v>
+      <c r="A63" s="16" t="s">
+        <v>233</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="64" ht="21.0" customHeight="1">
-      <c r="A64" s="7" t="s">
-        <v>212</v>
+      <c r="A64" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" ht="21.0" customHeight="1">
-      <c r="A71" s="16" t="s">
-        <v>233</v>
+      <c r="A71" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" ht="21.0" customHeight="1">
-      <c r="A72" s="16" t="s">
-        <v>236</v>
+      <c r="A72" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" ht="21.0" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" ht="21.0" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C74" s="11" t="s">
-        <v>244</v>
+        <v>267</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="75" ht="21.0" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" ht="21.0" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C76" s="11" t="s">
-        <v>250</v>
+        <v>272</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="77" ht="21.0" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" ht="21.0" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>256</v>
+        <v>277</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="79" ht="21.0" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>259</v>
+        <v>279</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="80" ht="21.0" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" ht="21.0" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>265</v>
+      <c r="A81" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="82" ht="21.0" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="83" ht="21.0" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" ht="21.0" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" ht="21.0" customHeight="1">
-      <c r="A85" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>276</v>
-      </c>
+      <c r="A85" s="13"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="14"/>
     </row>
     <row r="86" ht="21.0" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" ht="21.0" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="88" ht="21.0" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" ht="21.0" customHeight="1">
-      <c r="A89" s="13"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" ht="21.0" customHeight="1">
-      <c r="A90" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="91" ht="21.0" customHeight="1">
-      <c r="A91" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="92" ht="21.0" customHeight="1">
-      <c r="A92" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="93" ht="21.0" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>295</v>
+      <c r="A89" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -12867,29 +13589,29 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>298</v>
+        <v>304</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>94</v>
@@ -12905,46 +13627,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -13145,35 +13867,35 @@
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
@@ -13219,29 +13941,29 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>316</v>
+        <v>324</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>94</v>
@@ -13257,46 +13979,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -13537,29 +14259,29 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>94</v>
@@ -13575,46 +14297,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -13855,29 +14577,29 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>94</v>
@@ -13893,46 +14615,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -634,7 +634,7 @@
   </si>
   <si>
     <t xml:space="preserve">Enter your desired start date:
-format:dd/mm/ yyyy example: [automatic tomorrow date] </t>
+format:dd/mm/ yyyy example: [automatic_tomorrow_date] </t>
   </si>
   <si>
     <t>📅 تاریخ شروع مورد نظرتان را به میلادی وارد نمایید : 
@@ -645,7 +645,7 @@
   </si>
   <si>
     <t xml:space="preserve">Enter the end date you want:
-format:dd/mm/ yyyy example: [automatic tomorrow date] </t>
+format:dd/mm/ yyyy example: [automatic_tomorrow_date] </t>
   </si>
   <si>
     <t>📅 تاریخ پایان مورد نظرتان را به میلادی وارد نمایید : 

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -8,8 +8,8 @@
     <sheet state="visible" name="General" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="User" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Rent" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Room Rent" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="home applicant" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="home applicant" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Room Rent" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="room applicant" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="meldezettel" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="meldezettel_applicant" sheetId="10" r:id="rId13"/>
@@ -18,6 +18,9 @@
     <sheet state="visible" name="buying_cargo" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="selling_cargo" sheetId="14" r:id="rId17"/>
     <sheet state="visible" name="buying_euro" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="selling_euro" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="services" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="needs" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="621">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -259,7 +262,10 @@
     <t>mm_m</t>
   </si>
   <si>
-    <t>🏠main menu</t>
+    <t>main menu</t>
+  </si>
+  <si>
+    <t>منو اصلی</t>
   </si>
   <si>
     <t>mm_btn_1</t>
@@ -414,7 +420,7 @@
     <t>Choose one of the following cities:</t>
   </si>
   <si>
-    <t>📍 از بین شهرهای زیر یکی رو انتخاب کنید یا نام آن را وارد نمایید:</t>
+    <t>📍 از بین شهرهای زیر یکی رو انتخاب کنید:</t>
   </si>
   <si>
     <t>city_1</t>
@@ -477,130 +483,196 @@
     <t>esfehan</t>
   </si>
   <si>
+    <t>اصفهان</t>
+  </si>
+  <si>
     <t>farisi_city_mashhad</t>
   </si>
   <si>
     <t>mashhad</t>
   </si>
   <si>
+    <t>مشهد</t>
+  </si>
+  <si>
     <t>farisi_city_tehran</t>
   </si>
   <si>
     <t>tehran</t>
   </si>
   <si>
+    <t>تهران</t>
+  </si>
+  <si>
     <t>farisi_city_karaj</t>
   </si>
   <si>
     <t>karaj</t>
   </si>
   <si>
+    <t>کرج</t>
+  </si>
+  <si>
     <t>farisi_city_shiraz</t>
   </si>
   <si>
     <t>shiraz</t>
   </si>
   <si>
+    <t>شیراز</t>
+  </si>
+  <si>
     <t>farisi_city_tabriz</t>
   </si>
   <si>
     <t>tabriz</t>
   </si>
   <si>
+    <t>تبریز</t>
+  </si>
+  <si>
     <t>farisi_city_qom</t>
   </si>
   <si>
     <t>qom</t>
   </si>
   <si>
+    <t>قم</t>
+  </si>
+  <si>
     <t>farisi_city_ahvaz</t>
   </si>
   <si>
     <t>ahvaz</t>
   </si>
   <si>
+    <t>اهواز</t>
+  </si>
+  <si>
     <t>farisi_city_kermanshah</t>
   </si>
   <si>
     <t>kermanshah</t>
   </si>
   <si>
+    <t>کرمانشاه</t>
+  </si>
+  <si>
     <t>farisi_city_oromie</t>
   </si>
   <si>
     <t>oromie</t>
   </si>
   <si>
+    <t>ارومیه</t>
+  </si>
+  <si>
     <t>farisi_city_rasht</t>
   </si>
   <si>
     <t>rasht</t>
   </si>
   <si>
+    <t>رشت</t>
+  </si>
+  <si>
     <t>farisi_city_zahedan</t>
   </si>
   <si>
     <t>zahedan</t>
   </si>
   <si>
+    <t>زاهدان</t>
+  </si>
+  <si>
     <t>farisi_city_hamedan</t>
   </si>
   <si>
     <t>hamedan</t>
   </si>
   <si>
+    <t>همدان</t>
+  </si>
+  <si>
     <t>farisi_city_kerman</t>
   </si>
   <si>
     <t>kerman</t>
   </si>
   <si>
+    <t>کرمان</t>
+  </si>
+  <si>
     <t>farisi_city_ardabil</t>
   </si>
   <si>
     <t>ardabil</t>
   </si>
   <si>
+    <t>اردبیل</t>
+  </si>
+  <si>
     <t>farisi_city_bandarabbas</t>
   </si>
   <si>
     <t>bandarabbas</t>
   </si>
   <si>
+    <t>بندرعباس</t>
+  </si>
+  <si>
     <t>farisi_city_arak</t>
   </si>
   <si>
     <t>arak</t>
   </si>
   <si>
+    <t>اراک</t>
+  </si>
+  <si>
     <t>farisi_city_zanjan</t>
   </si>
   <si>
     <t>zanjan</t>
   </si>
   <si>
+    <t>زنجان</t>
+  </si>
+  <si>
     <t>farisi_city_sanandaj</t>
   </si>
   <si>
     <t>sanandaj</t>
   </si>
   <si>
+    <t>سنندج</t>
+  </si>
+  <si>
     <t>farisi_city_qazvin</t>
   </si>
   <si>
     <t>qazvin</t>
   </si>
   <si>
+    <t>قزوین</t>
+  </si>
+  <si>
     <t>farisi_city_gorgan</t>
   </si>
   <si>
     <t>gorgan</t>
   </si>
   <si>
+    <t>گرگان</t>
+  </si>
+  <si>
     <t>farisi_city_sari</t>
   </si>
   <si>
     <t>sari</t>
+  </si>
+  <si>
+    <t>ساری</t>
   </si>
   <si>
     <t>city_other</t>
@@ -961,6 +1033,9 @@
     <t>Enter Product Name:</t>
   </si>
   <si>
+    <t>نام کالای مورد نظر خود را وارد نمایید:</t>
+  </si>
+  <si>
     <t>pending_ad_deleted</t>
   </si>
   <si>
@@ -976,6 +1051,9 @@
     <t>Your Ad Expired</t>
   </si>
   <si>
+    <t>آگهی شما منقضی شد!</t>
+  </si>
+  <si>
     <t>ad_delete_error</t>
   </si>
   <si>
@@ -991,12 +1069,18 @@
     <t>Your Ad can't be expired</t>
   </si>
   <si>
+    <t>آگهی شما نمی تواند منقضی شود!</t>
+  </si>
+  <si>
     <t>ad_expired_line</t>
   </si>
   <si>
     <t>🆘️️❌️️ This ad has expired❌️️🆘️️</t>
   </si>
   <si>
+    <t>🆘️️❌️️ این آگهی منقضی شده است ❌️️🆘️️</t>
+  </si>
+  <si>
     <t>rent_confirm_delete_ad</t>
   </si>
   <si>
@@ -1010,6 +1094,9 @@
   </si>
   <si>
     <t>Confirm Expire Ad?</t>
+  </si>
+  <si>
+    <t>منقضی شدن آگهی را تأیید کنید؟</t>
   </si>
   <si>
     <t>rent_hint_text_confirm_or_cancel</t>
@@ -1113,13 +1200,111 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>home_applicant_btn</t>
+  </si>
+  <si>
+    <t>home applicant</t>
+  </si>
+  <si>
+    <t>متقاضی خانه🏠</t>
+  </si>
+  <si>
+    <t>home_applicant_t1</t>
+  </si>
+  <si>
+    <t>category: home applicant</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : متقاضی خانه</t>
+  </si>
+  <si>
+    <t>home_applicant_t2</t>
+  </si>
+  <si>
+    <t>home_applicant_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]</t>
+  </si>
+  <si>
+    <t>home_applicant_user_view_ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]💠 ✅️️️️ #room_rent ✅️️️️💠
+</t>
+  </si>
+  <si>
+    <t>home_applicant_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]
+👤تماس با [advertiser]</t>
+  </si>
+  <si>
+    <t>home_applicant_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+📍 related to the city: #[city]
+🔎 Area: [sub_city]
+🗓️️ Date: From [start_date] until [end_date]
+📝 Type of contract: #[contract_status]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]
+👤تماس با [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
     <t>room_rent_btn</t>
   </si>
   <si>
     <t>room rent</t>
   </si>
   <si>
-    <t>اجاره اتاق</t>
+    <t>اجاره اتاق🏠</t>
   </si>
   <si>
     <t>room_rent_t1</t>
@@ -1132,6 +1317,9 @@
   </si>
   <si>
     <t>room_rent_t2</t>
+  </si>
+  <si>
+    <t>📍 از بین شهرهای زیر یکی رو انتخاب کنید یا نام آن را وارد نمایید:</t>
   </si>
   <si>
     <t>room_rent_user_preview</t>
@@ -1229,28 +1417,31 @@
     <t>error3</t>
   </si>
   <si>
-    <t>home_applicant_btn</t>
-  </si>
-  <si>
-    <t>home applicant</t>
-  </si>
-  <si>
-    <t>home_applicant_t1</t>
-  </si>
-  <si>
-    <t>category: home applicant</t>
-  </si>
-  <si>
-    <t>📦 دسته بندی : متقاضی خانه</t>
-  </si>
-  <si>
-    <t>home_applicant_t2</t>
-  </si>
-  <si>
-    <t>home_applicant_user_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+    <t>room_applicant_btn</t>
+  </si>
+  <si>
+    <t>room applicant</t>
+  </si>
+  <si>
+    <t>متقاضی اتاق🏠</t>
+  </si>
+  <si>
+    <t>room_applicant_t1</t>
+  </si>
+  <si>
+    <t>category: room applicant</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : متقاضی اتاق</t>
+  </si>
+  <si>
+    <t>room_applicant_t2</t>
+  </si>
+  <si>
+    <t>room_applicant_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
 📍 related to the city: #[city]
 🔎 Area: [sub_city]
 🗓️️ Date: From [start_date] until [end_date]
@@ -1266,22 +1457,13 @@
 [description]</t>
   </si>
   <si>
-    <t>home_applicant_user_view_ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">💠 ✅️️️️ #home_applicant ✅️️️️💠💠
-📍 related to the city: #[city]
-🔎 Area: [sub_city]
-🗓️️ Date: From [start_date] until [end_date]
-📝 Type of contract: #[contract_status]
-[description]💠 ✅️️️️ #room_rent ✅️️️️💠
-</t>
-  </si>
-  <si>
-    <t>home_applicant_admin_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+    <t>room_applicant_user_view_ad</t>
+  </si>
+  <si>
+    <t>room_applicant_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
 📍 related to the city: #[city]
 🔎 Area: [sub_city]
 🗓️️ Date: From [start_date] until [end_date]
@@ -1299,10 +1481,10 @@
 👤تماس با [advertiser]</t>
   </si>
   <si>
-    <t>home_applicant_channel_message</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #home_applicant ✅️️️️💠💠
+    <t>room_applicant_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
 📍 related to the city: #[city]
 🔎 Area: [sub_city]
 🗓️️ Date: From [start_date] until [end_date]
@@ -1324,99 +1506,22 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>room_applicant_btn</t>
-  </si>
-  <si>
-    <t>room applicant</t>
-  </si>
-  <si>
-    <t>room_applicant_t1</t>
-  </si>
-  <si>
-    <t>category: room applicant</t>
-  </si>
-  <si>
-    <t>room_applicant_t2</t>
-  </si>
-  <si>
-    <t>room_applicant_user_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
-📍 related to the city: #[city]
-🔎 Area: [sub_city]
-🗓️️ Date: From [start_date] until [end_date]
-📝 Type of contract: #[contract_status]
-[description]</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
-📍مربوط به شهر:  #[city]
-🔎 محدوده: [sub_city]
-🗓️️ تاریخ: از [start_date] تا [end_date]
-📝 نوع قرارداد: #[contract_status]
-[description]</t>
-  </si>
-  <si>
-    <t>room_applicant_user_view_ad</t>
-  </si>
-  <si>
-    <t>room_applicant_admin_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
-📍 related to the city: #[city]
-🔎 Area: [sub_city]
-🗓️️ Date: From [start_date] until [end_date]
-📝 Type of contract: #[contract_status]
-[description]
-Contact the [advertiser]</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
-📍مربوط به شهر:  #[city]
-🔎 محدوده: [sub_city]
-🗓️️ تاریخ: از [start_date] تا [end_date]
-📝 نوع قرارداد: #[contract_status]
-[description]
-👤تماس با [advertiser]</t>
-  </si>
-  <si>
-    <t>room_applicant_channel_message</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #room_applicant ✅️️️️💠
-📍 related to the city: #[city]
-🔎 Area: [sub_city]
-🗓️️ Date: From [start_date] until [end_date]
-📝 Type of contract: #[contract_status]
-[description]
-Contact the [advertiser]
-🤖️️️ @bot_username
-✅️️️️️️️ @channel_username</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
-📍مربوط به شهر:  #[city]
-🔎 محدوده: [sub_city]
-🗓️️ تاریخ: از [start_date] تا [end_date]
-📝 نوع قرارداد: #[contract_status]
-[description]
-👤تماس با [advertiser]
-🤖️️️ @bot_username
-✅️️️️️️️ @channel_username</t>
-  </si>
-  <si>
     <t>meldezettel_btn</t>
   </si>
   <si>
     <t>meldezettel</t>
   </si>
   <si>
+    <t>ملد هوایی📮</t>
+  </si>
+  <si>
     <t>meldezettel_t1</t>
   </si>
   <si>
     <t>category: meldezettel</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : ملد هوایی📮</t>
   </si>
   <si>
     <t>meldezettel_t2</t>
@@ -1492,10 +1597,16 @@
     <t>meldezettel applicant</t>
   </si>
   <si>
+    <t>متقاضی ملد هوایی📮</t>
+  </si>
+  <si>
     <t>meldezettel_applicant_t1</t>
   </si>
   <si>
     <t>category: meldezettel applicant</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : متقاضی ملد هوایی📮</t>
   </si>
   <si>
     <t>meldezettel_applicant_t2</t>
@@ -1561,10 +1672,16 @@
     <t>selling goods</t>
   </si>
   <si>
+    <t>فروش کالا📦</t>
+  </si>
+  <si>
     <t>selling_goods_t1</t>
   </si>
   <si>
     <t>category: selling goods</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : فروش کالا📦</t>
   </si>
   <si>
     <t>selling_goods_t2</t>
@@ -1635,10 +1752,16 @@
     <t>buying goods</t>
   </si>
   <si>
+    <t>خرید کالا📦</t>
+  </si>
+  <si>
     <t>buying_goods_t1</t>
   </si>
   <si>
     <t>category: buying goods</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : خرید کالا📦</t>
   </si>
   <si>
     <t>buying_goods_t2</t>
@@ -1728,10 +1851,16 @@
     <t>buying Cargo</t>
   </si>
   <si>
+    <t>فروش بار 📦</t>
+  </si>
+  <si>
     <t>buying_cargo_t1</t>
   </si>
   <si>
     <t>category: buying Cargo</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : فروش بار📦</t>
   </si>
   <si>
     <t>buying_cargo_t2</t>
@@ -1894,10 +2023,16 @@
     <t>selling Cargo</t>
   </si>
   <si>
+    <t>خرید بار 📦</t>
+  </si>
+  <si>
     <t>selling_cargo_t1</t>
   </si>
   <si>
     <t>category: selling Cargo</t>
+  </si>
+  <si>
+    <t>📦 دسته بندی : خرید بار📦</t>
   </si>
   <si>
     <t>selling_cargo_t2</t>
@@ -2003,25 +2138,43 @@
     <t>buying_euro_btn</t>
   </si>
   <si>
-    <t>euro sell</t>
+    <t>euro buy</t>
   </si>
   <si>
     <t>buying_euro_t1</t>
   </si>
   <si>
-    <t>category: euro sell</t>
+    <t>category: euro buy</t>
   </si>
   <si>
     <t>buying_euro_t2</t>
   </si>
   <si>
-    <t>how many euros do you want to sell</t>
+    <t>how many euros do you want to buy</t>
   </si>
   <si>
     <t>buying_euro_tomans</t>
   </si>
   <si>
-    <t>how many tomans do you want to sell each euro?</t>
+    <t>how many tomans do you want pay for each euro?</t>
+  </si>
+  <si>
+    <t>toman_per_euro_label</t>
+  </si>
+  <si>
+    <t>toman per euro:</t>
+  </si>
+  <si>
+    <t>other_transfer_label</t>
+  </si>
+  <si>
+    <t>Enter Transfer method:</t>
+  </si>
+  <si>
+    <t>other_transfer_label_set</t>
+  </si>
+  <si>
+    <t>Transfer method:</t>
   </si>
   <si>
     <t>buying_euro_transfer</t>
@@ -2075,32 +2228,42 @@
     <t>by person</t>
   </si>
   <si>
+    <t>euro_transfer_8</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>euro_transfer_next_step</t>
+  </si>
+  <si>
     <t>buying_euro_user_preview</t>
   </si>
   <si>
     <t>💠 ✅️️️️ #buying_euro ✅️️️️💠
-🚌 Origin and destination: #[from_to_city]
-Flight Date: [start_date]
-City of origin: [city]
-Destination city: [city2]
-Load wight: [load]
-price per kilo: [price]
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
 [description]</t>
   </si>
   <si>
     <t>buying_euro_user_view_ad</t>
   </si>
   <si>
+    <t>💠 ✅️️️️ #buying_euro ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]</t>
+  </si>
+  <si>
     <t>buying_euro_admin_preview</t>
   </si>
   <si>
     <t>💠 ✅️️️️ #buying_euro ✅️️️️💠
-🚌 Origin and destination: #[from_to_city]
-Flight Date: [start_date]
-City of origin: [city]
-Destination city: [city2]
-Load wight: [load]
-price per kilo: [price]
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
 [description]
 Contact the [advertiser]</t>
   </si>
@@ -2109,12 +2272,193 @@
   </si>
   <si>
     <t>💠 ✅️️️️ #buying_euro ✅️️️️💠
-🚌 Origin and destination: #[from_to_city]
-Flight Date: [start_date]
-City of origin: [city]
-Destination city: [city2]
-Load wight: [load]
-price per kilo: [price]
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>selling_euro_btn</t>
+  </si>
+  <si>
+    <t>euro sell</t>
+  </si>
+  <si>
+    <t>selling_euro_t1</t>
+  </si>
+  <si>
+    <t>category: euro sell</t>
+  </si>
+  <si>
+    <t>selling_euro_t2</t>
+  </si>
+  <si>
+    <t>how many euros do you want to sell</t>
+  </si>
+  <si>
+    <t>selling_euro_tomans</t>
+  </si>
+  <si>
+    <t>how many tomans do you want to sell each euro?</t>
+  </si>
+  <si>
+    <t>selling_euro_transfer</t>
+  </si>
+  <si>
+    <t>selling_euro_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #selling_euro ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #selling_euro ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]</t>
+  </si>
+  <si>
+    <t>selling_euro_user_view_ad</t>
+  </si>
+  <si>
+    <t>selling_euro_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #selling_euro ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>selling_euro_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #selling_euro ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>services_btn</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>services_t1</t>
+  </si>
+  <si>
+    <t>category: services</t>
+  </si>
+  <si>
+    <t>services_t2</t>
+  </si>
+  <si>
+    <t>Write the title of the service:</t>
+  </si>
+  <si>
+    <t>services_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #services✅️️️️💠
+Service: [service_name]
+City: [city]
+[description]</t>
+  </si>
+  <si>
+    <t>services_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #services✅️️️️💠
+Service: [service_name]
+City: [city]
+[description]</t>
+  </si>
+  <si>
+    <t>services_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #services✅️️️️💠
+Service: [service_name]
+City: [city]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>services_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #services✅️️️️💠
+Service: [service_name]
+City: [city]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
+    <t>needs_btn</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>needs_t1</t>
+  </si>
+  <si>
+    <t>category: needs</t>
+  </si>
+  <si>
+    <t>needs_t2</t>
+  </si>
+  <si>
+    <t>needs_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+Price: [price]
+[description]</t>
+  </si>
+  <si>
+    <t>needs_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+Price: [price]
+[description]</t>
+  </si>
+  <si>
+    <t>needs_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+Price: [price]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>needs_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+Price: [price]
 [description]
 Contact the [advertiser]
 🤖️️️ @bot_username
@@ -2192,7 +2536,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2248,6 +2592,9 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2283,6 +2630,18 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -3912,35 +4271,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>371</v>
+        <v>405</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>328</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -3950,46 +4309,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>377</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>383</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4230,35 +4589,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>385</v>
+        <v>421</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>387</v>
+        <v>424</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>328</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4268,46 +4627,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>392</v>
+        <v>430</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>391</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4543,35 +4902,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>400</v>
+        <v>439</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>401</v>
+        <v>440</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>328</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4581,46 +4940,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4856,13 +5215,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>416</v>
+        <v>456</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -4872,24 +5231,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>418</v>
+        <v>459</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>419</v>
+        <v>461</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -4899,24 +5258,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>423</v>
+        <v>465</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -4926,24 +5285,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>425</v>
+        <v>467</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -4953,24 +5312,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>431</v>
+        <v>473</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -4980,24 +5339,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>433</v>
+        <v>475</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>435</v>
+        <v>477</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5007,24 +5366,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -5034,35 +5393,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>441</v>
+        <v>483</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -5072,46 +5431,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>447</v>
+        <v>489</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>449</v>
+        <v>491</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>451</v>
+        <v>493</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -5121,46 +5480,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>455</v>
+        <v>497</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>456</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>458</v>
+        <v>500</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>459</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>461</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -5236,13 +5595,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>463</v>
+        <v>505</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5252,24 +5611,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>465</v>
+        <v>508</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>466</v>
+        <v>510</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5279,24 +5638,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>467</v>
+        <v>511</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>422</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>468</v>
+        <v>512</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>424</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -5306,24 +5665,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>428</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>428</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -5333,24 +5692,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>471</v>
+        <v>515</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>472</v>
+        <v>516</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -5360,24 +5719,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>434</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>474</v>
+        <v>518</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5387,24 +5746,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>475</v>
+        <v>519</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>438</v>
+        <v>480</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>476</v>
+        <v>520</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>440</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -5414,35 +5773,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>479</v>
+        <v>523</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -5452,46 +5811,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>480</v>
+        <v>524</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>448</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>450</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>482</v>
+        <v>526</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>452</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>454</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -5501,46 +5860,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>484</v>
+        <v>528</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>485</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>488</v>
+        <v>532</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -5616,13 +5975,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>491</v>
+        <v>535</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>492</v>
+        <v>536</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5632,24 +5991,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>493</v>
+        <v>537</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>495</v>
+        <v>539</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>496</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5664,155 +6023,616 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>497</v>
+        <v>541</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>499</v>
+        <v>543</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>500</v>
+        <v>544</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>505</v>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" ht="21.0" customHeight="1">
+      <c r="A13" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="16" ht="21.0" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="22" ht="21.0" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" ht="21.0" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="25" ht="21.0" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" ht="21.0" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" ht="21.0" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF011627"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="3" max="3" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>507</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="15" ht="21.0" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="17" ht="21.0" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" ht="21.0" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" ht="21.0" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="20" ht="21.0" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="21" ht="21.0" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="22" ht="21.0" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>522</v>
+        <v>593</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF011627"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="3" max="3" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF011627"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="33.5"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="3" max="3" width="38.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="21.0" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>608</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="3" ht="21.0" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" ht="21.0" customHeight="1">
+      <c r="A4" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" ht="21.0" customHeight="1">
+      <c r="A5" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" ht="21.0" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" ht="21.0" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" ht="21.0" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" ht="21.0" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" ht="21.0" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" ht="21.0" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -5947,46 +6767,46 @@
       <c r="C12" s="6"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="3"/>
@@ -6303,15 +7123,15 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" ht="21.0" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-    </row>
-    <row r="83" ht="21.0" customHeight="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="9"/>
@@ -10927,16 +11747,6 @@
       <c r="A1006" s="9"/>
       <c r="B1006" s="9"/>
       <c r="C1006" s="9"/>
-    </row>
-    <row r="1007" ht="15.75" customHeight="1">
-      <c r="A1007" s="9"/>
-      <c r="B1007" s="9"/>
-      <c r="C1007" s="9"/>
-    </row>
-    <row r="1008" ht="15.75" customHeight="1">
-      <c r="A1008" s="9"/>
-      <c r="B1008" s="9"/>
-      <c r="C1008" s="9"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -12341,7 +13151,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -12351,24 +13161,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -12383,24 +13193,24 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -12410,24 +13220,24 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -12437,24 +13247,24 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
@@ -12464,24 +13274,24 @@
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
@@ -12491,13 +13301,13 @@
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -12621,13 +13431,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -12642,90 +13452,90 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -12735,244 +13545,244 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>135</v>
+        <v>146</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>157</v>
+        <v>179</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="36" ht="21.0" customHeight="1">
@@ -12982,24 +13792,24 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" ht="21.0" customHeight="1">
@@ -13009,497 +13819,497 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" ht="21.0" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" ht="21.0" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="75" ht="21.0" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" ht="21.0" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="77" ht="21.0" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" ht="21.0" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="79" ht="21.0" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>279</v>
+        <v>305</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="80" ht="21.0" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" ht="21.0" customHeight="1">
       <c r="A81" s="17" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>284</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>284</v>
+        <v>311</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="82" ht="21.0" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
     </row>
     <row r="83" ht="21.0" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" ht="21.0" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" ht="21.0" customHeight="1">
@@ -13509,46 +14319,46 @@
     </row>
     <row r="86" ht="21.0" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="87" ht="21.0" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" ht="21.0" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
     </row>
     <row r="89" ht="21.0" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -13572,7 +14382,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="33.5"/>
-    <col customWidth="1" min="2" max="2" width="38.38"/>
+    <col customWidth="1" min="2" max="2" width="40.38"/>
     <col customWidth="1" min="3" max="3" width="33.5"/>
   </cols>
   <sheetData>
@@ -13589,35 +14399,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>306</v>
+        <v>332</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -13627,67 +14437,67 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="11"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7"/>
@@ -13855,53 +14665,19 @@
       <c r="C46" s="11"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>270</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" ht="21.0" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>275</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" ht="21.0" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="50" ht="21.0" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="51" ht="21.0" customHeight="1">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -13924,7 +14700,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="33.5"/>
-    <col customWidth="1" min="2" max="2" width="40.38"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
     <col customWidth="1" min="3" max="3" width="33.5"/>
   </cols>
   <sheetData>
@@ -13941,35 +14717,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>325</v>
+        <v>350</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -13979,67 +14755,67 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="11"/>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7"/>
@@ -14207,19 +14983,53 @@
       <c r="C46" s="11"/>
     </row>
     <row r="47" ht="21.0" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" ht="21.0" customHeight="1">
+      <c r="A50" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" ht="21.0" customHeight="1">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -14259,35 +15069,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>342</v>
+        <v>372</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -14297,46 +15107,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>349</v>
+        <v>381</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>351</v>
+        <v>383</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>353</v>
+        <v>385</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -14577,35 +15387,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>357</v>
+        <v>389</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>328</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -14615,46 +15425,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -17,10 +17,10 @@
     <sheet state="visible" name="buying_goods" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="buying_cargo" sheetId="13" r:id="rId16"/>
     <sheet state="visible" name="selling_cargo" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="buying_euro" sheetId="15" r:id="rId18"/>
-    <sheet state="visible" name="selling_euro" sheetId="16" r:id="rId19"/>
-    <sheet state="visible" name="services" sheetId="17" r:id="rId20"/>
-    <sheet state="visible" name="needs" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="needs" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="buying_euro" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="selling_euro" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="services" sheetId="18" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="624">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -2135,6 +2135,64 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>needs_btn</t>
+  </si>
+  <si>
+    <t>needs</t>
+  </si>
+  <si>
+    <t>needs_t1</t>
+  </si>
+  <si>
+    <t>category: needs</t>
+  </si>
+  <si>
+    <t>needs_t2</t>
+  </si>
+  <si>
+    <t>Write the title of the service:</t>
+  </si>
+  <si>
+    <t>needs_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+[price_line]
+[description]</t>
+  </si>
+  <si>
+    <t>needs_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+[price_line]
+[description]</t>
+  </si>
+  <si>
+    <t>needs_admin_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+[price_line]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>needs_channel_message</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+[price_line]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
     <t>buying_euro_btn</t>
   </si>
   <si>
@@ -2367,10 +2425,19 @@
     <t>services_t2</t>
   </si>
   <si>
-    <t>Write the title of the service:</t>
+    <t>services_service_name_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service: </t>
   </si>
   <si>
     <t>services_user_preview</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ #services✅️️️️💠
+Service: [service_name]
+City: [city]
+[description]</t>
   </si>
   <si>
     <t>💠 ✅️️️️ #services✅️️️️💠
@@ -2404,61 +2471,6 @@
     <t>💠 ✅️️️️ #services✅️️️️💠
 Service: [service_name]
 City: [city]
-[description]
-Contact the [advertiser]
-🤖️️️ @bot_username
-✅️️️️️️️ @channel_username</t>
-  </si>
-  <si>
-    <t>needs_btn</t>
-  </si>
-  <si>
-    <t>needs</t>
-  </si>
-  <si>
-    <t>needs_t1</t>
-  </si>
-  <si>
-    <t>category: needs</t>
-  </si>
-  <si>
-    <t>needs_t2</t>
-  </si>
-  <si>
-    <t>needs_user_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #needs✅️️️️💠
-City: [city]
-Price: [price]
-[description]</t>
-  </si>
-  <si>
-    <t>needs_user_view_ad</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #needs✅️️️️💠
-City: [city]
-Price: [price]
-[description]</t>
-  </si>
-  <si>
-    <t>needs_admin_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #needs✅️️️️💠
-City: [city]
-Price: [price]
-[description]
-Contact the [advertiser]</t>
-  </si>
-  <si>
-    <t>needs_channel_message</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #needs✅️️️️💠
-City: [city]
-Price: [price]
 [description]
 Contact the [advertiser]
 🤖️️️ @bot_username
@@ -6017,7 +6029,7 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="16"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
@@ -6063,170 +6075,6 @@
       </c>
       <c r="C11" s="7" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="15" ht="21.0" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="17" ht="21.0" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="18" ht="21.0" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="19" ht="21.0" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="20" ht="21.0" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="21" ht="21.0" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="22" ht="21.0" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" ht="21.0" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" ht="21.0" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="25" ht="21.0" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="26" ht="21.0" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="27" ht="21.0" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -6267,13 +6115,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6283,24 +6131,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6309,74 +6157,216 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>584</v>
-      </c>
+      <c r="A7" s="16"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>591</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>593</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" ht="21.0" customHeight="1">
+      <c r="A14" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" ht="21.0" customHeight="1">
+      <c r="A15" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="16" ht="21.0" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="17" ht="21.0" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" ht="21.0" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="19" ht="21.0" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" ht="21.0" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" ht="21.0" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" ht="21.0" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" ht="21.0" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" ht="21.0" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="26" ht="21.0" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" ht="21.0" customHeight="1">
+      <c r="A27" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -6417,13 +6407,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6433,24 +6423,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6459,51 +6449,73 @@
       <c r="C6" s="7"/>
     </row>
     <row r="7" ht="21.0" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>603</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" ht="21.0" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="13" ht="21.0" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>607</v>
       </c>
     </row>
@@ -6575,16 +6587,22 @@
         <v>612</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>599</v>
+        <v>540</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>599</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7"/>
@@ -6593,46 +6611,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>616</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="656">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -136,7 +136,7 @@
     <t>CANCEL</t>
   </si>
   <si>
-    <t>لغو آگهی ❌</t>
+    <t>لغو ❌</t>
   </si>
   <si>
     <t>canceled_t</t>
@@ -154,7 +154,7 @@
     <t>CONFIRM</t>
   </si>
   <si>
-    <t>ارسال آگهی ✅</t>
+    <t>تایید ✅</t>
   </si>
   <si>
     <t>confirmed_t</t>
@@ -205,58 +205,24 @@
     <t>english</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">✅ ثبت آگهی در کانال @austriabazar فقط توسط این ربات و پس از تایید ادمین صورت می گیرد.
+    <t xml:space="preserve">✅ ثبت آگهی در کانال @AustriaBazar فقط توسط این ربات و پس از تایید ادمین صورت می گیرد.
 ✅ نیازی به نوشتن ID در آگهی نمی باشد.
 ✅ ارسال انواع آگهی مجاز است.
 ✅ می توانید پس از ثبت یک آگهی و قبل از تایید یا رد آگهی توسط ادمین، شروع به ثبت آگهی های بعدی خود نمایید.
 ⚠️ صحت آگهی بر عهده آگهی دهنده است و AustriaBazar هیچ گونه مسئولیتی در قبال آگهی قبول نمی کند.
 کانال های ما : 
 @AustriaBazar
-@AustriaEverything
 گروه ما:
 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>https://t.me/Austria_Everything</t>
-    </r>
   </si>
   <si>
     <t>short_description</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="12.0"/>
-      </rPr>
-      <t xml:space="preserve">ربات ثبت آگهی در کانال @AustriaBazar
+    <t xml:space="preserve">ربات ثبت آگهی در کانال @AustriaBazar
 کانال ما:
-@AustriaEverything
 گروه ما:
 </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF1155CC"/>
-        <sz val="12.0"/>
-        <u/>
-      </rPr>
-      <t>https://t.me/Austria_Everything</t>
-    </r>
   </si>
   <si>
     <t>mm_m</t>
@@ -402,7 +368,7 @@
     <t>Rent</t>
   </si>
   <si>
-    <t>اجاره خانه🏠</t>
+    <t>اجاره خانه 🏠</t>
   </si>
   <si>
     <t>rent_t1</t>
@@ -411,7 +377,7 @@
     <t>category: rent</t>
   </si>
   <si>
-    <t>📦 دسته بندی : اجاره خانه</t>
+    <t>📁 دسته بندی: اجاره خانه 🏠</t>
   </si>
   <si>
     <t>rent_t2</t>
@@ -1138,7 +1104,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره_خانه ✅️️️️💠
+    <t>💠✅️️️️ #اجاره_خانه ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1163,7 +1129,7 @@
 Contact the [advertiser]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره_خانه ✅️️️️💠
+    <t>💠✅️️️️ #اجاره_خانه ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1188,7 +1154,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره_خانه ✅️️️️💠
+    <t>💠✅️️️️ #اجاره_خانه ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1206,7 +1172,7 @@
     <t>home applicant</t>
   </si>
   <si>
-    <t>متقاضی خانه🏠</t>
+    <t>متقاضی خانه 🏠</t>
   </si>
   <si>
     <t>home_applicant_t1</t>
@@ -1215,7 +1181,7 @@
     <t>category: home applicant</t>
   </si>
   <si>
-    <t>📦 دسته بندی : متقاضی خانه</t>
+    <t>📁 دسته بندی: متقاضی خانه 🏠</t>
   </si>
   <si>
     <t>home_applicant_t2</t>
@@ -1232,7 +1198,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_خانه ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1264,7 +1230,7 @@
 Contact the [advertiser]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_خانه ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1287,7 +1253,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_خانه ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1304,7 +1270,7 @@
     <t>room rent</t>
   </si>
   <si>
-    <t>اجاره اتاق🏠</t>
+    <t>اجاره اتاق 🚪🛏️</t>
   </si>
   <si>
     <t>room_rent_t1</t>
@@ -1313,13 +1279,10 @@
     <t>category: room rent</t>
   </si>
   <si>
-    <t>📦 دسته بندی : اجاره اتاق</t>
+    <t>📁 دسته بندی: اجاره اتاق 🚪🛏️</t>
   </si>
   <si>
     <t>room_rent_t2</t>
-  </si>
-  <si>
-    <t>📍 از بین شهرهای زیر یکی رو انتخاب کنید یا نام آن را وارد نمایید:</t>
   </si>
   <si>
     <t>room_rent_user_preview</t>
@@ -1334,7 +1297,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره_اتاق✅️️️️💠
+    <t>💠✅️️️️ #اجاره_اتاق ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1355,7 +1318,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره_اتاق✅️️️️💠
+    <t>💠✅️️️️ #اجاره_اتاق ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1377,7 +1340,7 @@
 Contact the [advertiser]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره_اتاق✅️️️️💠
+    <t>💠✅️️️️ #اجاره_اتاق ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1402,7 +1365,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره_اتاق✅️️️️💠
+    <t>💠✅️️️️ #اجاره_اتاق ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1423,7 +1386,7 @@
     <t>room applicant</t>
   </si>
   <si>
-    <t>متقاضی اتاق🏠</t>
+    <t>متقاضی اتاق 🚪🛏️</t>
   </si>
   <si>
     <t>room_applicant_t1</t>
@@ -1432,7 +1395,7 @@
     <t>category: room applicant</t>
   </si>
   <si>
-    <t>📦 دسته بندی : متقاضی اتاق</t>
+    <t>📁 دسته بندی: متقاضی اتاق 🚪🛏️</t>
   </si>
   <si>
     <t>room_applicant_t2</t>
@@ -1449,7 +1412,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_اتاق ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1458,6 +1421,14 @@
   </si>
   <si>
     <t>room_applicant_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ #متقاضی_اتاق ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[description]</t>
   </si>
   <si>
     <t>room_applicant_admin_preview</t>
@@ -1472,7 +1443,7 @@
 Contact the [advertiser]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_اتاق ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1495,7 +1466,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #اجاره اتاق ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_اتاق ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1512,7 +1483,7 @@
     <t>meldezettel</t>
   </si>
   <si>
-    <t>ملد هوایی📮</t>
+    <t>ملد هوایی 📭</t>
   </si>
   <si>
     <t>meldezettel_t1</t>
@@ -1521,7 +1492,7 @@
     <t>category: meldezettel</t>
   </si>
   <si>
-    <t>📦 دسته بندی : ملد هوایی📮</t>
+    <t>📁 دسته بندی: ملد هوایی 📭</t>
   </si>
   <si>
     <t>meldezettel_t2</t>
@@ -1539,7 +1510,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #meldezettel ✅️️️️💠
+    <t>💠✅️️️️ #ملد_هوایی ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1549,6 +1520,15 @@
   </si>
   <si>
     <t>meldezettel_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ #ملد_هوایی ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+📝 نوع قرارداد: #[contract_status]
+[price_line]
+[description]</t>
   </si>
   <si>
     <t>meldezettel_admin_preview</t>
@@ -1566,7 +1546,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #meldezettel ✅️️️️💠
+    <t>💠✅️️️️ #ملد_هوایی ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1579,7 +1559,7 @@
     <t>meldezettel_channel_message</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #meldezettel ✅️️️️💠
+    <t>💠✅️️️️ #ملد_هوایی ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1597,7 +1577,7 @@
     <t>meldezettel applicant</t>
   </si>
   <si>
-    <t>متقاضی ملد هوایی📮</t>
+    <t>متقاضی ملد هوایی 📭</t>
   </si>
   <si>
     <t>meldezettel_applicant_t1</t>
@@ -1606,7 +1586,7 @@
     <t>category: meldezettel applicant</t>
   </si>
   <si>
-    <t>📦 دسته بندی : متقاضی ملد هوایی📮</t>
+    <t>📁 دسته بندی: متقاضی ملد هوایی 📭</t>
   </si>
   <si>
     <t>meldezettel_applicant_t2</t>
@@ -1622,7 +1602,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #meldezettel_applicant ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_ملد_هوایی ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1630,6 +1610,13 @@
   </si>
   <si>
     <t>meldezettel_applicant_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ #متقاضی_ملد_هوایی ✅️️️️💠
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+🗓️️ تاریخ: از [start_date] تا [end_date]
+[description]</t>
   </si>
   <si>
     <t>meldezettel_applicant_admin_preview</t>
@@ -1645,7 +1632,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #meldezettel_applicant ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_ملد_هوایی ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1656,7 +1643,7 @@
     <t>meldezettel_applicant_channel_message</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #meldezettel_applicant ✅️️️️💠
+    <t>💠✅️️️️ #متقاضی_ملد_هوایی ✅️️️️💠
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
 🗓️️ تاریخ: از [start_date] تا [end_date]
@@ -1672,7 +1659,7 @@
     <t>selling goods</t>
   </si>
   <si>
-    <t>فروش کالا📦</t>
+    <t>فروش کالا 🛍️</t>
   </si>
   <si>
     <t>selling_goods_t1</t>
@@ -1681,7 +1668,7 @@
     <t>category: selling goods</t>
   </si>
   <si>
-    <t>📦 دسته بندی : فروش کالا📦</t>
+    <t>📁 دسته بندی: فروش کالا 🛍️</t>
   </si>
   <si>
     <t>selling_goods_t2</t>
@@ -1698,7 +1685,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #selling_goods ✅️️️️💠
+    <t>💠✅️️️️ فروش_کالا# ✅️️️️💠
 Product Name: [product_name]
 [price_line2]
 📍مربوط به شهر:  #[city]
@@ -1707,6 +1694,14 @@
   </si>
   <si>
     <t>selling_goods_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ فروش_کالا# ✅️️️️💠
+Product Name: [product_name]
+[price_line2]
+📍مربوط به شهر:  #[city]
+🔎 محدوده: [sub_city]
+[description]</t>
   </si>
   <si>
     <t>selling_goods_admin_preview</t>
@@ -1723,7 +1718,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #selling_goods ✅️️️️💠
+    <t>💠✅️️️️ فروش_کالا# ✅️️️️💠
 Product Name: [product_name]
 [price_line2]
 📍مربوط به شهر:  #[city]
@@ -1735,7 +1730,7 @@
     <t>selling_goods_channel_message</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #selling_goods ✅️️️️💠
+    <t>💠✅️️️️ فروش_کالا# ✅️️️️💠
 Product Name: [product_name]
 [price_line2]
 📍مربوط به شهر:  #[city]
@@ -1752,7 +1747,7 @@
     <t>buying goods</t>
   </si>
   <si>
-    <t>خرید کالا📦</t>
+    <t>خرید کالا 🛍️</t>
   </si>
   <si>
     <t>buying_goods_t1</t>
@@ -1761,7 +1756,7 @@
     <t>category: buying goods</t>
   </si>
   <si>
-    <t>📦 دسته بندی : خرید کالا📦</t>
+    <t>📁 دسته بندی: خرید کالا 🛍️</t>
   </si>
   <si>
     <t>buying_goods_t2</t>
@@ -1777,7 +1772,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #buying_goods ✅️️️️💠
+    <t>💠✅️️️️ خرید_کالا# ✅️️️️💠
 Product Name: [product_name]
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
@@ -1794,7 +1789,7 @@
 [description]</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #buying_goods ✅️️️️💠
+    <t>💠✅️️️️ خرید_کالا# ✅️️️️💠
 Product Name: [product_name]
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
@@ -1814,7 +1809,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #buying_goods ✅️️️️💠
+    <t>💠✅️️️️ خرید_کالا# ✅️️️️💠
 Product Name: [product_name]
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
@@ -1835,7 +1830,7 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
-    <t>💠 ✅️️️️ #buying_goods ✅️️️️💠
+    <t>💠✅️️️️ خرید_کالا# ✅️️️️💠
 Product Name: [product_name]
 📍مربوط به شهر:  #[city]
 🔎 محدوده: [sub_city]
@@ -1851,7 +1846,7 @@
     <t>buying Cargo</t>
   </si>
   <si>
-    <t>فروش بار 📦</t>
+    <t>خرید بار 📦</t>
   </si>
   <si>
     <t>buying_cargo_t1</t>
@@ -1860,7 +1855,7 @@
     <t>category: buying Cargo</t>
   </si>
   <si>
-    <t>📦 دسته بندی : فروش بار📦</t>
+    <t>📁 دسته بندی: خرید بار 📦</t>
   </si>
   <si>
     <t>buying_cargo_t2</t>
@@ -1984,13 +1979,44 @@
 [description]</t>
   </si>
   <si>
+    <t>💠✅️️️️ خرید_بار# ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]</t>
+  </si>
+  <si>
     <t>buying_cargo_user_view_ad</t>
   </si>
   <si>
+    <t>💠✅️️️️ خرید_بار# ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]</t>
+  </si>
+  <si>
     <t>buying_cargo_admin_preview</t>
   </si>
   <si>
     <t>💠 ✅️️️️ #buying_cargo ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ خرید_بار# ✅️️️️💠
 🚌 Origin and destination: #[from_to_city]
 Flight Date: [start_date]
 City of origin: [city]
@@ -2017,13 +2043,26 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>💠✅️️️️ خرید_بار# ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
     <t>selling_cargo_btn</t>
   </si>
   <si>
     <t>selling Cargo</t>
   </si>
   <si>
-    <t>خرید بار 📦</t>
+    <t>فروش بار 📦</t>
   </si>
   <si>
     <t>selling_cargo_t1</t>
@@ -2032,7 +2071,7 @@
     <t>category: selling Cargo</t>
   </si>
   <si>
-    <t>📦 دسته بندی : خرید بار📦</t>
+    <t>📁 دسته بندی: فروش بار 📦</t>
   </si>
   <si>
     <t>selling_cargo_t2</t>
@@ -2102,13 +2141,44 @@
 [description]</t>
   </si>
   <si>
+    <t>💠 ✅️️️️ فروش_بار# ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]</t>
+  </si>
+  <si>
     <t>selling_cargo_user_view_ad</t>
   </si>
   <si>
+    <t>💠 ✅️️️️ فروش_بار# ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]</t>
+  </si>
+  <si>
     <t>selling_cargo_admin_preview</t>
   </si>
   <si>
     <t>💠 ✅️️️️ #selling_cargo ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠 ✅️️️️ فروش_بار# ✅️️️️💠
 🚌 Origin and destination: #[from_to_city]
 Flight Date: [start_date]
 City of origin: [city]
@@ -2135,16 +2205,35 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>💠 ✅️️️️ فروش_بار# ✅️️️️💠
+🚌 Origin and destination: #[from_to_city]
+Flight Date: [start_date]
+City of origin: [city]
+Destination city: [city2]
+Load wight: [load]
+price per kilo: [price]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
     <t>needs_btn</t>
   </si>
   <si>
     <t>needs</t>
   </si>
   <si>
+    <t>نیازمندی ها 🤝</t>
+  </si>
+  <si>
     <t>needs_t1</t>
   </si>
   <si>
     <t>category: needs</t>
+  </si>
+  <si>
+    <t>📁 دسته بندی: نیازمندی ها 🤝</t>
   </si>
   <si>
     <t>needs_t2</t>
@@ -2162,6 +2251,12 @@
 [description]</t>
   </si>
   <si>
+    <t>💠✅️️️️ نیازمندی_ها# ✅️️️️💠
+City: [city]
+[price_line]
+[description]</t>
+  </si>
+  <si>
     <t>needs_user_view_ad</t>
   </si>
   <si>
@@ -2171,10 +2266,23 @@
 [description]</t>
   </si>
   <si>
+    <t>💠✅️️️️ نیازمندی_ها# ✅️️️️💠
+City: [city]
+[price_line]
+[description]</t>
+  </si>
+  <si>
     <t>needs_admin_preview</t>
   </si>
   <si>
     <t>💠 ✅️️️️ #needs✅️️️️💠
+City: [city]
+[price_line]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ نیازمندی_ها# ✅️️️️💠
 City: [city]
 [price_line]
 [description]
@@ -2193,16 +2301,31 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>💠✅️️️️ نیازمندی_ها# ✅️️️️💠
+City: [city]
+[price_line]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
     <t>buying_euro_btn</t>
   </si>
   <si>
     <t>euro buy</t>
   </si>
   <si>
+    <t>خرید یورو 💶</t>
+  </si>
+  <si>
     <t>buying_euro_t1</t>
   </si>
   <si>
     <t>category: euro buy</t>
+  </si>
+  <si>
+    <t>📁 دسته بندی: خرید یورو 💶</t>
   </si>
   <si>
     <t>buying_euro_t2</t>
@@ -2305,6 +2428,13 @@
 [description]</t>
   </si>
   <si>
+    <t>💠✅️️️️ خرید_یورو# ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]</t>
+  </si>
+  <si>
     <t>buying_euro_user_view_ad</t>
   </si>
   <si>
@@ -2315,10 +2445,25 @@
 [description]</t>
   </si>
   <si>
+    <t>💠✅️️️️ خرید_یورو# ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]</t>
+  </si>
+  <si>
     <t>buying_euro_admin_preview</t>
   </si>
   <si>
     <t>💠 ✅️️️️ #buying_euro ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ خرید_یورو# ✅️️️️💠
 Euros: [euros]
 pricing: [toman_per_euro]
 Payment methods: [payment_methods]
@@ -2339,16 +2484,32 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>💠✅️️️️ خرید_یورو# ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
     <t>selling_euro_btn</t>
   </si>
   <si>
     <t>euro sell</t>
   </si>
   <si>
+    <t>فروش یورو 💶</t>
+  </si>
+  <si>
     <t>selling_euro_t1</t>
   </si>
   <si>
     <t>category: euro sell</t>
+  </si>
+  <si>
+    <t>📁 دسته بندی: فروش یورو 💶</t>
   </si>
   <si>
     <t>selling_euro_t2</t>
@@ -2376,20 +2537,35 @@
 [description]</t>
   </si>
   <si>
+    <t>💠✅️️️️ فروش_یورو# ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]</t>
+  </si>
+  <si>
+    <t>selling_euro_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ فروش_یورو# ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]</t>
+  </si>
+  <si>
+    <t>selling_euro_admin_preview</t>
+  </si>
+  <si>
     <t>💠 ✅️️️️ #selling_euro ✅️️️️💠
 Euros: [euros]
 pricing: [toman_per_euro]
 Payment methods: [payment_methods]
-[description]</t>
-  </si>
-  <si>
-    <t>selling_euro_user_view_ad</t>
-  </si>
-  <si>
-    <t>selling_euro_admin_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #selling_euro ✅️️️️💠
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ فروش_یورو# ✅️️️️💠
 Euros: [euros]
 pricing: [toman_per_euro]
 Payment methods: [payment_methods]
@@ -2410,16 +2586,32 @@
 ✅️️️️️️️ @channel_username</t>
   </si>
   <si>
+    <t>💠✅️️️️ فروش_یورو# ✅️️️️💠
+Euros: [euros]
+pricing: [toman_per_euro]
+Payment methods: [payment_methods]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
+  <si>
     <t>services_btn</t>
   </si>
   <si>
     <t>services</t>
   </si>
   <si>
+    <t>خدمات 🤝</t>
+  </si>
+  <si>
     <t>services_t1</t>
   </si>
   <si>
     <t>category: services</t>
+  </si>
+  <si>
+    <t>📁 دسته بندی: خدمات 🤝</t>
   </si>
   <si>
     <t>services_t2</t>
@@ -2440,25 +2632,32 @@
 [description]</t>
   </si>
   <si>
+    <t>💠✅️️️️ خدمات# ✅️️️️💠
+Service: [service_name]
+City: [city]
+[description]</t>
+  </si>
+  <si>
+    <t>services_user_view_ad</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ خدمات# ✅️️️️💠
+Service: [service_name]
+City: [city]
+[description]</t>
+  </si>
+  <si>
+    <t>services_admin_preview</t>
+  </si>
+  <si>
     <t>💠 ✅️️️️ #services✅️️️️💠
 Service: [service_name]
 City: [city]
-[description]</t>
-  </si>
-  <si>
-    <t>services_user_view_ad</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #services✅️️️️💠
-Service: [service_name]
-City: [city]
-[description]</t>
-  </si>
-  <si>
-    <t>services_admin_preview</t>
-  </si>
-  <si>
-    <t>💠 ✅️️️️ #services✅️️️️💠
+[description]
+Contact the [advertiser]</t>
+  </si>
+  <si>
+    <t>💠✅️️️️ خدمات# ✅️️️️💠
 Service: [service_name]
 City: [city]
 [description]
@@ -2476,12 +2675,21 @@
 🤖️️️ @bot_username
 ✅️️️️️️️ @channel_username</t>
   </si>
+  <si>
+    <t>💠✅️️️️ خدمات# ✅️️️️💠
+Service: [service_name]
+City: [city]
+[description]
+Contact the [advertiser]
+🤖️️️ @bot_username
+✅️️️️️️️ @channel_username</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2502,12 +2710,6 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2579,13 +2781,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2594,10 +2796,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -4283,35 +4485,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>357</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4321,46 +4523,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>416</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4601,35 +4803,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>357</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4639,46 +4841,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>429</v>
+      <c r="C7" s="19" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C9" s="7" t="s">
         <v>435</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4914,35 +5116,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>357</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4952,46 +5154,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>451</v>
+        <v>453</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -5227,13 +5429,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5243,24 +5445,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5270,24 +5472,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -5297,24 +5499,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -5324,24 +5526,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -5351,24 +5553,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5378,24 +5580,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -5405,35 +5607,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -5443,46 +5645,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -5492,46 +5694,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -5607,13 +5809,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5623,24 +5825,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5650,24 +5852,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -5677,24 +5879,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -5704,24 +5906,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -5731,24 +5933,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5758,24 +5960,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -5785,35 +5987,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -5823,46 +6025,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -5872,46 +6074,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -5987,13 +6189,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6003,24 +6205,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>538</v>
+        <v>550</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6035,46 +6237,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>548</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -6115,13 +6317,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>550</v>
+        <v>567</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6131,24 +6333,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>552</v>
+        <v>570</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6163,46 +6365,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -6212,106 +6414,106 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>245</v>
@@ -6327,46 +6529,46 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -6407,13 +6609,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>592</v>
+        <v>615</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6423,24 +6625,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>594</v>
+        <v>618</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6450,24 +6652,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -6477,46 +6679,46 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -6557,13 +6759,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>609</v>
+        <v>637</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6573,35 +6775,35 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>610</v>
+        <v>639</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>611</v>
+        <v>640</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>612</v>
+        <v>642</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
@@ -6611,46 +6813,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>615</v>
+        <v>645</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>617</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>618</v>
+        <v>648</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>616</v>
+        <v>646</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>619</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>621</v>
+        <v>651</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -13123,14 +13325,10 @@
     <row r="1000" ht="15.75" customHeight="1"/>
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="C11"/>
-    <hyperlink r:id="rId2" ref="C12"/>
-  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14763,7 +14961,7 @@
         <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>357</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -14773,46 +14971,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>362</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>365</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -15013,7 +15211,7 @@
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>299</v>
@@ -15087,35 +15285,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>372</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>375</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>357</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15125,24 +15323,24 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>379</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>381</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
@@ -15433,7 +15631,7 @@
         <v>95</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>357</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15460,29 +15658,29 @@
         <v>396</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="Admin" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="General" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="User" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Rent" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Rent and mean steps" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="home applicant" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Room Rent" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="room applicant" sheetId="8" r:id="rId11"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="666">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -223,6 +223,30 @@
 کانال ما:
 گروه ما:
 </t>
+  </si>
+  <si>
+    <t>my_ads_previous</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>my_ads_next</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>my_ads_delete</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>my_ads_expire</t>
+  </si>
+  <si>
+    <t>EXPIRE</t>
   </si>
   <si>
     <t>mm_m</t>
@@ -1071,7 +1095,7 @@
     <t>Confirm Or Cancel:</t>
   </si>
   <si>
-    <t>تایید ✅ یا حذف ❌</t>
+    <t>تایید ✅ یا لغو ❌</t>
   </si>
   <si>
     <t>price_eye</t>
@@ -1380,6 +1404,9 @@
     <t>error3</t>
   </si>
   <si>
+    <t>تایید ✅ یا حذف ❌</t>
+  </si>
+  <si>
     <t>room_applicant_btn</t>
   </si>
   <si>
@@ -1862,6 +1889,9 @@
   </si>
   <si>
     <t>Please specify the country of origin and destination:</t>
+  </si>
+  <si>
+    <t>لطفا کشور مبدا و مقصد را مشخص نمایید :</t>
   </si>
   <si>
     <t>buying_cargo_origin</t>
@@ -4485,35 +4515,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4523,46 +4553,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4803,35 +4833,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4841,46 +4871,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -5116,35 +5146,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -5154,46 +5184,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -5429,13 +5459,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5445,24 +5475,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5472,24 +5502,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -5499,24 +5529,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -5526,24 +5556,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -5553,24 +5583,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5580,24 +5610,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -5607,35 +5637,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -5645,46 +5675,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -5694,46 +5724,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -5809,13 +5839,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5825,24 +5855,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5852,24 +5882,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -5879,24 +5909,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -5906,24 +5936,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -5933,24 +5963,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5960,24 +5990,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -5987,35 +6017,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -6025,46 +6055,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -6074,46 +6104,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -6189,13 +6219,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6205,24 +6235,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6237,46 +6267,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -6317,13 +6347,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6333,24 +6363,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6365,46 +6395,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -6414,112 +6444,112 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
@@ -6529,46 +6559,46 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -6609,13 +6639,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6625,24 +6655,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6652,24 +6682,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -6679,46 +6709,46 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -6759,13 +6789,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6775,35 +6805,35 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
@@ -6813,46 +6843,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -12124,27 +12154,51 @@
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
-      <c r="A17" s="3"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
@@ -13361,13 +13415,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -13377,24 +13431,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -13409,24 +13463,24 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -13436,24 +13490,24 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -13463,24 +13517,24 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
@@ -13490,24 +13544,24 @@
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
@@ -13517,13 +13571,13 @@
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -13647,13 +13701,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -13668,90 +13722,90 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -13761,244 +13815,244 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" ht="21.0" customHeight="1">
@@ -14008,24 +14062,24 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" ht="21.0" customHeight="1">
@@ -14035,497 +14089,497 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" ht="21.0" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" ht="21.0" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" ht="21.0" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" ht="21.0" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77" ht="21.0" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" ht="21.0" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" ht="21.0" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" ht="21.0" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" ht="21.0" customHeight="1">
       <c r="A81" s="17" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" ht="21.0" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" ht="21.0" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="84" ht="21.0" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" ht="21.0" customHeight="1">
@@ -14535,46 +14589,46 @@
     </row>
     <row r="86" ht="21.0" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" ht="21.0" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="88" ht="21.0" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="89" ht="21.0" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -14615,35 +14669,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -14653,46 +14707,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -14933,35 +14987,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -14971,46 +15025,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -15200,46 +15254,46 @@
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>315</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
@@ -15285,35 +15339,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15323,46 +15377,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -15603,35 +15657,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15641,46 +15695,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="714">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Canceled!</t>
   </si>
   <si>
-    <t>منو اصلی 🏠</t>
+    <t>منو اصلی🤖</t>
   </si>
   <si>
     <t>confirm_t</t>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t xml:space="preserve">Reason: </t>
+  </si>
+  <si>
+    <t>دلیل:</t>
   </si>
   <si>
     <t>unknown_command</t>
@@ -243,19 +246,22 @@
     <t>DELETE</t>
   </si>
   <si>
+    <t>حذف</t>
+  </si>
+  <si>
     <t>my_ads_expire</t>
   </si>
   <si>
     <t>EXPIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">انقضا </t>
+  </si>
+  <si>
     <t>mm_m</t>
   </si>
   <si>
     <t>main menu</t>
-  </si>
-  <si>
-    <t>منو اصلی</t>
   </si>
   <si>
     <t>mm_btn_1</t>
@@ -386,6 +392,51 @@
     <t>کمک! 🤝</t>
   </si>
   <si>
+    <t>pending_ads_text</t>
+  </si>
+  <si>
+    <t>PENDING ADS</t>
+  </si>
+  <si>
+    <t>آگهی های در حال تایید من⏳</t>
+  </si>
+  <si>
+    <t>accepted_ads_text</t>
+  </si>
+  <si>
+    <t>ACCEPTED ADS</t>
+  </si>
+  <si>
+    <t>آگهی های فعال من✅</t>
+  </si>
+  <si>
+    <t>expired_ads_text</t>
+  </si>
+  <si>
+    <t>EXPIRED ADS</t>
+  </si>
+  <si>
+    <t>آگهی های منقضی شده من⛔</t>
+  </si>
+  <si>
+    <t>declined_ads_text</t>
+  </si>
+  <si>
+    <t>DECLINED ADS</t>
+  </si>
+  <si>
+    <t>آگهی های پذیرفته نشده من❌</t>
+  </si>
+  <si>
+    <t>no_ads_in_category_text</t>
+  </si>
+  <si>
+    <t>You Dont have Ads in this state</t>
+  </si>
+  <si>
+    <t>هیچ آگهی در این دسته ندارید ⭕️</t>
+  </si>
+  <si>
     <t>rent_btn</t>
   </si>
   <si>
@@ -1005,7 +1056,7 @@
     <t xml:space="preserve">Description: </t>
   </si>
   <si>
-    <t xml:space="preserve">🗯توضیحات: </t>
+    <t xml:space="preserve">📋توضیحات: </t>
   </si>
   <si>
     <t>rent_order_canceled</t>
@@ -1891,7 +1942,7 @@
     <t>Please specify the country of origin and destination:</t>
   </si>
   <si>
-    <t>لطفا کشور مبدا و مقصد را مشخص نمایید :</t>
+    <t>🌎لطفا کشور مبدا و مقصد را مشخص نمایید:</t>
   </si>
   <si>
     <t>buying_cargo_origin</t>
@@ -1900,100 +1951,154 @@
     <t>Select the city of origin:</t>
   </si>
   <si>
+    <t>📍شهر مبدا را انتخاب نمایید:</t>
+  </si>
+  <si>
     <t>buying_cargo_origin_label</t>
   </si>
   <si>
     <t>origin city:</t>
   </si>
   <si>
+    <t>📍شهر مبدا:</t>
+  </si>
+  <si>
     <t>buying_cargo_destination</t>
   </si>
   <si>
     <t>Select the destination city:</t>
   </si>
   <si>
+    <t>📍شهر مقصد را انتخاب نمایید:</t>
+  </si>
+  <si>
     <t>buying_cargo_destination_label</t>
   </si>
   <si>
     <t>destination city:</t>
   </si>
   <si>
+    <t>📍شهر مقصد:</t>
+  </si>
+  <si>
     <t>buying_cargo_flight_date</t>
   </si>
   <si>
     <t>Enter your flight date:</t>
   </si>
   <si>
+    <t>تاریخ پرواز خود را به میلادی وارد نمایید: 
+فرمت : dd/mm/yyyy مثال : 15/12/2023</t>
+  </si>
+  <si>
     <t>buying_cargo_flight_date_label</t>
   </si>
   <si>
     <t>flight date:</t>
   </si>
   <si>
+    <t>🗓تاریخ پرواز:</t>
+  </si>
+  <si>
     <t>buying_cargo_price</t>
   </si>
   <si>
     <t>Enter the price per kg in eros:</t>
   </si>
   <si>
+    <t>قیمت هر کیلوگرم را به یورو وارد نمایید: 
+(فقط عدد وارد کنید مانند : 10 یا 10.50)</t>
+  </si>
+  <si>
     <t>buying_cargo_price_label</t>
   </si>
   <si>
     <t>price:</t>
   </si>
   <si>
+    <t>💶 قیمت:</t>
+  </si>
+  <si>
     <t>buying_cargo_load</t>
   </si>
   <si>
     <t>How many kgof load you want to sell?</t>
   </si>
   <si>
+    <t>چند کیلوگرم بار می خواهید بخرید؟
+(فقط عدد وارد کنید مانند : 10 یا 10.50)</t>
+  </si>
+  <si>
     <t>buying_cargo_load_label</t>
   </si>
   <si>
     <t>Load:</t>
   </si>
   <si>
+    <t>🧳وزن:</t>
+  </si>
+  <si>
     <t>buying_cargo_od_label</t>
   </si>
   <si>
     <t xml:space="preserve">🚌 Origin and destination: </t>
   </si>
   <si>
+    <t>✈️مبدا و مقصد :</t>
+  </si>
+  <si>
     <t>buying_cargo_ia_btn</t>
   </si>
   <si>
     <t>iran to austria</t>
   </si>
   <si>
+    <t>ایران به اتریش</t>
+  </si>
+  <si>
     <t>buying_cargo_ai_btn</t>
   </si>
   <si>
     <t>austria to iran</t>
   </si>
   <si>
+    <t>اتریش به ایران</t>
+  </si>
+  <si>
     <t>buying_cargo_ia</t>
   </si>
   <si>
     <t>iran_to_austria</t>
   </si>
   <si>
+    <t>ایران_به_اتریش</t>
+  </si>
+  <si>
     <t>buying_cargo_ai</t>
   </si>
   <si>
     <t>austria_to_iran</t>
   </si>
   <si>
+    <t>اتریش_به_ایران</t>
+  </si>
+  <si>
     <t>buying_cargo_iran</t>
   </si>
   <si>
     <t>iran</t>
   </si>
   <si>
+    <t>ایران</t>
+  </si>
+  <si>
     <t>buying_cargo_austria</t>
   </si>
   <si>
     <t>austria</t>
+  </si>
+  <si>
+    <t>اتریش</t>
   </si>
   <si>
     <t>buying_cargo_user_preview</t>
@@ -2009,13 +2114,13 @@
 [description]</t>
   </si>
   <si>
-    <t>💠✅️️️️ خرید_بار# ✅️️️️💠
-🚌 Origin and destination: #[from_to_city]
-Flight Date: [start_date]
-City of origin: [city]
-Destination city: [city2]
-Load wight: [load]
-price per kilo: [price]
+    <t>💠✅️️️️ #خرید_بار ✅️️️️💠
+🌎کشور مبدا و مقصد: #[from_to_city]
+🗓تاریخ پرواز: [start_date]
+📍شهر مبدا: [city]
+📍شهر مقصد: [city2]
+🧳وزن بار: [load]
+💰قیمت هر کیلو: [price]
 [description]</t>
   </si>
   <si>
@@ -2134,6 +2239,10 @@
     <t>selling_cargo_load</t>
   </si>
   <si>
+    <t>چند کیلوگرم بار می خواهید بفروشید؟
+(فقط عدد وارد کنید مانند : 10 یا 10.50)</t>
+  </si>
+  <si>
     <t>selling_cargo_load_label</t>
   </si>
   <si>
@@ -2272,6 +2381,10 @@
     <t>Write the title of the service:</t>
   </si>
   <si>
+    <t>عنوان نیازمندی را بنویسید:
+مانند (فروشنده، ناخن کار، تعمیرکار)</t>
+  </si>
+  <si>
     <t>needs_user_preview</t>
   </si>
   <si>
@@ -2364,37 +2477,57 @@
     <t>how many euros do you want to buy</t>
   </si>
   <si>
+    <t>چند یورو می خواهید بخرید ؟
+ (فقط عدد وارد کنید مانند : 500)</t>
+  </si>
+  <si>
     <t>buying_euro_tomans</t>
   </si>
   <si>
     <t>how many tomans do you want pay for each euro?</t>
   </si>
   <si>
+    <t>هر یورو را چند تومان می خواهید بخرید ؟
+(فقط عدد وارد کنید مانند : 53500)</t>
+  </si>
+  <si>
     <t>toman_per_euro_label</t>
   </si>
   <si>
     <t>toman per euro:</t>
   </si>
   <si>
+    <t>قیمت هر یورو:</t>
+  </si>
+  <si>
     <t>other_transfer_label</t>
   </si>
   <si>
     <t>Enter Transfer method:</t>
   </si>
   <si>
+    <t>نحوه دریافت یورو را مشخص نمایید : 
+ می توانید چند مورد را انتخاب نمایید.
+بعد از انتخاب موارد مورد نظر ➡️ مرحله بعد را کلیک کنید.</t>
+  </si>
+  <si>
     <t>other_transfer_label_set</t>
   </si>
   <si>
     <t>Transfer method:</t>
   </si>
   <si>
+    <t>دریافت با:</t>
+  </si>
+  <si>
     <t>buying_euro_transfer</t>
   </si>
   <si>
     <t>specify how to transfer euros:</t>
   </si>
   <si>
-    <t>specify how to transger euros:</t>
+    <t>نحوه دریافت یورو را مشخص نمایید : 
+ می توانید چند مورد را انتخاب نمایید.</t>
   </si>
   <si>
     <t>euro_transfer_1</t>
@@ -2433,10 +2566,16 @@
     <t>arz digital</t>
   </si>
   <si>
+    <t>ارز دیجیتال</t>
+  </si>
+  <si>
     <t>euro_transfer_7</t>
   </si>
   <si>
     <t>by person</t>
+  </si>
+  <si>
+    <t>حضوری_نقدی</t>
   </si>
   <si>
     <t>euro_transfer_8</t>
@@ -2458,11 +2597,13 @@
 [description]</t>
   </si>
   <si>
-    <t>💠✅️️️️ خرید_یورو# ✅️️️️💠
+    <t xml:space="preserve">💠✅️️️️ #خرید_یورو ✅️️️️💠
 Euros: [euros]
 pricing: [toman_per_euro]
 Payment methods: [payment_methods]
-[description]</t>
+[description]
+⚠️صحت آگهی های خرید و فروش یورو صرفاً بر عهده آگهی دهنده است و AustriaBazar هیچ گونه مسئولیتی در قبال کلاهبرداری های احتمالی قبول نمی کند. لطفا با هوشیاری و احتیاط کامل اقدام به خرید و فروش ارز نمایید.
+</t>
   </si>
   <si>
     <t>buying_euro_user_view_ad</t>
@@ -2548,13 +2689,26 @@
     <t>how many euros do you want to sell</t>
   </si>
   <si>
+    <t>چند یورو می خواهید بفروشید ؟
+ (فقط عدد وارد کنید مانند : 500)</t>
+  </si>
+  <si>
     <t>selling_euro_tomans</t>
   </si>
   <si>
     <t>how many tomans do you want to sell each euro?</t>
   </si>
   <si>
+    <t>هر یورو را چند تومان می خواهید بفروشید ؟
+(فقط عدد وارد کنید مانند : 53500)</t>
+  </si>
+  <si>
     <t>selling_euro_transfer</t>
+  </si>
+  <si>
+    <t>نحوه انتقال یورو را مشخص نمایید : 
+ می توانید چند مورد را انتخاب نمایید.
+بعد از انتخاب موارد مورد نظر ➡️ مرحله بعد را کلیک کنید.</t>
   </si>
   <si>
     <t>selling_euro_user_preview</t>
@@ -2567,11 +2721,13 @@
 [description]</t>
   </si>
   <si>
-    <t>💠✅️️️️ فروش_یورو# ✅️️️️💠
+    <t xml:space="preserve">💠✅️️️️ #فروش_یورو ✅️️️️💠
 Euros: [euros]
 pricing: [toman_per_euro]
 Payment methods: [payment_methods]
-[description]</t>
+[description]
+⚠️صحت آگهی های خرید و فروش یورو صرفاً بر عهده آگهی دهنده است و AustriaBazar هیچ گونه مسئولیتی در قبال کلاهبرداری های احتمالی قبول نمی کند. لطفا با هوشیاری و احتیاط کامل اقدام به خرید و فروش ارز نمایید.
+</t>
   </si>
   <si>
     <t>selling_euro_user_view_ad</t>
@@ -2647,10 +2803,17 @@
     <t>services_t2</t>
   </si>
   <si>
+    <t>عنوان خدمات را بنویسید: 
+مانند (آموزش زبان ، تهیه کیک ، آرایشگاه)</t>
+  </si>
+  <si>
     <t>services_service_name_label</t>
   </si>
   <si>
     <t xml:space="preserve">Service: </t>
+  </si>
+  <si>
+    <t>💬عنوان خدمات:</t>
   </si>
   <si>
     <t>services_user_preview</t>
@@ -2780,7 +2943,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2840,6 +3003,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4515,35 +4684,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4553,46 +4722,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -4833,35 +5002,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4871,46 +5040,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -5146,35 +5315,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -5184,46 +5353,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -5459,13 +5628,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5475,24 +5644,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5502,24 +5671,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -5529,24 +5698,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -5556,24 +5725,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>487</v>
+        <v>509</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -5583,24 +5752,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>488</v>
+        <v>511</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>491</v>
+        <v>515</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5610,24 +5779,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>493</v>
+        <v>518</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>495</v>
+        <v>521</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -5637,35 +5806,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>497</v>
+        <v>524</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>499</v>
+        <v>527</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>501</v>
+        <v>530</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -5675,46 +5844,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>503</v>
+        <v>533</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>505</v>
+        <v>536</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>507</v>
+        <v>539</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>509</v>
+        <v>542</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -5724,46 +5893,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>512</v>
+        <v>545</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -5839,13 +6008,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5855,24 +6024,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>474</v>
+        <v>491</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5882,24 +6051,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -5909,24 +6078,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>481</v>
+        <v>500</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>483</v>
+        <v>503</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -5936,24 +6105,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>485</v>
+        <v>506</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>487</v>
+        <v>509</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -5963,24 +6132,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>491</v>
+        <v>515</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5990,24 +6159,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>493</v>
+        <v>518</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>495</v>
+        <v>521</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -6017,35 +6186,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>497</v>
+        <v>524</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>499</v>
+        <v>527</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>501</v>
+        <v>530</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -6055,46 +6224,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>503</v>
+        <v>533</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>505</v>
+        <v>536</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>507</v>
+        <v>539</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>509</v>
+        <v>542</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -6104,46 +6273,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -6219,13 +6388,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6235,24 +6404,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>560</v>
+        <v>595</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>561</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>562</v>
+        <v>597</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>563</v>
+        <v>598</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6267,46 +6436,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -6347,13 +6516,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6363,24 +6532,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>583</v>
+        <v>619</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6395,46 +6564,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>585</v>
+        <v>622</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>587</v>
+        <v>625</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>588</v>
+        <v>627</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>589</v>
+        <v>628</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>591</v>
+        <v>631</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -6444,112 +6613,112 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>594</v>
+        <v>634</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>595</v>
+        <v>636</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>598</v>
+        <v>639</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>598</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>599</v>
+        <v>640</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>600</v>
+        <v>641</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>600</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>601</v>
+        <v>642</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>604</v>
+        <v>645</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>604</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>605</v>
+        <v>646</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>606</v>
+        <v>647</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>608</v>
+        <v>650</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>609</v>
+        <v>652</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>610</v>
+        <v>653</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
@@ -6559,46 +6728,46 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>614</v>
+        <v>656</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>615</v>
+        <v>658</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>616</v>
+        <v>659</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>618</v>
+        <v>661</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>619</v>
+        <v>662</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>620</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>621</v>
+        <v>664</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>622</v>
+        <v>665</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -6639,13 +6808,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>624</v>
+        <v>667</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>625</v>
+        <v>668</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>626</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6655,24 +6824,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>627</v>
+        <v>670</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>629</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>630</v>
+        <v>673</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>631</v>
+        <v>674</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6682,24 +6851,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>632</v>
+        <v>676</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>633</v>
+        <v>677</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>594</v>
+      <c r="C8" s="11" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -6709,46 +6878,46 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>637</v>
+        <v>682</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>638</v>
+        <v>684</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>636</v>
+        <v>682</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>639</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>640</v>
+        <v>686</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>641</v>
+        <v>687</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>643</v>
+        <v>689</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>644</v>
+        <v>690</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>645</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -6789,13 +6958,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>646</v>
+        <v>692</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>647</v>
+        <v>693</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6805,35 +6974,35 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>563</v>
+        <v>598</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>653</v>
+        <v>700</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>654</v>
+        <v>701</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
@@ -6843,46 +7012,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -12116,85 +12285,85 @@
       <c r="B9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
@@ -13415,13 +13584,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -13431,24 +13600,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -13463,24 +13632,24 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -13490,24 +13659,24 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -13517,24 +13686,24 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
@@ -13544,24 +13713,24 @@
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
@@ -13571,13 +13740,13 @@
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -13586,38 +13755,68 @@
       <c r="C21" s="11"/>
     </row>
     <row r="22" ht="21.0" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="A26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="14"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="14"/>
     </row>
     <row r="29" ht="21.0" customHeight="1">
@@ -13701,13 +13900,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -13722,90 +13921,90 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -13815,244 +14014,244 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" ht="21.0" customHeight="1">
@@ -14062,24 +14261,24 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" ht="21.0" customHeight="1">
@@ -14089,497 +14288,497 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" ht="21.0" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" ht="21.0" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" ht="21.0" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="76" ht="21.0" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" ht="21.0" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" ht="21.0" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" ht="21.0" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" ht="21.0" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" ht="21.0" customHeight="1">
       <c r="A81" s="17" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" ht="21.0" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" ht="21.0" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" ht="21.0" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" ht="21.0" customHeight="1">
@@ -14589,46 +14788,46 @@
     </row>
     <row r="86" ht="21.0" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" ht="21.0" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" ht="21.0" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" ht="21.0" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -14669,35 +14868,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -14707,46 +14906,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -14987,35 +15186,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15025,46 +15224,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -15254,46 +15453,46 @@
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
@@ -15339,35 +15538,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15377,46 +15576,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -15657,35 +15856,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15695,46 +15894,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">

--- a/STR.xlsx
+++ b/STR.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="720">
   <si>
     <t>Variable (NO EDIT)</t>
   </si>
@@ -185,6 +185,13 @@
   </si>
   <si>
     <t>Please subscribe to our channels first:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">♾️ کاربر عزیز سلام👋. به ربات نیازمندی های Austria Bazar خوش آمدید. 🤩
+✅ توجه داشته باشید که آگهی های شما پس از تایید در کانال AustriaBazar@ منتشر خواهد شد. لطفا با معرفی ما به دوستان خود از این فعالیت حمایت کنید.
+🔴 تایید صحت آگهی ها و درخواست های ثبت شده در AustriaBazar به عهده کاربران عزیز می باشد و AustriaBazar هیچگونه مسئولیتی را در قبال آگهی ها نمی پذیرد.
+🌐 خدمت رسانی به هم وطنان و هم زبانان عزیز از افتخارات ماست.
+🆔 @Austriabazar </t>
   </si>
   <si>
     <t>reason_t</t>
@@ -437,6 +444,15 @@
     <t>هیچ آگهی در این دسته ندارید ⭕️</t>
   </si>
   <si>
+    <t>advertiser_text</t>
+  </si>
+  <si>
+    <t>Advertiser</t>
+  </si>
+  <si>
+    <t>آگهی دهنده</t>
+  </si>
+  <si>
     <t>rent_btn</t>
   </si>
   <si>
@@ -751,7 +767,7 @@
   </si>
   <si>
     <t>📅 تاریخ شروع مورد نظرتان را به میلادی وارد نمایید : 
-فرمت : dd/mm/yyyy مثال : 28/11/2023</t>
+فرمت : dd/mm/yyyy مثال : [automatic_tomorrow_date]</t>
   </si>
   <si>
     <t>rent_end_date</t>
@@ -762,7 +778,7 @@
   </si>
   <si>
     <t>📅 تاریخ پایان مورد نظرتان را به میلادی وارد نمایید : 
-فرمت : dd/mm/yyyy مثال : 28/11/2023</t>
+فرمت : dd/mm/yyyy مثال : [automatic_tomorrow_date]</t>
   </si>
   <si>
     <t>rent_contract_status</t>
@@ -1047,7 +1063,7 @@
     <t xml:space="preserve">Price: </t>
   </si>
   <si>
-    <t>قیمت:</t>
+    <t>💰 قیمت:</t>
   </si>
   <si>
     <t>description_label</t>
@@ -1155,7 +1171,7 @@
     <t>👁 Price:</t>
   </si>
   <si>
-    <t>👁 قيمت:</t>
+    <t>💰 قيمت:</t>
   </si>
   <si>
     <t>euros_per</t>
@@ -2385,6 +2401,12 @@
 مانند (فروشنده، ناخن کار، تعمیرکار)</t>
   </si>
   <si>
+    <t>needs_needs_name_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Needs Name: </t>
+  </si>
+  <si>
     <t>needs_user_preview</t>
   </si>
   <si>
@@ -2506,9 +2528,8 @@
     <t>Enter Transfer method:</t>
   </si>
   <si>
-    <t>نحوه دریافت یورو را مشخص نمایید : 
- می توانید چند مورد را انتخاب نمایید.
-بعد از انتخاب موارد مورد نظر ➡️ مرحله بعد را کلیک کنید.</t>
+    <t>نحوه دریافت یورو را بنویسید :
+بعد از نوشتن موارد مورد نظر (➡️ مرحله بعد) را کلیک کنید.</t>
   </si>
   <si>
     <t>other_transfer_label_set</t>
@@ -2517,7 +2538,8 @@
     <t>Transfer method:</t>
   </si>
   <si>
-    <t>دریافت با:</t>
+    <t>می توانید روش دریافت بعدی را تایپ نمایید یا (به ➡️ مرحله) بعد بروید.
+دریافت با:</t>
   </si>
   <si>
     <t>buying_euro_transfer</t>
@@ -4684,35 +4706,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -4722,46 +4744,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -5002,35 +5024,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -5040,46 +5062,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -5315,35 +5337,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -5353,46 +5375,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -5628,13 +5650,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -5644,24 +5666,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -5671,24 +5693,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -5698,24 +5720,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -5725,24 +5747,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -5752,24 +5774,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -5779,24 +5801,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -5806,35 +5828,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -5844,46 +5866,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -5893,46 +5915,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -6008,13 +6030,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6024,24 +6046,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6051,24 +6073,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -6078,24 +6100,24 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -6105,24 +6127,24 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
@@ -6132,24 +6154,24 @@
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
@@ -6159,24 +6181,24 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -6186,35 +6208,35 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
@@ -6224,46 +6246,46 @@
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
@@ -6273,46 +6295,46 @@
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
@@ -6388,13 +6410,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6404,30 +6426,36 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7"/>
@@ -6436,46 +6464,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -6516,13 +6544,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6532,24 +6560,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6564,46 +6592,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
@@ -6613,112 +6641,112 @@
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
@@ -6728,46 +6756,46 @@
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -6808,13 +6836,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6824,24 +6852,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -6851,24 +6879,24 @@
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
@@ -6878,46 +6906,46 @@
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -6958,13 +6986,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -6974,35 +7002,35 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
@@ -7012,46 +7040,46 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -12274,96 +12302,96 @@
       <c r="B8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
@@ -13584,10 +13612,10 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>32</v>
@@ -13600,24 +13628,24 @@
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
@@ -13632,24 +13660,24 @@
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -13659,24 +13687,24 @@
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -13686,24 +13714,24 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
@@ -13713,24 +13741,24 @@
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
@@ -13740,13 +13768,13 @@
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
@@ -13756,57 +13784,57 @@
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
@@ -13815,9 +13843,15 @@
       <c r="C27" s="14"/>
     </row>
     <row r="28" ht="21.0" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="14"/>
+      <c r="A28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="13"/>
@@ -13827,7 +13861,7 @@
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="13"/>
@@ -13900,13 +13934,13 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
@@ -13921,90 +13955,90 @@
     </row>
     <row r="5" ht="21.0" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="21.0" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="21.0" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" ht="21.0" customHeight="1">
@@ -14014,244 +14048,244 @@
     </row>
     <row r="14" ht="21.0" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" ht="21.0" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" ht="21.0" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" ht="21.0" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" ht="21.0" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" ht="21.0" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" ht="21.0" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" ht="21.0" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" ht="21.0" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" ht="21.0" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" ht="21.0" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" ht="21.0" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" ht="21.0" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" ht="21.0" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" ht="21.0" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" ht="21.0" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" ht="21.0" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" ht="21.0" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" ht="21.0" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" ht="21.0" customHeight="1">
@@ -14261,24 +14295,24 @@
     </row>
     <row r="37" ht="21.0" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" ht="21.0" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" ht="21.0" customHeight="1">
@@ -14288,497 +14322,497 @@
     </row>
     <row r="40" ht="21.0" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" ht="21.0" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" ht="21.0" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" ht="21.0" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" ht="21.0" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" ht="21.0" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="21.0" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" ht="21.0" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" ht="21.0" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" ht="21.0" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" ht="21.0" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" ht="21.0" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" ht="21.0" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" ht="21.0" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" ht="21.0" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" ht="21.0" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" ht="21.0" customHeight="1">
       <c r="A62" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" ht="21.0" customHeight="1">
       <c r="A63" s="16" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" ht="21.0" customHeight="1">
       <c r="A64" s="16" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" ht="21.0" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" ht="21.0" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="67" ht="21.0" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" ht="21.0" customHeight="1">
       <c r="A68" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" ht="21.0" customHeight="1">
       <c r="A69" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" ht="21.0" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" ht="21.0" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" ht="21.0" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" ht="21.0" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" ht="21.0" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" ht="21.0" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" ht="21.0" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" ht="21.0" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" ht="21.0" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" ht="21.0" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" ht="21.0" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" ht="21.0" customHeight="1">
       <c r="A81" s="17" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" ht="21.0" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" ht="21.0" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="84" ht="21.0" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85" ht="21.0" customHeight="1">
@@ -14788,46 +14822,46 @@
     </row>
     <row r="86" ht="21.0" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" ht="21.0" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" ht="21.0" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" ht="21.0" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -14868,35 +14902,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -14906,46 +14940,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -15186,35 +15220,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15224,46 +15258,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -15453,46 +15487,46 @@
     </row>
     <row r="47" ht="21.0" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" ht="21.0" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" ht="21.0" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" ht="21.0" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" ht="21.0" customHeight="1">
@@ -15538,35 +15572,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15576,46 +15610,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
@@ -15856,35 +15890,35 @@
     </row>
     <row r="2" ht="21.0" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" ht="21.0" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" ht="21.0" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="21.0" customHeight="1">
@@ -15894,46 +15928,46 @@
     </row>
     <row r="6" ht="21.0" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" ht="21.0" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" ht="21.0" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" ht="21.0" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" ht="21.0" customHeight="1">
